--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="总体说明" sheetId="1" r:id="rId1"/>
     <sheet name="UI表现逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="装备类道具" sheetId="3" r:id="rId3"/>
-    <sheet name="宝箱类道具" sheetId="4" r:id="rId4"/>
-    <sheet name="碎片类道具" sheetId="5" r:id="rId5"/>
-    <sheet name="数据结构" sheetId="6" r:id="rId6"/>
+    <sheet name="消耗类道具" sheetId="7" r:id="rId4"/>
+    <sheet name="宝箱类道具" sheetId="4" r:id="rId5"/>
+    <sheet name="碎片类道具" sheetId="5" r:id="rId6"/>
+    <sheet name="数据结构" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="610">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱切页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>碎片切页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tips使用样式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>二、道具操作说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,10 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>子集：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -890,14 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>子集</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>根据type类型添加的结构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1112,10 +1093,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确定具体道具内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统提示玩家操作成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1144,10 +1121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>二.宝箱类道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>定义：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1226,10 +1199,6 @@
     <t>可使用道具</t>
   </si>
   <si>
-    <t>一.消耗类道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>碎片类道具</t>
   </si>
   <si>
@@ -1699,10 +1668,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强化提升的数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>镶嵌物品名称+具体属性文案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1922,10 +1887,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击背包中未装备的装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1947,10 +1908,6 @@
   </si>
   <si>
     <t>显示内容</t>
-  </si>
-  <si>
-    <t>只显示该装备与现已装备装备的属性对比的趋势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表示有所下降</t>
@@ -2107,337 +2064,409 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>显示位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item id</t>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=金币，2=钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性调用Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引装备基础属性（见后）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备套装属性</t>
+  </si>
+  <si>
+    <t>装备套装属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引装备基础属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引装备套装属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置中的唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon贴图资源位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖店货币类型</t>
+  </si>
+  <si>
+    <t>卖店价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店销售货币类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店销售价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换道具ID</t>
+  </si>
+  <si>
+    <t>兑换道具个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个存储位置能够放置的最大数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性调用Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp,hp,pl…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引奖励列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combineId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成道具ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可配置项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具配置表结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备基础属性</t>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilityId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分怪物或角色的装备（怪物=1/角色=2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthenLevel</t>
+  </si>
+  <si>
+    <t>最大可强化等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名称（配置方便对应）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化装备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-99999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0%-100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装调用ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表</t>
+  </si>
+  <si>
+    <t>具体掉落列表配置方式同副本通用掉落 详见 副本结算文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见副本结算文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物=1/角色=2</t>
+  </si>
+  <si>
     <t>2. 非装备道具操作界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>显示位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type</t>
-  </si>
-  <si>
-    <t>item id</t>
-  </si>
-  <si>
-    <t>sub_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=金币，2=钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性调用Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引装备基础属性（见后）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备套装属性</t>
-  </si>
-  <si>
-    <t>装备套装属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引装备基础属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引装备套装属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具配置中的唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon贴图资源位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴图位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子集</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖店货币类型</t>
-  </si>
-  <si>
-    <t>卖店价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店销售货币类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店销售价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换道具ID</t>
-  </si>
-  <si>
-    <t>兑换道具个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个存储位置能够放置的最大数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性调用Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abilityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励列表ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp,hp,pl…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引奖励列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>needValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>combineId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成道具ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可配置项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具配置表结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备基础属性</t>
-  </si>
-  <si>
-    <t>equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abilityId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区分怪物或角色的装备（怪物=1/角色=2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>strengthenLevel</t>
-  </si>
-  <si>
-    <t>最大可强化等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备名称（配置方便对应）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化装备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部位</t>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-99999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0%-100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套装调用ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套装ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套装名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励列表</t>
-  </si>
-  <si>
-    <t>具体掉落列表配置方式同副本通用掉落 详见 副本结算文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>见副本结算文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物=1/角色=2</t>
+    <t>同非装备道具操作界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱类道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增长属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品切页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips使用样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物装备：每种怪物可装备的的装备为固定线性成长类装备（如绿装+10后可进化为蓝装），具体装备个数为4-6个，每种怪物的装备固定指每种怪物可装备的装备为唯一（进化关系的不算）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化提升的数值，当已强化至该阶段满时提示为+Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固定数值/Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家在怪物装备界面进行怪物装备选择时,只会选择出当前怪物可装备的装备供玩家选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只显示该装备与现已装备装备的基础属性（包括强化附加属性）对比的趋势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定具体道具内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先进行使用道具判断</t>
+  </si>
+  <si>
+    <t>首先进行使用道具判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体说明切页 50行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI表现逻辑 247行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2618,20 +2647,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
@@ -2679,13 +2694,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
@@ -2702,7 +2710,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2724,6 +2732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,7 +2822,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2914,15 +2928,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2983,14 +2988,71 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2998,61 +3060,25 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3122,13 +3148,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>649818</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>57212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85787</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3138,7 +3164,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2707218" y="10534712"/>
+          <a:off x="2707218" y="10325162"/>
           <a:ext cx="3922182" cy="2543175"/>
           <a:chOff x="5259918" y="11087162"/>
           <a:chExt cx="3922182" cy="2543175"/>
@@ -4782,7 +4808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="24469725"/>
+          <a:off x="2924175" y="26984325"/>
           <a:ext cx="416653" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5308,13 +5334,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>95253</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5322,9 +5348,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6400800" y="25831800"/>
-          <a:ext cx="1419225" cy="19053"/>
+        <a:xfrm>
+          <a:off x="6400800" y="28365454"/>
+          <a:ext cx="1828800" cy="19046"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6146,8 +6172,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -6159,7 +6185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="24517350"/>
+          <a:off x="3486150" y="27031950"/>
           <a:ext cx="466794" cy="334451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6441,13 +6467,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6503,13 +6529,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6557,13 +6583,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6573,7 +6599,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2162175" y="52911375"/>
+          <a:off x="2162175" y="53540025"/>
           <a:ext cx="3409950" cy="1504950"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
@@ -6744,13 +6770,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6787,6 +6813,152 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="29727526"/>
+          <a:ext cx="904875" cy="85724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="28546424"/>
+          <a:ext cx="1143000" cy="199977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="文本框 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="27060525"/>
+          <a:ext cx="466794" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>品质</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8180,15 +8352,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>75605</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523467</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>18744</xdr:rowOff>
+      <xdr:rowOff>142555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8205,8 +8377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="1971675"/>
-          <a:ext cx="4761905" cy="2447619"/>
+          <a:off x="2057400" y="1943100"/>
+          <a:ext cx="3266667" cy="2561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8219,6 +8391,49 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75684</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="1533525"/>
+          <a:ext cx="4123809" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8526,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P140"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8535,12 +8750,12 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -8548,27 +8763,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -8576,141 +8791,145 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>217</v>
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
+        <v>597</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="K12" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="F15" s="3" t="s">
+      <c r="K14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F15" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>216</v>
+        <v>24</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -8722,30 +8941,29 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="D22" s="2" t="s">
-        <v>33</v>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="3"/>
@@ -8753,274 +8971,251 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="F24" s="2" t="s">
-        <v>299</v>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E27" s="7"/>
+      <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E27" s="7" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E28" s="7"/>
-      <c r="F28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="F30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="G31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F33" s="2" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D35" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E36" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E39" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="F43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E44" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C45" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D46" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E47" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D48" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C66" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D67" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E68" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D36" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E37" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E40" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F41" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G42" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E43" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F44" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E45" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C46" s="33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D47" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E48" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D49" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C67" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D68" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F68" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E72" s="2" t="s">
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F73" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F73" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F74" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F76" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F78" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G80" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F78" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G80" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H80" s="2">
         <v>1</v>
@@ -9028,7 +9223,7 @@
     </row>
     <row r="81" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G81" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -9036,7 +9231,7 @@
     </row>
     <row r="82" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G82" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H82" s="2">
         <v>3</v>
@@ -9044,7 +9239,7 @@
     </row>
     <row r="83" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G83" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H83" s="2">
         <v>4</v>
@@ -9052,7 +9247,7 @@
     </row>
     <row r="84" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G84" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H84" s="2">
         <v>5</v>
@@ -9060,7 +9255,7 @@
     </row>
     <row r="85" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G85" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H85" s="2">
         <v>6</v>
@@ -9068,59 +9263,59 @@
     </row>
     <row r="86" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G87" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -9129,10 +9324,10 @@
     <row r="93" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -9140,15 +9335,15 @@
     </row>
     <row r="94" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F94" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G95" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -9161,21 +9356,21 @@
     </row>
     <row r="96" spans="4:16" x14ac:dyDescent="0.15">
       <c r="G96" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -9183,138 +9378,138 @@
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="100" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="4:12" x14ac:dyDescent="0.15">
       <c r="E106" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D134" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E135" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D136" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E137" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G137" s="8"/>
     </row>
     <row r="138" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E138" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E139" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="4:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9325,10 +9520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O273"/>
+  <dimension ref="B1:U276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9338,7 +9533,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -9346,331 +9541,331 @@
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="D8" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="D9" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="E12" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="F14" s="12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" s="13">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F17" s="13">
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F18" s="13">
         <v>4</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F19" s="13">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F20" s="13">
         <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E23" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E25" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D29" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E30" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E31" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E36" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E37" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E41" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E44" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F45" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C50" s="5" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I53" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I55" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I58" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I62" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D64" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E65" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="38"/>
+        <v>315</v>
+      </c>
+      <c r="F65" s="35"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D66" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="34"/>
@@ -9679,7 +9874,7 @@
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E67" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="5"/>
@@ -9687,7 +9882,7 @@
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -9696,78 +9891,78 @@
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E69" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E70" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E71" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E73" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F75" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D79" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E80" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E81" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E82" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E83" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -9776,7 +9971,7 @@
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E84" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -9785,82 +9980,82 @@
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D86" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E87" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E88" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E89" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E94" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F94" s="10"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E95" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D97" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E98" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F99" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="4:15" x14ac:dyDescent="0.15">
       <c r="O101" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F103" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -9876,14 +10071,14 @@
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="O104" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -9907,7 +10102,7 @@
     </row>
     <row r="108" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -9918,7 +10113,7 @@
     </row>
     <row r="109" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F109" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -9929,7 +10124,7 @@
     <row r="110" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -9938,7 +10133,7 @@
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F111" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -9948,925 +10143,963 @@
     </row>
     <row r="112" spans="4:15" x14ac:dyDescent="0.15">
       <c r="G112" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F113" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G114" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D115" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E116" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D117" s="5" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E118" s="2" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C120" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B122" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B124" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B125" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B126" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.15">
       <c r="M128" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B129" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B131" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B135" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B140" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B141" s="42"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B142" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C145" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D145" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="E145" s="84"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="84"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="84"/>
+      <c r="J145" s="84"/>
+      <c r="K145" s="84"/>
+      <c r="L145" s="84"/>
+      <c r="M145" s="84"/>
+      <c r="N145" s="84"/>
+      <c r="O145" s="84"/>
+      <c r="P145" s="84"/>
+      <c r="Q145" s="84"/>
+      <c r="R145" s="84"/>
+      <c r="S145" s="84"/>
+      <c r="T145" s="84"/>
+      <c r="U145" s="84"/>
+    </row>
+    <row r="147" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D147" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E148" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B130" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B131" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B135" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B140" s="45" t="s">
+      <c r="F148" s="35"/>
+    </row>
+    <row r="149" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D149" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B141" s="45"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B142" s="2" t="s">
+      <c r="F149" s="43"/>
+    </row>
+    <row r="150" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E150" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D146" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E147" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F147" s="38"/>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D148" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F148" s="46"/>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E149" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F149" s="46"/>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D150" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E151" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>328</v>
-      </c>
+      <c r="F150" s="43"/>
+    </row>
+    <row r="151" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D151" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="152" spans="3:21" x14ac:dyDescent="0.15">
       <c r="E152" s="5" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:21" x14ac:dyDescent="0.15">
       <c r="E153" s="5" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E154" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F154" s="2" t="s">
+    <row r="154" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E154" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E155" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="156" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="F156" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="157" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="D157" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E158" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E159" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="E160" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F155" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D156" s="2" t="s">
+    <row r="161" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D161" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E162" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E157" s="2" t="s">
+    <row r="163" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D163" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E164" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E165" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E158" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E159" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D160" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="161" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E161" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="162" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D162" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="163" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E163" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="164" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E164" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F164" s="10"/>
-    </row>
-    <row r="165" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E165" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>406</v>
-      </c>
+      <c r="F165" s="10"/>
     </row>
     <row r="166" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D166" s="2" t="s">
-        <v>376</v>
+      <c r="E166" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E167" s="2" t="s">
-        <v>407</v>
+      <c r="D167" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E168" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F168" s="10"/>
+      <c r="E168" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="169" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D169" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="E169" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" s="10"/>
     </row>
     <row r="170" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E170" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F170" s="47"/>
+      <c r="D170" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="171" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E171" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F171" s="44"/>
+    </row>
+    <row r="172" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E172" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F173" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E174" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F175" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="G176" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="172" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F172" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="G172" s="23" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="173" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E173" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="174" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F174" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="175" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="G175" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="176" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D176" s="2" t="s">
-        <v>378</v>
+      <c r="J176" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E177" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F177" s="47"/>
+      <c r="D177" s="2" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E178" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="F178" s="44"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E179" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>414</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D180" s="2" t="s">
-        <v>379</v>
+      <c r="F180" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E181" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F181" s="47"/>
+      <c r="D181" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E182" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="F182" s="44"/>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F183" s="5" t="s">
+      <c r="E183" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F184" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G184" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="185" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E185" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="186" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F186" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="187" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D187" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E188" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F189" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G189" s="44"/>
+    </row>
+    <row r="190" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E190" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G183" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E184" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F185" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D186" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="187" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E187" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="188" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F188" s="2" t="s">
+      <c r="F190" s="45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="191" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F191" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G188" s="47"/>
-    </row>
-    <row r="189" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E189" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F189" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="190" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F190" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="191" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="G191" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="192" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G192" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F193" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="G193" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="194" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F194" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="195" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G195" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I195" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="J195" s="10" t="s">
-        <v>440</v>
+      <c r="F195" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G196" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="H196" s="23"/>
-      <c r="I196" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="J196" s="51" t="s">
-        <v>443</v>
+      <c r="G196" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I196" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="197" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E197" s="2" t="s">
-        <v>444</v>
+      <c r="G197" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="H197" s="23"/>
+      <c r="I197" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="J197" s="48" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F198" s="2" t="s">
-        <v>445</v>
+      <c r="E198" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F199" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G200" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>448</v>
+      <c r="F200" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="201" spans="5:10" x14ac:dyDescent="0.15">
       <c r="G201" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F202" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I202" s="52"/>
+      <c r="G202" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="203" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G203" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="H203" s="53" t="s">
-        <v>452</v>
-      </c>
-      <c r="I203" s="53" t="s">
-        <v>453</v>
-      </c>
+      <c r="F203" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I203" s="49"/>
     </row>
     <row r="204" spans="5:10" x14ac:dyDescent="0.15">
       <c r="G204" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H204" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="I204" s="50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="205" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="G205" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H205" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="I205" s="51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="206" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="F206" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="207" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="G207" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="208" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E208" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="209" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F209" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H204" s="54" t="s">
+    </row>
+    <row r="210" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F210" s="5"/>
+      <c r="G210" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I204" s="54" t="s">
+    </row>
+    <row r="211" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F211" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="205" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F205" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="G205" s="2" t="s">
+      <c r="G211" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="212" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F212" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="G213" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="H213" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F214" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="215" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="G215" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="216" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="H216" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="217" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F217" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="206" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G206" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="207" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E207" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="208" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F208" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F209" s="5"/>
-      <c r="G209" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="210" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F210" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="211" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F211" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="212" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="G212" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="H212" s="23" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F213" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="214" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="G214" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="215" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="H215" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="216" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F216" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-    </row>
-    <row r="217" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F217" s="5"/>
-      <c r="G217" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="H217" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="I217" s="10"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
     </row>
     <row r="218" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F218" s="5"/>
       <c r="G218" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="H218" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="I218" s="53" t="s">
-        <v>471</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="H218" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="I218" s="10"/>
     </row>
     <row r="219" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D219" s="45" t="s">
-        <v>380</v>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H219" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="I219" s="50" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="220" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E220" s="2" t="s">
-        <v>472</v>
+      <c r="D220" s="42" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E221" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E222" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D223" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="224" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E224" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F224" s="10"/>
+    </row>
+    <row r="225" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E225" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D226" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E227" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="228" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F228" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="229" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="G229" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="H230" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="231" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I231" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="232" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="H232" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="233" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I233" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="234" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E234" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="235" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F235" s="10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D222" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="223" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E223" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F223" s="10"/>
-    </row>
-    <row r="224" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E224" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="225" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D225" s="2" t="s">
+    <row r="236" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E236" s="52" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="226" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E226" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="227" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F227" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="228" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="G228" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="229" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="H229" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="230" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I230" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="231" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="H231" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="232" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I232" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="233" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E233" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="234" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F234" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="235" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E235" s="55" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="236" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F236" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
     <row r="237" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="G237" s="2" t="s">
-        <v>486</v>
+      <c r="F237" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="238" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G238" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="G239" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D240" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="241" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E241" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D242" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="243" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E243" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="244" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D244" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="245" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E245" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="247" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C247" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="J249" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="J251" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="K252" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="L252" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N252" s="53"/>
+    </row>
+    <row r="253" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="L253" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="255" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="K255" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L255" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="K257" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L257" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="239" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D239" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="240" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E240" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="241" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="D241" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="242" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="E242" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="244" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C244" s="2" t="s">
+    <row r="258" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J258" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="259" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="K259" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C260" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="246" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="J246" s="2" t="s">
+    <row r="262" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J262" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="K246" s="2" t="s">
+      <c r="K262" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="248" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="J248" s="2" t="s">
+    <row r="263" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J263" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="249" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="K249" s="5" t="s">
+      <c r="K263" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="L249" s="2" t="s">
+    </row>
+    <row r="264" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="K264" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="265" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="K265" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="N249" s="56"/>
-    </row>
-    <row r="250" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="L250" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="252" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="K252" s="2" t="s">
+    </row>
+    <row r="266" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L266" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="L252" s="2" t="s">
+    </row>
+    <row r="267" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L267" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="268" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="M268" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="254" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="K254" s="2" t="s">
+    <row r="269" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="M269" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="L254" s="2" t="s">
+    </row>
+    <row r="270" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="M270" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="255" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="J255" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="K255" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="256" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="K256" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="257" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C257" s="5" t="s">
+    <row r="271" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="K271" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="J259" s="2" t="s">
+    <row r="272" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="L272" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="K259" s="2" t="s">
+    </row>
+    <row r="273" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K273" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="260" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="J260" s="2" t="s">
+      <c r="L273" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K260" s="2" t="s">
+    </row>
+    <row r="274" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="L274" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="261" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="K261" s="2" t="s">
+    <row r="275" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K275" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="L275" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="262" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="K262" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="263" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="L263" s="2" t="s">
+    <row r="276" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="L276" s="2" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="264" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="L264" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="265" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="M265" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="266" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="M266" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="267" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="M267" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="268" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="K268" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="269" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="L269" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="270" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="K270" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="L270" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="271" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="L271" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="272" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="K272" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="L272" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L273" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -10878,10 +11111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H96"/>
+  <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10894,283 +11127,283 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E5" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F6" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F7" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F8" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F9" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F10" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F11" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F13" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F14" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F15" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E18" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F19" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E22" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F24" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F25" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F26" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F27" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F28" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F30" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F31" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F32" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -11178,34 +11411,34 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E38" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E39" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E40" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F40" s="5"/>
     </row>
@@ -11271,67 +11504,67 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E60" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D61" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E62" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D65" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E66" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E68" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -11339,7 +11572,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -11352,7 +11585,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -11360,107 +11593,120 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D71" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E73" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D76" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D80" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E81" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D82" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E83" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E81" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D82" s="2" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E84" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C86" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E83" s="2" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D87" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E84" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C86" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D87" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D93" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E93" s="37"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D90" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F90" s="85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D93" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="71"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D94" s="25"/>
       <c r="E94" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D95" s="25"/>
       <c r="E95" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D96" s="28"/>
       <c r="E96" s="29" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="85" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -11468,6 +11714,10 @@
     <mergeCell ref="D93:E93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C103" location="UI表现逻辑!A247" display="UI表现逻辑 247行"/>
+    <hyperlink ref="F90" location="总体说明!A50" display="总体说明切页 50行"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11475,10 +11725,580 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K60"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="85" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G29" location="总体说明!A50" display="总体说明切页 50行"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11488,282 +12308,157 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E22" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D23" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D27" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E8" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E25" s="2" t="s">
+      <c r="G27" s="85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D28" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="2" t="s">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E30" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D29" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E31" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D31" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E32" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D33" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D34" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E35" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F36" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F37" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E38" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F39" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C43" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E45" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E46" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C47" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D48" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E49" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D50" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E33" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C53" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D54" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D55" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E56" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="31"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E57" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D58" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E59" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E60" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G27" location="总体说明!A50" display="总体说明切页 50行"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11773,110 +12468,116 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D4" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E8" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F9" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D30" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+      <c r="G30" s="85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E32" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F33" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F34" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F35" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E36" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F37" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G30" location="总体说明!A50" display="总体说明切页 50行"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11894,534 +12595,530 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B2" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="W2" s="75"/>
+      <c r="X2" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y2" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="82"/>
+    </row>
+    <row r="3" spans="1:27" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="U3" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>555</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="X3" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="U4" s="61" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="63" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="73" t="s">
-        <v>567</v>
-      </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z2" s="77" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA2" s="65"/>
-    </row>
-    <row r="3" spans="1:27" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+      <c r="V4" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="W4" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="X4" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z4" s="59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="64" t="s">
+      <c r="I5" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="E6" s="78" t="s">
+        <v>568</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>524</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="R3" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="T3" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="V3" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="W3" s="72" t="s">
-        <v>570</v>
-      </c>
-      <c r="X3" s="72" t="s">
-        <v>569</v>
-      </c>
-      <c r="Y3" s="75" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z3" s="68" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA3" s="68" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>556</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="O4" s="64" t="s">
-        <v>559</v>
-      </c>
-      <c r="P4" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q4" s="64" t="s">
+      <c r="J6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="R4" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="S4" s="64" t="s">
-        <v>561</v>
-      </c>
-      <c r="T4" s="64" t="s">
-        <v>564</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="V4" s="70" t="s">
-        <v>596</v>
-      </c>
-      <c r="W4" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="X4" s="72" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y4" s="75" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z4" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="AA4" s="68" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>525</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>528</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="E6" s="61" t="s">
-        <v>583</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="72"/>
+      <c r="E7" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="E8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="F8" s="60" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="E9" s="76" t="s">
+      <c r="A9" s="72"/>
+      <c r="E9" s="81" t="s">
         <v>20</v>
       </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" s="69" t="s">
-        <v>196</v>
+        <v>231</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>193</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="P13" s="80" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
+      <c r="A16" s="72"/>
       <c r="D16" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="81"/>
+      <c r="A17" s="68"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="81"/>
+      <c r="A18" s="68"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="81"/>
+      <c r="A19" s="68"/>
       <c r="J19" s="20"/>
       <c r="K19" s="5"/>
     </row>
@@ -12431,153 +13128,153 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="67" t="s">
-        <v>227</v>
+      <c r="B22" s="58" t="s">
+        <v>222</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>196</v>
+        <v>243</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>193</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M22" s="80" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="M22" s="67" t="s">
+        <v>207</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
+      <c r="A25" s="72"/>
       <c r="E25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -12593,7 +13290,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="20"/>
@@ -12605,7 +13302,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -12708,13 +13405,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="总体说明" sheetId="1" r:id="rId1"/>
-    <sheet name="UI表现逻辑" sheetId="2" r:id="rId2"/>
-    <sheet name="装备类道具" sheetId="3" r:id="rId3"/>
-    <sheet name="消耗类道具" sheetId="7" r:id="rId4"/>
-    <sheet name="宝箱类道具" sheetId="4" r:id="rId5"/>
-    <sheet name="碎片类道具" sheetId="5" r:id="rId6"/>
-    <sheet name="数据结构" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="目录" sheetId="9" r:id="rId1"/>
+    <sheet name="总体说明" sheetId="1" r:id="rId2"/>
+    <sheet name="UI表现逻辑" sheetId="2" r:id="rId3"/>
+    <sheet name="装备类道具" sheetId="3" r:id="rId4"/>
+    <sheet name="消耗类道具" sheetId="7" r:id="rId5"/>
+    <sheet name="宝箱类道具" sheetId="4" r:id="rId6"/>
+    <sheet name="碎片类道具" sheetId="5" r:id="rId7"/>
+    <sheet name="数据结构" sheetId="6" r:id="rId8"/>
+    <sheet name="自用" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="891">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3413,12 +3414,180 @@
     <t>若存在多个兑换道具则使用；分隔ID与个数|区分几个兑换道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>文档名称</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档目的</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标读者</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档状态</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(策划)</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中（策划）</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(QC)</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中(QC)</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>待3方</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定案</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档历史</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>知会同事</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记颜色</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订人</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.1</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.2</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关会议</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议日期</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与同事</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概要</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具基础逻辑</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具基础逻辑即UI表现说明</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">svn://10.21.2.47/gd/道具系统/道具基础逻辑.xlsx
+</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反馈回归</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化装备对比内容</t>
+  </si>
+  <si>
+    <t>配置需求材料时改为：|分割方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3693,6 +3862,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3738,7 +3938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3808,6 +4008,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3818,7 +4201,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4113,6 +4496,12 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4140,12 +4529,88 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11303,10 +11768,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="109" t="s">
+        <v>850</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>879</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="109" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="109" t="s">
+        <v>853</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="109" t="s">
+        <v>854</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="109"/>
+      <c r="B11" s="114" t="s">
+        <v>854</v>
+      </c>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116" t="s">
+        <v>855</v>
+      </c>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="109"/>
+      <c r="B12" s="118" t="s">
+        <v>856</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
+      <c r="B13" s="118" t="s">
+        <v>857</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="109"/>
+      <c r="B14" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="109"/>
+      <c r="B15" s="118" t="s">
+        <v>859</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>860</v>
+      </c>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="109"/>
+      <c r="B16" s="118" t="s">
+        <v>861</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="109"/>
+      <c r="B17" s="118" t="s">
+        <v>862</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="109"/>
+      <c r="B18" s="129" t="s">
+        <v>863</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>865</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>866</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>867</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>869</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>870</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110" t="s">
+        <v>871</v>
+      </c>
+      <c r="C22" s="133">
+        <v>42119</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>885</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>872</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>881</v>
+      </c>
+      <c r="G22" s="111"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="109"/>
+      <c r="B23" s="110" t="s">
+        <v>873</v>
+      </c>
+      <c r="C23" s="133">
+        <v>42129</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111" t="s">
+        <v>883</v>
+      </c>
+      <c r="H23" s="111" t="s">
+        <v>882</v>
+      </c>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="109"/>
+      <c r="B24" s="110" t="s">
+        <v>884</v>
+      </c>
+      <c r="C24" s="133">
+        <v>42130</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111" t="s">
+        <v>883</v>
+      </c>
+      <c r="H24" s="137" t="s">
+        <v>887</v>
+      </c>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="L24" s="138" t="s">
+        <v>888</v>
+      </c>
+      <c r="M24" s="138" t="s">
+        <v>889</v>
+      </c>
+      <c r="N24" s="138" t="s">
+        <v>890</v>
+      </c>
+      <c r="O24" s="110"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="111"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="137" t="s">
+        <v>886</v>
+      </c>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="109" t="s">
+        <v>874</v>
+      </c>
+      <c r="B27" s="110" t="s">
+        <v>865</v>
+      </c>
+      <c r="C27" s="111" t="s">
+        <v>875</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>876</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>877</v>
+      </c>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H24" location="总体说明!A124" display="配置需求材料时改为：|分割方式"/>
+    <hyperlink ref="H25" location="UI表现逻辑!A285" display="细化装备对比内容"/>
+    <hyperlink ref="L24" location="装备类道具!A118" display="位置2"/>
+    <hyperlink ref="M24" location="装备类道具!A137" display="位置3"/>
+    <hyperlink ref="N24" location="数据结构!Q1" display="位置4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T162"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J126" sqref="J125:J126"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11377,10 +12479,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="M12" s="98"/>
+      <c r="M12" s="100"/>
       <c r="N12" s="66"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -12538,70 +13640,70 @@
       </c>
     </row>
     <row r="124" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="E124" s="107" t="s">
+      <c r="E124" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="107" t="s">
+      <c r="F124" s="98" t="s">
         <v>835</v>
       </c>
-      <c r="G124" s="107"/>
-      <c r="H124" s="107" t="s">
+      <c r="G124" s="98"/>
+      <c r="H124" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="I124" s="107"/>
-      <c r="J124" s="107"/>
-      <c r="K124" s="107"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="107"/>
-      <c r="N124" s="107"/>
-      <c r="O124" s="107"/>
-      <c r="P124" s="107"/>
-      <c r="Q124" s="107"/>
-      <c r="R124" s="107"/>
-      <c r="S124" s="107"/>
-      <c r="T124" s="107"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98"/>
+      <c r="K124" s="98"/>
+      <c r="L124" s="98"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="98"/>
+      <c r="O124" s="98"/>
+      <c r="P124" s="98"/>
+      <c r="Q124" s="98"/>
+      <c r="R124" s="98"/>
+      <c r="S124" s="98"/>
+      <c r="T124" s="98"/>
     </row>
     <row r="125" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="E125" s="107"/>
-      <c r="F125" s="107"/>
-      <c r="G125" s="107" t="s">
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="H125" s="107"/>
-      <c r="I125" s="107" t="s">
+      <c r="H125" s="98"/>
+      <c r="I125" s="98" t="s">
         <v>841</v>
       </c>
-      <c r="J125" s="107"/>
-      <c r="K125" s="107"/>
-      <c r="L125" s="107"/>
-      <c r="M125" s="107"/>
-      <c r="N125" s="107"/>
-      <c r="O125" s="107"/>
-      <c r="P125" s="107"/>
-      <c r="Q125" s="107"/>
-      <c r="R125" s="107"/>
-      <c r="S125" s="107"/>
-      <c r="T125" s="107"/>
+      <c r="J125" s="98"/>
+      <c r="K125" s="98"/>
+      <c r="L125" s="98"/>
+      <c r="M125" s="98"/>
+      <c r="N125" s="98"/>
+      <c r="O125" s="98"/>
+      <c r="P125" s="98"/>
+      <c r="Q125" s="98"/>
+      <c r="R125" s="98"/>
+      <c r="S125" s="98"/>
+      <c r="T125" s="98"/>
     </row>
     <row r="126" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="E126" s="107"/>
-      <c r="F126" s="107"/>
-      <c r="G126" s="107" t="s">
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="H126" s="107"/>
-      <c r="I126" s="107"/>
-      <c r="J126" s="107"/>
-      <c r="K126" s="107"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="107"/>
-      <c r="N126" s="107"/>
-      <c r="O126" s="107"/>
-      <c r="P126" s="107"/>
-      <c r="Q126" s="107"/>
-      <c r="R126" s="107"/>
-      <c r="S126" s="107"/>
-      <c r="T126" s="107"/>
+      <c r="H126" s="98"/>
+      <c r="I126" s="98"/>
+      <c r="J126" s="98"/>
+      <c r="K126" s="98"/>
+      <c r="L126" s="98"/>
+      <c r="M126" s="98"/>
+      <c r="N126" s="98"/>
+      <c r="O126" s="98"/>
+      <c r="P126" s="98"/>
+      <c r="Q126" s="98"/>
+      <c r="R126" s="98"/>
+      <c r="S126" s="98"/>
+      <c r="T126" s="98"/>
     </row>
     <row r="127" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E127" s="2" t="s">
@@ -12701,12 +13803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="G285" sqref="G285:AD285"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -14684,32 +15786,32 @@
       </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="G285" s="107" t="s">
+      <c r="G285" s="98" t="s">
         <v>832</v>
       </c>
-      <c r="H285" s="107"/>
-      <c r="I285" s="107"/>
-      <c r="J285" s="107"/>
-      <c r="K285" s="107"/>
-      <c r="L285" s="107"/>
-      <c r="M285" s="107"/>
-      <c r="N285" s="107"/>
-      <c r="O285" s="107"/>
-      <c r="P285" s="107"/>
-      <c r="Q285" s="107"/>
-      <c r="R285" s="107"/>
-      <c r="S285" s="107"/>
-      <c r="T285" s="107"/>
-      <c r="U285" s="107"/>
-      <c r="V285" s="107"/>
-      <c r="W285" s="107"/>
-      <c r="X285" s="107"/>
-      <c r="Y285" s="107"/>
-      <c r="Z285" s="107"/>
-      <c r="AA285" s="107"/>
-      <c r="AB285" s="107"/>
-      <c r="AC285" s="107"/>
-      <c r="AD285" s="107"/>
+      <c r="H285" s="98"/>
+      <c r="I285" s="98"/>
+      <c r="J285" s="98"/>
+      <c r="K285" s="98"/>
+      <c r="L285" s="98"/>
+      <c r="M285" s="98"/>
+      <c r="N285" s="98"/>
+      <c r="O285" s="98"/>
+      <c r="P285" s="98"/>
+      <c r="Q285" s="98"/>
+      <c r="R285" s="98"/>
+      <c r="S285" s="98"/>
+      <c r="T285" s="98"/>
+      <c r="U285" s="98"/>
+      <c r="V285" s="98"/>
+      <c r="W285" s="98"/>
+      <c r="X285" s="98"/>
+      <c r="Y285" s="98"/>
+      <c r="Z285" s="98"/>
+      <c r="AA285" s="98"/>
+      <c r="AB285" s="98"/>
+      <c r="AC285" s="98"/>
+      <c r="AD285" s="98"/>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A286" s="67" t="s">
@@ -15479,12 +16581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15979,11 +17081,11 @@
       <c r="I28" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="J28" s="107" t="s">
+      <c r="J28" s="98" t="s">
         <v>834</v>
       </c>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
       <c r="M28" s="74"/>
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
@@ -16897,13 +17999,13 @@
       <c r="F118" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="G118" s="107" t="s">
+      <c r="G118" s="98" t="s">
         <v>842</v>
       </c>
-      <c r="H118" s="107"/>
-      <c r="I118" s="107"/>
-      <c r="J118" s="107"/>
-      <c r="K118" s="107"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="98"/>
     </row>
     <row r="119" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D119" s="74"/>
@@ -17126,13 +18228,13 @@
       <c r="F137" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="G137" s="107" t="s">
+      <c r="G137" s="98" t="s">
         <v>847</v>
       </c>
-      <c r="H137" s="107"/>
-      <c r="I137" s="107"/>
-      <c r="J137" s="107"/>
-      <c r="K137" s="107"/>
+      <c r="H137" s="98"/>
+      <c r="I137" s="98"/>
+      <c r="J137" s="98"/>
+      <c r="K137" s="98"/>
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D138" s="74"/>
@@ -17161,10 +18263,10 @@
     </row>
     <row r="142" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E143" s="99" t="s">
+      <c r="E143" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="F143" s="100"/>
+      <c r="F143" s="102"/>
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E144" s="22"/>
@@ -17308,7 +18410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M40"/>
   <sheetViews>
@@ -17892,7 +18994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L33"/>
   <sheetViews>
@@ -18058,7 +19160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
@@ -18191,12 +19293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18228,45 +19330,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="107" t="s">
         <v>455</v>
       </c>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="106" t="s">
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108" t="s">
         <v>478</v>
       </c>
-      <c r="AA2" s="106"/>
+      <c r="AA2" s="108"/>
       <c r="AB2" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="AC2" s="101" t="s">
+      <c r="AC2" s="103" t="s">
         <v>484</v>
       </c>
-      <c r="AD2" s="101"/>
+      <c r="AD2" s="103"/>
       <c r="AE2" s="88" t="s">
         <v>753</v>
       </c>
@@ -18317,7 +19419,7 @@
       <c r="P3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="99" t="s">
         <v>836</v>
       </c>
       <c r="R3" s="51" t="s">
@@ -18409,7 +19511,7 @@
       <c r="P4" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="99" t="s">
         <v>837</v>
       </c>
       <c r="R4" s="51" t="s">
@@ -18456,7 +19558,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="105" t="s">
         <v>489</v>
       </c>
       <c r="E5" s="61" t="s">
@@ -18492,7 +19594,7 @@
       <c r="P5" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="98" t="s">
         <v>838</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -18522,7 +19624,7 @@
       <c r="AE5" s="74"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
+      <c r="A6" s="105"/>
       <c r="E6" s="62" t="s">
         <v>492</v>
       </c>
@@ -18553,7 +19655,7 @@
       <c r="P6" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="Q6" s="107" t="s">
+      <c r="Q6" s="98" t="s">
         <v>848</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -18579,7 +19681,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
+      <c r="A7" s="105"/>
       <c r="E7" s="63" t="s">
         <v>53</v>
       </c>
@@ -18597,7 +19699,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="105"/>
       <c r="E8" s="64" t="s">
         <v>17</v>
       </c>
@@ -18609,7 +19711,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
+      <c r="A9" s="105"/>
       <c r="E9" s="65" t="s">
         <v>20</v>
       </c>
@@ -18689,7 +19791,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="105" t="s">
         <v>489</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -18711,7 +19813,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="103"/>
+      <c r="A16" s="105"/>
       <c r="E16" s="2" t="s">
         <v>451</v>
       </c>
@@ -18839,7 +19941,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="105" t="s">
         <v>489</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -18875,7 +19977,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="103"/>
+      <c r="A25" s="105"/>
       <c r="E25" s="2" t="s">
         <v>451</v>
       </c>
@@ -18968,13 +20070,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="102" t="s">
+      <c r="F31" s="104" t="s">
         <v>793</v>
       </c>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
       <c r="K31" s="94"/>
       <c r="L31" s="93"/>
       <c r="M31" s="93"/>
@@ -19074,7 +20176,7 @@
         <v>497</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="L34" s="107" t="s">
+      <c r="L34" s="98" t="s">
         <v>838</v>
       </c>
       <c r="M34" s="5"/>
@@ -19098,7 +20200,7 @@
         <v>451</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="98" t="s">
         <v>844</v>
       </c>
     </row>
@@ -19210,7 +20312,7 @@
       <c r="J41" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="K41" s="107" t="s">
+      <c r="K41" s="98" t="s">
         <v>843</v>
       </c>
     </row>
@@ -19331,12 +20433,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
     <sheet name="总体说明" sheetId="1" r:id="rId2"/>
     <sheet name="UI表现逻辑" sheetId="2" r:id="rId3"/>
-    <sheet name="装备类道具" sheetId="3" r:id="rId4"/>
-    <sheet name="消耗类道具" sheetId="7" r:id="rId5"/>
-    <sheet name="宝箱类道具" sheetId="4" r:id="rId6"/>
-    <sheet name="碎片类道具" sheetId="5" r:id="rId7"/>
-    <sheet name="配置表结构" sheetId="10" r:id="rId8"/>
-    <sheet name="IM提示说明" sheetId="11" r:id="rId9"/>
-    <sheet name="程序功能拆分" sheetId="12" r:id="rId10"/>
-    <sheet name="道具美术需求" sheetId="13" r:id="rId11"/>
-    <sheet name="数据结构" sheetId="6" r:id="rId12"/>
-    <sheet name="自用" sheetId="8" r:id="rId13"/>
+    <sheet name="道具tips显示通用逻辑" sheetId="14" r:id="rId4"/>
+    <sheet name="装备类道具" sheetId="3" r:id="rId5"/>
+    <sheet name="消耗类道具" sheetId="7" r:id="rId6"/>
+    <sheet name="宝箱类道具" sheetId="4" r:id="rId7"/>
+    <sheet name="碎片类道具" sheetId="5" r:id="rId8"/>
+    <sheet name="配置表结构" sheetId="10" r:id="rId9"/>
+    <sheet name="IM提示说明" sheetId="11" r:id="rId10"/>
+    <sheet name="程序功能拆分" sheetId="12" r:id="rId11"/>
+    <sheet name="道具美术需求" sheetId="13" r:id="rId12"/>
+    <sheet name="数据结构" sheetId="6" r:id="rId13"/>
+    <sheet name="自用" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1213">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4850,6 +4851,71 @@
   </si>
   <si>
     <t>UI底色，边框，按钮样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍经验结算规则：副本成功结算时，在副本结算怪物经验与人物经验时，需验证玩家是否使用了双倍经验道具，若使用了则将人物与怪物获得的经验*2，同时双倍经验道具剩余副本次数-1；若副本未成功，双倍道具不参与结算</t>
+  </si>
+  <si>
+    <t>Ver 0.61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加双倍经验药逻辑（待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前定义双倍经验药水为固定副本次数经验双倍，相当于玩家使用双倍经验药水后，会在接下来的固定数量的成功结算副本经验双倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips是一种常用窗口，用于说明各种控件或游戏中内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于大部分玩家都用右手点击触发tips控件来触发tips，则默认tips显示方式为：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色为tips</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips窗口的右上角与响应控件的左上角对齐</t>
+  </si>
+  <si>
+    <t>示意图：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出主窗口处理：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色为触发tips的控件大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips窗口的左上角与响应控件的右上角对齐</t>
+  </si>
+  <si>
+    <t>当tips宽度&gt;触发控件左边到主窗口左边沿时，则tips显示在控件右方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当tips长度&gt;触发控件上边到主窗口下边沿时，则向上移动超出部分距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此为默认规则，如有特殊规则需在文档内标出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加道具tips显示通用逻辑分页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12092,6 +12158,337 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581464</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252046</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1953064" y="1066800"/>
+          <a:ext cx="356382" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572086</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1047750"/>
+          <a:ext cx="572086" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>356382</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2724150"/>
+          <a:ext cx="356382" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="2714625"/>
+          <a:ext cx="572086" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>591869</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263147</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2649269" y="6124575"/>
+          <a:ext cx="357078" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>639879</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="4486275"/>
+          <a:ext cx="573204" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13450,19 +13847,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342492</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13493,7 +13890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13536,7 +13933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13579,7 +13976,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14631,10 +15028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15763,55 +16160,63 @@
       <c r="O55" s="149"/>
     </row>
     <row r="56" spans="1:15" ht="16.5">
-      <c r="A56" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="B56" s="149" t="s">
-        <v>747</v>
-      </c>
-      <c r="C56" s="150" t="s">
-        <v>757</v>
-      </c>
-      <c r="D56" s="150" t="s">
-        <v>758</v>
-      </c>
-      <c r="E56" s="150" t="s">
-        <v>759</v>
-      </c>
+      <c r="A56" s="149"/>
+      <c r="B56" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C56" s="159">
+        <v>42163</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="122"/>
       <c r="F56" s="150"/>
       <c r="G56" s="150"/>
-      <c r="H56" s="149"/>
+      <c r="H56" s="120" t="s">
+        <v>1198</v>
+      </c>
       <c r="I56" s="149"/>
-      <c r="J56" s="149"/>
-      <c r="K56" s="149"/>
-      <c r="L56" s="149"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
       <c r="M56" s="149"/>
       <c r="N56" s="149"/>
       <c r="O56" s="149"/>
     </row>
     <row r="57" spans="1:15" ht="16.5">
-      <c r="A57" s="148"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="122"/>
       <c r="F57" s="150"/>
       <c r="G57" s="150"/>
-      <c r="H57" s="149"/>
+      <c r="H57" s="130" t="s">
+        <v>1212</v>
+      </c>
       <c r="I57" s="149"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="149"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
       <c r="M57" s="149"/>
       <c r="N57" s="149"/>
       <c r="O57" s="149"/>
     </row>
     <row r="58" spans="1:15" ht="16.5">
-      <c r="A58" s="148"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
+      <c r="A58" s="148" t="s">
+        <v>756</v>
+      </c>
+      <c r="B58" s="149" t="s">
+        <v>747</v>
+      </c>
+      <c r="C58" s="150" t="s">
+        <v>757</v>
+      </c>
+      <c r="D58" s="150" t="s">
+        <v>758</v>
+      </c>
+      <c r="E58" s="150" t="s">
+        <v>759</v>
+      </c>
       <c r="F58" s="150"/>
       <c r="G58" s="150"/>
       <c r="H58" s="149"/>
@@ -15840,8 +16245,42 @@
       <c r="N59" s="149"/>
       <c r="O59" s="149"/>
     </row>
-    <row r="61" spans="1:15">
-      <c r="F61" s="129"/>
+    <row r="60" spans="1:15" ht="16.5">
+      <c r="A60" s="148"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="149"/>
+      <c r="O60" s="149"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.5">
+      <c r="A61" s="148"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
+      <c r="M61" s="149"/>
+      <c r="N61" s="149"/>
+      <c r="O61" s="149"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="F63" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15892,12 +16331,145 @@
     <hyperlink ref="K52" location="UI表现逻辑!F289" display="位置2"/>
     <hyperlink ref="H53" location="总体说明!D69" display="置灰背包中使用道具逻辑（移至背包中）"/>
     <hyperlink ref="L53" location="装备类道具!C160" display="位置2"/>
+    <hyperlink ref="H56" location="消耗类道具!D5" display="添加双倍经验药逻辑（待定）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="72.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="139" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1" s="141" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F1" s="141" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G1" s="141" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I1" s="141" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="142" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E2" s="143">
+        <v>1</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="143">
+        <v>1</v>
+      </c>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="142" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E3" s="143">
+        <v>1</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143">
+        <v>1</v>
+      </c>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+    </row>
+    <row r="4" spans="1:9" s="20" customFormat="1">
+      <c r="A4" s="145" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E4" s="146">
+        <v>1</v>
+      </c>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146">
+        <v>1</v>
+      </c>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -16115,11 +16687,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
@@ -16388,7 +16960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -17531,7 +18103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -17617,8 +18189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U181"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="O113" sqref="O113"/>
+    <sheetView topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19569,7 +20141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD338"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -23297,6 +23869,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="2" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O196"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -25959,12 +26621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O61"/>
+  <dimension ref="A2:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25975,12 +26637,12 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:25">
       <c r="B2" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:25">
       <c r="C3" s="2" t="s">
         <v>203</v>
       </c>
@@ -25988,112 +26650,161 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:25">
       <c r="D4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="85" t="s">
+    </row>
+    <row r="5" spans="2:25">
+      <c r="D5" s="122" t="s">
         <v>931</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="D6" s="122"/>
+      <c r="E6" s="122" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="D7" s="122"/>
+      <c r="E7" s="122" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="C8" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="D7" s="2" t="s">
+    <row r="9" spans="2:25">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="E8" s="2" t="s">
+    <row r="10" spans="2:25">
+      <c r="E10" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="D9" s="110" t="s">
+      <c r="G10" s="5"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="D11" s="110" t="s">
         <v>796</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E11" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="D10" s="110" t="s">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="D12" s="110" t="s">
         <v>797</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E12" s="84" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="D25" s="2" t="s">
+    <row r="27" spans="1:11">
+      <c r="D27" s="2" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="E26" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="E27" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="E28" s="2" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="E29" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="E30" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="E31" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="53" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="53" t="s">
         <v>963</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D32" s="85" t="s">
         <v>1017</v>
       </c>
-      <c r="E30" s="125" t="s">
+      <c r="E32" s="125" t="s">
         <v>1060</v>
-      </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="D31" s="85"/>
-      <c r="E31" s="94" t="s">
-        <v>927</v>
-      </c>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="D32" s="85"/>
-      <c r="E32" s="125" t="s">
-        <v>1061</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
@@ -26105,9 +26816,9 @@
     <row r="33" spans="4:15">
       <c r="D33" s="85"/>
       <c r="E33" s="94" t="s">
-        <v>906</v>
-      </c>
-      <c r="F33" s="86"/>
+        <v>927</v>
+      </c>
+      <c r="F33" s="94"/>
       <c r="G33" s="94"/>
       <c r="H33" s="85"/>
       <c r="I33" s="85"/>
@@ -26117,9 +26828,9 @@
     <row r="34" spans="4:15">
       <c r="D34" s="85"/>
       <c r="E34" s="125" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F34" s="86"/>
+        <v>1061</v>
+      </c>
+      <c r="F34" s="94"/>
       <c r="G34" s="94"/>
       <c r="H34" s="85"/>
       <c r="I34" s="85"/>
@@ -26129,7 +26840,7 @@
     <row r="35" spans="4:15">
       <c r="D35" s="85"/>
       <c r="E35" s="94" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F35" s="86"/>
       <c r="G35" s="94"/>
@@ -26141,7 +26852,7 @@
     <row r="36" spans="4:15">
       <c r="D36" s="85"/>
       <c r="E36" s="125" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F36" s="86"/>
       <c r="G36" s="94"/>
@@ -26153,7 +26864,7 @@
     <row r="37" spans="4:15">
       <c r="D37" s="85"/>
       <c r="E37" s="94" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F37" s="86"/>
       <c r="G37" s="94"/>
@@ -26165,7 +26876,7 @@
     <row r="38" spans="4:15">
       <c r="D38" s="85"/>
       <c r="E38" s="125" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F38" s="86"/>
       <c r="G38" s="94"/>
@@ -26177,7 +26888,7 @@
     <row r="39" spans="4:15">
       <c r="D39" s="85"/>
       <c r="E39" s="94" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F39" s="86"/>
       <c r="G39" s="94"/>
@@ -26189,7 +26900,7 @@
     <row r="40" spans="4:15">
       <c r="D40" s="85"/>
       <c r="E40" s="125" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F40" s="86"/>
       <c r="G40" s="94"/>
@@ -26197,14 +26908,11 @@
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
       <c r="K40" s="85"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="93"/>
     </row>
     <row r="41" spans="4:15">
       <c r="D41" s="85"/>
       <c r="E41" s="94" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F41" s="86"/>
       <c r="G41" s="94"/>
@@ -26212,14 +26920,11 @@
       <c r="I41" s="85"/>
       <c r="J41" s="85"/>
       <c r="K41" s="85"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="93"/>
     </row>
     <row r="42" spans="4:15">
       <c r="D42" s="85"/>
-      <c r="E42" s="94" t="s">
-        <v>1066</v>
+      <c r="E42" s="125" t="s">
+        <v>1065</v>
       </c>
       <c r="F42" s="86"/>
       <c r="G42" s="94"/>
@@ -26234,7 +26939,7 @@
     <row r="43" spans="4:15">
       <c r="D43" s="85"/>
       <c r="E43" s="94" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F43" s="86"/>
       <c r="G43" s="94"/>
@@ -26249,7 +26954,7 @@
     <row r="44" spans="4:15">
       <c r="D44" s="85"/>
       <c r="E44" s="94" t="s">
-        <v>1015</v>
+        <v>1066</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="94"/>
@@ -26263,11 +26968,11 @@
     </row>
     <row r="45" spans="4:15">
       <c r="D45" s="85"/>
-      <c r="E45" s="97" t="s">
-        <v>917</v>
+      <c r="E45" s="94" t="s">
+        <v>914</v>
       </c>
       <c r="F45" s="86"/>
-      <c r="G45" s="97"/>
+      <c r="G45" s="94"/>
       <c r="H45" s="85"/>
       <c r="I45" s="85"/>
       <c r="J45" s="85"/>
@@ -26279,7 +26984,7 @@
     <row r="46" spans="4:15">
       <c r="D46" s="85"/>
       <c r="E46" s="94" t="s">
-        <v>915</v>
+        <v>1015</v>
       </c>
       <c r="F46" s="86"/>
       <c r="G46" s="94"/>
@@ -26287,124 +26992,154 @@
       <c r="I46" s="85"/>
       <c r="J46" s="85"/>
       <c r="K46" s="85"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="93"/>
     </row>
     <row r="47" spans="4:15">
       <c r="D47" s="85"/>
-      <c r="E47" s="94" t="s">
-        <v>916</v>
+      <c r="E47" s="97" t="s">
+        <v>917</v>
       </c>
       <c r="F47" s="86"/>
-      <c r="G47" s="94"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="85"/>
       <c r="I47" s="85"/>
       <c r="J47" s="85"/>
       <c r="K47" s="85"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="93"/>
     </row>
     <row r="48" spans="4:15">
-      <c r="E48" s="93"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="93"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="94" t="s">
+        <v>915</v>
+      </c>
+      <c r="F48" s="86"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="85"/>
+      <c r="E49" s="94" t="s">
+        <v>916</v>
+      </c>
+      <c r="F49" s="86"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="E50" s="93"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="93"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="C51" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="D50" s="2" t="s">
+    <row r="52" spans="1:15">
+      <c r="D52" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="58" t="s">
+      <c r="G52" s="58" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="D51" s="2" t="s">
+    <row r="53" spans="1:15">
+      <c r="D53" s="2" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="E52" s="2" t="s">
+    <row r="54" spans="1:15">
+      <c r="E54" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="E53" s="2" t="s">
+    <row r="55" spans="1:15">
+      <c r="E55" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="D54" s="2" t="s">
+    <row r="56" spans="1:15">
+      <c r="D56" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="F54" s="131" t="s">
+      <c r="F56" s="131" t="s">
         <v>1126</v>
       </c>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="D55" s="5" t="s">
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="D57" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="E56" s="2" t="s">
+    <row r="58" spans="1:15">
+      <c r="E58" s="2" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="F57" s="5" t="s">
+    <row r="59" spans="1:15">
+      <c r="F59" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="F58" s="5" t="s">
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="F60" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="131" t="s">
+      <c r="G60" s="22"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="131" t="s">
         <v>1127</v>
       </c>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="E59" s="2" t="s">
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="E61" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="53"/>
-      <c r="F60" s="5" t="s">
+    <row r="62" spans="1:15">
+      <c r="A62" s="53"/>
+      <c r="F62" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="F61" s="57" t="s">
+    <row r="63" spans="1:15">
+      <c r="F63" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G50" location="总体说明!A50" display="总体说明切页 50行"/>
+    <hyperlink ref="G52" location="总体说明!A50" display="总体说明切页 50行"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N37"/>
   <sheetViews>
@@ -26635,7 +27370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S41"/>
   <sheetViews>
@@ -26792,7 +27527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE80"/>
   <sheetViews>
@@ -28881,136 +29616,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="72.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="139" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B1" s="140" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C1" s="140" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D1" s="140" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E1" s="141" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F1" s="141" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G1" s="141" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H1" s="141" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I1" s="141" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="142" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C2" s="142" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E2" s="143">
-        <v>1</v>
-      </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="143">
-        <v>1</v>
-      </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="142" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C3" s="142" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E3" s="143">
-        <v>1</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143">
-        <v>1</v>
-      </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1">
-      <c r="A4" s="145" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C4" s="145" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D4" s="145" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E4" s="146">
-        <v>1</v>
-      </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146">
-        <v>1</v>
-      </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1228">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4530,10 +4530,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求道具不足，不能开启宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统提示玩家操作成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4568,10 +4564,6 @@
   <si>
     <t>当使用消耗类道具但调整的属性值已达到当前最大值时</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家开启宝箱类道具但需求道具不足</t>
-    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>添加IM提示说明分页</t>
@@ -4916,6 +4908,71 @@
   </si>
   <si>
     <t>添加道具tips显示通用逻辑分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求道具不足，不能开启宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家开启宝箱类道具但需求道具不足</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化属性表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶附加属性表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径</t>
+  </si>
+  <si>
+    <t>对应跳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口</t>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动入口</t>
+  </si>
+  <si>
+    <t>若存在多个副本均可产出该宠物，则只提示玩家最新开启并能够产出的副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示该道具可以在哪里获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有超链接指引玩家，玩家点击获得途径时会自动跳转至该界面（副本入口或活动入口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（暂定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加道具tips获得途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7454,7 +7511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="9639300"/>
+          <a:off x="3848100" y="12363450"/>
           <a:ext cx="2971429" cy="2438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7468,13 +7525,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>265936</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>209113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8203,7 +8260,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416653" cy="374141"/>
@@ -8264,7 +8321,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416653" cy="374141"/>
@@ -8325,13 +8382,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8375,13 +8432,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8425,13 +8482,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8475,13 +8532,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8525,13 +8582,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8584,13 +8641,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8636,13 +8693,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333321</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>209527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8674,13 +8731,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438119</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>9501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8712,13 +8769,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8750,13 +8807,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>95254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8800,13 +8857,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8838,13 +8895,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590173</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8876,13 +8933,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>104727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8914,7 +8971,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902811" cy="400366"/>
@@ -8972,7 +9029,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1919051" cy="325730"/>
@@ -9060,7 +9117,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261884" cy="325730"/>
@@ -9116,7 +9173,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261884" cy="325730"/>
@@ -9174,7 +9231,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="426399" cy="311496"/>
@@ -9249,7 +9306,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2101922" cy="325730"/>
@@ -9324,13 +9381,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9383,13 +9440,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9435,7 +9492,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="334451"/>
@@ -9590,13 +9647,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>580651</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>47513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9628,13 +9685,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9678,13 +9735,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9728,13 +9785,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9790,13 +9847,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9844,13 +9901,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9860,7 +9917,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4467225" y="63598425"/>
+          <a:off x="4467225" y="65065275"/>
           <a:ext cx="3590925" cy="1504950"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
@@ -10031,13 +10088,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10078,13 +10135,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10128,13 +10185,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>66626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10166,7 +10223,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="334451"/>
@@ -10224,7 +10281,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902811" cy="400366"/>
@@ -10282,7 +10339,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1204240" cy="325730"/>
@@ -10360,7 +10417,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1346394" cy="325730"/>
@@ -10438,7 +10495,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1383777" cy="325730"/>
@@ -10516,13 +10573,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533828</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10575,13 +10632,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>519641</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10613,13 +10670,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>211314</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10651,13 +10708,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>525639</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10689,13 +10746,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>838202</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10739,7 +10796,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586956" cy="400366"/>
@@ -10814,7 +10871,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="586956" cy="400366"/>
@@ -10889,13 +10946,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11188,13 +11245,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11204,7 +11261,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4429125" y="66027300"/>
+          <a:off x="4429125" y="67494150"/>
           <a:ext cx="3590925" cy="1562100"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
@@ -11375,13 +11432,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481541</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11564,13 +11621,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>115376</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11580,7 +11637,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3743325" y="31613475"/>
+          <a:off x="3743325" y="33080325"/>
           <a:ext cx="276225" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="276225" cy="334451"/>
@@ -11677,13 +11734,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>124901</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11693,7 +11750,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6858000" y="31623000"/>
+          <a:off x="6858000" y="33089850"/>
           <a:ext cx="276225" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="276225" cy="334451"/>
@@ -11941,13 +11998,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11995,13 +12052,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12103,13 +12160,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12151,6 +12208,96 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609283</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="图片 131"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="14201775"/>
+          <a:ext cx="2533333" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直接箭头连接符 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3429000" y="14468442"/>
+          <a:ext cx="561975" cy="66708"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15028,10 +15175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16010,7 +16157,7 @@
       <c r="F48" s="150"/>
       <c r="G48" s="150"/>
       <c r="H48" s="130" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="I48" s="149"/>
       <c r="J48" s="120"/>
@@ -16029,7 +16176,7 @@
       <c r="F49" s="150"/>
       <c r="G49" s="150"/>
       <c r="H49" s="130" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I49" s="149"/>
       <c r="J49" s="120"/>
@@ -16048,11 +16195,11 @@
       <c r="F50" s="150"/>
       <c r="G50" s="150"/>
       <c r="H50" s="120" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="I50" s="149"/>
       <c r="J50" s="58" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -16069,7 +16216,7 @@
       <c r="F51" s="150"/>
       <c r="G51" s="150"/>
       <c r="H51" s="130" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="I51" s="149"/>
       <c r="J51" s="120"/>
@@ -16088,7 +16235,7 @@
       <c r="F52" s="150"/>
       <c r="G52" s="150"/>
       <c r="H52" s="120" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="I52" s="149"/>
       <c r="J52" s="120"/>
@@ -16109,7 +16256,7 @@
       <c r="F53" s="150"/>
       <c r="G53" s="150"/>
       <c r="H53" s="120" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I53" s="149"/>
       <c r="J53" s="120"/>
@@ -16130,7 +16277,7 @@
       <c r="F54" s="150"/>
       <c r="G54" s="150"/>
       <c r="H54" s="130" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="I54" s="149"/>
       <c r="J54" s="120"/>
@@ -16149,7 +16296,7 @@
       <c r="F55" s="150"/>
       <c r="G55" s="150"/>
       <c r="H55" s="130" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I55" s="149"/>
       <c r="J55" s="120"/>
@@ -16162,7 +16309,7 @@
     <row r="56" spans="1:15" ht="16.5">
       <c r="A56" s="149"/>
       <c r="B56" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C56" s="159">
         <v>42163</v>
@@ -16172,7 +16319,7 @@
       <c r="F56" s="150"/>
       <c r="G56" s="150"/>
       <c r="H56" s="120" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I56" s="149"/>
       <c r="J56" s="120"/>
@@ -16191,7 +16338,7 @@
       <c r="F57" s="150"/>
       <c r="G57" s="150"/>
       <c r="H57" s="130" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I57" s="149"/>
       <c r="J57" s="120"/>
@@ -16202,38 +16349,44 @@
       <c r="O57" s="149"/>
     </row>
     <row r="58" spans="1:15" ht="16.5">
-      <c r="A58" s="148" t="s">
-        <v>756</v>
-      </c>
-      <c r="B58" s="149" t="s">
-        <v>747</v>
-      </c>
-      <c r="C58" s="150" t="s">
-        <v>757</v>
-      </c>
-      <c r="D58" s="150" t="s">
-        <v>758</v>
-      </c>
-      <c r="E58" s="150" t="s">
-        <v>759</v>
-      </c>
+      <c r="A58" s="149"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="159">
+        <v>42185</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="150"/>
       <c r="G58" s="150"/>
-      <c r="H58" s="149"/>
+      <c r="H58" s="58" t="s">
+        <v>1226</v>
+      </c>
       <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
-      <c r="L58" s="149"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L58" s="120"/>
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
     </row>
     <row r="59" spans="1:15" ht="16.5">
-      <c r="A59" s="148"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
+      <c r="A59" s="148" t="s">
+        <v>756</v>
+      </c>
+      <c r="B59" s="149" t="s">
+        <v>747</v>
+      </c>
+      <c r="C59" s="150" t="s">
+        <v>757</v>
+      </c>
+      <c r="D59" s="150" t="s">
+        <v>758</v>
+      </c>
+      <c r="E59" s="150" t="s">
+        <v>759</v>
+      </c>
       <c r="F59" s="150"/>
       <c r="G59" s="150"/>
       <c r="H59" s="149"/>
@@ -16279,8 +16432,25 @@
       <c r="N61" s="149"/>
       <c r="O61" s="149"/>
     </row>
-    <row r="63" spans="1:15">
-      <c r="F63" s="129"/>
+    <row r="62" spans="1:15" ht="16.5">
+      <c r="A62" s="148"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="149"/>
+      <c r="O62" s="149"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="F64" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16332,6 +16502,8 @@
     <hyperlink ref="H53" location="总体说明!D69" display="置灰背包中使用道具逻辑（移至背包中）"/>
     <hyperlink ref="L53" location="装备类道具!C160" display="位置2"/>
     <hyperlink ref="H56" location="消耗类道具!D5" display="添加双倍经验药逻辑（待定）"/>
+    <hyperlink ref="H58" location="UI表现逻辑!C62" display="添加道具tips获得途径"/>
+    <hyperlink ref="K58" location="UI表现逻辑!E139" display="位置2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16341,8 +16513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16388,13 +16560,13 @@
         <v>1118</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C2" s="142" t="s">
         <v>1119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="143">
         <v>1</v>
@@ -16411,7 +16583,7 @@
         <v>1120</v>
       </c>
       <c r="B3" s="142" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="142" t="s">
         <v>1119</v>
@@ -16434,13 +16606,13 @@
         <v>1121</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>1134</v>
+        <v>1212</v>
       </c>
       <c r="C4" s="145" t="s">
         <v>1119</v>
       </c>
       <c r="D4" s="145" t="s">
-        <v>1124</v>
+        <v>1211</v>
       </c>
       <c r="E4" s="146">
         <v>1</v>
@@ -16474,7 +16646,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16484,27 +16656,27 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="164" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
       <c r="D1" s="167" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E1" s="167" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F1" s="167"/>
       <c r="G1" s="167" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">
       <c r="B2" s="163" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D2" s="163">
         <v>2</v>
@@ -16514,7 +16686,7 @@
     <row r="3" spans="1:9" ht="17.25">
       <c r="B3" s="162"/>
       <c r="C3" s="163" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D3" s="163">
         <v>1</v>
@@ -16524,7 +16696,7 @@
     <row r="4" spans="1:9" ht="17.25">
       <c r="B4" s="162"/>
       <c r="C4" s="163" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D4" s="163">
         <v>1</v>
@@ -16534,7 +16706,7 @@
     <row r="5" spans="1:9" ht="17.25">
       <c r="B5" s="162"/>
       <c r="C5" s="163" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D5" s="163">
         <v>2</v>
@@ -16544,7 +16716,7 @@
     <row r="6" spans="1:9" ht="17.25">
       <c r="B6" s="162"/>
       <c r="C6" s="163" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D6" s="163">
         <v>1</v>
@@ -16554,7 +16726,7 @@
     <row r="7" spans="1:9" ht="17.25">
       <c r="B7" s="162"/>
       <c r="C7" s="163" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D7" s="163">
         <v>4</v>
@@ -16564,7 +16736,7 @@
     <row r="8" spans="1:9" ht="17.25">
       <c r="B8" s="162"/>
       <c r="C8" s="163" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D8" s="163">
         <v>5</v>
@@ -16574,7 +16746,7 @@
     <row r="9" spans="1:9" ht="17.25">
       <c r="B9" s="162"/>
       <c r="C9" s="165" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D9" s="165">
         <v>4</v>
@@ -16584,14 +16756,14 @@
     <row r="10" spans="1:9" ht="17.25">
       <c r="B10" s="162"/>
       <c r="C10" s="163" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D10" s="163">
         <v>0.5</v>
       </c>
       <c r="E10" s="162"/>
       <c r="G10" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -16599,7 +16771,7 @@
     <row r="11" spans="1:9" ht="18">
       <c r="B11" s="162"/>
       <c r="C11" s="164" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D11" s="164">
         <v>20.5</v>
@@ -16614,7 +16786,7 @@
     </row>
     <row r="12" spans="1:9" ht="17.25">
       <c r="B12" s="163" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
@@ -16623,37 +16795,37 @@
     <row r="13" spans="1:9" ht="17.25">
       <c r="B13" s="162"/>
       <c r="C13" s="163" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D13" s="163" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E13" s="162"/>
     </row>
     <row r="14" spans="1:9" ht="17.25">
       <c r="B14" s="162"/>
       <c r="C14" s="163" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E14" s="162"/>
     </row>
     <row r="15" spans="1:9" ht="17.25">
       <c r="B15" s="162"/>
       <c r="C15" s="163" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D15" s="163" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E15" s="162"/>
     </row>
     <row r="16" spans="1:9" ht="17.25">
       <c r="B16" s="162"/>
       <c r="C16" s="163" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D16" s="163">
         <v>2</v>
@@ -16663,7 +16835,7 @@
     <row r="17" spans="2:5" ht="17.25">
       <c r="B17" s="162"/>
       <c r="C17" s="163" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D17" s="163">
         <v>2</v>
@@ -16672,7 +16844,7 @@
     </row>
     <row r="18" spans="2:5" ht="18">
       <c r="C18" s="164" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D18" s="164">
         <v>4</v>
@@ -16691,8 +16863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16702,7 +16874,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16710,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -16726,7 +16898,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -16734,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -16819,7 +16991,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -16827,23 +16999,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="F10" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="F12" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16851,15 +17023,15 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -16872,77 +17044,77 @@
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="D58" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="D60" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="E63" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="J71" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="J74" s="54" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -16967,8 +17139,8 @@
   </sheetPr>
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17726,7 +17898,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="68" t="s">
-        <v>539</v>
+        <v>1214</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -17887,7 +18059,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="68" t="s">
-        <v>202</v>
+        <v>1213</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -18189,8 +18361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U181"/>
   <sheetViews>
-    <sheetView topLeftCell="B84" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18544,7 +18716,7 @@
         <v>1080</v>
       </c>
       <c r="G29" s="131" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -18678,7 +18850,7 @@
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
       <c r="J39" s="127" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="K39" s="127"/>
       <c r="L39" s="127"/>
@@ -20139,10 +20311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD338"/>
+  <dimension ref="A1:AD345"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20493,6 +20665,9 @@
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="3:12">
+      <c r="C62" s="2" t="s">
+        <v>1215</v>
+      </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
@@ -20600,7 +20775,7 @@
     </row>
     <row r="76" spans="5:9">
       <c r="F76" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="5:9">
@@ -21130,7 +21305,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="3:16">
+    <row r="129" spans="5:16">
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
@@ -21148,7 +21323,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="3:16">
+    <row r="130" spans="5:16">
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
@@ -21166,7 +21341,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="3:16">
+    <row r="131" spans="5:16">
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
@@ -21184,7 +21359,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="3:16">
+    <row r="132" spans="5:16">
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
@@ -21202,7 +21377,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="3:16">
+    <row r="133" spans="5:16">
       <c r="E133" s="127" t="s">
         <v>1089</v>
       </c>
@@ -21218,7 +21393,7 @@
       <c r="O133" s="127"/>
       <c r="P133" s="127"/>
     </row>
-    <row r="134" spans="3:16">
+    <row r="134" spans="5:16">
       <c r="E134" s="127"/>
       <c r="F134" s="127"/>
       <c r="G134" s="127"/>
@@ -21232,20 +21407,20 @@
       <c r="O134" s="127"/>
       <c r="P134" s="127"/>
     </row>
-    <row r="135" spans="3:16">
+    <row r="135" spans="5:16">
       <c r="E135" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="3:16">
+    <row r="136" spans="5:16">
       <c r="F136" s="131" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G136" s="131"/>
       <c r="H136" s="131"/>
       <c r="I136" s="131"/>
     </row>
-    <row r="137" spans="3:16">
+    <row r="137" spans="5:16">
       <c r="E137" s="5" t="s">
         <v>409</v>
       </c>
@@ -21253,119 +21428,152 @@
         <v>621</v>
       </c>
     </row>
-    <row r="138" spans="3:16">
+    <row r="138" spans="5:16">
       <c r="F138" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="140" spans="3:16">
-      <c r="D140" s="5" t="s">
+    <row r="139" spans="5:16">
+      <c r="E139" s="53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="53"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="P139" s="53"/>
+    </row>
+    <row r="140" spans="5:16">
+      <c r="E140" s="53"/>
+      <c r="F140" s="53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="53"/>
+      <c r="P140" s="53"/>
+    </row>
+    <row r="141" spans="5:16">
+      <c r="E141" s="53"/>
+      <c r="F141" s="53" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G141" s="53"/>
+      <c r="H141" s="53"/>
+      <c r="I141" s="53"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="53"/>
+      <c r="L141" s="53"/>
+      <c r="M141" s="53"/>
+      <c r="N141" s="53"/>
+      <c r="O141" s="53"/>
+      <c r="P141" s="53"/>
+    </row>
+    <row r="142" spans="5:16">
+      <c r="E142" s="53"/>
+      <c r="F142" s="53" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G142" s="53" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H142" s="53" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
+      <c r="L142" s="53"/>
+      <c r="M142" s="53"/>
+      <c r="N142" s="53"/>
+      <c r="O142" s="53"/>
+      <c r="P142" s="53"/>
+    </row>
+    <row r="143" spans="5:16">
+      <c r="E143" s="53"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H143" s="53" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
+      <c r="P143" s="53"/>
+    </row>
+    <row r="144" spans="5:16">
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H144" s="53" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I144" s="53"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="53"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="53"/>
+      <c r="P144" s="53"/>
+    </row>
+    <row r="145" spans="3:16">
+      <c r="E145" s="53"/>
+      <c r="F145" s="53" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G145" s="53"/>
+      <c r="H145" s="53"/>
+      <c r="I145" s="53"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="53"/>
+      <c r="L145" s="53"/>
+      <c r="M145" s="53"/>
+      <c r="N145" s="53"/>
+      <c r="O145" s="53"/>
+      <c r="P145" s="53"/>
+    </row>
+    <row r="147" spans="3:16">
+      <c r="D147" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="3:16">
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-    </row>
-    <row r="142" spans="3:16">
-      <c r="C142" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-    </row>
-    <row r="143" spans="3:16">
-      <c r="C143" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="8"/>
-    </row>
-    <row r="144" spans="3:16">
-      <c r="C144" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="C145" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="C146" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-    </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="3:16">
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
-      <c r="N148" s="8" t="s">
-        <v>291</v>
-      </c>
+      <c r="N148" s="8"/>
       <c r="O148" s="8"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="3:16">
       <c r="C149" s="2" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -21376,9 +21584,9 @@
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="3:16">
       <c r="C150" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -21389,9 +21597,9 @@
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="3:16">
       <c r="C151" s="2" t="s">
-        <v>288</v>
+        <v>1183</v>
       </c>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
@@ -21402,7 +21610,10 @@
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="3:16">
+      <c r="C152" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
@@ -21412,7 +21623,10 @@
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="3:16">
+      <c r="C153" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
@@ -21422,7 +21636,7 @@
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="3:16">
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
@@ -21432,10 +21646,7 @@
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
     </row>
-    <row r="155" spans="1:15">
-      <c r="C155" s="2" t="s">
-        <v>541</v>
-      </c>
+    <row r="155" spans="3:16">
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
@@ -21443,11 +21654,14 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
       <c r="N155" s="8" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="O155" s="8"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="3:16">
+      <c r="C156" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
@@ -21457,12 +21671,10 @@
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
     </row>
-    <row r="157" spans="1:15">
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
+    <row r="157" spans="3:16">
+      <c r="C157" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
@@ -21472,12 +21684,10 @@
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
     </row>
-    <row r="158" spans="1:15">
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
+    <row r="158" spans="3:16">
+      <c r="C158" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
@@ -21487,15 +21697,7 @@
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
     </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="78" t="s">
-        <v>938</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
+    <row r="159" spans="3:16">
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
@@ -21505,676 +21707,670 @@
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
     </row>
-    <row r="160" spans="1:15">
-      <c r="C160" s="8" t="s">
+    <row r="160" spans="3:16">
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+    </row>
+    <row r="161" spans="1:22">
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+    </row>
+    <row r="162" spans="1:22">
+      <c r="C162" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O162" s="8"/>
+    </row>
+    <row r="163" spans="1:22">
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+    </row>
+    <row r="164" spans="1:22">
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+    </row>
+    <row r="165" spans="1:22">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+    </row>
+    <row r="166" spans="1:22">
+      <c r="A166" s="78" t="s">
+        <v>938</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
+    </row>
+    <row r="167" spans="1:22">
+      <c r="C167" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="5"/>
-    </row>
-    <row r="161" spans="3:22">
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="3:22">
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="3:22">
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-    </row>
-    <row r="165" spans="3:22">
-      <c r="C165" s="31" t="s">
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="1:22">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:22">
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="C172" s="31" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="3:22">
-      <c r="C166" s="31"/>
-    </row>
-    <row r="167" spans="3:22">
-      <c r="C167" s="2" t="s">
+    <row r="173" spans="1:22">
+      <c r="C173" s="31"/>
+    </row>
+    <row r="174" spans="1:22">
+      <c r="C174" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="3:22">
-      <c r="D168" s="2" t="s">
+    <row r="175" spans="1:22">
+      <c r="D175" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E168" s="53" t="s">
+      <c r="E175" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="53"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="53"/>
-      <c r="L168" s="53"/>
-      <c r="M168" s="53"/>
-      <c r="N168" s="53"/>
-      <c r="O168" s="53"/>
-      <c r="P168" s="53"/>
-      <c r="Q168" s="53"/>
-      <c r="R168" s="53"/>
-      <c r="S168" s="53"/>
-      <c r="T168" s="53"/>
-      <c r="U168" s="53"/>
-      <c r="V168" s="53"/>
-    </row>
-    <row r="170" spans="3:22">
-      <c r="E170" s="57" t="s">
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="53"/>
+      <c r="J175" s="53"/>
+      <c r="K175" s="53"/>
+      <c r="L175" s="53"/>
+      <c r="M175" s="53"/>
+      <c r="N175" s="53"/>
+      <c r="O175" s="53"/>
+      <c r="P175" s="53"/>
+      <c r="Q175" s="53"/>
+      <c r="R175" s="53"/>
+      <c r="S175" s="53"/>
+      <c r="T175" s="53"/>
+      <c r="U175" s="53"/>
+      <c r="V175" s="53"/>
+    </row>
+    <row r="177" spans="5:10">
+      <c r="E177" s="57" t="s">
         <v>1104</v>
       </c>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
-      <c r="I170" s="57"/>
-    </row>
-    <row r="171" spans="3:22">
-      <c r="F171" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="H171" s="25"/>
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="3:22">
-      <c r="F172" s="57" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G172" s="57"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="3:22">
-      <c r="F173" s="57" t="s">
-        <v>605</v>
-      </c>
-      <c r="G173" s="57"/>
-      <c r="H173" s="25"/>
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="3:22">
-      <c r="E174" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G174" s="32"/>
-    </row>
-    <row r="175" spans="3:22">
-      <c r="F175" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G175" s="32"/>
-    </row>
-    <row r="176" spans="3:22">
-      <c r="E176" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="5:10">
-      <c r="F177" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
     </row>
     <row r="178" spans="5:10">
       <c r="F178" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H178" s="25"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="5:10">
+      <c r="F179" s="57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G179" s="57"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="5:10">
+      <c r="F180" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="G180" s="57"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="5:10">
+      <c r="E181" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G181" s="32"/>
+    </row>
+    <row r="182" spans="5:10">
+      <c r="F182" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G182" s="32"/>
+    </row>
+    <row r="183" spans="5:10">
+      <c r="E183" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="5:10">
+      <c r="F184" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="5:10">
+      <c r="F185" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="5:10">
-      <c r="F179" s="5" t="s">
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="5:10">
+      <c r="F186" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G186" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="5:10">
-      <c r="F180" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="181" spans="5:10">
-      <c r="G181" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="182" spans="5:10">
-      <c r="G182" s="57" t="s">
-        <v>657</v>
-      </c>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="57"/>
-    </row>
-    <row r="183" spans="5:10">
-      <c r="G183" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="H183" s="57" t="s">
-        <v>565</v>
-      </c>
-      <c r="I183" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="J183" s="57"/>
-    </row>
-    <row r="184" spans="5:10">
-      <c r="E184" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="185" spans="5:10">
-      <c r="F185" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="5:10">
-      <c r="F186" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
     </row>
     <row r="187" spans="5:10">
       <c r="F187" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="188" spans="5:10">
+      <c r="G188" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="189" spans="5:10">
+      <c r="G189" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
+    </row>
+    <row r="190" spans="5:10">
+      <c r="G190" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="H190" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="I190" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="J190" s="57"/>
+    </row>
+    <row r="191" spans="5:10">
+      <c r="E191" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="192" spans="5:10">
+      <c r="F192" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8">
+      <c r="F193" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8">
+      <c r="F194" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="5:10">
-      <c r="E188" s="2" t="s">
+    <row r="195" spans="5:8">
+      <c r="E195" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="5:10">
-      <c r="F189" s="2" t="s">
+    <row r="196" spans="5:8">
+      <c r="F196" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="190" spans="5:10">
-      <c r="E190" s="2" t="s">
+    <row r="197" spans="5:8">
+      <c r="E197" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="5:10">
-      <c r="F191" s="2" t="s">
+    <row r="198" spans="5:8">
+      <c r="F198" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="5:10">
-      <c r="F192" s="5" t="s">
+    <row r="199" spans="5:8">
+      <c r="F199" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G192" s="9"/>
-    </row>
-    <row r="193" spans="5:9">
-      <c r="F193" s="57" t="s">
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="5:8">
+      <c r="F200" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="G193" s="57" t="s">
+      <c r="G200" s="57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="5:9">
-      <c r="F194" s="2" t="s">
+    <row r="201" spans="5:8">
+      <c r="F201" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="G201" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="5:9">
-      <c r="E195" s="2" t="s">
+    <row r="202" spans="5:8">
+      <c r="E202" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="196" spans="5:9">
-      <c r="F196" s="2" t="s">
+    <row r="203" spans="5:8">
+      <c r="F203" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="5:9">
-      <c r="F197" s="5" t="s">
+    <row r="204" spans="5:8">
+      <c r="F204" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="5:9">
-      <c r="F198" s="57" t="s">
+      <c r="G204" s="9"/>
+    </row>
+    <row r="205" spans="5:8">
+      <c r="F205" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="G198" s="57" t="s">
+      <c r="G205" s="57" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="199" spans="5:9">
-      <c r="F199" s="57" t="s">
+    <row r="206" spans="5:8">
+      <c r="F206" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="G199" s="57" t="s">
+      <c r="G206" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="H199" s="57" t="s">
+      <c r="H206" s="57" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="200" spans="5:9">
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-    </row>
-    <row r="201" spans="5:9">
-      <c r="E201" s="2" t="s">
+    <row r="207" spans="5:8">
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="5:8">
+      <c r="E208" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="202" spans="5:9">
-      <c r="F202" s="2" t="s">
+    <row r="209" spans="5:11">
+      <c r="F209" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G202" s="33"/>
-    </row>
-    <row r="203" spans="5:9">
-      <c r="F203" s="57" t="s">
+      <c r="G209" s="33"/>
+    </row>
+    <row r="210" spans="5:11">
+      <c r="F210" s="57" t="s">
         <v>664</v>
       </c>
-      <c r="G203" s="57" t="s">
+      <c r="G210" s="57" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="204" spans="5:9">
-      <c r="F204" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="205" spans="5:9">
-      <c r="G205" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="H205" s="20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="206" spans="5:9">
-      <c r="G206" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="H206" s="25"/>
-    </row>
-    <row r="207" spans="5:9">
-      <c r="F207" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="208" spans="5:9">
-      <c r="G208" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="209" spans="5:11">
-      <c r="H209" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="5:11">
-      <c r="E210" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="211" spans="5:11">
       <c r="F211" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="212" spans="5:11">
+      <c r="G212" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H212" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="213" spans="5:11">
+      <c r="G213" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="H213" s="25"/>
+    </row>
+    <row r="214" spans="5:11">
+      <c r="F214" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="5:11">
+      <c r="G215" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="216" spans="5:11">
+      <c r="H216" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="5:11">
+      <c r="E217" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="218" spans="5:11">
+      <c r="F218" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G211" s="33"/>
-    </row>
-    <row r="212" spans="5:11">
-      <c r="F212" s="2" t="s">
+      <c r="G218" s="33"/>
+    </row>
+    <row r="219" spans="5:11">
+      <c r="F219" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G219" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="213" spans="5:11">
-      <c r="G213" s="2" t="s">
+    <row r="220" spans="5:11">
+      <c r="G220" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H213" s="2" t="s">
+      <c r="H220" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="I213" s="2" t="s">
+      <c r="I220" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="214" spans="5:11">
-      <c r="E214" s="2" t="s">
+    <row r="221" spans="5:11">
+      <c r="E221" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="215" spans="5:11">
-      <c r="F215" s="2" t="s">
+    <row r="222" spans="5:11">
+      <c r="F222" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G215" s="33"/>
-    </row>
-    <row r="216" spans="5:11">
-      <c r="F216" s="57" t="s">
+      <c r="G222" s="33"/>
+    </row>
+    <row r="223" spans="5:11">
+      <c r="F223" s="57" t="s">
         <v>664</v>
       </c>
-      <c r="G216" s="57" t="s">
+      <c r="G223" s="57" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="217" spans="5:11">
-      <c r="F217" s="2" t="s">
+    <row r="224" spans="5:11">
+      <c r="F224" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G217" s="57" t="s">
+      <c r="G224" s="57" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="218" spans="5:11">
-      <c r="G218" s="5" t="s">
+    <row r="225" spans="1:13">
+      <c r="G225" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H218" s="20" t="s">
+      <c r="H225" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="219" spans="5:11">
-      <c r="G219" s="5" t="s">
+    <row r="226" spans="1:13">
+      <c r="G226" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="H219" s="25"/>
-    </row>
-    <row r="220" spans="5:11">
-      <c r="F220" s="2" t="s">
+      <c r="H226" s="25"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="F227" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G220" s="2" t="s">
+      <c r="G227" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="221" spans="5:11">
-      <c r="G221" s="2" t="s">
+    <row r="228" spans="1:13">
+      <c r="G228" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H221" s="2" t="s">
+      <c r="H228" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="I228" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="5:11">
-      <c r="E222" s="57" t="s">
+    <row r="229" spans="1:13">
+      <c r="E229" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57"/>
-      <c r="H222" s="57"/>
-      <c r="I222" s="57"/>
-      <c r="J222" s="57"/>
-      <c r="K222" s="57"/>
-    </row>
-    <row r="223" spans="5:11">
-      <c r="E223" s="57"/>
-      <c r="F223" s="57" t="s">
-        <v>663</v>
-      </c>
-      <c r="G223" s="33"/>
-      <c r="H223" s="57"/>
-      <c r="I223" s="57"/>
-      <c r="J223" s="57"/>
-      <c r="K223" s="57"/>
-    </row>
-    <row r="224" spans="5:11">
-      <c r="E224" s="57"/>
-      <c r="F224" s="57" t="s">
-        <v>664</v>
-      </c>
-      <c r="G224" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="H224" s="57"/>
-      <c r="I224" s="57"/>
-      <c r="J224" s="57"/>
-      <c r="K224" s="57"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="E225" s="57"/>
-      <c r="F225" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="G225" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="H225" s="57"/>
-      <c r="I225" s="57"/>
-      <c r="J225" s="57"/>
-      <c r="K225" s="57"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="E226" s="57"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="H226" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="I226" s="57"/>
-      <c r="J226" s="57"/>
-      <c r="K226" s="57"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="E227" s="57"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57" t="s">
-        <v>665</v>
-      </c>
-      <c r="H227" s="25"/>
-      <c r="I227" s="57"/>
-      <c r="J227" s="57"/>
-      <c r="K227" s="57"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="E228" s="57"/>
-      <c r="F228" s="57" t="s">
-        <v>666</v>
-      </c>
-      <c r="G228" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="H228" s="57"/>
-      <c r="I228" s="57"/>
-      <c r="J228" s="57"/>
-      <c r="K228" s="57"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="E229" s="57"/>
       <c r="F229" s="57"/>
-      <c r="G229" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="H229" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="I229" s="57" t="s">
-        <v>160</v>
-      </c>
+      <c r="G229" s="57"/>
+      <c r="H229" s="57"/>
+      <c r="I229" s="57"/>
       <c r="J229" s="57"/>
       <c r="K229" s="57"/>
     </row>
     <row r="230" spans="1:13">
       <c r="E230" s="57"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="57"/>
-      <c r="H230" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="I230" s="57" t="s">
-        <v>319</v>
-      </c>
+      <c r="F230" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="G230" s="33"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="57"/>
       <c r="J230" s="57"/>
       <c r="K230" s="57"/>
     </row>
+    <row r="231" spans="1:13">
+      <c r="E231" s="57"/>
+      <c r="F231" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="G231" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+    </row>
     <row r="232" spans="1:13">
-      <c r="A232" s="78" t="s">
+      <c r="E232" s="57"/>
+      <c r="F232" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G232" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="H232" s="57"/>
+      <c r="I232" s="57"/>
+      <c r="J232" s="57"/>
+      <c r="K232" s="57"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="E233" s="57"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="H233" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="I233" s="57"/>
+      <c r="J233" s="57"/>
+      <c r="K233" s="57"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="E234" s="57"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="57" t="s">
+        <v>665</v>
+      </c>
+      <c r="H234" s="25"/>
+      <c r="I234" s="57"/>
+      <c r="J234" s="57"/>
+      <c r="K234" s="57"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="E235" s="57"/>
+      <c r="F235" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="G235" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="H235" s="57"/>
+      <c r="I235" s="57"/>
+      <c r="J235" s="57"/>
+      <c r="K235" s="57"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="E236" s="57"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="H236" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="I236" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="J236" s="57"/>
+      <c r="K236" s="57"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="E237" s="57"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="57"/>
+      <c r="H237" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="I237" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="J237" s="57"/>
+      <c r="K237" s="57"/>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="78" t="s">
         <v>938</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E239" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-      <c r="M232" s="8"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="E233" s="8"/>
-      <c r="F233" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="G233" s="114"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
-      <c r="M233" s="8"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="E234" s="8"/>
-      <c r="F234" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
-      <c r="K234" s="8"/>
-      <c r="L234" s="8"/>
-      <c r="M234" s="8"/>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="E235" s="8"/>
-      <c r="F235" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
-      <c r="K235" s="8"/>
-      <c r="L235" s="8"/>
-      <c r="M235" s="8"/>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H236" s="114"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="8"/>
-      <c r="M236" s="8"/>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="E237" s="8"/>
-      <c r="F237" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G237" s="115" t="s">
-        <v>330</v>
-      </c>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
-      <c r="M237" s="8"/>
-    </row>
-    <row r="238" spans="1:13">
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
-      <c r="K238" s="8"/>
-      <c r="L238" s="8"/>
-      <c r="M238" s="8"/>
-    </row>
-    <row r="239" spans="1:13">
-      <c r="E239" s="8"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
-      <c r="H239" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I239" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
       <c r="J239" s="8"/>
       <c r="K239" s="8"/>
       <c r="L239" s="8"/>
@@ -22182,14 +22378,12 @@
     </row>
     <row r="240" spans="1:13">
       <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>335</v>
-      </c>
+      <c r="F240" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="G240" s="114"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="8"/>
       <c r="L240" s="8"/>
@@ -22197,13 +22391,13 @@
     </row>
     <row r="241" spans="5:13">
       <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
+      <c r="F241" s="8" t="s">
+        <v>664</v>
+      </c>
       <c r="G241" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H241" s="8" t="s">
-        <v>337</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="H241" s="8"/>
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="8"/>
@@ -22212,9 +22406,11 @@
     </row>
     <row r="242" spans="5:13">
       <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
+      <c r="F242" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="G242" s="8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
@@ -22226,43 +22422,37 @@
     <row r="243" spans="5:13">
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="G243" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H243" s="114"/>
       <c r="I243" s="8"/>
-      <c r="J243" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="K243" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="J243" s="8"/>
+      <c r="K243" s="8"/>
       <c r="L243" s="8"/>
       <c r="M243" s="8"/>
     </row>
     <row r="244" spans="5:13">
       <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="I244" s="91"/>
-      <c r="J244" s="116" t="s">
-        <v>343</v>
-      </c>
-      <c r="K244" s="116" t="s">
-        <v>344</v>
-      </c>
+      <c r="F244" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G244" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+      <c r="J244" s="8"/>
+      <c r="K244" s="8"/>
       <c r="L244" s="8"/>
       <c r="M244" s="8"/>
     </row>
     <row r="245" spans="5:13">
       <c r="E245" s="8"/>
-      <c r="F245" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
@@ -22273,11 +22463,13 @@
     <row r="246" spans="5:13">
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
-      <c r="G246" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I246" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="J246" s="8"/>
       <c r="K246" s="8"/>
       <c r="L246" s="8"/>
@@ -22286,11 +22478,13 @@
     <row r="247" spans="5:13">
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
-      <c r="G247" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H247" s="8"/>
-      <c r="I247" s="8"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="J247" s="8"/>
       <c r="K247" s="8"/>
       <c r="L247" s="8"/>
@@ -22299,13 +22493,13 @@
     <row r="248" spans="5:13">
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
+      <c r="G248" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="H248" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>349</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="I248" s="8"/>
       <c r="J248" s="8"/>
       <c r="K248" s="8"/>
       <c r="L248" s="8"/>
@@ -22314,13 +22508,11 @@
     <row r="249" spans="5:13">
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>351</v>
-      </c>
+      <c r="G249" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H249" s="8"/>
+      <c r="I249" s="8"/>
       <c r="J249" s="8"/>
       <c r="K249" s="8"/>
       <c r="L249" s="8"/>
@@ -22329,13 +22521,17 @@
     <row r="250" spans="5:13">
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
-      <c r="G250" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H250" s="8"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="I250" s="8"/>
-      <c r="J250" s="117"/>
-      <c r="K250" s="8"/>
+      <c r="J250" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="L250" s="8"/>
       <c r="M250" s="8"/>
     </row>
@@ -22343,32 +22539,28 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
-      <c r="H251" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I251" s="118" t="s">
-        <v>353</v>
-      </c>
-      <c r="J251" s="118" t="s">
-        <v>354</v>
-      </c>
-      <c r="K251" s="8"/>
+      <c r="H251" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="I251" s="91"/>
+      <c r="J251" s="116" t="s">
+        <v>343</v>
+      </c>
+      <c r="K251" s="116" t="s">
+        <v>344</v>
+      </c>
       <c r="L251" s="8"/>
       <c r="M251" s="8"/>
     </row>
     <row r="252" spans="5:13">
       <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
+      <c r="F252" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="G252" s="8"/>
-      <c r="H252" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I252" s="119" t="s">
-        <v>356</v>
-      </c>
-      <c r="J252" s="119" t="s">
-        <v>357</v>
-      </c>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+      <c r="J252" s="8"/>
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
       <c r="M252" s="8"/>
@@ -22377,11 +22569,9 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H253" s="8" t="s">
-        <v>359</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="H253" s="8"/>
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
       <c r="K253" s="8"/>
@@ -22391,10 +22581,10 @@
     <row r="254" spans="5:13">
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="G254" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H254" s="8"/>
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
       <c r="K254" s="8"/>
@@ -22403,12 +22593,14 @@
     </row>
     <row r="255" spans="5:13">
       <c r="E255" s="8"/>
-      <c r="F255" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="F255" s="8"/>
       <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
+      <c r="H255" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="J255" s="8"/>
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
@@ -22417,13 +22609,13 @@
     <row r="256" spans="5:13">
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
-      <c r="G256" s="8" t="s">
-        <v>363</v>
-      </c>
+      <c r="G256" s="8"/>
       <c r="H256" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I256" s="8"/>
+        <v>350</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="J256" s="8"/>
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
@@ -22432,12 +22624,12 @@
     <row r="257" spans="5:13">
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8" t="s">
-        <v>365</v>
-      </c>
+      <c r="G257" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H257" s="8"/>
       <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
+      <c r="J257" s="117"/>
       <c r="K257" s="8"/>
       <c r="L257" s="8"/>
       <c r="M257" s="8"/>
@@ -22445,14 +22637,16 @@
     <row r="258" spans="5:13">
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
-      <c r="G258" s="8" t="s">
-        <v>366</v>
-      </c>
+      <c r="G258" s="8"/>
       <c r="H258" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
+        <v>358</v>
+      </c>
+      <c r="I258" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="J258" s="118" t="s">
+        <v>354</v>
+      </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
       <c r="M258" s="8"/>
@@ -22460,14 +22654,16 @@
     <row r="259" spans="5:13">
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
-      <c r="G259" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="G259" s="8"/>
       <c r="H259" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="I259" s="119" t="s">
+        <v>356</v>
+      </c>
+      <c r="J259" s="119" t="s">
+        <v>357</v>
+      </c>
       <c r="K259" s="8"/>
       <c r="L259" s="8"/>
       <c r="M259" s="8"/>
@@ -22475,13 +22671,13 @@
     <row r="260" spans="5:13">
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
+      <c r="G260" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="H260" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I260" s="91" t="s">
-        <v>323</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I260" s="8"/>
       <c r="J260" s="8"/>
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
@@ -22490,11 +22686,9 @@
     <row r="261" spans="5:13">
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
-      <c r="G261" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="G261" s="8"/>
       <c r="H261" s="8" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
@@ -22504,17 +22698,13 @@
     </row>
     <row r="262" spans="5:13">
       <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
+      <c r="F262" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="G262" s="8"/>
-      <c r="H262" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I262" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J262" s="8" t="s">
-        <v>317</v>
-      </c>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+      <c r="J262" s="8"/>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="8"/>
@@ -22522,27 +22712,25 @@
     <row r="263" spans="5:13">
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J263" s="8" t="s">
-        <v>319</v>
-      </c>
+      <c r="G263" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I263" s="8"/>
+      <c r="J263" s="8"/>
       <c r="K263" s="8"/>
-      <c r="L263" s="8" t="s">
-        <v>318</v>
-      </c>
+      <c r="L263" s="8"/>
       <c r="M263" s="8"/>
     </row>
     <row r="264" spans="5:13">
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
-      <c r="G264" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H264" s="8"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
       <c r="K264" s="8"/>
@@ -22552,13 +22740,13 @@
     <row r="265" spans="5:13">
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
+      <c r="G265" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="H265" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I265" s="91" t="s">
-        <v>321</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="I265" s="8"/>
       <c r="J265" s="8"/>
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
@@ -22567,276 +22755,173 @@
     <row r="266" spans="5:13">
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
+      <c r="G266" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="H266" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I266" s="118" t="s">
-        <v>371</v>
-      </c>
-      <c r="J266" s="118" t="s">
-        <v>372</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="I266" s="8"/>
+      <c r="J266" s="8"/>
       <c r="K266" s="8"/>
       <c r="L266" s="8"/>
       <c r="M266" s="8"/>
     </row>
     <row r="267" spans="5:13">
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="71"/>
-      <c r="J267" s="71"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I267" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="J267" s="8"/>
+      <c r="K267" s="8"/>
+      <c r="L267" s="8"/>
+      <c r="M267" s="8"/>
     </row>
     <row r="268" spans="5:13">
-      <c r="E268" s="31" t="s">
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I268" s="8"/>
+      <c r="J268" s="8"/>
+      <c r="K268" s="8"/>
+      <c r="L268" s="8"/>
+      <c r="M268" s="8"/>
+    </row>
+    <row r="269" spans="5:13">
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I269" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J269" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K269" s="8"/>
+      <c r="L269" s="8"/>
+      <c r="M269" s="8"/>
+    </row>
+    <row r="270" spans="5:13">
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J270" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K270" s="8"/>
+      <c r="L270" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M270" s="8"/>
+    </row>
+    <row r="271" spans="5:13">
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
+      <c r="J271" s="8"/>
+      <c r="K271" s="8"/>
+      <c r="L271" s="8"/>
+      <c r="M271" s="8"/>
+    </row>
+    <row r="272" spans="5:13">
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I272" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="J272" s="8"/>
+      <c r="K272" s="8"/>
+      <c r="L272" s="8"/>
+      <c r="M272" s="8"/>
+    </row>
+    <row r="273" spans="5:30">
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I273" s="118" t="s">
+        <v>371</v>
+      </c>
+      <c r="J273" s="118" t="s">
+        <v>372</v>
+      </c>
+      <c r="K273" s="8"/>
+      <c r="L273" s="8"/>
+      <c r="M273" s="8"/>
+    </row>
+    <row r="274" spans="5:30">
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="71"/>
+      <c r="J274" s="71"/>
+    </row>
+    <row r="275" spans="5:30">
+      <c r="E275" s="31" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="269" spans="5:13">
-      <c r="F269" s="2" t="s">
+    <row r="276" spans="5:30">
+      <c r="F276" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="270" spans="5:13">
-      <c r="F270" s="2" t="s">
+    <row r="277" spans="5:30">
+      <c r="F277" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="271" spans="5:13">
-      <c r="E271" s="2" t="s">
+    <row r="278" spans="5:30">
+      <c r="E278" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="272" spans="5:13">
-      <c r="F272" s="5" t="s">
+    <row r="279" spans="5:30">
+      <c r="F279" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G272" s="9"/>
-    </row>
-    <row r="273" spans="5:30">
-      <c r="F273" s="2" t="s">
+      <c r="G279" s="9"/>
+    </row>
+    <row r="280" spans="5:30">
+      <c r="F280" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="5:30">
-      <c r="E274" s="8" t="s">
+    <row r="281" spans="5:30">
+      <c r="E281" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
-      <c r="K274" s="8"/>
-      <c r="L274" s="8"/>
-      <c r="M274" s="8"/>
-      <c r="N274" s="8"/>
-      <c r="O274" s="8"/>
-      <c r="P274" s="8"/>
-      <c r="Q274" s="8"/>
-      <c r="R274" s="8"/>
-      <c r="S274" s="8"/>
-      <c r="T274" s="8"/>
-      <c r="U274" s="8"/>
-      <c r="V274" s="8"/>
-      <c r="W274" s="8"/>
-      <c r="X274" s="8"/>
-      <c r="Y274" s="8"/>
-      <c r="Z274" s="8"/>
-      <c r="AA274" s="8"/>
-      <c r="AB274" s="8"/>
-      <c r="AC274" s="8"/>
-      <c r="AD274" s="8"/>
-    </row>
-    <row r="275" spans="5:30">
-      <c r="E275" s="8"/>
-      <c r="F275" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
-      <c r="K275" s="8"/>
-      <c r="L275" s="8"/>
-      <c r="M275" s="8"/>
-      <c r="N275" s="8"/>
-      <c r="O275" s="8"/>
-      <c r="P275" s="8"/>
-      <c r="Q275" s="8"/>
-      <c r="R275" s="8"/>
-      <c r="S275" s="8"/>
-      <c r="T275" s="8"/>
-      <c r="U275" s="8"/>
-      <c r="V275" s="8"/>
-      <c r="W275" s="8"/>
-      <c r="X275" s="8"/>
-      <c r="Y275" s="8"/>
-      <c r="Z275" s="8"/>
-      <c r="AA275" s="8"/>
-      <c r="AB275" s="8"/>
-      <c r="AC275" s="8"/>
-      <c r="AD275" s="8"/>
-    </row>
-    <row r="276" spans="5:30">
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
-      <c r="K276" s="8"/>
-      <c r="L276" s="8"/>
-      <c r="M276" s="8"/>
-      <c r="N276" s="8"/>
-      <c r="O276" s="8"/>
-      <c r="P276" s="8"/>
-      <c r="Q276" s="8"/>
-      <c r="R276" s="8"/>
-      <c r="S276" s="8"/>
-      <c r="T276" s="8"/>
-      <c r="U276" s="8"/>
-      <c r="V276" s="8"/>
-      <c r="W276" s="8"/>
-      <c r="X276" s="8"/>
-      <c r="Y276" s="8"/>
-      <c r="Z276" s="8"/>
-      <c r="AA276" s="8"/>
-      <c r="AB276" s="8"/>
-      <c r="AC276" s="8"/>
-      <c r="AD276" s="8"/>
-    </row>
-    <row r="277" spans="5:30">
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
-      <c r="K277" s="8"/>
-      <c r="L277" s="8"/>
-      <c r="M277" s="8"/>
-      <c r="N277" s="8"/>
-      <c r="O277" s="8"/>
-      <c r="P277" s="8"/>
-      <c r="Q277" s="8"/>
-      <c r="R277" s="8"/>
-      <c r="S277" s="8"/>
-      <c r="T277" s="8"/>
-      <c r="U277" s="8"/>
-      <c r="V277" s="8"/>
-      <c r="W277" s="8"/>
-      <c r="X277" s="8"/>
-      <c r="Y277" s="8"/>
-      <c r="Z277" s="8"/>
-      <c r="AA277" s="8"/>
-      <c r="AB277" s="8"/>
-      <c r="AC277" s="8"/>
-      <c r="AD277" s="8"/>
-    </row>
-    <row r="278" spans="5:30">
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
-      <c r="H278" s="8"/>
-      <c r="I278" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J278" s="8"/>
-      <c r="K278" s="8"/>
-      <c r="L278" s="8"/>
-      <c r="M278" s="8"/>
-      <c r="N278" s="8"/>
-      <c r="O278" s="8"/>
-      <c r="P278" s="8"/>
-      <c r="Q278" s="8"/>
-      <c r="R278" s="8"/>
-      <c r="S278" s="8"/>
-      <c r="T278" s="8"/>
-      <c r="U278" s="8"/>
-      <c r="V278" s="8"/>
-      <c r="W278" s="8"/>
-      <c r="X278" s="8"/>
-      <c r="Y278" s="8"/>
-      <c r="Z278" s="8"/>
-      <c r="AA278" s="8"/>
-      <c r="AB278" s="8"/>
-      <c r="AC278" s="8"/>
-      <c r="AD278" s="8"/>
-    </row>
-    <row r="279" spans="5:30">
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
-      <c r="J279" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="K279" s="8"/>
-      <c r="L279" s="8"/>
-      <c r="M279" s="8"/>
-      <c r="N279" s="8"/>
-      <c r="O279" s="8"/>
-      <c r="P279" s="8"/>
-      <c r="Q279" s="8"/>
-      <c r="R279" s="8"/>
-      <c r="S279" s="8"/>
-      <c r="T279" s="8"/>
-      <c r="U279" s="8"/>
-      <c r="V279" s="8"/>
-      <c r="W279" s="8"/>
-      <c r="X279" s="8"/>
-      <c r="Y279" s="8"/>
-      <c r="Z279" s="8"/>
-      <c r="AA279" s="8"/>
-      <c r="AB279" s="8"/>
-      <c r="AC279" s="8"/>
-      <c r="AD279" s="8"/>
-    </row>
-    <row r="280" spans="5:30">
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-      <c r="H280" s="8"/>
-      <c r="I280" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J280" s="8"/>
-      <c r="K280" s="8"/>
-      <c r="L280" s="8"/>
-      <c r="M280" s="8"/>
-      <c r="N280" s="8"/>
-      <c r="O280" s="8"/>
-      <c r="P280" s="8"/>
-      <c r="Q280" s="8"/>
-      <c r="R280" s="8"/>
-      <c r="S280" s="8"/>
-      <c r="T280" s="8"/>
-      <c r="U280" s="8"/>
-      <c r="V280" s="8"/>
-      <c r="W280" s="8"/>
-      <c r="X280" s="8"/>
-      <c r="Y280" s="8"/>
-      <c r="Z280" s="8"/>
-      <c r="AA280" s="8"/>
-      <c r="AB280" s="8"/>
-      <c r="AC280" s="8"/>
-      <c r="AD280" s="8"/>
-    </row>
-    <row r="281" spans="5:30">
-      <c r="E281" s="8"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
-      <c r="J281" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="J281" s="8"/>
       <c r="K281" s="8"/>
       <c r="L281" s="8"/>
       <c r="M281" s="8"/>
@@ -22861,7 +22946,7 @@
     <row r="282" spans="5:30">
       <c r="E282" s="8"/>
       <c r="F282" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
@@ -22892,7 +22977,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8" t="s">
-        <v>715</v>
+        <v>487</v>
       </c>
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
@@ -22920,11 +23005,11 @@
     </row>
     <row r="284" spans="5:30">
       <c r="E284" s="8"/>
-      <c r="F284" s="168" t="s">
-        <v>383</v>
-      </c>
+      <c r="F284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="8"/>
+      <c r="H284" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
       <c r="K284" s="8"/>
@@ -22951,11 +23036,11 @@
     <row r="285" spans="5:30">
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
-      <c r="G285" s="8" t="s">
-        <v>716</v>
-      </c>
+      <c r="G285" s="8"/>
       <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
+      <c r="I285" s="8" t="s">
+        <v>378</v>
+      </c>
       <c r="J285" s="8"/>
       <c r="K285" s="8"/>
       <c r="L285" s="8"/>
@@ -22982,11 +23067,11 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
-      <c r="H286" s="8" t="s">
-        <v>384</v>
-      </c>
+      <c r="H286" s="8"/>
       <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
+      <c r="J286" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="K286" s="8"/>
       <c r="L286" s="8"/>
       <c r="M286" s="8"/>
@@ -23012,10 +23097,10 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
       <c r="G287" s="8"/>
-      <c r="H287" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I287" s="8"/>
+      <c r="H287" s="8"/>
+      <c r="I287" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="J287" s="8"/>
       <c r="K287" s="8"/>
       <c r="L287" s="8"/>
@@ -23039,271 +23124,324 @@
       <c r="AD287" s="8"/>
     </row>
     <row r="288" spans="5:30">
-      <c r="E288" s="2" t="s">
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
+      <c r="I288" s="8"/>
+      <c r="J288" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="K288" s="8"/>
+      <c r="L288" s="8"/>
+      <c r="M288" s="8"/>
+      <c r="N288" s="8"/>
+      <c r="O288" s="8"/>
+      <c r="P288" s="8"/>
+      <c r="Q288" s="8"/>
+      <c r="R288" s="8"/>
+      <c r="S288" s="8"/>
+      <c r="T288" s="8"/>
+      <c r="U288" s="8"/>
+      <c r="V288" s="8"/>
+      <c r="W288" s="8"/>
+      <c r="X288" s="8"/>
+      <c r="Y288" s="8"/>
+      <c r="Z288" s="8"/>
+      <c r="AA288" s="8"/>
+      <c r="AB288" s="8"/>
+      <c r="AC288" s="8"/>
+      <c r="AD288" s="8"/>
+    </row>
+    <row r="289" spans="4:30">
+      <c r="E289" s="8"/>
+      <c r="F289" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="8"/>
+      <c r="J289" s="8"/>
+      <c r="K289" s="8"/>
+      <c r="L289" s="8"/>
+      <c r="M289" s="8"/>
+      <c r="N289" s="8"/>
+      <c r="O289" s="8"/>
+      <c r="P289" s="8"/>
+      <c r="Q289" s="8"/>
+      <c r="R289" s="8"/>
+      <c r="S289" s="8"/>
+      <c r="T289" s="8"/>
+      <c r="U289" s="8"/>
+      <c r="V289" s="8"/>
+      <c r="W289" s="8"/>
+      <c r="X289" s="8"/>
+      <c r="Y289" s="8"/>
+      <c r="Z289" s="8"/>
+      <c r="AA289" s="8"/>
+      <c r="AB289" s="8"/>
+      <c r="AC289" s="8"/>
+      <c r="AD289" s="8"/>
+    </row>
+    <row r="290" spans="4:30">
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+      <c r="J290" s="8"/>
+      <c r="K290" s="8"/>
+      <c r="L290" s="8"/>
+      <c r="M290" s="8"/>
+      <c r="N290" s="8"/>
+      <c r="O290" s="8"/>
+      <c r="P290" s="8"/>
+      <c r="Q290" s="8"/>
+      <c r="R290" s="8"/>
+      <c r="S290" s="8"/>
+      <c r="T290" s="8"/>
+      <c r="U290" s="8"/>
+      <c r="V290" s="8"/>
+      <c r="W290" s="8"/>
+      <c r="X290" s="8"/>
+      <c r="Y290" s="8"/>
+      <c r="Z290" s="8"/>
+      <c r="AA290" s="8"/>
+      <c r="AB290" s="8"/>
+      <c r="AC290" s="8"/>
+      <c r="AD290" s="8"/>
+    </row>
+    <row r="291" spans="4:30">
+      <c r="E291" s="8"/>
+      <c r="F291" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="G291" s="8"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+      <c r="J291" s="8"/>
+      <c r="K291" s="8"/>
+      <c r="L291" s="8"/>
+      <c r="M291" s="8"/>
+      <c r="N291" s="8"/>
+      <c r="O291" s="8"/>
+      <c r="P291" s="8"/>
+      <c r="Q291" s="8"/>
+      <c r="R291" s="8"/>
+      <c r="S291" s="8"/>
+      <c r="T291" s="8"/>
+      <c r="U291" s="8"/>
+      <c r="V291" s="8"/>
+      <c r="W291" s="8"/>
+      <c r="X291" s="8"/>
+      <c r="Y291" s="8"/>
+      <c r="Z291" s="8"/>
+      <c r="AA291" s="8"/>
+      <c r="AB291" s="8"/>
+      <c r="AC291" s="8"/>
+      <c r="AD291" s="8"/>
+    </row>
+    <row r="292" spans="4:30">
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+      <c r="K292" s="8"/>
+      <c r="L292" s="8"/>
+      <c r="M292" s="8"/>
+      <c r="N292" s="8"/>
+      <c r="O292" s="8"/>
+      <c r="P292" s="8"/>
+      <c r="Q292" s="8"/>
+      <c r="R292" s="8"/>
+      <c r="S292" s="8"/>
+      <c r="T292" s="8"/>
+      <c r="U292" s="8"/>
+      <c r="V292" s="8"/>
+      <c r="W292" s="8"/>
+      <c r="X292" s="8"/>
+      <c r="Y292" s="8"/>
+      <c r="Z292" s="8"/>
+      <c r="AA292" s="8"/>
+      <c r="AB292" s="8"/>
+      <c r="AC292" s="8"/>
+      <c r="AD292" s="8"/>
+    </row>
+    <row r="293" spans="4:30">
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I293" s="8"/>
+      <c r="J293" s="8"/>
+      <c r="K293" s="8"/>
+      <c r="L293" s="8"/>
+      <c r="M293" s="8"/>
+      <c r="N293" s="8"/>
+      <c r="O293" s="8"/>
+      <c r="P293" s="8"/>
+      <c r="Q293" s="8"/>
+      <c r="R293" s="8"/>
+      <c r="S293" s="8"/>
+      <c r="T293" s="8"/>
+      <c r="U293" s="8"/>
+      <c r="V293" s="8"/>
+      <c r="W293" s="8"/>
+      <c r="X293" s="8"/>
+      <c r="Y293" s="8"/>
+      <c r="Z293" s="8"/>
+      <c r="AA293" s="8"/>
+      <c r="AB293" s="8"/>
+      <c r="AC293" s="8"/>
+      <c r="AD293" s="8"/>
+    </row>
+    <row r="294" spans="4:30">
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+      <c r="K294" s="8"/>
+      <c r="L294" s="8"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="8"/>
+      <c r="O294" s="8"/>
+      <c r="P294" s="8"/>
+      <c r="Q294" s="8"/>
+      <c r="R294" s="8"/>
+      <c r="S294" s="8"/>
+      <c r="T294" s="8"/>
+      <c r="U294" s="8"/>
+      <c r="V294" s="8"/>
+      <c r="W294" s="8"/>
+      <c r="X294" s="8"/>
+      <c r="Y294" s="8"/>
+      <c r="Z294" s="8"/>
+      <c r="AA294" s="8"/>
+      <c r="AB294" s="8"/>
+      <c r="AC294" s="8"/>
+      <c r="AD294" s="8"/>
+    </row>
+    <row r="295" spans="4:30">
+      <c r="E295" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="289" spans="4:15">
-      <c r="F289" s="131" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G289" s="131"/>
-      <c r="H289" s="131"/>
-      <c r="I289" s="131"/>
-    </row>
-    <row r="290" spans="4:15">
-      <c r="E290" s="5" t="s">
+    <row r="296" spans="4:30">
+      <c r="F296" s="131" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G296" s="131"/>
+      <c r="H296" s="131"/>
+      <c r="I296" s="131"/>
+    </row>
+    <row r="297" spans="4:30">
+      <c r="E297" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F290" s="5" t="s">
+      <c r="F297" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="291" spans="4:15">
-      <c r="F291" s="2" t="s">
+    <row r="298" spans="4:30">
+      <c r="F298" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="292" spans="4:15">
-      <c r="E292" s="8" t="s">
+    <row r="299" spans="4:30">
+      <c r="E299" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-    </row>
-    <row r="293" spans="4:15">
-      <c r="E293" s="8"/>
-      <c r="F293" s="8" t="s">
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+    </row>
+    <row r="300" spans="4:30">
+      <c r="E300" s="8"/>
+      <c r="F300" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="G293" s="8"/>
-      <c r="H293" s="8"/>
-    </row>
-    <row r="294" spans="4:15">
-      <c r="F294" s="127" t="s">
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+    </row>
+    <row r="301" spans="4:30">
+      <c r="F301" s="127" t="s">
         <v>1090</v>
       </c>
-      <c r="G294" s="127"/>
-      <c r="H294" s="127"/>
-    </row>
-    <row r="295" spans="4:15">
-      <c r="D295" s="2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="297" spans="4:15">
-      <c r="K297" s="2" t="s">
+      <c r="G301" s="127"/>
+      <c r="H301" s="127"/>
+    </row>
+    <row r="302" spans="4:30">
+      <c r="D302" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="304" spans="4:30">
+      <c r="K304" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="L297" s="2" t="s">
+      <c r="L304" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="299" spans="4:15">
-      <c r="K299" s="2" t="s">
+    <row r="306" spans="1:22">
+      <c r="K306" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="300" spans="4:15">
-      <c r="L300" s="5" t="s">
+    <row r="307" spans="1:22">
+      <c r="L307" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="M300" s="2" t="s">
+      <c r="M307" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="O300" s="34"/>
-    </row>
-    <row r="301" spans="4:15">
-      <c r="M301" s="2" t="s">
+      <c r="O307" s="34"/>
+    </row>
+    <row r="308" spans="1:22">
+      <c r="M308" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="303" spans="4:15">
-      <c r="L303" s="2" t="s">
+    <row r="310" spans="1:22">
+      <c r="L310" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M303" s="2" t="s">
+      <c r="M310" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="305" spans="1:22">
-      <c r="K305" s="5" t="s">
+    <row r="312" spans="1:22">
+      <c r="K312" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L305" s="5" t="s">
+      <c r="L312" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="306" spans="1:22">
-      <c r="L306" s="2" t="s">
+    <row r="313" spans="1:22">
+      <c r="L313" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="307" spans="1:22">
-      <c r="A307" s="78" t="s">
+    <row r="314" spans="1:22">
+      <c r="A314" s="78" t="s">
         <v>940</v>
       </c>
-      <c r="D307" s="8" t="s">
+      <c r="D314" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
-      <c r="H307" s="8"/>
-      <c r="I307" s="8"/>
-      <c r="J307" s="8"/>
-      <c r="K307" s="8"/>
-      <c r="L307" s="8"/>
-      <c r="M307" s="8"/>
-      <c r="N307" s="8"/>
-      <c r="O307" s="8"/>
-      <c r="P307" s="8"/>
-      <c r="Q307" s="8"/>
-      <c r="R307" s="8"/>
-      <c r="S307" s="8"/>
-      <c r="T307" s="8"/>
-      <c r="U307" s="8"/>
-      <c r="V307" s="8"/>
-    </row>
-    <row r="308" spans="1:22">
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
-      <c r="H308" s="8"/>
-      <c r="I308" s="8"/>
-      <c r="J308" s="8"/>
-      <c r="K308" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="L308" s="112"/>
-      <c r="M308" s="112"/>
-      <c r="N308" s="112"/>
-      <c r="O308" s="8"/>
-      <c r="P308" s="8"/>
-      <c r="Q308" s="8"/>
-      <c r="R308" s="8"/>
-      <c r="S308" s="8"/>
-      <c r="T308" s="8"/>
-      <c r="U308" s="8"/>
-      <c r="V308" s="8"/>
-    </row>
-    <row r="309" spans="1:22">
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
-      <c r="M309" s="8"/>
-      <c r="N309" s="8"/>
-      <c r="O309" s="8"/>
-      <c r="P309" s="8"/>
-      <c r="Q309" s="8"/>
-      <c r="R309" s="8"/>
-      <c r="S309" s="8"/>
-      <c r="T309" s="8"/>
-      <c r="U309" s="8"/>
-      <c r="V309" s="8"/>
-    </row>
-    <row r="310" spans="1:22">
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
-      <c r="K310" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="L310" s="8"/>
-      <c r="M310" s="8"/>
-      <c r="N310" s="8"/>
-      <c r="O310" s="8"/>
-      <c r="P310" s="8"/>
-      <c r="Q310" s="8"/>
-      <c r="R310" s="8"/>
-      <c r="S310" s="8"/>
-      <c r="T310" s="8"/>
-      <c r="U310" s="8"/>
-      <c r="V310" s="8"/>
-    </row>
-    <row r="311" spans="1:22">
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-      <c r="H311" s="8"/>
-      <c r="I311" s="8"/>
-      <c r="J311" s="8"/>
-      <c r="K311" s="8"/>
-      <c r="L311" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="M311" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="N311" s="8"/>
-      <c r="O311" s="113"/>
-      <c r="P311" s="8"/>
-      <c r="Q311" s="8"/>
-      <c r="R311" s="8"/>
-      <c r="S311" s="8"/>
-      <c r="T311" s="8"/>
-      <c r="U311" s="8"/>
-      <c r="V311" s="8"/>
-    </row>
-    <row r="312" spans="1:22">
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="8"/>
-      <c r="H312" s="8"/>
-      <c r="I312" s="8"/>
-      <c r="J312" s="8"/>
-      <c r="K312" s="8"/>
-      <c r="L312" s="8"/>
-      <c r="M312" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="N312" s="8"/>
-      <c r="O312" s="8"/>
-      <c r="P312" s="8"/>
-      <c r="Q312" s="8"/>
-      <c r="R312" s="8"/>
-      <c r="S312" s="8"/>
-      <c r="T312" s="8"/>
-      <c r="U312" s="8"/>
-      <c r="V312" s="8"/>
-    </row>
-    <row r="313" spans="1:22">
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8"/>
-      <c r="H313" s="8"/>
-      <c r="I313" s="8"/>
-      <c r="J313" s="8"/>
-      <c r="K313" s="8"/>
-      <c r="L313" s="8"/>
-      <c r="M313" s="8"/>
-      <c r="N313" s="8"/>
-      <c r="O313" s="8"/>
-      <c r="P313" s="8"/>
-      <c r="Q313" s="8"/>
-      <c r="R313" s="8"/>
-      <c r="S313" s="8"/>
-      <c r="T313" s="8"/>
-      <c r="U313" s="8"/>
-      <c r="V313" s="8"/>
-    </row>
-    <row r="314" spans="1:22">
-      <c r="D314" s="8"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
@@ -23311,12 +23449,8 @@
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
       <c r="K314" s="8"/>
-      <c r="L314" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="M314" s="8" t="s">
-        <v>631</v>
-      </c>
+      <c r="L314" s="8"/>
+      <c r="M314" s="8"/>
       <c r="N314" s="8"/>
       <c r="O314" s="8"/>
       <c r="P314" s="8"/>
@@ -23335,10 +23469,12 @@
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
-      <c r="K315" s="8"/>
-      <c r="L315" s="8"/>
-      <c r="M315" s="8"/>
-      <c r="N315" s="8"/>
+      <c r="K315" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="L315" s="112"/>
+      <c r="M315" s="112"/>
+      <c r="N315" s="112"/>
       <c r="O315" s="8"/>
       <c r="P315" s="8"/>
       <c r="Q315" s="8"/>
@@ -23356,12 +23492,8 @@
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
-      <c r="K316" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="L316" s="8" t="s">
-        <v>410</v>
-      </c>
+      <c r="K316" s="8"/>
+      <c r="L316" s="8"/>
       <c r="M316" s="8"/>
       <c r="N316" s="8"/>
       <c r="O316" s="8"/>
@@ -23381,10 +23513,10 @@
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
-      <c r="K317" s="8"/>
-      <c r="L317" s="8" t="s">
-        <v>411</v>
-      </c>
+      <c r="K317" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="L317" s="8"/>
       <c r="M317" s="8"/>
       <c r="N317" s="8"/>
       <c r="O317" s="8"/>
@@ -23405,10 +23537,14 @@
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
       <c r="K318" s="8"/>
-      <c r="L318" s="8"/>
-      <c r="M318" s="8"/>
+      <c r="L318" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M318" s="8" t="s">
+        <v>630</v>
+      </c>
       <c r="N318" s="8"/>
-      <c r="O318" s="8"/>
+      <c r="O318" s="113"/>
       <c r="P318" s="8"/>
       <c r="Q318" s="8"/>
       <c r="R318" s="8"/>
@@ -23417,10 +23553,31 @@
       <c r="U318" s="8"/>
       <c r="V318" s="8"/>
     </row>
+    <row r="319" spans="1:22">
+      <c r="D319" s="8"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="8"/>
+      <c r="G319" s="8"/>
+      <c r="H319" s="8"/>
+      <c r="I319" s="8"/>
+      <c r="J319" s="8"/>
+      <c r="K319" s="8"/>
+      <c r="L319" s="8"/>
+      <c r="M319" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="N319" s="8"/>
+      <c r="O319" s="8"/>
+      <c r="P319" s="8"/>
+      <c r="Q319" s="8"/>
+      <c r="R319" s="8"/>
+      <c r="S319" s="8"/>
+      <c r="T319" s="8"/>
+      <c r="U319" s="8"/>
+      <c r="V319" s="8"/>
+    </row>
     <row r="320" spans="1:22">
-      <c r="D320" s="8" t="s">
-        <v>566</v>
-      </c>
+      <c r="D320" s="8"/>
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
@@ -23449,8 +23606,12 @@
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
       <c r="K321" s="8"/>
-      <c r="L321" s="8"/>
-      <c r="M321" s="8"/>
+      <c r="L321" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="M321" s="8" t="s">
+        <v>631</v>
+      </c>
       <c r="N321" s="8"/>
       <c r="O321" s="8"/>
       <c r="P321" s="8"/>
@@ -23469,12 +23630,8 @@
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
-      <c r="K322" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="L322" s="8" t="s">
-        <v>395</v>
-      </c>
+      <c r="K322" s="8"/>
+      <c r="L322" s="8"/>
       <c r="M322" s="8"/>
       <c r="N322" s="8"/>
       <c r="O322" s="8"/>
@@ -23495,10 +23652,10 @@
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
       <c r="K323" s="8" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="L323" s="8" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="M323" s="8"/>
       <c r="N323" s="8"/>
@@ -23521,7 +23678,7 @@
       <c r="J324" s="8"/>
       <c r="K324" s="8"/>
       <c r="L324" s="8" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M324" s="8"/>
       <c r="N324" s="8"/>
@@ -23543,9 +23700,7 @@
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
-      <c r="L325" s="8" t="s">
-        <v>398</v>
-      </c>
+      <c r="L325" s="8"/>
       <c r="M325" s="8"/>
       <c r="N325" s="8"/>
       <c r="O325" s="8"/>
@@ -23557,31 +23712,10 @@
       <c r="U325" s="8"/>
       <c r="V325" s="8"/>
     </row>
-    <row r="326" spans="4:22">
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
-      <c r="H326" s="8"/>
-      <c r="I326" s="8"/>
-      <c r="J326" s="8"/>
-      <c r="K326" s="8"/>
-      <c r="L326" s="8"/>
-      <c r="M326" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="N326" s="8"/>
-      <c r="O326" s="8"/>
-      <c r="P326" s="8"/>
-      <c r="Q326" s="8"/>
-      <c r="R326" s="8"/>
-      <c r="S326" s="8"/>
-      <c r="T326" s="8"/>
-      <c r="U326" s="8"/>
-      <c r="V326" s="8"/>
-    </row>
     <row r="327" spans="4:22">
-      <c r="D327" s="8"/>
+      <c r="D327" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
       <c r="G327" s="8"/>
@@ -23590,9 +23724,7 @@
       <c r="J327" s="8"/>
       <c r="K327" s="8"/>
       <c r="L327" s="8"/>
-      <c r="M327" s="8" t="s">
-        <v>412</v>
-      </c>
+      <c r="M327" s="8"/>
       <c r="N327" s="8"/>
       <c r="O327" s="8"/>
       <c r="P327" s="8"/>
@@ -23614,9 +23746,7 @@
       <c r="K328" s="8"/>
       <c r="L328" s="8"/>
       <c r="M328" s="8"/>
-      <c r="N328" s="8" t="s">
-        <v>401</v>
-      </c>
+      <c r="N328" s="8"/>
       <c r="O328" s="8"/>
       <c r="P328" s="8"/>
       <c r="Q328" s="8"/>
@@ -23634,12 +23764,14 @@
       <c r="H329" s="8"/>
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
-      <c r="K329" s="8"/>
-      <c r="L329" s="8"/>
+      <c r="K329" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="L329" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="M329" s="8"/>
-      <c r="N329" s="8" t="s">
-        <v>402</v>
-      </c>
+      <c r="N329" s="8"/>
       <c r="O329" s="8"/>
       <c r="P329" s="8"/>
       <c r="Q329" s="8"/>
@@ -23657,12 +23789,14 @@
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
-      <c r="K330" s="8"/>
-      <c r="L330" s="8"/>
+      <c r="K330" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L330" s="8" t="s">
+        <v>397</v>
+      </c>
       <c r="M330" s="8"/>
-      <c r="N330" s="8" t="s">
-        <v>403</v>
-      </c>
+      <c r="N330" s="8"/>
       <c r="O330" s="8"/>
       <c r="P330" s="8"/>
       <c r="Q330" s="8"/>
@@ -23682,7 +23816,7 @@
       <c r="J331" s="8"/>
       <c r="K331" s="8"/>
       <c r="L331" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M331" s="8"/>
       <c r="N331" s="8"/>
@@ -23704,10 +23838,10 @@
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
       <c r="K332" s="8"/>
-      <c r="L332" s="8"/>
-      <c r="M332" s="8" t="s">
-        <v>405</v>
-      </c>
+      <c r="L332" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="M332" s="8"/>
       <c r="N332" s="8"/>
       <c r="O332" s="8"/>
       <c r="P332" s="8"/>
@@ -23727,11 +23861,9 @@
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
       <c r="K333" s="8"/>
-      <c r="L333" s="8" t="s">
-        <v>406</v>
-      </c>
+      <c r="L333" s="8"/>
       <c r="M333" s="8" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="N333" s="8"/>
       <c r="O333" s="8"/>
@@ -23754,7 +23886,7 @@
       <c r="K334" s="8"/>
       <c r="L334" s="8"/>
       <c r="M334" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N334" s="8"/>
       <c r="O334" s="8"/>
@@ -23775,13 +23907,11 @@
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
       <c r="K335" s="8"/>
-      <c r="L335" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="M335" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="N335" s="8"/>
+      <c r="L335" s="8"/>
+      <c r="M335" s="8"/>
+      <c r="N335" s="8" t="s">
+        <v>401</v>
+      </c>
       <c r="O335" s="8"/>
       <c r="P335" s="8"/>
       <c r="Q335" s="8"/>
@@ -23801,10 +23931,10 @@
       <c r="J336" s="8"/>
       <c r="K336" s="8"/>
       <c r="L336" s="8"/>
-      <c r="M336" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="N336" s="8"/>
+      <c r="M336" s="8"/>
+      <c r="N336" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="O336" s="8"/>
       <c r="P336" s="8"/>
       <c r="Q336" s="8"/>
@@ -23815,50 +23945,215 @@
       <c r="V336" s="8"/>
     </row>
     <row r="337" spans="4:22">
-      <c r="D337" s="57" t="s">
+      <c r="D337" s="8"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="8"/>
+      <c r="G337" s="8"/>
+      <c r="H337" s="8"/>
+      <c r="I337" s="8"/>
+      <c r="J337" s="8"/>
+      <c r="K337" s="8"/>
+      <c r="L337" s="8"/>
+      <c r="M337" s="8"/>
+      <c r="N337" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="O337" s="8"/>
+      <c r="P337" s="8"/>
+      <c r="Q337" s="8"/>
+      <c r="R337" s="8"/>
+      <c r="S337" s="8"/>
+      <c r="T337" s="8"/>
+      <c r="U337" s="8"/>
+      <c r="V337" s="8"/>
+    </row>
+    <row r="338" spans="4:22">
+      <c r="D338" s="8"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="8"/>
+      <c r="G338" s="8"/>
+      <c r="H338" s="8"/>
+      <c r="I338" s="8"/>
+      <c r="J338" s="8"/>
+      <c r="K338" s="8"/>
+      <c r="L338" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="M338" s="8"/>
+      <c r="N338" s="8"/>
+      <c r="O338" s="8"/>
+      <c r="P338" s="8"/>
+      <c r="Q338" s="8"/>
+      <c r="R338" s="8"/>
+      <c r="S338" s="8"/>
+      <c r="T338" s="8"/>
+      <c r="U338" s="8"/>
+      <c r="V338" s="8"/>
+    </row>
+    <row r="339" spans="4:22">
+      <c r="D339" s="8"/>
+      <c r="E339" s="8"/>
+      <c r="F339" s="8"/>
+      <c r="G339" s="8"/>
+      <c r="H339" s="8"/>
+      <c r="I339" s="8"/>
+      <c r="J339" s="8"/>
+      <c r="K339" s="8"/>
+      <c r="L339" s="8"/>
+      <c r="M339" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="N339" s="8"/>
+      <c r="O339" s="8"/>
+      <c r="P339" s="8"/>
+      <c r="Q339" s="8"/>
+      <c r="R339" s="8"/>
+      <c r="S339" s="8"/>
+      <c r="T339" s="8"/>
+      <c r="U339" s="8"/>
+      <c r="V339" s="8"/>
+    </row>
+    <row r="340" spans="4:22">
+      <c r="D340" s="8"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="8"/>
+      <c r="H340" s="8"/>
+      <c r="I340" s="8"/>
+      <c r="J340" s="8"/>
+      <c r="K340" s="8"/>
+      <c r="L340" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="M340" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="N340" s="8"/>
+      <c r="O340" s="8"/>
+      <c r="P340" s="8"/>
+      <c r="Q340" s="8"/>
+      <c r="R340" s="8"/>
+      <c r="S340" s="8"/>
+      <c r="T340" s="8"/>
+      <c r="U340" s="8"/>
+      <c r="V340" s="8"/>
+    </row>
+    <row r="341" spans="4:22">
+      <c r="D341" s="8"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8"/>
+      <c r="G341" s="8"/>
+      <c r="H341" s="8"/>
+      <c r="I341" s="8"/>
+      <c r="J341" s="8"/>
+      <c r="K341" s="8"/>
+      <c r="L341" s="8"/>
+      <c r="M341" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="N341" s="8"/>
+      <c r="O341" s="8"/>
+      <c r="P341" s="8"/>
+      <c r="Q341" s="8"/>
+      <c r="R341" s="8"/>
+      <c r="S341" s="8"/>
+      <c r="T341" s="8"/>
+      <c r="U341" s="8"/>
+      <c r="V341" s="8"/>
+    </row>
+    <row r="342" spans="4:22">
+      <c r="D342" s="8"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="8"/>
+      <c r="G342" s="8"/>
+      <c r="H342" s="8"/>
+      <c r="I342" s="8"/>
+      <c r="J342" s="8"/>
+      <c r="K342" s="8"/>
+      <c r="L342" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="M342" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="N342" s="8"/>
+      <c r="O342" s="8"/>
+      <c r="P342" s="8"/>
+      <c r="Q342" s="8"/>
+      <c r="R342" s="8"/>
+      <c r="S342" s="8"/>
+      <c r="T342" s="8"/>
+      <c r="U342" s="8"/>
+      <c r="V342" s="8"/>
+    </row>
+    <row r="343" spans="4:22">
+      <c r="D343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+      <c r="G343" s="8"/>
+      <c r="H343" s="8"/>
+      <c r="I343" s="8"/>
+      <c r="J343" s="8"/>
+      <c r="K343" s="8"/>
+      <c r="L343" s="8"/>
+      <c r="M343" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="N343" s="8"/>
+      <c r="O343" s="8"/>
+      <c r="P343" s="8"/>
+      <c r="Q343" s="8"/>
+      <c r="R343" s="8"/>
+      <c r="S343" s="8"/>
+      <c r="T343" s="8"/>
+      <c r="U343" s="8"/>
+      <c r="V343" s="8"/>
+    </row>
+    <row r="344" spans="4:22">
+      <c r="D344" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="E337" s="57"/>
-      <c r="F337" s="57"/>
-      <c r="G337" s="57"/>
-      <c r="H337" s="57"/>
-      <c r="I337" s="57"/>
-      <c r="J337" s="57"/>
-      <c r="K337" s="57"/>
-      <c r="L337" s="57"/>
-      <c r="M337" s="57"/>
-      <c r="N337" s="57"/>
-      <c r="O337" s="57"/>
-      <c r="P337" s="57"/>
-      <c r="Q337" s="57"/>
-      <c r="R337" s="57"/>
-      <c r="S337" s="57"/>
-      <c r="T337" s="57"/>
-      <c r="U337" s="57"/>
-      <c r="V337" s="57"/>
-    </row>
-    <row r="338" spans="4:22">
-      <c r="D338" s="57"/>
-      <c r="E338" s="57" t="s">
+      <c r="E344" s="57"/>
+      <c r="F344" s="57"/>
+      <c r="G344" s="57"/>
+      <c r="H344" s="57"/>
+      <c r="I344" s="57"/>
+      <c r="J344" s="57"/>
+      <c r="K344" s="57"/>
+      <c r="L344" s="57"/>
+      <c r="M344" s="57"/>
+      <c r="N344" s="57"/>
+      <c r="O344" s="57"/>
+      <c r="P344" s="57"/>
+      <c r="Q344" s="57"/>
+      <c r="R344" s="57"/>
+      <c r="S344" s="57"/>
+      <c r="T344" s="57"/>
+      <c r="U344" s="57"/>
+      <c r="V344" s="57"/>
+    </row>
+    <row r="345" spans="4:22">
+      <c r="D345" s="57"/>
+      <c r="E345" s="57" t="s">
         <v>580</v>
       </c>
-      <c r="F338" s="57"/>
-      <c r="G338" s="57"/>
-      <c r="H338" s="57"/>
-      <c r="I338" s="57"/>
-      <c r="J338" s="57"/>
-      <c r="K338" s="57"/>
-      <c r="L338" s="57"/>
-      <c r="M338" s="57"/>
-      <c r="N338" s="57"/>
-      <c r="O338" s="57"/>
-      <c r="P338" s="57"/>
-      <c r="Q338" s="57"/>
-      <c r="R338" s="57"/>
-      <c r="S338" s="57"/>
-      <c r="T338" s="57"/>
-      <c r="U338" s="57"/>
-      <c r="V338" s="57"/>
+      <c r="F345" s="57"/>
+      <c r="G345" s="57"/>
+      <c r="H345" s="57"/>
+      <c r="I345" s="57"/>
+      <c r="J345" s="57"/>
+      <c r="K345" s="57"/>
+      <c r="L345" s="57"/>
+      <c r="M345" s="57"/>
+      <c r="N345" s="57"/>
+      <c r="O345" s="57"/>
+      <c r="P345" s="57"/>
+      <c r="Q345" s="57"/>
+      <c r="R345" s="57"/>
+      <c r="S345" s="57"/>
+      <c r="T345" s="57"/>
+      <c r="U345" s="57"/>
+      <c r="V345" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23871,8 +24166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23882,72 +24177,72 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="E6" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
   </sheetData>
@@ -23961,7 +24256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
@@ -26625,8 +26920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Y7"/>
+    <sheetView topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -26684,7 +26979,7 @@
     <row r="6" spans="2:25">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -26710,7 +27005,7 @@
     <row r="7" spans="2:25">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -27055,7 +27350,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="D53" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -27070,10 +27365,10 @@
     </row>
     <row r="56" spans="1:15">
       <c r="D56" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F56" s="131" t="s">
         <v>1125</v>
-      </c>
-      <c r="F56" s="131" t="s">
-        <v>1126</v>
       </c>
       <c r="G56" s="131"/>
       <c r="H56" s="131"/>
@@ -27085,7 +27380,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="E58" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -27105,7 +27400,7 @@
       <c r="K60" s="124"/>
       <c r="L60" s="124"/>
       <c r="M60" s="131" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N60" s="131"/>
       <c r="O60" s="131"/>
@@ -27144,7 +27439,7 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27320,7 +27615,7 @@
       <c r="I31" s="127"/>
       <c r="J31" s="127"/>
       <c r="L31" s="131" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="M31" s="131"/>
       <c r="N31" s="131"/>
@@ -27532,7 +27827,7 @@
   <dimension ref="A1:AE80"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="新版装备tips" sheetId="15" r:id="rId16"/>
     <sheet name="V0.4slot规则" sheetId="16" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1417">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3357,10 +3360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>demand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3373,10 +3372,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消耗列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1_2_100,1_4_100，3_10002_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3425,10 +3420,6 @@
   </si>
   <si>
     <t>对应数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5715,6 +5706,38 @@
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品级消耗列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别消耗列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打孔消耗列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageDemand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelDemand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>punchDemand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合宝石镶嵌，在装备属性表中增加3列配置结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6069,7 +6092,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6169,6 +6192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6453,7 +6482,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6968,6 +6997,17 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7037,11 +7077,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -24961,10 +24996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25164,17 +25199,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="148"/>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="185" t="s">
         <v>715</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182" t="s">
+      <c r="C11" s="186"/>
+      <c r="D11" s="187" t="s">
         <v>716</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="183"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="188"/>
       <c r="I11" s="149"/>
       <c r="J11" s="149"/>
       <c r="K11" s="149"/>
@@ -25189,11 +25224,11 @@
         <v>717</v>
       </c>
       <c r="C12" s="155"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="177"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
       <c r="I12" s="149"/>
       <c r="J12" s="149"/>
       <c r="K12" s="149"/>
@@ -25208,11 +25243,11 @@
         <v>718</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="186"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
       <c r="I13" s="149"/>
       <c r="J13" s="149"/>
       <c r="K13" s="149"/>
@@ -25227,11 +25262,11 @@
         <v>719</v>
       </c>
       <c r="C14" s="155"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="149"/>
       <c r="J14" s="149"/>
       <c r="K14" s="149"/>
@@ -25248,11 +25283,11 @@
       <c r="C15" s="156" t="s">
         <v>721</v>
       </c>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
       <c r="I15" s="149"/>
       <c r="J15" s="149"/>
       <c r="K15" s="149"/>
@@ -25267,11 +25302,11 @@
         <v>722</v>
       </c>
       <c r="C16" s="156"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
       <c r="I16" s="149"/>
       <c r="J16" s="149">
         <v>-0.15</v>
@@ -25292,11 +25327,11 @@
         <v>723</v>
       </c>
       <c r="C17" s="156"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
       <c r="I17" s="149"/>
       <c r="J17" s="149"/>
       <c r="K17" s="149">
@@ -25313,11 +25348,11 @@
         <v>724</v>
       </c>
       <c r="C18" s="158"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="179"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="184"/>
       <c r="I18" s="149"/>
       <c r="J18" s="149"/>
       <c r="K18" s="149"/>
@@ -25491,7 +25526,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="149"/>
       <c r="B26" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C26" s="159">
         <v>42151</v>
@@ -25500,14 +25535,14 @@
       <c r="E26" s="85"/>
       <c r="F26" s="150"/>
       <c r="G26" s="150" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H26" s="149" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I26" s="149"/>
       <c r="J26" s="149" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K26" s="149"/>
       <c r="L26" s="149"/>
@@ -25524,11 +25559,11 @@
       <c r="F27" s="150"/>
       <c r="G27" s="150"/>
       <c r="H27" s="120" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I27" s="149"/>
       <c r="J27" s="120" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K27" s="149"/>
       <c r="L27" s="149"/>
@@ -25545,7 +25580,7 @@
       <c r="F28" s="150"/>
       <c r="G28" s="150"/>
       <c r="H28" s="120" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I28" s="149"/>
       <c r="J28" s="120"/>
@@ -25564,7 +25599,7 @@
       <c r="F29" s="150"/>
       <c r="G29" s="150"/>
       <c r="H29" s="120" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I29" s="149"/>
       <c r="J29" s="120"/>
@@ -25583,7 +25618,7 @@
       <c r="F30" s="150"/>
       <c r="G30" s="150"/>
       <c r="H30" s="120" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I30" s="149"/>
       <c r="J30" s="120"/>
@@ -25602,7 +25637,7 @@
       <c r="F31" s="150"/>
       <c r="G31" s="150"/>
       <c r="H31" s="120" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I31" s="149"/>
       <c r="J31" s="120"/>
@@ -25615,7 +25650,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="149"/>
       <c r="B32" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C32" s="159">
         <v>42153</v>
@@ -25624,10 +25659,10 @@
       <c r="E32" s="84"/>
       <c r="F32" s="150"/>
       <c r="G32" s="150" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -25646,11 +25681,11 @@
       <c r="F33" s="150"/>
       <c r="G33" s="150"/>
       <c r="H33" s="120" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I33" s="149"/>
       <c r="J33" s="120" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="K33" s="149"/>
       <c r="L33" s="149"/>
@@ -25667,7 +25702,7 @@
       <c r="F34" s="150"/>
       <c r="G34" s="150"/>
       <c r="H34" s="120" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I34" s="149"/>
       <c r="J34" s="120"/>
@@ -25686,7 +25721,7 @@
       <c r="F35" s="150"/>
       <c r="G35" s="150"/>
       <c r="H35" s="120" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I35" s="149"/>
       <c r="J35" s="120"/>
@@ -25705,7 +25740,7 @@
       <c r="F36" s="150"/>
       <c r="G36" s="150"/>
       <c r="H36" s="120" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I36" s="149"/>
       <c r="J36" s="120"/>
@@ -25724,7 +25759,7 @@
       <c r="F37" s="150"/>
       <c r="G37" s="150"/>
       <c r="H37" s="120" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="I37" s="149"/>
       <c r="J37" s="120"/>
@@ -25743,7 +25778,7 @@
       <c r="F38" s="150"/>
       <c r="G38" s="150"/>
       <c r="H38" s="120" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I38" s="149"/>
       <c r="J38" s="120"/>
@@ -25762,12 +25797,12 @@
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
       <c r="H39" s="120" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I39" s="149"/>
       <c r="J39" s="120"/>
       <c r="K39" s="120" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="L39" s="149"/>
       <c r="M39" s="149"/>
@@ -25783,13 +25818,13 @@
       <c r="F40" s="150"/>
       <c r="G40" s="150"/>
       <c r="H40" s="120" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I40" s="149"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M40" s="149"/>
       <c r="N40" s="149"/>
@@ -25798,7 +25833,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="149"/>
       <c r="B41" s="2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C41" s="159">
         <v>42156</v>
@@ -25808,7 +25843,7 @@
       <c r="F41" s="150"/>
       <c r="G41" s="150"/>
       <c r="H41" s="120" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I41" s="149"/>
       <c r="J41" s="120"/>
@@ -25827,7 +25862,7 @@
       <c r="F42" s="150"/>
       <c r="G42" s="150"/>
       <c r="H42" s="120" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="I42" s="149"/>
       <c r="J42" s="120"/>
@@ -25846,7 +25881,7 @@
       <c r="F43" s="150"/>
       <c r="G43" s="150"/>
       <c r="H43" s="120" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I43" s="149"/>
       <c r="J43" s="120"/>
@@ -25865,7 +25900,7 @@
       <c r="F44" s="150"/>
       <c r="G44" s="150"/>
       <c r="H44" s="120" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I44" s="149"/>
       <c r="J44" s="120"/>
@@ -25884,12 +25919,12 @@
       <c r="F45" s="150"/>
       <c r="G45" s="150"/>
       <c r="H45" s="130" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="I45" s="149"/>
       <c r="J45" s="120"/>
       <c r="K45" s="130" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="L45" s="120"/>
       <c r="M45" s="149"/>
@@ -25905,7 +25940,7 @@
       <c r="F46" s="150"/>
       <c r="G46" s="150"/>
       <c r="H46" s="120" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I46" s="149"/>
       <c r="J46" s="120"/>
@@ -25924,7 +25959,7 @@
       <c r="F47" s="150"/>
       <c r="G47" s="150"/>
       <c r="H47" s="120" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="I47" s="149"/>
       <c r="J47" s="120"/>
@@ -25943,7 +25978,7 @@
       <c r="F48" s="150"/>
       <c r="G48" s="150"/>
       <c r="H48" s="130" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I48" s="149"/>
       <c r="J48" s="120"/>
@@ -25962,7 +25997,7 @@
       <c r="F49" s="150"/>
       <c r="G49" s="150"/>
       <c r="H49" s="130" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="I49" s="149"/>
       <c r="J49" s="120"/>
@@ -25981,11 +26016,11 @@
       <c r="F50" s="150"/>
       <c r="G50" s="150"/>
       <c r="H50" s="120" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="I50" s="149"/>
       <c r="J50" s="58" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -26002,7 +26037,7 @@
       <c r="F51" s="150"/>
       <c r="G51" s="150"/>
       <c r="H51" s="130" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="I51" s="149"/>
       <c r="J51" s="120"/>
@@ -26021,12 +26056,12 @@
       <c r="F52" s="150"/>
       <c r="G52" s="150"/>
       <c r="H52" s="120" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="I52" s="149"/>
       <c r="J52" s="120"/>
       <c r="K52" s="120" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="L52" s="120"/>
       <c r="M52" s="149"/>
@@ -26042,13 +26077,13 @@
       <c r="F53" s="150"/>
       <c r="G53" s="150"/>
       <c r="H53" s="120" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I53" s="149"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
       <c r="L53" s="120" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="M53" s="149"/>
       <c r="N53" s="149"/>
@@ -26063,7 +26098,7 @@
       <c r="F54" s="150"/>
       <c r="G54" s="150"/>
       <c r="H54" s="130" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="I54" s="149"/>
       <c r="J54" s="120"/>
@@ -26082,7 +26117,7 @@
       <c r="F55" s="150"/>
       <c r="G55" s="150"/>
       <c r="H55" s="130" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I55" s="149"/>
       <c r="J55" s="120"/>
@@ -26095,7 +26130,7 @@
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="149"/>
       <c r="B56" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C56" s="159">
         <v>42163</v>
@@ -26105,7 +26140,7 @@
       <c r="F56" s="150"/>
       <c r="G56" s="150"/>
       <c r="H56" s="120" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="I56" s="149"/>
       <c r="J56" s="120"/>
@@ -26124,7 +26159,7 @@
       <c r="F57" s="150"/>
       <c r="G57" s="150"/>
       <c r="H57" s="130" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="I57" s="149"/>
       <c r="J57" s="120"/>
@@ -26145,12 +26180,12 @@
       <c r="F58" s="150"/>
       <c r="G58" s="150"/>
       <c r="H58" s="58" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I58" s="149"/>
       <c r="J58" s="120"/>
       <c r="K58" s="120" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="149"/>
@@ -26168,7 +26203,7 @@
       <c r="F59" s="150"/>
       <c r="G59" s="150"/>
       <c r="H59" s="167" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="I59" s="149"/>
       <c r="J59" s="120"/>
@@ -26189,7 +26224,7 @@
       <c r="F60" s="150"/>
       <c r="G60" s="150"/>
       <c r="H60" s="167" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I60" s="149"/>
       <c r="J60" s="120"/>
@@ -26210,7 +26245,7 @@
       <c r="F61" s="150"/>
       <c r="G61" s="150"/>
       <c r="H61" s="167" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="I61" s="149"/>
       <c r="J61" s="120"/>
@@ -26223,12 +26258,16 @@
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="149"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="159"/>
+      <c r="C62" s="159">
+        <v>42256</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="179"/>
       <c r="F62" s="150"/>
       <c r="G62" s="150"/>
-      <c r="H62" s="58"/>
+      <c r="H62" s="58" t="s">
+        <v>1415</v>
+      </c>
       <c r="I62" s="149"/>
       <c r="J62" s="120"/>
       <c r="K62" s="120"/>
@@ -26238,38 +26277,38 @@
       <c r="O62" s="149"/>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="148" t="s">
-        <v>735</v>
-      </c>
-      <c r="B63" s="149" t="s">
-        <v>726</v>
-      </c>
-      <c r="C63" s="150" t="s">
-        <v>736</v>
-      </c>
-      <c r="D63" s="150" t="s">
-        <v>737</v>
-      </c>
-      <c r="E63" s="150" t="s">
-        <v>738</v>
-      </c>
+      <c r="A63" s="149"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="150"/>
       <c r="G63" s="150"/>
-      <c r="H63" s="149"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="149"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="149"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="120"/>
+      <c r="L63" s="120"/>
       <c r="M63" s="149"/>
       <c r="N63" s="149"/>
       <c r="O63" s="149"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="148"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
+      <c r="A64" s="148" t="s">
+        <v>735</v>
+      </c>
+      <c r="B64" s="149" t="s">
+        <v>726</v>
+      </c>
+      <c r="C64" s="150" t="s">
+        <v>736</v>
+      </c>
+      <c r="D64" s="150" t="s">
+        <v>737</v>
+      </c>
+      <c r="E64" s="150" t="s">
+        <v>738</v>
+      </c>
       <c r="F64" s="150"/>
       <c r="G64" s="150"/>
       <c r="H64" s="149"/>
@@ -26315,8 +26354,25 @@
       <c r="N66" s="149"/>
       <c r="O66" s="149"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F68" s="129"/>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="148"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
+      <c r="M67" s="149"/>
+      <c r="N67" s="149"/>
+      <c r="O67" s="149"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F69" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26370,6 +26426,7 @@
     <hyperlink ref="H56" location="消耗类道具!D5" display="添加双倍经验药逻辑（待定）"/>
     <hyperlink ref="H58" location="UI表现逻辑!C62" display="添加道具tips获得途径"/>
     <hyperlink ref="K58" location="UI表现逻辑!E139" display="位置2"/>
+    <hyperlink ref="H62" location="品级消耗列表" display="配合宝石镶嵌，在装备属性表中增加3列配置结构"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -26380,8 +26437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="C9:F46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26393,8 +26450,8 @@
     <col min="6" max="7" width="9" style="80"/>
     <col min="8" max="8" width="48.625" style="80" customWidth="1"/>
     <col min="9" max="9" width="31.875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="80" customWidth="1"/>
-    <col min="11" max="11" width="14" style="80" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="17" style="80" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="80" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="80" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="80" customWidth="1"/>
@@ -26424,7 +26481,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>754</v>
@@ -26439,7 +26496,7 @@
         <v>756</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>756</v>
@@ -26516,7 +26573,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="103" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>759</v>
@@ -26525,19 +26582,19 @@
         <v>760</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>762</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>851</v>
+        <v>1416</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>763</v>
@@ -26567,7 +26624,7 @@
         <v>770</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>771</v>
@@ -26591,7 +26648,7 @@
         <v>777</v>
       </c>
       <c r="AA3" s="111" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AB3" s="87" t="s">
         <v>761</v>
@@ -26603,7 +26660,7 @@
         <v>180</v>
       </c>
       <c r="AE3" s="80" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -26620,7 +26677,7 @@
         <v>783</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>55</v>
@@ -26644,31 +26701,31 @@
         <v>787</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>787</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="R4" s="80" t="s">
         <v>432</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="T4" s="87" t="s">
         <v>788</v>
       </c>
       <c r="U4" s="87" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="V4" s="103" t="s">
         <v>789</v>
       </c>
       <c r="W4" s="103" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>790</v>
@@ -26677,7 +26734,7 @@
         <v>791</v>
       </c>
       <c r="Z4" s="103" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AA4" s="111" t="s">
         <v>792</v>
@@ -26692,40 +26749,40 @@
         <v>543</v>
       </c>
       <c r="AE4" s="80" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>678</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="M5" s="84" t="s">
         <v>805</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="O5" s="84"/>
       <c r="P5" s="78" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="S5" s="83" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="T5" s="83" t="s">
         <v>807</v>
@@ -26734,10 +26791,10 @@
         <v>808</v>
       </c>
       <c r="V5" s="83" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="X5" s="98" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="Z5" s="103" t="s">
         <v>810</v>
@@ -26750,7 +26807,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C6" s="80">
         <v>10001</v>
@@ -26793,11 +26850,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="T6" s="87"/>
       <c r="U6" s="87" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="V6" s="80" t="s">
         <v>809</v>
@@ -26832,7 +26889,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C7" s="80">
         <v>10002</v>
@@ -26875,7 +26932,7 @@
         <v>100</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="W7" s="80">
         <v>0</v>
@@ -26907,7 +26964,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C8" s="80">
         <v>20001</v>
@@ -26982,7 +27039,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="80">
         <v>30001</v>
@@ -27343,7 +27400,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C14" s="80">
         <v>70001</v>
@@ -27415,7 +27472,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
@@ -27720,13 +27777,13 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C35" s="80" t="s">
         <v>827</v>
       </c>
@@ -27734,7 +27791,7 @@
         <v>828</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F35" s="80" t="s">
         <v>829</v>
@@ -27745,14 +27802,20 @@
       <c r="H35" s="80" t="s">
         <v>830</v>
       </c>
-      <c r="I35" s="80" t="s">
-        <v>830</v>
-      </c>
-      <c r="J35" s="123" t="s">
+      <c r="I35" s="180" t="s">
+        <v>755</v>
+      </c>
+      <c r="J35" s="180" t="s">
+        <v>755</v>
+      </c>
+      <c r="K35" s="180" t="s">
+        <v>755</v>
+      </c>
+      <c r="L35" s="123" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C36" s="80" t="s">
         <v>831</v>
       </c>
@@ -27760,75 +27823,93 @@
         <v>832</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I36" s="80" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I36" s="180" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J36" s="180" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K36" s="180" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L36" s="123" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C37" s="80" t="s">
         <v>833</v>
       </c>
-      <c r="J36" s="123" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C37" s="80" t="s">
+      <c r="D37" s="80" t="s">
         <v>834</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="E37" s="110" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>841</v>
+      </c>
+      <c r="H37" s="80" t="s">
         <v>835</v>
       </c>
-      <c r="E37" s="110" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F37" s="80" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>843</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>836</v>
-      </c>
-      <c r="I37" s="80" t="s">
-        <v>837</v>
-      </c>
-      <c r="J37" s="123" t="s">
+      <c r="I37" s="180" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J37" s="180" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K37" s="180" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L37" s="123" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="92" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="103" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>847</v>
-      </c>
-      <c r="J38" s="123" t="s">
-        <v>1028</v>
+        <v>845</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>845</v>
+      </c>
+      <c r="K38" s="92" t="s">
+        <v>845</v>
+      </c>
+      <c r="L38" s="123" t="s">
+        <v>1025</v>
       </c>
       <c r="AC38" s="87"/>
     </row>
     <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C39" s="80">
         <v>1001</v>
@@ -27845,7 +27926,7 @@
       <c r="G39" s="80">
         <v>0</v>
       </c>
-      <c r="J39" s="123">
+      <c r="L39" s="123">
         <v>0</v>
       </c>
     </row>
@@ -27866,9 +27947,9 @@
         <v>0</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>838</v>
-      </c>
-      <c r="J40" s="123">
+        <v>836</v>
+      </c>
+      <c r="L40" s="123">
         <v>0</v>
       </c>
     </row>
@@ -27889,9 +27970,9 @@
         <v>0</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J41" s="123">
+        <v>837</v>
+      </c>
+      <c r="L41" s="123">
         <v>0</v>
       </c>
     </row>
@@ -27912,15 +27993,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J42" s="123">
+        <v>837</v>
+      </c>
+      <c r="L42" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C43" s="105">
         <v>1001</v>
@@ -27938,12 +28019,12 @@
         <v>3</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J43" s="123">
+        <v>837</v>
+      </c>
+      <c r="L43" s="123">
         <v>0</v>
       </c>
     </row>
@@ -27964,12 +28045,12 @@
         <v>3</v>
       </c>
       <c r="H44" s="80" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I44" s="80" t="s">
-        <v>841</v>
-      </c>
-      <c r="J44" s="123">
+        <v>839</v>
+      </c>
+      <c r="L44" s="123">
         <v>0</v>
       </c>
     </row>
@@ -27990,9 +28071,9 @@
         <v>0</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J45" s="123">
+        <v>837</v>
+      </c>
+      <c r="L45" s="123">
         <v>0</v>
       </c>
     </row>
@@ -28013,12 +28094,12 @@
         <v>1</v>
       </c>
       <c r="H46" s="80" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J46" s="123">
+        <v>837</v>
+      </c>
+      <c r="L46" s="123">
         <v>0</v>
       </c>
     </row>
@@ -28039,12 +28120,12 @@
         <v>2</v>
       </c>
       <c r="H47" s="80" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J47" s="123">
+        <v>837</v>
+      </c>
+      <c r="L47" s="123">
         <v>4</v>
       </c>
     </row>
@@ -28065,16 +28146,16 @@
         <v>3</v>
       </c>
       <c r="H48" s="80" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I48" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J48" s="123">
+        <v>837</v>
+      </c>
+      <c r="L48" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C49" s="105">
         <v>1001</v>
       </c>
@@ -28091,13 +28172,13 @@
         <v>0</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J49" s="123">
+        <v>837</v>
+      </c>
+      <c r="L49" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C50" s="105">
         <v>1001</v>
       </c>
@@ -28114,13 +28195,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J50" s="123">
+        <v>837</v>
+      </c>
+      <c r="L50" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C51" s="105">
         <v>1001</v>
       </c>
@@ -28137,13 +28218,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J51" s="123">
+        <v>837</v>
+      </c>
+      <c r="L51" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C52" s="105">
         <v>1001</v>
       </c>
@@ -28160,13 +28241,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J52" s="123">
+        <v>837</v>
+      </c>
+      <c r="L52" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C53" s="105">
         <v>1001</v>
       </c>
@@ -28183,13 +28264,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J53" s="123">
+        <v>837</v>
+      </c>
+      <c r="L53" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C54" s="105">
         <v>1001</v>
       </c>
@@ -28206,13 +28287,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J54" s="123">
+        <v>837</v>
+      </c>
+      <c r="L54" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C55" s="105">
         <v>1001</v>
       </c>
@@ -28229,13 +28310,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="J55" s="123">
+        <v>837</v>
+      </c>
+      <c r="L55" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C56" s="105">
         <v>1001</v>
       </c>
@@ -28252,25 +28333,25 @@
         <v>0</v>
       </c>
       <c r="I56" s="80" t="s">
-        <v>841</v>
-      </c>
-      <c r="J56" s="123">
+        <v>839</v>
+      </c>
+      <c r="L56" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
       <c r="C58" s="80" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F58" s="96" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C59" s="57" t="s">
         <v>492</v>
       </c>
@@ -28278,12 +28359,12 @@
         <v>101</v>
       </c>
       <c r="F59" s="100" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C60" s="76" t="s">
         <v>493</v>
       </c>
@@ -28291,12 +28372,12 @@
         <v>102</v>
       </c>
       <c r="F60" s="100" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C61" s="76" t="s">
         <v>496</v>
       </c>
@@ -28304,12 +28385,12 @@
         <v>103</v>
       </c>
       <c r="F61" s="100" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G61" s="93"/>
       <c r="H61" s="93"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C62" s="57" t="s">
         <v>498</v>
       </c>
@@ -28317,11 +28398,11 @@
         <v>104</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H62" s="93"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C63" s="76" t="s">
         <v>499</v>
       </c>
@@ -28329,11 +28410,11 @@
         <v>105</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H63" s="93"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C64" s="57" t="s">
         <v>500</v>
       </c>
@@ -28341,7 +28422,7 @@
         <v>106</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H64" s="93"/>
     </row>
@@ -28353,7 +28434,7 @@
         <v>107</v>
       </c>
       <c r="F65" s="100" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -28365,7 +28446,7 @@
         <v>108</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -28377,67 +28458,67 @@
         <v>109</v>
       </c>
       <c r="F67" s="100" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H67" s="93"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F68" s="100" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H68" s="93"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F69" s="100" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H69" s="93"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F70" s="100" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F71" s="100" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H71" s="93"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F72" s="100" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F73" s="100" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H73" s="93"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="82" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F74" s="101" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="82" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F76" s="100" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H76" s="93"/>
     </row>
@@ -28486,45 +28567,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="139" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1" s="140" t="s">
         <v>1081</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="E1" s="141" t="s">
         <v>1082</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="F1" s="141" t="s">
         <v>1083</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="G1" s="141" t="s">
         <v>1084</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="H1" s="141" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I1" s="141" t="s">
         <v>1085</v>
-      </c>
-      <c r="F1" s="141" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G1" s="141" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H1" s="141" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I1" s="141" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="142" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E2" s="143">
         <v>1</v>
@@ -28538,16 +28619,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="142" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="142" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D3" s="142" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E3" s="143">
         <v>1</v>
@@ -28561,16 +28642,16 @@
     </row>
     <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="145" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D4" s="145" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E4" s="146">
         <v>1</v>
@@ -28603,8 +28684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28615,28 +28696,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
-        <v>1114</v>
+      <c r="A1" s="177" t="s">
+        <v>1111</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
       <c r="D1" s="163" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E1" s="163" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F1" s="163"/>
       <c r="G1" s="163" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="163" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="163">
         <v>2</v>
@@ -28646,7 +28727,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="163"/>
       <c r="C3" s="163" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D3" s="163">
         <v>1</v>
@@ -28656,7 +28737,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="163"/>
       <c r="C4" s="163" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="163">
         <v>1</v>
@@ -28666,7 +28747,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="163"/>
       <c r="C5" s="163" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="163">
         <v>2</v>
@@ -28676,7 +28757,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="163"/>
       <c r="C6" s="163" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="163">
         <v>1</v>
@@ -28686,7 +28767,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="163"/>
       <c r="C7" s="163" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D7" s="163">
         <v>4</v>
@@ -28696,7 +28777,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="163"/>
       <c r="C8" s="163" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D8" s="163">
         <v>5</v>
@@ -28705,10 +28786,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="163"/>
-      <c r="C9" s="201" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D9" s="201">
+      <c r="C9" s="178" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D9" s="178">
         <v>4</v>
       </c>
       <c r="E9" s="163"/>
@@ -28716,25 +28797,25 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="163"/>
       <c r="C10" s="163" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D10" s="163">
         <v>0.5</v>
       </c>
       <c r="E10" s="163"/>
       <c r="G10" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="163"/>
-      <c r="C11" s="200" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D11" s="200">
+      <c r="C11" s="177" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D11" s="177">
         <v>20.5</v>
       </c>
-      <c r="E11" s="200">
+      <c r="E11" s="177">
         <v>12</v>
       </c>
       <c r="G11" s="162">
@@ -28744,7 +28825,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="163" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C12" s="163"/>
       <c r="D12" s="163"/>
@@ -28753,37 +28834,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="163"/>
       <c r="C13" s="163" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D13" s="163" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="163"/>
       <c r="C14" s="163" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E14" s="163"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="163"/>
       <c r="C15" s="163" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D15" s="163" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E15" s="163"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="163"/>
       <c r="C16" s="163" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D16" s="163">
         <v>2</v>
@@ -28793,7 +28874,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="163"/>
       <c r="C17" s="163" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D17" s="163">
         <v>2</v>
@@ -28801,27 +28882,27 @@
       <c r="E17" s="163"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="200" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D18" s="200">
+      <c r="C18" s="177" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D18" s="177">
         <v>4</v>
       </c>
-      <c r="E18" s="200">
+      <c r="E18" s="177">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="162" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -28829,7 +28910,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -28837,17 +28918,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C24" s="200" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D24" s="200">
+      <c r="C24" s="177" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D24" s="177">
         <v>3</v>
       </c>
     </row>
@@ -28872,7 +28953,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -28880,7 +28961,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -28896,7 +28977,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28904,7 +28985,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -28989,7 +29070,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -28997,23 +29078,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -29021,7 +29102,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -29041,13 +29122,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="91"/>
       <c r="B19" s="91" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="175" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G19" s="91"/>
     </row>
@@ -29079,42 +29160,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="168" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -29136,77 +29217,77 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D70" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D72" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E76" s="58" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J94" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J97" s="54" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -29265,45 +29346,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="201" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="197" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="202" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="198" t="s">
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="203" t="s">
         <v>435</v>
       </c>
-      <c r="AA2" s="198"/>
+      <c r="AA2" s="203"/>
       <c r="AB2" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="AC2" s="193" t="s">
+      <c r="AC2" s="198" t="s">
         <v>441</v>
       </c>
-      <c r="AD2" s="193"/>
+      <c r="AD2" s="198"/>
       <c r="AE2" s="68" t="s">
         <v>626</v>
       </c>
@@ -29493,7 +29574,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="200" t="s">
         <v>445</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -29559,7 +29640,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="200"/>
       <c r="E6" s="48" t="s">
         <v>448</v>
       </c>
@@ -29616,7 +29697,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="200"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -29634,7 +29715,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="195"/>
+      <c r="A8" s="200"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -29646,7 +29727,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="200"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -29726,7 +29807,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="200" t="s">
         <v>445</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -29748,7 +29829,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="200"/>
       <c r="E16" s="2" t="s">
         <v>409</v>
       </c>
@@ -29876,7 +29957,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="200" t="s">
         <v>445</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -29912,7 +29993,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
+      <c r="A25" s="200"/>
       <c r="E25" s="2" t="s">
         <v>409</v>
       </c>
@@ -29991,7 +30072,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -30005,13 +30086,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="194" t="s">
+      <c r="F31" s="199" t="s">
         <v>659</v>
       </c>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -30152,7 +30233,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -30424,7 +30505,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>291</v>
@@ -30468,7 +30549,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -30653,7 +30734,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -30719,7 +30800,7 @@
         <v>469</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -30742,7 +30823,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -30758,7 +30839,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -30786,7 +30867,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -30925,7 +31006,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -31234,7 +31315,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>288</v>
@@ -32212,7 +32293,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="131" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G160" s="131"/>
       <c r="H160" s="131"/>
@@ -32249,7 +32330,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="127" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G165" s="127"/>
       <c r="H165" s="127"/>
@@ -32280,42 +32361,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -32323,7 +32404,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -32331,22 +32412,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="171" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="G28" s="171"/>
       <c r="H28" s="171"/>
@@ -32362,7 +32443,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -32373,22 +32454,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -32422,7 +32503,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -32432,7 +32513,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -32447,25 +32528,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -32476,69 +32557,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I53" s="165" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="J53" s="165" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="K53" s="165" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I54" s="166">
         <v>1</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="K54" s="173" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="169" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I55" s="166">
         <v>2</v>
       </c>
       <c r="J55" s="166" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="K55" s="174" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -32546,10 +32627,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="166" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="K56" s="174" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -32557,15 +32638,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="166" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="K57" s="166" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="171" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I58" s="172"/>
       <c r="J58" s="172"/>
@@ -32585,7 +32666,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="171"/>
       <c r="I59" s="172" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="J59" s="172"/>
       <c r="K59" s="171"/>
@@ -32607,18 +32688,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="170" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -32632,46 +32713,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -32682,129 +32763,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M90" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -32812,7 +32893,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -32820,7 +32901,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -32828,7 +32909,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -32836,196 +32917,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G101" s="171" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="H101" s="171"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -33059,83 +33140,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -33163,42 +33244,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -33208,77 +33289,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -33298,149 +33379,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -33450,17 +33531,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -33546,10 +33627,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="190" t="s">
+      <c r="L12" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="190"/>
+      <c r="M12" s="195"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -33571,7 +33652,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -33592,7 +33673,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="84" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -33615,7 +33696,7 @@
         <v>466</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -33660,7 +33741,7 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H18" s="66" t="s">
         <v>685</v>
@@ -33675,7 +33756,7 @@
         <v>676</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -33694,11 +33775,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="84" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -33713,7 +33794,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="84"/>
       <c r="E21" s="84" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -33729,7 +33810,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="84"/>
       <c r="E22" s="124" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F22" s="124"/>
       <c r="G22" s="108"/>
@@ -33745,7 +33826,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="84"/>
       <c r="E23" s="84" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="108"/>
@@ -33761,7 +33842,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="108"/>
@@ -33774,7 +33855,7 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="R24" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -33829,10 +33910,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G29" s="131" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -33845,7 +33926,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="127" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G30" s="127"/>
       <c r="H30" s="128"/>
@@ -33859,7 +33940,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="127"/>
       <c r="G31" s="127" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H31" s="127"/>
       <c r="I31" s="127"/>
@@ -33873,7 +33954,7 @@
       <c r="F32" s="127"/>
       <c r="G32" s="127"/>
       <c r="H32" s="127" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I32" s="128"/>
       <c r="J32" s="128"/>
@@ -33887,7 +33968,7 @@
       <c r="G33" s="127"/>
       <c r="H33" s="127"/>
       <c r="I33" s="127" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="J33" s="127"/>
       <c r="K33" s="127"/>
@@ -33940,7 +34021,7 @@
       <c r="H37" s="127"/>
       <c r="I37" s="127"/>
       <c r="J37" s="127" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K37" s="127"/>
       <c r="L37" s="127"/>
@@ -33966,7 +34047,7 @@
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
       <c r="J39" s="127" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="K39" s="127"/>
       <c r="L39" s="127"/>
@@ -33977,7 +34058,7 @@
       <c r="F40" s="127"/>
       <c r="G40" s="127"/>
       <c r="H40" s="127" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="I40" s="127"/>
       <c r="J40" s="127"/>
@@ -34002,7 +34083,7 @@
       <c r="G42" s="127"/>
       <c r="H42" s="127"/>
       <c r="I42" s="127" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="J42" s="127"/>
       <c r="K42" s="127"/>
@@ -34040,7 +34121,7 @@
       <c r="F45" s="127"/>
       <c r="G45" s="127"/>
       <c r="H45" s="127" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
@@ -34345,7 +34426,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -34374,7 +34455,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -34706,7 +34787,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F100" s="84" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>422</v>
@@ -34714,7 +34795,7 @@
     </row>
     <row r="101" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A101" s="106" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F101" s="85" t="s">
         <v>44</v>
@@ -34726,16 +34807,16 @@
         <v>53</v>
       </c>
       <c r="I101" s="85" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F102" s="85"/>
       <c r="G102" s="84" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H102" s="85" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I102" s="85">
         <v>1</v>
@@ -34756,10 +34837,10 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F104" s="85"/>
       <c r="G104" s="85" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H104" s="85" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I104" s="85">
         <v>3</v>
@@ -34803,18 +34884,18 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F108" s="84" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H108" s="84"/>
       <c r="I108" s="84" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J108" s="84"/>
       <c r="K108" s="84" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -34909,10 +34990,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="53" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F118" s="84" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>63</v>
@@ -34928,21 +35009,21 @@
     </row>
     <row r="120" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A120" s="106" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F120" s="57" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G120" s="57" t="s">
         <v>629</v>
       </c>
       <c r="H120" s="57" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I120" s="57"/>
       <c r="J120" s="57"/>
       <c r="K120" s="57" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="L120" s="57"/>
       <c r="M120" s="57"/>
@@ -34994,18 +35075,18 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="53" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F126" s="83" t="s">
         <v>765</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="78" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>75</v>
@@ -35029,10 +35110,10 @@
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F129" s="5"/>
       <c r="G129" s="127" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H129" s="127" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I129" s="127"/>
       <c r="J129" s="127"/>
@@ -35052,7 +35133,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="127"/>
       <c r="H130" s="127" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I130" s="127"/>
       <c r="J130" s="127"/>
@@ -35073,7 +35154,7 @@
       <c r="G131" s="127"/>
       <c r="H131" s="127"/>
       <c r="I131" s="127" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J131" s="127"/>
       <c r="K131" s="127"/>
@@ -35092,7 +35173,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="127"/>
       <c r="H132" s="127" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I132" s="127"/>
       <c r="J132" s="127"/>
@@ -35113,7 +35194,7 @@
       <c r="G133" s="127"/>
       <c r="H133" s="127"/>
       <c r="I133" s="127" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="J133" s="127"/>
       <c r="K133" s="127"/>
@@ -35175,10 +35256,10 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="53" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F138" s="84" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>78</v>
@@ -35187,15 +35268,15 @@
         <v>81</v>
       </c>
       <c r="K138" s="84" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="53" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F139" s="84" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>80</v>
@@ -35204,15 +35285,15 @@
         <v>82</v>
       </c>
       <c r="K139" s="85" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="53" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>89</v>
@@ -35221,15 +35302,15 @@
         <v>81</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>91</v>
@@ -35238,7 +35319,7 @@
         <v>82</v>
       </c>
       <c r="K141" s="85" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
@@ -35246,11 +35327,11 @@
         <v>92</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G142" s="84"/>
       <c r="H142" s="84" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I142" s="84"/>
       <c r="J142" s="84"/>
@@ -35267,15 +35348,15 @@
     </row>
     <row r="143" spans="1:21" ht="33" x14ac:dyDescent="0.15">
       <c r="A143" s="106" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B143" s="78" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E143" s="84"/>
       <c r="F143" s="84"/>
       <c r="G143" s="84" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H143" s="84"/>
       <c r="I143" s="84"/>
@@ -35293,15 +35374,15 @@
     </row>
     <row r="144" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A144" s="106" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B144" s="78" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E144" s="84"/>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H144" s="84"/>
       <c r="I144" s="84"/>
@@ -35319,7 +35400,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B145" s="78" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E145" s="84"/>
       <c r="F145" s="84"/>
@@ -35356,7 +35437,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="53" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.15">
@@ -35685,7 +35766,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -35697,13 +35778,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -35772,7 +35853,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -35782,7 +35863,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -35791,12 +35872,12 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
@@ -35817,7 +35898,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -35828,7 +35909,7 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -35839,7 +35920,7 @@
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -35855,7 +35936,7 @@
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -35885,7 +35966,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -35919,12 +36000,12 @@
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -35937,7 +36018,7 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -36050,12 +36131,12 @@
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E100" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G101" s="5"/>
       <c r="I101" s="5"/>
@@ -36068,15 +36149,15 @@
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G103" s="57" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="104" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F104" s="57" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G104" s="57"/>
     </row>
@@ -36590,7 +36671,7 @@
     </row>
     <row r="137" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E137" s="127" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F137" s="127"/>
       <c r="G137" s="127"/>
@@ -36625,7 +36706,7 @@
     </row>
     <row r="140" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F140" s="131" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G140" s="131"/>
       <c r="H140" s="131"/>
@@ -36645,142 +36726,142 @@
       </c>
     </row>
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E143" s="199" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F143" s="199"/>
-      <c r="G143" s="199"/>
-      <c r="H143" s="199"/>
-      <c r="I143" s="199"/>
-      <c r="J143" s="199"/>
-      <c r="K143" s="199"/>
-      <c r="L143" s="199"/>
-      <c r="M143" s="199"/>
-      <c r="N143" s="199"/>
-      <c r="O143" s="199"/>
-      <c r="P143" s="199"/>
+      <c r="E143" s="176" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F143" s="176"/>
+      <c r="G143" s="176"/>
+      <c r="H143" s="176"/>
+      <c r="I143" s="176"/>
+      <c r="J143" s="176"/>
+      <c r="K143" s="176"/>
+      <c r="L143" s="176"/>
+      <c r="M143" s="176"/>
+      <c r="N143" s="176"/>
+      <c r="O143" s="176"/>
+      <c r="P143" s="176"/>
     </row>
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E144" s="199"/>
-      <c r="F144" s="199" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G144" s="199"/>
-      <c r="H144" s="199"/>
-      <c r="I144" s="199"/>
-      <c r="J144" s="199"/>
-      <c r="K144" s="199"/>
-      <c r="L144" s="199"/>
-      <c r="M144" s="199"/>
-      <c r="N144" s="199"/>
-      <c r="O144" s="199"/>
-      <c r="P144" s="199"/>
+      <c r="E144" s="176"/>
+      <c r="F144" s="176" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G144" s="176"/>
+      <c r="H144" s="176"/>
+      <c r="I144" s="176"/>
+      <c r="J144" s="176"/>
+      <c r="K144" s="176"/>
+      <c r="L144" s="176"/>
+      <c r="M144" s="176"/>
+      <c r="N144" s="176"/>
+      <c r="O144" s="176"/>
+      <c r="P144" s="176"/>
     </row>
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E145" s="199"/>
-      <c r="F145" s="199" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G145" s="199"/>
-      <c r="H145" s="199"/>
-      <c r="I145" s="199"/>
-      <c r="J145" s="199"/>
-      <c r="K145" s="199"/>
-      <c r="L145" s="199"/>
-      <c r="M145" s="199"/>
-      <c r="N145" s="199"/>
-      <c r="O145" s="199"/>
-      <c r="P145" s="199"/>
+      <c r="E145" s="176"/>
+      <c r="F145" s="176" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G145" s="176"/>
+      <c r="H145" s="176"/>
+      <c r="I145" s="176"/>
+      <c r="J145" s="176"/>
+      <c r="K145" s="176"/>
+      <c r="L145" s="176"/>
+      <c r="M145" s="176"/>
+      <c r="N145" s="176"/>
+      <c r="O145" s="176"/>
+      <c r="P145" s="176"/>
     </row>
     <row r="146" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E146" s="199"/>
-      <c r="F146" s="199" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G146" s="199" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H146" s="199" t="s">
+      <c r="E146" s="176"/>
+      <c r="F146" s="176" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G146" s="176" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H146" s="176" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I146" s="176"/>
+      <c r="J146" s="176"/>
+      <c r="K146" s="176"/>
+      <c r="L146" s="176"/>
+      <c r="M146" s="176"/>
+      <c r="N146" s="176"/>
+      <c r="O146" s="176"/>
+      <c r="P146" s="176"/>
+    </row>
+    <row r="147" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="E147" s="176"/>
+      <c r="F147" s="176"/>
+      <c r="G147" s="176" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H147" s="176" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I147" s="176"/>
+      <c r="J147" s="176"/>
+      <c r="K147" s="176"/>
+      <c r="L147" s="176"/>
+      <c r="M147" s="176"/>
+      <c r="N147" s="176"/>
+      <c r="O147" s="176"/>
+      <c r="P147" s="176"/>
+    </row>
+    <row r="148" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="E148" s="176"/>
+      <c r="F148" s="176"/>
+      <c r="G148" s="176" t="s">
         <v>1185</v>
       </c>
-      <c r="I146" s="199"/>
-      <c r="J146" s="199"/>
-      <c r="K146" s="199"/>
-      <c r="L146" s="199"/>
-      <c r="M146" s="199"/>
-      <c r="N146" s="199"/>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-    </row>
-    <row r="147" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E147" s="199"/>
-      <c r="F147" s="199"/>
-      <c r="G147" s="199" t="s">
+      <c r="H148" s="176" t="s">
         <v>1186</v>
       </c>
-      <c r="H147" s="199" t="s">
+      <c r="I148" s="176"/>
+      <c r="J148" s="176"/>
+      <c r="K148" s="176"/>
+      <c r="L148" s="176"/>
+      <c r="M148" s="176"/>
+      <c r="N148" s="176"/>
+      <c r="O148" s="176"/>
+      <c r="P148" s="176"/>
+    </row>
+    <row r="149" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="E149" s="176"/>
+      <c r="F149" s="176" t="s">
         <v>1187</v>
       </c>
-      <c r="I147" s="199"/>
-      <c r="J147" s="199"/>
-      <c r="K147" s="199"/>
-      <c r="L147" s="199"/>
-      <c r="M147" s="199"/>
-      <c r="N147" s="199"/>
-      <c r="O147" s="199"/>
-      <c r="P147" s="199"/>
-    </row>
-    <row r="148" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E148" s="199"/>
-      <c r="F148" s="199"/>
-      <c r="G148" s="199" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H148" s="199" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I148" s="199"/>
-      <c r="J148" s="199"/>
-      <c r="K148" s="199"/>
-      <c r="L148" s="199"/>
-      <c r="M148" s="199"/>
-      <c r="N148" s="199"/>
-      <c r="O148" s="199"/>
-      <c r="P148" s="199"/>
-    </row>
-    <row r="149" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E149" s="199"/>
-      <c r="F149" s="199" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G149" s="199"/>
-      <c r="H149" s="199"/>
-      <c r="I149" s="199"/>
-      <c r="J149" s="199"/>
-      <c r="K149" s="199"/>
-      <c r="L149" s="199"/>
-      <c r="M149" s="199"/>
-      <c r="N149" s="199"/>
-      <c r="O149" s="199"/>
-      <c r="P149" s="199"/>
+      <c r="G149" s="176"/>
+      <c r="H149" s="176"/>
+      <c r="I149" s="176"/>
+      <c r="J149" s="176"/>
+      <c r="K149" s="176"/>
+      <c r="L149" s="176"/>
+      <c r="M149" s="176"/>
+      <c r="N149" s="176"/>
+      <c r="O149" s="176"/>
+      <c r="P149" s="176"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E150" s="199"/>
-      <c r="F150" s="199"/>
-      <c r="G150" s="199"/>
-      <c r="H150" s="199"/>
-      <c r="I150" s="199"/>
-      <c r="J150" s="199"/>
-      <c r="K150" s="199"/>
-      <c r="L150" s="199"/>
-      <c r="M150" s="199"/>
-      <c r="N150" s="199"/>
-      <c r="O150" s="199"/>
-      <c r="P150" s="199"/>
+      <c r="E150" s="176"/>
+      <c r="F150" s="176"/>
+      <c r="G150" s="176"/>
+      <c r="H150" s="176"/>
+      <c r="I150" s="176"/>
+      <c r="J150" s="176"/>
+      <c r="K150" s="176"/>
+      <c r="L150" s="176"/>
+      <c r="M150" s="176"/>
+      <c r="N150" s="176"/>
+      <c r="O150" s="176"/>
+      <c r="P150" s="176"/>
     </row>
     <row r="152" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D152" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="154" spans="4:16" x14ac:dyDescent="0.15">
@@ -36833,10 +36914,10 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A164" s="78" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -37573,72 +37654,72 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E6" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -37663,12 +37744,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -37678,23 +37759,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -37704,22 +37785,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -37747,58 +37828,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -37823,119 +37904,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -37945,17 +38026,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -38249,7 +38330,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -38271,7 +38352,7 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -38289,7 +38370,7 @@
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -38422,7 +38503,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="106" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -38431,7 +38512,7 @@
         <v>498</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -38970,13 +39051,13 @@
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F60" s="94" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G60" s="85" t="s">
         <v>414</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I60" s="85"/>
       <c r="J60" s="85"/>
@@ -39009,12 +39090,12 @@
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F64" s="95" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G65" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -39055,15 +39136,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="53" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="78" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>183</v>
@@ -39152,17 +39233,17 @@
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.15">
@@ -39379,7 +39460,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>533</v>
@@ -39749,7 +39830,7 @@
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="86" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="85"/>
@@ -39775,7 +39856,7 @@
       <c r="D143" s="85"/>
       <c r="E143" s="85"/>
       <c r="F143" s="85" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
@@ -39786,7 +39867,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" s="85"/>
       <c r="E144" s="94" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -39799,7 +39880,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>533</v>
@@ -39812,7 +39893,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D146" s="85"/>
       <c r="E146" s="83" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F146" s="84"/>
       <c r="G146" s="84"/>
@@ -39827,7 +39908,7 @@
       <c r="D147" s="85"/>
       <c r="E147" s="83"/>
       <c r="F147" s="110" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G147" s="84"/>
       <c r="H147" s="84"/>
@@ -39839,11 +39920,11 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="78" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D148" s="85"/>
       <c r="E148" s="94" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F148" s="85"/>
       <c r="G148" s="85"/>
@@ -39856,10 +39937,10 @@
       <c r="D149" s="85"/>
       <c r="E149" s="85"/>
       <c r="F149" s="85" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G149" s="85" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H149" s="85"/>
       <c r="I149" s="85"/>
@@ -39868,11 +39949,11 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="53" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D150" s="85"/>
       <c r="E150" s="85" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F150" s="85"/>
       <c r="G150" s="85"/>
@@ -39885,11 +39966,11 @@
       <c r="D151" s="85"/>
       <c r="E151" s="85"/>
       <c r="F151" s="85" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G151" s="85"/>
       <c r="H151" s="121" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I151" s="85"/>
       <c r="J151" s="85"/>
@@ -39898,7 +39979,7 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D152" s="85"/>
       <c r="E152" s="94" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F152" s="85"/>
       <c r="G152" s="85"/>
@@ -39909,12 +39990,12 @@
     </row>
     <row r="153" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A153" s="106" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="85"/>
       <c r="F153" s="85" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G153" s="85"/>
       <c r="H153" s="85"/>
@@ -39924,12 +40005,12 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="78" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D154" s="85"/>
       <c r="E154" s="85"/>
       <c r="F154" s="85" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G154" s="85"/>
       <c r="H154" s="85"/>
@@ -39939,11 +40020,11 @@
     </row>
     <row r="155" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A155" s="106" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D155" s="85"/>
       <c r="E155" s="94" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F155" s="85"/>
       <c r="G155" s="85"/>
@@ -39954,12 +40035,12 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D156" s="84"/>
       <c r="E156" s="84"/>
       <c r="F156" s="84" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G156" s="84"/>
       <c r="H156" s="84"/>
@@ -39971,7 +40052,7 @@
       <c r="D157" s="84"/>
       <c r="E157" s="84"/>
       <c r="F157" s="84" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G157" s="84"/>
       <c r="H157" s="84"/>
@@ -40010,7 +40091,7 @@
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -40079,10 +40160,10 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="191" t="s">
+      <c r="E164" s="196" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="192"/>
+      <c r="F164" s="197"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -40665,7 +40746,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="122" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -40692,7 +40773,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -40718,7 +40799,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -40806,13 +40887,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="53" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
@@ -40824,7 +40905,7 @@
     <row r="33" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D33" s="85"/>
       <c r="E33" s="94" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
@@ -40836,7 +40917,7 @@
     <row r="34" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D34" s="85"/>
       <c r="E34" s="125" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F34" s="94"/>
       <c r="G34" s="94"/>
@@ -40848,7 +40929,7 @@
     <row r="35" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D35" s="85"/>
       <c r="E35" s="94" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F35" s="86"/>
       <c r="G35" s="94"/>
@@ -40860,7 +40941,7 @@
     <row r="36" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D36" s="85"/>
       <c r="E36" s="125" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F36" s="86"/>
       <c r="G36" s="94"/>
@@ -40872,7 +40953,7 @@
     <row r="37" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D37" s="85"/>
       <c r="E37" s="94" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F37" s="86"/>
       <c r="G37" s="94"/>
@@ -40884,7 +40965,7 @@
     <row r="38" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D38" s="85"/>
       <c r="E38" s="125" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F38" s="86"/>
       <c r="G38" s="94"/>
@@ -40896,7 +40977,7 @@
     <row r="39" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D39" s="85"/>
       <c r="E39" s="94" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F39" s="86"/>
       <c r="G39" s="94"/>
@@ -40908,7 +40989,7 @@
     <row r="40" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D40" s="85"/>
       <c r="E40" s="125" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F40" s="86"/>
       <c r="G40" s="94"/>
@@ -40920,7 +41001,7 @@
     <row r="41" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D41" s="85"/>
       <c r="E41" s="94" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F41" s="86"/>
       <c r="G41" s="94"/>
@@ -40932,7 +41013,7 @@
     <row r="42" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D42" s="85"/>
       <c r="E42" s="125" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F42" s="86"/>
       <c r="G42" s="94"/>
@@ -40947,7 +41028,7 @@
     <row r="43" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="94" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F43" s="86"/>
       <c r="G43" s="94"/>
@@ -40962,7 +41043,7 @@
     <row r="44" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D44" s="85"/>
       <c r="E44" s="94" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="94"/>
@@ -40977,7 +41058,7 @@
     <row r="45" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D45" s="85"/>
       <c r="E45" s="94" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F45" s="86"/>
       <c r="G45" s="94"/>
@@ -40992,7 +41073,7 @@
     <row r="46" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D46" s="85"/>
       <c r="E46" s="94" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F46" s="86"/>
       <c r="G46" s="94"/>
@@ -41007,7 +41088,7 @@
     <row r="47" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D47" s="85"/>
       <c r="E47" s="97" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F47" s="86"/>
       <c r="G47" s="97"/>
@@ -41022,7 +41103,7 @@
     <row r="48" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D48" s="85"/>
       <c r="E48" s="94" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F48" s="86"/>
       <c r="G48" s="94"/>
@@ -41034,7 +41115,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D49" s="85"/>
       <c r="E49" s="94" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="94"/>
@@ -41063,7 +41144,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D53" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -41078,10 +41159,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D56" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F56" s="131" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G56" s="131"/>
       <c r="H56" s="131"/>
@@ -41093,7 +41174,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
@@ -41104,7 +41185,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F60" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="124"/>
@@ -41113,7 +41194,7 @@
       <c r="K60" s="124"/>
       <c r="L60" s="124"/>
       <c r="M60" s="131" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="N60" s="131"/>
       <c r="O60" s="131"/>
@@ -41194,7 +41275,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>440</v>
@@ -41202,28 +41283,28 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="84"/>
       <c r="G9" s="84" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
@@ -41233,11 +41314,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -41247,7 +41328,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -41278,7 +41359,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -41320,7 +41401,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="127" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F31" s="127"/>
       <c r="G31" s="127"/>
@@ -41328,7 +41409,7 @@
       <c r="I31" s="127"/>
       <c r="J31" s="127"/>
       <c r="L31" s="131" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="M31" s="131"/>
       <c r="N31" s="131"/>
@@ -41356,7 +41437,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
@@ -41442,7 +41523,7 @@
         <v>240</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -41454,11 +41535,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -41470,11 +41551,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -41497,10 +41578,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>241</v>
@@ -41512,7 +41593,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="127" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E32" s="127"/>
       <c r="F32" s="127"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1433">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5799,6 +5799,10 @@
   </si>
   <si>
     <t>战力显示未测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应进阶后的品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6153,7 +6157,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6259,6 +6263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6543,7 +6553,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7068,6 +7078,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8606,44 +8625,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209177</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142645</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772025" y="13373100"/>
-          <a:ext cx="2980952" cy="1838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -8678,7 +8659,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
           <a:srcRect/>
           <a:stretch>
             <a:fillRect/>
@@ -8829,44 +8810,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552411</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7096125" y="13658850"/>
-          <a:ext cx="314286" cy="180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10550,7 +10493,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -12441,7 +12384,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -12470,6 +12413,44 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518103</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800601" y="13239749"/>
+          <a:ext cx="1889702" cy="1962151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20222,10 +20203,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20233,109 +20214,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
+        <a:xfrm flipH="1" flipV="1">
           <a:off x="3333750" y="12906375"/>
-          <a:ext cx="1200150" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5800725" y="12668251"/>
-          <a:ext cx="2190750" cy="28574"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6086475" y="12877800"/>
-          <a:ext cx="1905000" cy="19051"/>
+          <a:ext cx="495300" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20367,25 +20248,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6600825" y="13115925"/>
-          <a:ext cx="1390650" cy="9527"/>
+        <a:xfrm>
+          <a:off x="6867525" y="12668250"/>
+          <a:ext cx="1123950" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20416,16 +20297,116 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6905625" y="12877801"/>
+          <a:ext cx="1085850" cy="57149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7000875" y="13115926"/>
+          <a:ext cx="990600" cy="57149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20434,7 +20415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="13306424"/>
+          <a:off x="7591425" y="13315949"/>
           <a:ext cx="2800350" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20475,16 +20456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20495,7 +20476,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800850" y="13739812"/>
+          <a:off x="10391775" y="13749337"/>
           <a:ext cx="1181100" cy="14288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -21325,13 +21306,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21348,7 +21329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="13354049"/>
+          <a:off x="4048125" y="13296899"/>
           <a:ext cx="2590800" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22064,27 +22045,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>57117</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="133" name="直接箭头连接符 132"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="132" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3467100" y="14497017"/>
-          <a:ext cx="561975" cy="66708"/>
+          <a:off x="3467101" y="14468475"/>
+          <a:ext cx="342899" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25341,17 +25320,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="148"/>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="188" t="s">
         <v>715</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187" t="s">
+      <c r="C11" s="189"/>
+      <c r="D11" s="190" t="s">
         <v>716</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="188"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="191"/>
       <c r="I11" s="149"/>
       <c r="J11" s="149"/>
       <c r="K11" s="149"/>
@@ -25366,11 +25345,11 @@
         <v>717</v>
       </c>
       <c r="C12" s="155"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
       <c r="I12" s="149"/>
       <c r="J12" s="149"/>
       <c r="K12" s="149"/>
@@ -25385,11 +25364,11 @@
         <v>718</v>
       </c>
       <c r="C13" s="155"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="191"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="149"/>
       <c r="J13" s="149"/>
       <c r="K13" s="149"/>
@@ -25404,11 +25383,11 @@
         <v>719</v>
       </c>
       <c r="C14" s="155"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
       <c r="I14" s="149"/>
       <c r="J14" s="149"/>
       <c r="K14" s="149"/>
@@ -25425,11 +25404,11 @@
       <c r="C15" s="156" t="s">
         <v>721</v>
       </c>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="149"/>
       <c r="J15" s="149"/>
       <c r="K15" s="149"/>
@@ -25444,11 +25423,11 @@
         <v>722</v>
       </c>
       <c r="C16" s="156"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
       <c r="I16" s="149"/>
       <c r="J16" s="149">
         <v>-0.15</v>
@@ -25469,11 +25448,11 @@
         <v>723</v>
       </c>
       <c r="C17" s="156"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
       <c r="I17" s="149"/>
       <c r="J17" s="149"/>
       <c r="K17" s="149">
@@ -25490,11 +25469,11 @@
         <v>724</v>
       </c>
       <c r="C18" s="158"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="187"/>
       <c r="I18" s="149"/>
       <c r="J18" s="149"/>
       <c r="K18" s="149"/>
@@ -26579,8 +26558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -29084,7 +29063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -29177,10 +29156,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -29478,55 +29457,80 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C66" s="2" t="s">
+    <row r="66" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="181" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="2" t="s">
+    <row r="67" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="181" t="s">
         <v>1143</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="181" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="2" t="s">
+    <row r="69" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="181" t="s">
         <v>1153</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="181" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="2" t="s">
+    <row r="71" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="181" t="s">
         <v>1280</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="181" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E76" s="58" t="s">
+    <row r="73" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="182" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
+    <row r="77" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="181" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J94" s="2" t="s">
+    <row r="93" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J94" s="181" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J97" s="54" t="s">
+    <row r="95" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J97" s="183" t="s">
         <v>1142</v>
       </c>
     </row>
+    <row r="98" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -29583,45 +29587,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="204" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="202" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="205" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203" t="s">
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206" t="s">
         <v>435</v>
       </c>
-      <c r="AA2" s="203"/>
+      <c r="AA2" s="206"/>
       <c r="AB2" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="AC2" s="198" t="s">
+      <c r="AC2" s="201" t="s">
         <v>441</v>
       </c>
-      <c r="AD2" s="198"/>
+      <c r="AD2" s="201"/>
       <c r="AE2" s="68" t="s">
         <v>626</v>
       </c>
@@ -29811,7 +29815,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="203" t="s">
         <v>445</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -29877,7 +29881,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="200"/>
+      <c r="A6" s="203"/>
       <c r="E6" s="48" t="s">
         <v>448</v>
       </c>
@@ -29934,7 +29938,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="200"/>
+      <c r="A7" s="203"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -29952,7 +29956,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="200"/>
+      <c r="A8" s="203"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -29964,7 +29968,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="200"/>
+      <c r="A9" s="203"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -30044,7 +30048,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="203" t="s">
         <v>445</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -30066,7 +30070,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="200"/>
+      <c r="A16" s="203"/>
       <c r="E16" s="2" t="s">
         <v>409</v>
       </c>
@@ -30194,7 +30198,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="203" t="s">
         <v>445</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -30230,7 +30234,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="200"/>
+      <c r="A25" s="203"/>
       <c r="E25" s="2" t="s">
         <v>409</v>
       </c>
@@ -30323,13 +30327,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="199" t="s">
+      <c r="F31" s="202" t="s">
         <v>659</v>
       </c>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -32586,8 +32590,8 @@
   </sheetPr>
   <dimension ref="A2:V137"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33792,7 +33796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U181"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B79" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -33864,10 +33868,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="195" t="s">
+      <c r="L12" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="195"/>
+      <c r="M12" s="198"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -35747,7 +35751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -38287,8 +38291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -40117,7 +40121,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>859</v>
+        <v>1432</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>533</v>
@@ -40397,10 +40401,10 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="196" t="s">
+      <c r="E164" s="199" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="197"/>
+      <c r="F164" s="200"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\道具系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\道具系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1436">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3102,10 +3102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>buyPrice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">buyType </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4358,10 +4354,6 @@
     <t>文字内容</t>
   </si>
   <si>
-    <t>系统频道</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>走马灯</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -5803,6 +5795,26 @@
   </si>
   <si>
     <t>对应进阶后的品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除配置中buyprice字段，改为在商店中配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界频道</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会频道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6553,7 +6565,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7155,6 +7167,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25117,10 +25132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25647,7 +25662,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="149"/>
       <c r="B26" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C26" s="159">
         <v>42151</v>
@@ -25656,14 +25671,14 @@
       <c r="E26" s="85"/>
       <c r="F26" s="150"/>
       <c r="G26" s="150" t="s">
+        <v>891</v>
+      </c>
+      <c r="H26" s="149" t="s">
         <v>892</v>
-      </c>
-      <c r="H26" s="149" t="s">
-        <v>893</v>
       </c>
       <c r="I26" s="149"/>
       <c r="J26" s="149" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K26" s="149"/>
       <c r="L26" s="149"/>
@@ -25680,11 +25695,11 @@
       <c r="F27" s="150"/>
       <c r="G27" s="150"/>
       <c r="H27" s="120" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I27" s="149"/>
       <c r="J27" s="120" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K27" s="149"/>
       <c r="L27" s="149"/>
@@ -25701,7 +25716,7 @@
       <c r="F28" s="150"/>
       <c r="G28" s="150"/>
       <c r="H28" s="120" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I28" s="149"/>
       <c r="J28" s="120"/>
@@ -25720,7 +25735,7 @@
       <c r="F29" s="150"/>
       <c r="G29" s="150"/>
       <c r="H29" s="120" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I29" s="149"/>
       <c r="J29" s="120"/>
@@ -25739,7 +25754,7 @@
       <c r="F30" s="150"/>
       <c r="G30" s="150"/>
       <c r="H30" s="120" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I30" s="149"/>
       <c r="J30" s="120"/>
@@ -25758,7 +25773,7 @@
       <c r="F31" s="150"/>
       <c r="G31" s="150"/>
       <c r="H31" s="120" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I31" s="149"/>
       <c r="J31" s="120"/>
@@ -25771,7 +25786,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="149"/>
       <c r="B32" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C32" s="159">
         <v>42153</v>
@@ -25780,10 +25795,10 @@
       <c r="E32" s="84"/>
       <c r="F32" s="150"/>
       <c r="G32" s="150" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -25802,11 +25817,11 @@
       <c r="F33" s="150"/>
       <c r="G33" s="150"/>
       <c r="H33" s="120" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I33" s="149"/>
       <c r="J33" s="120" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K33" s="149"/>
       <c r="L33" s="149"/>
@@ -25823,7 +25838,7 @@
       <c r="F34" s="150"/>
       <c r="G34" s="150"/>
       <c r="H34" s="120" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I34" s="149"/>
       <c r="J34" s="120"/>
@@ -25842,7 +25857,7 @@
       <c r="F35" s="150"/>
       <c r="G35" s="150"/>
       <c r="H35" s="120" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I35" s="149"/>
       <c r="J35" s="120"/>
@@ -25861,7 +25876,7 @@
       <c r="F36" s="150"/>
       <c r="G36" s="150"/>
       <c r="H36" s="120" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I36" s="149"/>
       <c r="J36" s="120"/>
@@ -25880,7 +25895,7 @@
       <c r="F37" s="150"/>
       <c r="G37" s="150"/>
       <c r="H37" s="120" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I37" s="149"/>
       <c r="J37" s="120"/>
@@ -25899,7 +25914,7 @@
       <c r="F38" s="150"/>
       <c r="G38" s="150"/>
       <c r="H38" s="120" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I38" s="149"/>
       <c r="J38" s="120"/>
@@ -25918,12 +25933,12 @@
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
       <c r="H39" s="120" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I39" s="149"/>
       <c r="J39" s="120"/>
       <c r="K39" s="120" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L39" s="149"/>
       <c r="M39" s="149"/>
@@ -25939,13 +25954,13 @@
       <c r="F40" s="150"/>
       <c r="G40" s="150"/>
       <c r="H40" s="120" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I40" s="149"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M40" s="149"/>
       <c r="N40" s="149"/>
@@ -25954,7 +25969,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="149"/>
       <c r="B41" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C41" s="159">
         <v>42156</v>
@@ -25964,7 +25979,7 @@
       <c r="F41" s="150"/>
       <c r="G41" s="150"/>
       <c r="H41" s="120" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I41" s="149"/>
       <c r="J41" s="120"/>
@@ -25983,7 +25998,7 @@
       <c r="F42" s="150"/>
       <c r="G42" s="150"/>
       <c r="H42" s="120" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I42" s="149"/>
       <c r="J42" s="120"/>
@@ -26002,7 +26017,7 @@
       <c r="F43" s="150"/>
       <c r="G43" s="150"/>
       <c r="H43" s="120" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I43" s="149"/>
       <c r="J43" s="120"/>
@@ -26021,7 +26036,7 @@
       <c r="F44" s="150"/>
       <c r="G44" s="150"/>
       <c r="H44" s="120" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I44" s="149"/>
       <c r="J44" s="120"/>
@@ -26040,12 +26055,12 @@
       <c r="F45" s="150"/>
       <c r="G45" s="150"/>
       <c r="H45" s="130" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I45" s="149"/>
       <c r="J45" s="120"/>
       <c r="K45" s="130" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L45" s="120"/>
       <c r="M45" s="149"/>
@@ -26061,7 +26076,7 @@
       <c r="F46" s="150"/>
       <c r="G46" s="150"/>
       <c r="H46" s="120" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I46" s="149"/>
       <c r="J46" s="120"/>
@@ -26080,7 +26095,7 @@
       <c r="F47" s="150"/>
       <c r="G47" s="150"/>
       <c r="H47" s="120" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I47" s="149"/>
       <c r="J47" s="120"/>
@@ -26099,7 +26114,7 @@
       <c r="F48" s="150"/>
       <c r="G48" s="150"/>
       <c r="H48" s="130" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I48" s="149"/>
       <c r="J48" s="120"/>
@@ -26118,7 +26133,7 @@
       <c r="F49" s="150"/>
       <c r="G49" s="150"/>
       <c r="H49" s="130" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I49" s="149"/>
       <c r="J49" s="120"/>
@@ -26137,11 +26152,11 @@
       <c r="F50" s="150"/>
       <c r="G50" s="150"/>
       <c r="H50" s="120" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I50" s="149"/>
       <c r="J50" s="58" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -26158,7 +26173,7 @@
       <c r="F51" s="150"/>
       <c r="G51" s="150"/>
       <c r="H51" s="130" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="I51" s="149"/>
       <c r="J51" s="120"/>
@@ -26177,12 +26192,12 @@
       <c r="F52" s="150"/>
       <c r="G52" s="150"/>
       <c r="H52" s="120" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="I52" s="149"/>
       <c r="J52" s="120"/>
       <c r="K52" s="120" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L52" s="120"/>
       <c r="M52" s="149"/>
@@ -26198,13 +26213,13 @@
       <c r="F53" s="150"/>
       <c r="G53" s="150"/>
       <c r="H53" s="120" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="I53" s="149"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
       <c r="L53" s="120" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M53" s="149"/>
       <c r="N53" s="149"/>
@@ -26219,7 +26234,7 @@
       <c r="F54" s="150"/>
       <c r="G54" s="150"/>
       <c r="H54" s="130" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I54" s="149"/>
       <c r="J54" s="120"/>
@@ -26238,7 +26253,7 @@
       <c r="F55" s="150"/>
       <c r="G55" s="150"/>
       <c r="H55" s="130" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="I55" s="149"/>
       <c r="J55" s="120"/>
@@ -26251,7 +26266,7 @@
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="149"/>
       <c r="B56" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C56" s="159">
         <v>42163</v>
@@ -26261,7 +26276,7 @@
       <c r="F56" s="150"/>
       <c r="G56" s="150"/>
       <c r="H56" s="120" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I56" s="149"/>
       <c r="J56" s="120"/>
@@ -26280,7 +26295,7 @@
       <c r="F57" s="150"/>
       <c r="G57" s="150"/>
       <c r="H57" s="130" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I57" s="149"/>
       <c r="J57" s="120"/>
@@ -26301,12 +26316,12 @@
       <c r="F58" s="150"/>
       <c r="G58" s="150"/>
       <c r="H58" s="58" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I58" s="149"/>
       <c r="J58" s="120"/>
       <c r="K58" s="120" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="149"/>
@@ -26324,7 +26339,7 @@
       <c r="F59" s="150"/>
       <c r="G59" s="150"/>
       <c r="H59" s="167" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I59" s="149"/>
       <c r="J59" s="120"/>
@@ -26345,7 +26360,7 @@
       <c r="F60" s="150"/>
       <c r="G60" s="150"/>
       <c r="H60" s="167" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I60" s="149"/>
       <c r="J60" s="120"/>
@@ -26366,7 +26381,7 @@
       <c r="F61" s="150"/>
       <c r="G61" s="150"/>
       <c r="H61" s="167" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I61" s="149"/>
       <c r="J61" s="120"/>
@@ -26387,7 +26402,7 @@
       <c r="F62" s="150"/>
       <c r="G62" s="150"/>
       <c r="H62" s="58" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I62" s="149"/>
       <c r="J62" s="120"/>
@@ -26400,12 +26415,18 @@
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="149"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="159"/>
+      <c r="C63" s="159">
+        <v>42270</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5"/>
       <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="58"/>
+      <c r="G63" s="150" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H63" s="58" t="s">
+        <v>1432</v>
+      </c>
       <c r="I63" s="149"/>
       <c r="J63" s="120"/>
       <c r="K63" s="120"/>
@@ -26415,38 +26436,38 @@
       <c r="O63" s="149"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="148" t="s">
-        <v>735</v>
-      </c>
-      <c r="B64" s="149" t="s">
-        <v>726</v>
-      </c>
-      <c r="C64" s="150" t="s">
-        <v>736</v>
-      </c>
-      <c r="D64" s="150" t="s">
-        <v>737</v>
-      </c>
-      <c r="E64" s="150" t="s">
-        <v>738</v>
-      </c>
+      <c r="A64" s="149"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="150"/>
       <c r="G64" s="150"/>
-      <c r="H64" s="149"/>
+      <c r="H64" s="58"/>
       <c r="I64" s="149"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="120"/>
+      <c r="L64" s="120"/>
       <c r="M64" s="149"/>
       <c r="N64" s="149"/>
       <c r="O64" s="149"/>
     </row>
     <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="148"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
+      <c r="A65" s="148" t="s">
+        <v>735</v>
+      </c>
+      <c r="B65" s="149" t="s">
+        <v>726</v>
+      </c>
+      <c r="C65" s="150" t="s">
+        <v>736</v>
+      </c>
+      <c r="D65" s="150" t="s">
+        <v>737</v>
+      </c>
+      <c r="E65" s="150" t="s">
+        <v>738</v>
+      </c>
       <c r="F65" s="150"/>
       <c r="G65" s="150"/>
       <c r="H65" s="149"/>
@@ -26492,8 +26513,25 @@
       <c r="N67" s="149"/>
       <c r="O67" s="149"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F69" s="129"/>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="148"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="150"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="149"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="149"/>
+      <c r="M68" s="149"/>
+      <c r="N68" s="149"/>
+      <c r="O68" s="149"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F70" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26556,10 +26594,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26577,32 +26615,31 @@
     <col min="13" max="13" width="9.75" style="80" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="80" customWidth="1"/>
     <col min="15" max="15" width="10.25" style="80" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="80" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="80" customWidth="1"/>
-    <col min="18" max="18" width="20.375" style="80" customWidth="1"/>
-    <col min="19" max="19" width="60.25" style="80" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="80" customWidth="1"/>
-    <col min="21" max="21" width="68.5" style="80" customWidth="1"/>
-    <col min="22" max="22" width="24.25" style="80" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="80" customWidth="1"/>
-    <col min="24" max="24" width="14.125" style="80" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="80" customWidth="1"/>
-    <col min="26" max="26" width="10.125" style="80" customWidth="1"/>
-    <col min="27" max="27" width="14.125" style="80" customWidth="1"/>
-    <col min="28" max="28" width="9" style="80"/>
-    <col min="29" max="29" width="10.5" style="87" customWidth="1"/>
-    <col min="30" max="30" width="11.375" style="80" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="80"/>
+    <col min="16" max="16" width="11.25" style="80" customWidth="1"/>
+    <col min="17" max="17" width="20.375" style="80" customWidth="1"/>
+    <col min="18" max="18" width="60.25" style="80" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="80" customWidth="1"/>
+    <col min="20" max="20" width="68.5" style="80" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="80" customWidth="1"/>
+    <col min="22" max="22" width="16.5" style="80" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="80" customWidth="1"/>
+    <col min="24" max="24" width="15.625" style="80" customWidth="1"/>
+    <col min="25" max="25" width="10.125" style="80" customWidth="1"/>
+    <col min="26" max="26" width="14.125" style="80" customWidth="1"/>
+    <col min="27" max="27" width="9" style="80"/>
+    <col min="28" max="28" width="10.5" style="87" customWidth="1"/>
+    <col min="29" max="29" width="11.375" style="80" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C1" s="80" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>754</v>
@@ -26617,7 +26654,7 @@
         <v>756</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>756</v>
@@ -26650,19 +26687,19 @@
         <v>756</v>
       </c>
       <c r="R2" s="80" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S2" s="80" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="T2" s="80" t="s">
         <v>757</v>
       </c>
       <c r="U2" s="80" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="V2" s="80" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="W2" s="80" t="s">
         <v>756</v>
@@ -26670,31 +26707,28 @@
       <c r="X2" s="80" t="s">
         <v>756</v>
       </c>
-      <c r="Y2" s="80" t="s">
+      <c r="Y2" s="103" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z2" s="111" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA2" s="81" t="s">
         <v>756</v>
       </c>
-      <c r="Z2" s="103" t="s">
+      <c r="AB2" s="80" t="s">
         <v>758</v>
       </c>
-      <c r="AA2" s="111" t="s">
+      <c r="AC2" s="111" t="s">
         <v>758</v>
       </c>
-      <c r="AB2" s="81" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC2" s="80" t="s">
+      <c r="AD2" s="80" t="s">
         <v>758</v>
       </c>
-      <c r="AD2" s="111" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE2" s="80" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="103" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>759</v>
@@ -26703,19 +26737,19 @@
         <v>760</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>762</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>763</v>
@@ -26738,203 +26772,194 @@
       <c r="P3" s="103" t="s">
         <v>768</v>
       </c>
-      <c r="Q3" s="103" t="s">
+      <c r="Q3" s="80" t="s">
         <v>769</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="87" t="s">
+        <v>871</v>
+      </c>
+      <c r="S3" s="87" t="s">
         <v>770</v>
-      </c>
-      <c r="S3" s="87" t="s">
-        <v>872</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>771</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="103" t="s">
         <v>772</v>
       </c>
       <c r="V3" s="103" t="s">
         <v>773</v>
       </c>
-      <c r="W3" s="103" t="s">
+      <c r="W3" s="80" t="s">
         <v>774</v>
       </c>
       <c r="X3" s="80" t="s">
         <v>775</v>
       </c>
-      <c r="Y3" s="80" t="s">
+      <c r="Y3" s="103" t="s">
         <v>776</v>
       </c>
-      <c r="Z3" s="103" t="s">
+      <c r="Z3" s="111" t="s">
+        <v>913</v>
+      </c>
+      <c r="AA3" s="87" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB3" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="AA3" s="111" t="s">
-        <v>914</v>
-      </c>
-      <c r="AB3" s="87" t="s">
-        <v>761</v>
-      </c>
-      <c r="AC3" s="80" t="s">
+      <c r="AC3" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD3" s="80" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C4" s="80" t="s">
         <v>778</v>
       </c>
-      <c r="AD3" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" s="80" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C4" s="80" t="s">
+      <c r="D4" s="80" t="s">
         <v>779</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>780</v>
-      </c>
       <c r="E4" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="F4" s="80" t="s">
         <v>782</v>
       </c>
-      <c r="F4" s="80" t="s">
-        <v>783</v>
-      </c>
       <c r="G4" s="84" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J4" s="80" t="s">
         <v>629</v>
       </c>
       <c r="K4" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>785</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>786</v>
       </c>
       <c r="M4" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="O4" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="P4" s="103" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="R4" s="87" t="s">
+        <v>972</v>
+      </c>
+      <c r="S4" s="87" t="s">
         <v>787</v>
       </c>
-      <c r="O4" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>787</v>
-      </c>
-      <c r="Q4" s="103" t="s">
-        <v>964</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="S4" s="87" t="s">
-        <v>973</v>
-      </c>
       <c r="T4" s="87" t="s">
+        <v>967</v>
+      </c>
+      <c r="U4" s="103" t="s">
         <v>788</v>
       </c>
-      <c r="U4" s="87" t="s">
-        <v>968</v>
-      </c>
       <c r="V4" s="103" t="s">
+        <v>1325</v>
+      </c>
+      <c r="W4" s="80" t="s">
         <v>789</v>
-      </c>
-      <c r="W4" s="103" t="s">
-        <v>1327</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Y4" s="103" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z4" s="111" t="s">
         <v>791</v>
       </c>
-      <c r="Z4" s="103" t="s">
-        <v>993</v>
-      </c>
-      <c r="AA4" s="111" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB4" s="87" t="s">
-        <v>781</v>
-      </c>
-      <c r="AC4" s="80" t="s">
+      <c r="AA4" s="87" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB4" s="80" t="s">
         <v>544</v>
       </c>
-      <c r="AD4" s="111" t="s">
+      <c r="AC4" s="111" t="s">
         <v>543</v>
       </c>
-      <c r="AE4" s="80" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AD4" s="80" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>678</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O5" s="84"/>
-      <c r="P5" s="78" t="s">
-        <v>847</v>
+      <c r="R5" s="83" t="s">
+        <v>971</v>
       </c>
       <c r="S5" s="83" t="s">
-        <v>972</v>
+        <v>804</v>
       </c>
       <c r="T5" s="83" t="s">
         <v>805</v>
       </c>
       <c r="U5" s="83" t="s">
-        <v>806</v>
-      </c>
-      <c r="V5" s="83" t="s">
-        <v>974</v>
-      </c>
-      <c r="X5" s="98" t="s">
-        <v>890</v>
-      </c>
-      <c r="Z5" s="103" t="s">
+        <v>973</v>
+      </c>
+      <c r="W5" s="98" t="s">
+        <v>889</v>
+      </c>
+      <c r="Y5" s="103" t="s">
+        <v>807</v>
+      </c>
+      <c r="Z5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="103" t="s">
         <v>808</v>
       </c>
-      <c r="AA5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="103" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C6" s="80">
         <v>10001</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F6" s="80">
         <v>1</v>
@@ -26965,20 +26990,20 @@
         <v>0</v>
       </c>
       <c r="Q6" s="80">
+        <v>1</v>
+      </c>
+      <c r="R6" s="87" t="s">
+        <v>965</v>
+      </c>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87" t="s">
+        <v>966</v>
+      </c>
+      <c r="U6" s="80" t="s">
+        <v>806</v>
+      </c>
+      <c r="V6" s="80">
         <v>0</v>
-      </c>
-      <c r="R6" s="80">
-        <v>1</v>
-      </c>
-      <c r="S6" s="87" t="s">
-        <v>966</v>
-      </c>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87" t="s">
-        <v>967</v>
-      </c>
-      <c r="V6" s="80" t="s">
-        <v>807</v>
       </c>
       <c r="W6" s="80">
         <v>0</v>
@@ -26986,37 +27011,34 @@
       <c r="X6" s="80">
         <v>0</v>
       </c>
-      <c r="Y6" s="80">
+      <c r="Y6" s="103">
         <v>0</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="Z6" s="111">
         <v>0</v>
       </c>
-      <c r="AA6" s="111">
+      <c r="AA6" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="80">
         <v>0</v>
       </c>
-      <c r="AB6" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="80">
+      <c r="AC6" s="111">
         <v>0</v>
       </c>
-      <c r="AD6" s="111">
+      <c r="AD6" s="80">
         <v>0</v>
       </c>
-      <c r="AE6" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C7" s="80">
         <v>10002</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F7" s="80">
         <v>1</v>
@@ -27047,13 +27069,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="80">
+        <v>100</v>
+      </c>
+      <c r="T7" s="105" t="s">
+        <v>994</v>
+      </c>
+      <c r="V7" s="80">
         <v>0</v>
-      </c>
-      <c r="R7" s="80">
-        <v>100</v>
-      </c>
-      <c r="U7" s="105" t="s">
-        <v>995</v>
       </c>
       <c r="W7" s="80">
         <v>0</v>
@@ -27061,37 +27083,34 @@
       <c r="X7" s="80">
         <v>0</v>
       </c>
-      <c r="Y7" s="80">
+      <c r="Y7" s="103">
         <v>0</v>
       </c>
-      <c r="Z7" s="103">
+      <c r="Z7" s="111">
         <v>0</v>
       </c>
-      <c r="AA7" s="111">
+      <c r="AA7" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="80">
         <v>0</v>
       </c>
-      <c r="AB7" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="80">
+      <c r="AC7" s="111">
         <v>0</v>
       </c>
-      <c r="AD7" s="111">
+      <c r="AD7" s="80">
         <v>0</v>
       </c>
-      <c r="AE7" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C8" s="80">
         <v>20001</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F8" s="80">
         <v>2</v>
@@ -27119,54 +27138,51 @@
         <v>2</v>
       </c>
       <c r="P8" s="80">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="80">
-        <v>1</v>
-      </c>
-      <c r="R8" s="80">
         <v>100</v>
       </c>
-      <c r="V8" s="80" t="s">
-        <v>796</v>
+      <c r="U8" s="80" t="s">
+        <v>795</v>
+      </c>
+      <c r="V8" s="80">
+        <v>50</v>
       </c>
       <c r="W8" s="80">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X8" s="80">
         <v>0</v>
       </c>
-      <c r="Y8" s="80">
+      <c r="Y8" s="103">
         <v>0</v>
       </c>
-      <c r="Z8" s="103">
+      <c r="Z8" s="111">
         <v>0</v>
       </c>
-      <c r="AA8" s="111">
+      <c r="AA8" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="80">
         <v>0</v>
       </c>
-      <c r="AB8" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="80">
+      <c r="AC8" s="111">
         <v>0</v>
       </c>
-      <c r="AD8" s="111">
+      <c r="AD8" s="80">
         <v>0</v>
       </c>
-      <c r="AE8" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C9" s="80">
         <v>30001</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F9" s="80">
         <v>3</v>
@@ -27194,13 +27210,13 @@
         <v>2</v>
       </c>
       <c r="P9" s="80">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="80">
-        <v>1</v>
-      </c>
-      <c r="R9" s="80">
         <v>100</v>
+      </c>
+      <c r="V9" s="80">
+        <v>0</v>
       </c>
       <c r="W9" s="80">
         <v>0</v>
@@ -27208,34 +27224,31 @@
       <c r="X9" s="80">
         <v>0</v>
       </c>
-      <c r="Y9" s="80">
+      <c r="Y9" s="103">
+        <v>3001</v>
+      </c>
+      <c r="Z9" s="111">
         <v>0</v>
       </c>
-      <c r="Z9" s="103">
-        <v>3001</v>
-      </c>
-      <c r="AA9" s="111">
+      <c r="AA9" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="80">
         <v>0</v>
       </c>
-      <c r="AB9" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="80">
+      <c r="AC9" s="111">
         <v>0</v>
       </c>
-      <c r="AD9" s="111">
+      <c r="AD9" s="80">
         <v>0</v>
       </c>
-      <c r="AE9" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C10" s="80">
         <v>40001</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F10" s="80">
         <v>4</v>
@@ -27266,13 +27279,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="80">
+        <v>1</v>
+      </c>
+      <c r="S10" s="80">
+        <v>3001</v>
+      </c>
+      <c r="V10" s="80">
         <v>0</v>
-      </c>
-      <c r="R10" s="80">
-        <v>1</v>
-      </c>
-      <c r="T10" s="80">
-        <v>3001</v>
       </c>
       <c r="W10" s="80">
         <v>0</v>
@@ -27280,34 +27293,31 @@
       <c r="X10" s="80">
         <v>0</v>
       </c>
-      <c r="Y10" s="80">
+      <c r="Y10" s="103">
         <v>0</v>
       </c>
-      <c r="Z10" s="103">
+      <c r="Z10" s="111">
         <v>0</v>
       </c>
-      <c r="AA10" s="111">
+      <c r="AA10" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="80">
         <v>0</v>
       </c>
-      <c r="AB10" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="80">
+      <c r="AC10" s="111">
         <v>0</v>
       </c>
-      <c r="AD10" s="111">
+      <c r="AD10" s="80">
         <v>0</v>
       </c>
-      <c r="AE10" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C11" s="80">
         <v>40002</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F11" s="80">
         <v>4</v>
@@ -27338,16 +27348,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="80">
+        <v>1</v>
+      </c>
+      <c r="S11" s="80">
+        <v>3001</v>
+      </c>
+      <c r="T11" s="80" t="s">
+        <v>799</v>
+      </c>
+      <c r="V11" s="80">
         <v>0</v>
-      </c>
-      <c r="R11" s="80">
-        <v>1</v>
-      </c>
-      <c r="T11" s="80">
-        <v>3001</v>
-      </c>
-      <c r="U11" s="80" t="s">
-        <v>800</v>
       </c>
       <c r="W11" s="80">
         <v>0</v>
@@ -27355,34 +27365,31 @@
       <c r="X11" s="80">
         <v>0</v>
       </c>
-      <c r="Y11" s="80">
+      <c r="Y11" s="103">
         <v>0</v>
       </c>
-      <c r="Z11" s="103">
+      <c r="Z11" s="111">
         <v>0</v>
       </c>
-      <c r="AA11" s="111">
+      <c r="AA11" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="80">
         <v>0</v>
       </c>
-      <c r="AB11" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="80">
+      <c r="AC11" s="111">
         <v>0</v>
       </c>
-      <c r="AD11" s="111">
+      <c r="AD11" s="80">
         <v>0</v>
       </c>
-      <c r="AE11" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C12" s="80">
         <v>50001</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F12" s="80">
         <v>5</v>
@@ -27413,45 +27420,42 @@
         <v>0</v>
       </c>
       <c r="Q12" s="80">
+        <v>100</v>
+      </c>
+      <c r="V12" s="80">
         <v>0</v>
       </c>
-      <c r="R12" s="80">
+      <c r="W12" s="80">
+        <v>3</v>
+      </c>
+      <c r="X12" s="80">
         <v>100</v>
       </c>
-      <c r="W12" s="80">
+      <c r="Y12" s="103">
         <v>0</v>
       </c>
-      <c r="X12" s="80">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="80">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="103">
+      <c r="Z12" s="111">
         <v>0</v>
       </c>
-      <c r="AA12" s="111">
+      <c r="AA12" s="81">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="80">
         <v>0</v>
       </c>
-      <c r="AB12" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="80">
+      <c r="AC12" s="111">
         <v>0</v>
       </c>
-      <c r="AD12" s="111">
+      <c r="AD12" s="80">
         <v>0</v>
       </c>
-      <c r="AE12" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C13" s="80">
         <v>60001</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="87">
@@ -27483,51 +27487,48 @@
         <v>0</v>
       </c>
       <c r="Q13" s="80">
+        <v>100</v>
+      </c>
+      <c r="U13" s="80" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V13" s="80">
+        <v>1</v>
+      </c>
+      <c r="W13" s="80">
         <v>0</v>
-      </c>
-      <c r="R13" s="80">
-        <v>100</v>
-      </c>
-      <c r="V13" s="80" t="s">
-        <v>1416</v>
-      </c>
-      <c r="W13" s="80">
-        <v>1</v>
       </c>
       <c r="X13" s="80">
         <v>0</v>
       </c>
-      <c r="Y13" s="80">
+      <c r="Y13" s="103">
         <v>0</v>
       </c>
-      <c r="Z13" s="103">
+      <c r="Z13" s="111">
         <v>0</v>
       </c>
-      <c r="AA13" s="111">
+      <c r="AA13" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="80">
         <v>0</v>
       </c>
-      <c r="AB13" s="87">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="80">
+      <c r="AC13" s="111">
         <v>0</v>
       </c>
-      <c r="AD13" s="111">
+      <c r="AD13" s="80">
         <v>0</v>
       </c>
-      <c r="AE13" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C14" s="80">
         <v>70001</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F14" s="80">
         <v>7</v>
@@ -27555,13 +27556,13 @@
         <v>2</v>
       </c>
       <c r="P14" s="80">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <v>1</v>
-      </c>
-      <c r="R14" s="80">
         <v>100</v>
+      </c>
+      <c r="V14" s="80">
+        <v>0</v>
       </c>
       <c r="W14" s="80">
         <v>0</v>
@@ -27569,91 +27570,88 @@
       <c r="X14" s="80">
         <v>0</v>
       </c>
-      <c r="Y14" s="80">
+      <c r="Y14" s="103">
         <v>0</v>
       </c>
-      <c r="Z14" s="103">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="111">
+      <c r="Z14" s="111">
         <v>5</v>
       </c>
-      <c r="AB14" s="81">
+      <c r="AA14" s="81">
         <v>1</v>
       </c>
-      <c r="AC14" s="80">
+      <c r="AB14" s="80">
         <v>1</v>
       </c>
-      <c r="AD14" s="111">
+      <c r="AC14" s="111">
         <v>100</v>
       </c>
-      <c r="AE14" s="80">
+      <c r="AD14" s="80">
         <v>1001</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C18" s="80" t="s">
+        <v>809</v>
+      </c>
+      <c r="D18" s="80" t="s">
         <v>810</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>811</v>
-      </c>
       <c r="E18" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C19" s="80" t="s">
+        <v>811</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>812</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="E19" s="80" t="s">
         <v>813</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="F19" s="80" t="s">
         <v>814</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="G19" s="80" t="s">
         <v>815</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="H19" s="80" t="s">
         <v>816</v>
-      </c>
-      <c r="H19" s="80" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C20" s="80" t="s">
+        <v>817</v>
+      </c>
+      <c r="D20" s="80" t="s">
         <v>818</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="E20" s="80" t="s">
         <v>819</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="F20" s="80" t="s">
         <v>820</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="G20" s="80" t="s">
         <v>821</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="H20" s="80" t="s">
         <v>822</v>
-      </c>
-      <c r="H20" s="80" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.15">
@@ -27896,32 +27894,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C35" s="80" t="s">
+        <v>824</v>
+      </c>
+      <c r="D35" s="80" t="s">
         <v>825</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="E35" s="83" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F35" s="80" t="s">
         <v>826</v>
       </c>
-      <c r="E35" s="83" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F35" s="80" t="s">
+      <c r="G35" s="80" t="s">
+        <v>826</v>
+      </c>
+      <c r="H35" s="80" t="s">
         <v>827</v>
-      </c>
-      <c r="G35" s="80" t="s">
-        <v>827</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>828</v>
       </c>
       <c r="I35" s="180" t="s">
         <v>755</v>
@@ -27936,101 +27934,101 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C36" s="80" t="s">
+        <v>828</v>
+      </c>
+      <c r="D36" s="80" t="s">
         <v>829</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>830</v>
-      </c>
       <c r="E36" s="83" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I36" s="180" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J36" s="180" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K36" s="180" t="s">
         <v>1409</v>
-      </c>
-      <c r="J36" s="180" t="s">
-        <v>1410</v>
-      </c>
-      <c r="K36" s="180" t="s">
-        <v>1411</v>
       </c>
       <c r="L36" s="123" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C37" s="80" t="s">
+        <v>830</v>
+      </c>
+      <c r="D37" s="80" t="s">
         <v>831</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="E37" s="110" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>838</v>
+      </c>
+      <c r="H37" s="80" t="s">
         <v>832</v>
       </c>
-      <c r="E37" s="110" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F37" s="80" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>833</v>
-      </c>
       <c r="I37" s="180" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J37" s="180" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K37" s="180" t="s">
         <v>1406</v>
       </c>
-      <c r="J37" s="180" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K37" s="180" t="s">
-        <v>1408</v>
-      </c>
       <c r="L37" s="123" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" s="92" customFormat="1" x14ac:dyDescent="0.15">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="92" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="103" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K38" s="92" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L38" s="123" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AC38" s="87"/>
-    </row>
-    <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
+        <v>1021</v>
+      </c>
+      <c r="AB38" s="87"/>
+    </row>
+    <row r="39" spans="1:28" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C39" s="80">
         <v>1001</v>
@@ -28051,7 +28049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C40" s="105">
         <v>1001</v>
       </c>
@@ -28068,13 +28066,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L40" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C41" s="105">
         <v>1001</v>
       </c>
@@ -28091,13 +28089,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L41" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C42" s="105">
         <v>1001</v>
       </c>
@@ -28114,15 +28112,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L42" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C43" s="105">
         <v>1001</v>
@@ -28140,16 +28138,16 @@
         <v>3</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L43" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C44" s="105">
         <v>1001</v>
       </c>
@@ -28166,16 +28164,16 @@
         <v>3</v>
       </c>
       <c r="H44" s="80" t="s">
+        <v>835</v>
+      </c>
+      <c r="I44" s="80" t="s">
         <v>836</v>
-      </c>
-      <c r="I44" s="80" t="s">
-        <v>837</v>
       </c>
       <c r="L44" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C45" s="105">
         <v>1001</v>
       </c>
@@ -28192,13 +28190,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L45" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C46" s="105">
         <v>1001</v>
       </c>
@@ -28215,16 +28213,16 @@
         <v>1</v>
       </c>
       <c r="H46" s="80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L46" s="123">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C47" s="105">
         <v>1001</v>
       </c>
@@ -28241,16 +28239,16 @@
         <v>2</v>
       </c>
       <c r="H47" s="80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L47" s="123">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C48" s="105">
         <v>1001</v>
       </c>
@@ -28267,10 +28265,10 @@
         <v>3</v>
       </c>
       <c r="H48" s="80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I48" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L48" s="123">
         <v>4</v>
@@ -28293,7 +28291,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L49" s="123">
         <v>4</v>
@@ -28316,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L50" s="123">
         <v>4</v>
@@ -28339,7 +28337,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L51" s="123">
         <v>4</v>
@@ -28362,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L52" s="123">
         <v>4</v>
@@ -28385,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L53" s="123">
         <v>4</v>
@@ -28408,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L54" s="123">
         <v>4</v>
@@ -28431,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="80" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L55" s="123">
         <v>4</v>
@@ -28454,7 +28452,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="80" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L56" s="123">
         <v>4</v>
@@ -28463,13 +28461,13 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
       <c r="C58" s="80" t="s">
+        <v>840</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>841</v>
       </c>
-      <c r="D58" s="80" t="s">
-        <v>842</v>
-      </c>
       <c r="F58" s="96" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -28480,7 +28478,7 @@
         <v>101</v>
       </c>
       <c r="F59" s="100" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -28493,7 +28491,7 @@
         <v>102</v>
       </c>
       <c r="F60" s="100" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -28506,7 +28504,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="100" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G61" s="93"/>
       <c r="H61" s="93"/>
@@ -28519,7 +28517,7 @@
         <v>104</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H62" s="93"/>
     </row>
@@ -28531,7 +28529,7 @@
         <v>105</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H63" s="93"/>
     </row>
@@ -28543,7 +28541,7 @@
         <v>106</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H64" s="93"/>
     </row>
@@ -28555,7 +28553,7 @@
         <v>107</v>
       </c>
       <c r="F65" s="100" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -28567,7 +28565,7 @@
         <v>108</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -28579,67 +28577,67 @@
         <v>109</v>
       </c>
       <c r="F67" s="100" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H67" s="93"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F68" s="100" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H68" s="93"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F69" s="100" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H69" s="93"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F70" s="100" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F71" s="100" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H71" s="93"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F72" s="100" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F73" s="100" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H73" s="93"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="82" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F74" s="101" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="82" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F76" s="100" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H76" s="93"/>
     </row>
@@ -28663,7 +28661,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X5" location="配置表结构!D59" display="逻辑见下"/>
+    <hyperlink ref="W5" location="配置表结构!D59" display="逻辑见下"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28671,10 +28669,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28682,118 +28680,132 @@
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
     <col min="2" max="2" width="72.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="45.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="139" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1" s="140" t="s">
         <v>1075</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="C1" s="140" t="s">
         <v>1076</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="D1" s="140" t="s">
         <v>1077</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="E1" s="207" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F1" s="141" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G1" s="141" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H1" s="141" t="s">
         <v>1078</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="I1" s="141" t="s">
         <v>1079</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="J1" s="141" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K1" s="141" t="s">
         <v>1080</v>
       </c>
-      <c r="G1" s="141" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="142" t="s">
         <v>1081</v>
       </c>
-      <c r="H1" s="141" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I1" s="141" t="s">
+      <c r="B2" s="142" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C2" s="142" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="143">
+        <v>1</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="143">
+        <v>1</v>
+      </c>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="142" t="s">
         <v>1083</v>
       </c>
-      <c r="B2" s="142" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C2" s="142" t="s">
+      <c r="B3" s="142" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143">
+        <v>1</v>
+      </c>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143">
+        <v>1</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="145" t="s">
         <v>1084</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E2" s="143">
+      <c r="B4" s="145" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146">
         <v>1</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="143">
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146">
         <v>1</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C3" s="142" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E3" s="143">
-        <v>1</v>
-      </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143">
-        <v>1</v>
-      </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="145" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B4" s="145" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C4" s="145" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D4" s="145" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E4" s="146">
-        <v>1</v>
-      </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146">
-        <v>1</v>
-      </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="142"/>
       <c r="B5" s="142"/>
       <c r="C5" s="142"/>
       <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="143"/>
       <c r="G5" s="143"/>
       <c r="H5" s="143"/>
       <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28818,27 +28830,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="177" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
       <c r="D1" s="163" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E1" s="163" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F1" s="163"/>
       <c r="G1" s="163" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="163" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C2" s="163" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D2" s="163">
         <v>2</v>
@@ -28848,7 +28860,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="163"/>
       <c r="C3" s="163" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D3" s="163">
         <v>1</v>
@@ -28858,7 +28870,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="163"/>
       <c r="C4" s="163" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D4" s="163">
         <v>1</v>
@@ -28868,7 +28880,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="163"/>
       <c r="C5" s="163" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D5" s="163">
         <v>2</v>
@@ -28878,7 +28890,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="163"/>
       <c r="C6" s="163" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D6" s="163">
         <v>1</v>
@@ -28888,7 +28900,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="163"/>
       <c r="C7" s="163" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D7" s="163">
         <v>4</v>
@@ -28898,7 +28910,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="163"/>
       <c r="C8" s="163" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D8" s="163">
         <v>5</v>
@@ -28908,7 +28920,7 @@
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="163"/>
       <c r="C9" s="178" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D9" s="178">
         <v>4</v>
@@ -28918,20 +28930,20 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="163"/>
       <c r="C10" s="163" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D10" s="163">
         <v>0.5</v>
       </c>
       <c r="E10" s="163"/>
       <c r="G10" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="163"/>
       <c r="C11" s="177" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D11" s="177">
         <v>20.5</v>
@@ -28946,7 +28958,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="163" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C12" s="163"/>
       <c r="D12" s="163"/>
@@ -28955,37 +28967,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="163"/>
       <c r="C13" s="163" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D13" s="163" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="163"/>
       <c r="C14" s="163" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E14" s="163"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="163"/>
       <c r="C15" s="163" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D15" s="163" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="163"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="163"/>
       <c r="C16" s="163" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D16" s="163">
         <v>2</v>
@@ -28995,7 +29007,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="163"/>
       <c r="C17" s="163" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D17" s="163">
         <v>2</v>
@@ -29004,7 +29016,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="177" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D18" s="177">
         <v>4</v>
@@ -29015,15 +29027,15 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="162" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -29031,7 +29043,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -29039,7 +29051,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -29047,7 +29059,7 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="177" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D24" s="177">
         <v>3</v>
@@ -29074,27 +29086,27 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H2" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I4" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -29104,47 +29116,47 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
@@ -29158,7 +29170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
@@ -29169,7 +29181,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -29177,7 +29189,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -29193,7 +29205,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29201,7 +29213,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -29286,7 +29298,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -29294,23 +29306,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1137</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -29318,7 +29330,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -29338,13 +29350,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="91"/>
       <c r="B19" s="91" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="175" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G19" s="91"/>
     </row>
@@ -29376,42 +29388,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="168" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -29433,60 +29445,60 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C66" s="181" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="67" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="181" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E68" s="181" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="69" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="181" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E70" s="181" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="71" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="181" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E72" s="181" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="73" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -29494,7 +29506,7 @@
     <row r="75" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="182" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -29511,20 +29523,20 @@
     <row r="88" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="181" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J94" s="181" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J97" s="183" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="98" spans="10:10" s="181" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -29931,7 +29943,7 @@
         <v>409</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE6" s="57" t="s">
         <v>680</v>
@@ -30313,7 +30325,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -30474,7 +30486,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -30746,7 +30758,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>291</v>
@@ -30790,7 +30802,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -30975,7 +30987,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -31041,7 +31053,7 @@
         <v>469</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -31064,7 +31076,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -31080,7 +31092,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -31108,7 +31120,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -31247,7 +31259,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -31556,7 +31568,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>288</v>
@@ -32534,7 +32546,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="131" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G160" s="131"/>
       <c r="H160" s="131"/>
@@ -32571,7 +32583,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="127" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G165" s="127"/>
       <c r="H165" s="127"/>
@@ -32602,42 +32614,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -32645,7 +32657,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -32653,22 +32665,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="171" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G28" s="171"/>
       <c r="H28" s="171"/>
@@ -32684,7 +32696,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -32695,22 +32707,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -32744,7 +32756,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -32754,7 +32766,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -32769,25 +32781,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -32798,69 +32810,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I53" s="165" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="J53" s="165" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="K53" s="165" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I54" s="166">
         <v>1</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="K54" s="173" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="169" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I55" s="166">
         <v>2</v>
       </c>
       <c r="J55" s="166" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K55" s="174" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -32868,10 +32880,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="166" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="K56" s="174" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -32879,15 +32891,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="166" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="K57" s="166" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="171" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I58" s="172"/>
       <c r="J58" s="172"/>
@@ -32907,7 +32919,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="171"/>
       <c r="I59" s="172" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J59" s="172"/>
       <c r="K59" s="171"/>
@@ -32929,18 +32941,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="170" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -32954,46 +32966,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -33004,129 +33016,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -33134,7 +33146,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -33142,7 +33154,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -33150,7 +33162,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -33158,196 +33170,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G101" s="171" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="H101" s="171"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -33381,83 +33393,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -33485,42 +33497,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -33530,77 +33542,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -33620,149 +33632,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -33772,17 +33784,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -33893,7 +33905,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -33914,7 +33926,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="84" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -33937,7 +33949,7 @@
         <v>466</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -33982,7 +33994,7 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H18" s="66" t="s">
         <v>685</v>
@@ -33997,7 +34009,7 @@
         <v>676</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -34016,11 +34028,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="84" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -34035,7 +34047,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="84"/>
       <c r="E21" s="84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -34051,7 +34063,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="84"/>
       <c r="E22" s="124" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F22" s="124"/>
       <c r="G22" s="108"/>
@@ -34067,7 +34079,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="84"/>
       <c r="E23" s="84" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="108"/>
@@ -34083,7 +34095,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="108"/>
@@ -34096,7 +34108,7 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="R24" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -34151,10 +34163,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G29" s="131" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H29" s="147"/>
       <c r="I29" s="147"/>
@@ -34167,7 +34179,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="127" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G30" s="127"/>
       <c r="H30" s="128"/>
@@ -34181,7 +34193,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="127"/>
       <c r="G31" s="127" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H31" s="127"/>
       <c r="I31" s="127"/>
@@ -34195,7 +34207,7 @@
       <c r="F32" s="127"/>
       <c r="G32" s="127"/>
       <c r="H32" s="127" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I32" s="128"/>
       <c r="J32" s="128"/>
@@ -34209,7 +34221,7 @@
       <c r="G33" s="127"/>
       <c r="H33" s="127"/>
       <c r="I33" s="127" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J33" s="127"/>
       <c r="K33" s="127"/>
@@ -34262,7 +34274,7 @@
       <c r="H37" s="127"/>
       <c r="I37" s="127"/>
       <c r="J37" s="127" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K37" s="127"/>
       <c r="L37" s="127"/>
@@ -34288,7 +34300,7 @@
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
       <c r="J39" s="127" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="K39" s="127"/>
       <c r="L39" s="127"/>
@@ -34299,7 +34311,7 @@
       <c r="F40" s="127"/>
       <c r="G40" s="127"/>
       <c r="H40" s="127" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I40" s="127"/>
       <c r="J40" s="127"/>
@@ -34324,7 +34336,7 @@
       <c r="G42" s="127"/>
       <c r="H42" s="127"/>
       <c r="I42" s="127" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J42" s="127"/>
       <c r="K42" s="127"/>
@@ -34362,7 +34374,7 @@
       <c r="F45" s="127"/>
       <c r="G45" s="127"/>
       <c r="H45" s="127" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
@@ -34667,7 +34679,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -34696,7 +34708,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -35028,7 +35040,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F100" s="84" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>422</v>
@@ -35036,7 +35048,7 @@
     </row>
     <row r="101" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A101" s="106" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F101" s="85" t="s">
         <v>44</v>
@@ -35048,16 +35060,16 @@
         <v>53</v>
       </c>
       <c r="I101" s="85" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F102" s="85"/>
       <c r="G102" s="84" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H102" s="85" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I102" s="85">
         <v>1</v>
@@ -35078,10 +35090,10 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F104" s="85"/>
       <c r="G104" s="85" t="s">
+        <v>843</v>
+      </c>
+      <c r="H104" s="85" t="s">
         <v>844</v>
-      </c>
-      <c r="H104" s="85" t="s">
-        <v>845</v>
       </c>
       <c r="I104" s="85">
         <v>3</v>
@@ -35125,18 +35137,18 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F108" s="84" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G108" s="84" t="s">
         <v>1033</v>
-      </c>
-      <c r="G108" s="84" t="s">
-        <v>1034</v>
       </c>
       <c r="H108" s="84"/>
       <c r="I108" s="84" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J108" s="84"/>
       <c r="K108" s="84" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -35231,10 +35243,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="53" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F118" s="84" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>63</v>
@@ -35250,21 +35262,21 @@
     </row>
     <row r="120" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A120" s="106" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F120" s="57" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G120" s="57" t="s">
         <v>629</v>
       </c>
       <c r="H120" s="57" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I120" s="57"/>
       <c r="J120" s="57"/>
       <c r="K120" s="57" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L120" s="57"/>
       <c r="M120" s="57"/>
@@ -35316,18 +35328,18 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="53" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F126" s="83" t="s">
         <v>765</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="78" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>75</v>
@@ -35351,10 +35363,10 @@
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F129" s="5"/>
       <c r="G129" s="127" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H129" s="127" t="s">
         <v>1039</v>
-      </c>
-      <c r="H129" s="127" t="s">
-        <v>1040</v>
       </c>
       <c r="I129" s="127"/>
       <c r="J129" s="127"/>
@@ -35374,7 +35386,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="127"/>
       <c r="H130" s="127" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I130" s="127"/>
       <c r="J130" s="127"/>
@@ -35395,7 +35407,7 @@
       <c r="G131" s="127"/>
       <c r="H131" s="127"/>
       <c r="I131" s="127" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J131" s="127"/>
       <c r="K131" s="127"/>
@@ -35414,7 +35426,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="127"/>
       <c r="H132" s="127" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I132" s="127"/>
       <c r="J132" s="127"/>
@@ -35435,7 +35447,7 @@
       <c r="G133" s="127"/>
       <c r="H133" s="127"/>
       <c r="I133" s="127" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J133" s="127"/>
       <c r="K133" s="127"/>
@@ -35497,10 +35509,10 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="53" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F138" s="84" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>78</v>
@@ -35509,15 +35521,15 @@
         <v>81</v>
       </c>
       <c r="K138" s="84" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="53" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F139" s="84" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>80</v>
@@ -35526,15 +35538,15 @@
         <v>82</v>
       </c>
       <c r="K139" s="85" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="53" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>89</v>
@@ -35543,15 +35555,15 @@
         <v>81</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>91</v>
@@ -35560,7 +35572,7 @@
         <v>82</v>
       </c>
       <c r="K141" s="85" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
@@ -35568,11 +35580,11 @@
         <v>92</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G142" s="84"/>
       <c r="H142" s="84" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I142" s="84"/>
       <c r="J142" s="84"/>
@@ -35589,15 +35601,15 @@
     </row>
     <row r="143" spans="1:21" ht="33" x14ac:dyDescent="0.15">
       <c r="A143" s="106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B143" s="78" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E143" s="84"/>
       <c r="F143" s="84"/>
       <c r="G143" s="84" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H143" s="84"/>
       <c r="I143" s="84"/>
@@ -35615,15 +35627,15 @@
     </row>
     <row r="144" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A144" s="106" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B144" s="78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E144" s="84"/>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H144" s="84"/>
       <c r="I144" s="84"/>
@@ -35641,7 +35653,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B145" s="78" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E145" s="84"/>
       <c r="F145" s="84"/>
@@ -35678,7 +35690,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="53" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.15">
@@ -36007,7 +36019,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -36019,13 +36031,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -36094,7 +36106,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -36104,7 +36116,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -36113,12 +36125,12 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
@@ -36139,7 +36151,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -36150,7 +36162,7 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -36161,7 +36173,7 @@
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -36177,7 +36189,7 @@
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -36207,7 +36219,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -36241,12 +36253,12 @@
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -36259,7 +36271,7 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -36372,12 +36384,12 @@
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E100" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G101" s="5"/>
       <c r="I101" s="5"/>
@@ -36390,15 +36402,15 @@
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G103" s="57" t="s">
         <v>1395</v>
-      </c>
-      <c r="G103" s="57" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="104" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F104" s="57" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G104" s="57"/>
     </row>
@@ -36912,7 +36924,7 @@
     </row>
     <row r="137" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E137" s="127" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F137" s="127"/>
       <c r="G137" s="127"/>
@@ -36947,7 +36959,7 @@
     </row>
     <row r="140" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F140" s="131" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G140" s="131"/>
       <c r="H140" s="131"/>
@@ -36968,7 +36980,7 @@
     </row>
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E143" s="176" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F143" s="176"/>
       <c r="G143" s="176"/>
@@ -36985,7 +36997,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E144" s="176"/>
       <c r="F144" s="176" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G144" s="176"/>
       <c r="H144" s="176"/>
@@ -37001,7 +37013,7 @@
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E145" s="176"/>
       <c r="F145" s="176" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G145" s="176"/>
       <c r="H145" s="176"/>
@@ -37017,13 +37029,13 @@
     <row r="146" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E146" s="176"/>
       <c r="F146" s="176" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G146" s="176" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H146" s="176" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I146" s="176"/>
       <c r="J146" s="176"/>
@@ -37038,10 +37050,10 @@
       <c r="E147" s="176"/>
       <c r="F147" s="176"/>
       <c r="G147" s="176" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H147" s="176" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I147" s="176"/>
       <c r="J147" s="176"/>
@@ -37056,10 +37068,10 @@
       <c r="E148" s="176"/>
       <c r="F148" s="176"/>
       <c r="G148" s="176" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H148" s="176" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I148" s="176"/>
       <c r="J148" s="176"/>
@@ -37073,7 +37085,7 @@
     <row r="149" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E149" s="176"/>
       <c r="F149" s="176" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G149" s="176"/>
       <c r="H149" s="176"/>
@@ -37102,7 +37114,7 @@
     </row>
     <row r="152" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D152" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="154" spans="4:16" x14ac:dyDescent="0.15">
@@ -37155,10 +37167,10 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A164" s="78" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -37895,72 +37907,72 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E6" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -37985,12 +37997,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -38000,23 +38012,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -38026,22 +38038,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -38069,58 +38081,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -38145,119 +38157,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -38267,17 +38279,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -38571,7 +38583,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -38593,7 +38605,7 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -38611,7 +38623,7 @@
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -38744,7 +38756,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="106" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -38753,7 +38765,7 @@
         <v>498</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -39292,13 +39304,13 @@
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F60" s="94" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G60" s="85" t="s">
         <v>414</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I60" s="85"/>
       <c r="J60" s="85"/>
@@ -39331,12 +39343,12 @@
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F64" s="95" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G65" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -39377,15 +39389,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="F70" s="84" t="s">
         <v>982</v>
-      </c>
-      <c r="F70" s="84" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="78" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>183</v>
@@ -39474,17 +39486,17 @@
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.15">
@@ -39701,7 +39713,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>533</v>
@@ -40071,7 +40083,7 @@
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="86" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="85"/>
@@ -40097,7 +40109,7 @@
       <c r="D143" s="85"/>
       <c r="E143" s="85"/>
       <c r="F143" s="85" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
@@ -40108,7 +40120,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" s="85"/>
       <c r="E144" s="94" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -40121,7 +40133,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>533</v>
@@ -40134,7 +40146,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D146" s="85"/>
       <c r="E146" s="83" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F146" s="84"/>
       <c r="G146" s="84"/>
@@ -40149,7 +40161,7 @@
       <c r="D147" s="85"/>
       <c r="E147" s="83"/>
       <c r="F147" s="110" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G147" s="84"/>
       <c r="H147" s="84"/>
@@ -40161,11 +40173,11 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="78" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D148" s="85"/>
       <c r="E148" s="94" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F148" s="85"/>
       <c r="G148" s="85"/>
@@ -40178,10 +40190,10 @@
       <c r="D149" s="85"/>
       <c r="E149" s="85"/>
       <c r="F149" s="85" t="s">
+        <v>863</v>
+      </c>
+      <c r="G149" s="85" t="s">
         <v>864</v>
-      </c>
-      <c r="G149" s="85" t="s">
-        <v>865</v>
       </c>
       <c r="H149" s="85"/>
       <c r="I149" s="85"/>
@@ -40190,11 +40202,11 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="53" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D150" s="85"/>
       <c r="E150" s="85" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F150" s="85"/>
       <c r="G150" s="85"/>
@@ -40207,11 +40219,11 @@
       <c r="D151" s="85"/>
       <c r="E151" s="85"/>
       <c r="F151" s="85" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G151" s="85"/>
       <c r="H151" s="121" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I151" s="85"/>
       <c r="J151" s="85"/>
@@ -40220,7 +40232,7 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D152" s="85"/>
       <c r="E152" s="94" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F152" s="85"/>
       <c r="G152" s="85"/>
@@ -40231,12 +40243,12 @@
     </row>
     <row r="153" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A153" s="106" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="85"/>
       <c r="F153" s="85" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G153" s="85"/>
       <c r="H153" s="85"/>
@@ -40246,12 +40258,12 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="78" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D154" s="85"/>
       <c r="E154" s="85"/>
       <c r="F154" s="85" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G154" s="85"/>
       <c r="H154" s="85"/>
@@ -40261,11 +40273,11 @@
     </row>
     <row r="155" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A155" s="106" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D155" s="85"/>
       <c r="E155" s="94" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F155" s="85"/>
       <c r="G155" s="85"/>
@@ -40276,12 +40288,12 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D156" s="84"/>
       <c r="E156" s="84"/>
       <c r="F156" s="84" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G156" s="84"/>
       <c r="H156" s="84"/>
@@ -40293,7 +40305,7 @@
       <c r="D157" s="84"/>
       <c r="E157" s="84"/>
       <c r="F157" s="84" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G157" s="84"/>
       <c r="H157" s="84"/>
@@ -40332,7 +40344,7 @@
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -40987,7 +40999,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="122" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -41014,7 +41026,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -41040,7 +41052,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -41086,7 +41098,7 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D11" s="110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E11" s="84" t="s">
         <v>205</v>
@@ -41095,7 +41107,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D12" s="110" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E12" s="84" t="s">
         <v>206</v>
@@ -41128,13 +41140,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="53" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
@@ -41146,7 +41158,7 @@
     <row r="33" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D33" s="85"/>
       <c r="E33" s="94" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
@@ -41158,7 +41170,7 @@
     <row r="34" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D34" s="85"/>
       <c r="E34" s="125" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F34" s="94"/>
       <c r="G34" s="94"/>
@@ -41170,7 +41182,7 @@
     <row r="35" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D35" s="85"/>
       <c r="E35" s="94" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F35" s="86"/>
       <c r="G35" s="94"/>
@@ -41182,7 +41194,7 @@
     <row r="36" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D36" s="85"/>
       <c r="E36" s="125" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F36" s="86"/>
       <c r="G36" s="94"/>
@@ -41194,7 +41206,7 @@
     <row r="37" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D37" s="85"/>
       <c r="E37" s="94" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F37" s="86"/>
       <c r="G37" s="94"/>
@@ -41206,7 +41218,7 @@
     <row r="38" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D38" s="85"/>
       <c r="E38" s="125" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F38" s="86"/>
       <c r="G38" s="94"/>
@@ -41218,7 +41230,7 @@
     <row r="39" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D39" s="85"/>
       <c r="E39" s="94" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F39" s="86"/>
       <c r="G39" s="94"/>
@@ -41230,7 +41242,7 @@
     <row r="40" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D40" s="85"/>
       <c r="E40" s="125" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F40" s="86"/>
       <c r="G40" s="94"/>
@@ -41242,7 +41254,7 @@
     <row r="41" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D41" s="85"/>
       <c r="E41" s="94" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F41" s="86"/>
       <c r="G41" s="94"/>
@@ -41254,7 +41266,7 @@
     <row r="42" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D42" s="85"/>
       <c r="E42" s="125" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F42" s="86"/>
       <c r="G42" s="94"/>
@@ -41269,7 +41281,7 @@
     <row r="43" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="94" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F43" s="86"/>
       <c r="G43" s="94"/>
@@ -41284,7 +41296,7 @@
     <row r="44" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D44" s="85"/>
       <c r="E44" s="94" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="94"/>
@@ -41299,7 +41311,7 @@
     <row r="45" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D45" s="85"/>
       <c r="E45" s="94" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F45" s="86"/>
       <c r="G45" s="94"/>
@@ -41314,7 +41326,7 @@
     <row r="46" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D46" s="85"/>
       <c r="E46" s="94" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F46" s="86"/>
       <c r="G46" s="94"/>
@@ -41329,7 +41341,7 @@
     <row r="47" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D47" s="85"/>
       <c r="E47" s="97" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F47" s="86"/>
       <c r="G47" s="97"/>
@@ -41344,7 +41356,7 @@
     <row r="48" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D48" s="85"/>
       <c r="E48" s="94" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F48" s="86"/>
       <c r="G48" s="94"/>
@@ -41356,7 +41368,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D49" s="85"/>
       <c r="E49" s="94" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="94"/>
@@ -41385,7 +41397,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D53" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -41400,10 +41412,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D56" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F56" s="131" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G56" s="131"/>
       <c r="H56" s="131"/>
@@ -41415,7 +41427,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
@@ -41426,7 +41438,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F60" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="124"/>
@@ -41435,7 +41447,7 @@
       <c r="K60" s="124"/>
       <c r="L60" s="124"/>
       <c r="M60" s="131" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="N60" s="131"/>
       <c r="O60" s="131"/>
@@ -41516,36 +41528,36 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="84"/>
       <c r="G9" s="84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
@@ -41555,11 +41567,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -41569,7 +41581,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -41600,7 +41612,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -41642,7 +41654,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="127" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F31" s="127"/>
       <c r="G31" s="127"/>
@@ -41650,7 +41662,7 @@
       <c r="I31" s="127"/>
       <c r="J31" s="127"/>
       <c r="L31" s="131" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="M31" s="131"/>
       <c r="N31" s="131"/>
@@ -41678,7 +41690,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
@@ -41758,13 +41770,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F9" s="110" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>240</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -41776,11 +41788,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -41792,11 +41804,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -41819,10 +41831,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>241</v>
@@ -41834,7 +41846,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="127" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E32" s="127"/>
       <c r="F32" s="127"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -3083,10 +3083,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1角色2怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3366,10 +3362,6 @@
   </si>
   <si>
     <t>classType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区分怪物或角色的装备（怪物=2/角色=1）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5580,10 +5572,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1=null（无特殊逻辑），2=碎片，3=宝石，4=宝箱，5=消耗品，6=装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对应进阶后的品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6472,6 +6460,18 @@
   </si>
   <si>
     <t>7.Req.LVL后多了一个冒号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=无限制，1=角色，2=怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分怪物或角色的装备（0=无限制，1=角色，2=怪物）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=null（无特殊逻辑），2=碎片，3=宝石，4=宝箱，5=消耗品，7=装备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -27501,7 +27501,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="148"/>
       <c r="B26" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C26" s="158">
         <v>42151</v>
@@ -27510,14 +27510,14 @@
       <c r="E26" s="85"/>
       <c r="F26" s="149"/>
       <c r="G26" s="149" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H26" s="148" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I26" s="148"/>
       <c r="J26" s="148" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K26" s="148"/>
       <c r="L26" s="148"/>
@@ -27534,11 +27534,11 @@
       <c r="F27" s="149"/>
       <c r="G27" s="149"/>
       <c r="H27" s="120" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I27" s="148"/>
       <c r="J27" s="120" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K27" s="148"/>
       <c r="L27" s="148"/>
@@ -27555,7 +27555,7 @@
       <c r="F28" s="149"/>
       <c r="G28" s="149"/>
       <c r="H28" s="120" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I28" s="148"/>
       <c r="J28" s="120"/>
@@ -27574,7 +27574,7 @@
       <c r="F29" s="149"/>
       <c r="G29" s="149"/>
       <c r="H29" s="120" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I29" s="148"/>
       <c r="J29" s="120"/>
@@ -27593,7 +27593,7 @@
       <c r="F30" s="149"/>
       <c r="G30" s="149"/>
       <c r="H30" s="120" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I30" s="148"/>
       <c r="J30" s="120"/>
@@ -27612,7 +27612,7 @@
       <c r="F31" s="149"/>
       <c r="G31" s="149"/>
       <c r="H31" s="120" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I31" s="148"/>
       <c r="J31" s="120"/>
@@ -27625,7 +27625,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="148"/>
       <c r="B32" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C32" s="158">
         <v>42153</v>
@@ -27634,10 +27634,10 @@
       <c r="E32" s="84"/>
       <c r="F32" s="149"/>
       <c r="G32" s="149" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -27656,11 +27656,11 @@
       <c r="F33" s="149"/>
       <c r="G33" s="149"/>
       <c r="H33" s="120" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I33" s="148"/>
       <c r="J33" s="120" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K33" s="148"/>
       <c r="L33" s="148"/>
@@ -27677,7 +27677,7 @@
       <c r="F34" s="149"/>
       <c r="G34" s="149"/>
       <c r="H34" s="120" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I34" s="148"/>
       <c r="J34" s="120"/>
@@ -27696,7 +27696,7 @@
       <c r="F35" s="149"/>
       <c r="G35" s="149"/>
       <c r="H35" s="120" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I35" s="148"/>
       <c r="J35" s="120"/>
@@ -27715,7 +27715,7 @@
       <c r="F36" s="149"/>
       <c r="G36" s="149"/>
       <c r="H36" s="120" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I36" s="148"/>
       <c r="J36" s="120"/>
@@ -27734,7 +27734,7 @@
       <c r="F37" s="149"/>
       <c r="G37" s="149"/>
       <c r="H37" s="120" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I37" s="148"/>
       <c r="J37" s="120"/>
@@ -27753,7 +27753,7 @@
       <c r="F38" s="149"/>
       <c r="G38" s="149"/>
       <c r="H38" s="120" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I38" s="148"/>
       <c r="J38" s="120"/>
@@ -27772,12 +27772,12 @@
       <c r="F39" s="149"/>
       <c r="G39" s="149"/>
       <c r="H39" s="120" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I39" s="148"/>
       <c r="J39" s="120"/>
       <c r="K39" s="120" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
@@ -27793,13 +27793,13 @@
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
       <c r="H40" s="120" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I40" s="148"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M40" s="148"/>
       <c r="N40" s="148"/>
@@ -27808,7 +27808,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="148"/>
       <c r="B41" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C41" s="158">
         <v>42156</v>
@@ -27818,7 +27818,7 @@
       <c r="F41" s="149"/>
       <c r="G41" s="149"/>
       <c r="H41" s="120" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I41" s="148"/>
       <c r="J41" s="120"/>
@@ -27837,7 +27837,7 @@
       <c r="F42" s="149"/>
       <c r="G42" s="149"/>
       <c r="H42" s="120" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I42" s="148"/>
       <c r="J42" s="120"/>
@@ -27856,7 +27856,7 @@
       <c r="F43" s="149"/>
       <c r="G43" s="149"/>
       <c r="H43" s="120" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I43" s="148"/>
       <c r="J43" s="120"/>
@@ -27875,7 +27875,7 @@
       <c r="F44" s="149"/>
       <c r="G44" s="149"/>
       <c r="H44" s="120" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I44" s="148"/>
       <c r="J44" s="120"/>
@@ -27894,12 +27894,12 @@
       <c r="F45" s="149"/>
       <c r="G45" s="149"/>
       <c r="H45" s="129" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I45" s="148"/>
       <c r="J45" s="120"/>
       <c r="K45" s="129" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L45" s="120"/>
       <c r="M45" s="148"/>
@@ -27915,7 +27915,7 @@
       <c r="F46" s="149"/>
       <c r="G46" s="149"/>
       <c r="H46" s="120" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I46" s="148"/>
       <c r="J46" s="120"/>
@@ -27934,7 +27934,7 @@
       <c r="F47" s="149"/>
       <c r="G47" s="149"/>
       <c r="H47" s="120" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I47" s="148"/>
       <c r="J47" s="120"/>
@@ -27953,7 +27953,7 @@
       <c r="F48" s="149"/>
       <c r="G48" s="149"/>
       <c r="H48" s="129" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I48" s="148"/>
       <c r="J48" s="120"/>
@@ -27972,7 +27972,7 @@
       <c r="F49" s="149"/>
       <c r="G49" s="149"/>
       <c r="H49" s="129" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I49" s="148"/>
       <c r="J49" s="120"/>
@@ -27991,11 +27991,11 @@
       <c r="F50" s="149"/>
       <c r="G50" s="149"/>
       <c r="H50" s="120" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I50" s="148"/>
       <c r="J50" s="58" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -28012,7 +28012,7 @@
       <c r="F51" s="149"/>
       <c r="G51" s="149"/>
       <c r="H51" s="129" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I51" s="148"/>
       <c r="J51" s="120"/>
@@ -28031,12 +28031,12 @@
       <c r="F52" s="149"/>
       <c r="G52" s="149"/>
       <c r="H52" s="120" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I52" s="148"/>
       <c r="J52" s="120"/>
       <c r="K52" s="120" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="L52" s="120"/>
       <c r="M52" s="148"/>
@@ -28052,13 +28052,13 @@
       <c r="F53" s="149"/>
       <c r="G53" s="149"/>
       <c r="H53" s="120" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I53" s="148"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
       <c r="L53" s="120" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="M53" s="148"/>
       <c r="N53" s="148"/>
@@ -28073,7 +28073,7 @@
       <c r="F54" s="149"/>
       <c r="G54" s="149"/>
       <c r="H54" s="129" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="I54" s="148"/>
       <c r="J54" s="120"/>
@@ -28092,7 +28092,7 @@
       <c r="F55" s="149"/>
       <c r="G55" s="149"/>
       <c r="H55" s="129" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="I55" s="148"/>
       <c r="J55" s="120"/>
@@ -28105,7 +28105,7 @@
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="148"/>
       <c r="B56" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C56" s="158">
         <v>42163</v>
@@ -28115,7 +28115,7 @@
       <c r="F56" s="149"/>
       <c r="G56" s="149"/>
       <c r="H56" s="120" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="I56" s="148"/>
       <c r="J56" s="120"/>
@@ -28134,7 +28134,7 @@
       <c r="F57" s="149"/>
       <c r="G57" s="149"/>
       <c r="H57" s="129" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I57" s="148"/>
       <c r="J57" s="120"/>
@@ -28155,12 +28155,12 @@
       <c r="F58" s="149"/>
       <c r="G58" s="149"/>
       <c r="H58" s="58" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I58" s="148"/>
       <c r="J58" s="120"/>
       <c r="K58" s="120" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="148"/>
@@ -28178,7 +28178,7 @@
       <c r="F59" s="149"/>
       <c r="G59" s="149"/>
       <c r="H59" s="166" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I59" s="148"/>
       <c r="J59" s="120"/>
@@ -28199,7 +28199,7 @@
       <c r="F60" s="149"/>
       <c r="G60" s="149"/>
       <c r="H60" s="166" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I60" s="148"/>
       <c r="J60" s="120"/>
@@ -28220,7 +28220,7 @@
       <c r="F61" s="149"/>
       <c r="G61" s="149"/>
       <c r="H61" s="166" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I61" s="148"/>
       <c r="J61" s="120"/>
@@ -28241,7 +28241,7 @@
       <c r="F62" s="149"/>
       <c r="G62" s="149"/>
       <c r="H62" s="58" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I62" s="148"/>
       <c r="J62" s="120"/>
@@ -28261,10 +28261,10 @@
       <c r="E63" s="183"/>
       <c r="F63" s="149"/>
       <c r="G63" s="149" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I63" s="148"/>
       <c r="J63" s="120"/>
@@ -28289,14 +28289,14 @@
       <c r="F64" s="149"/>
       <c r="G64" s="149"/>
       <c r="H64" s="58" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="I64" s="148"/>
       <c r="J64" s="120"/>
       <c r="K64" s="120"/>
       <c r="L64" s="120"/>
       <c r="M64" s="120" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="N64" s="148"/>
       <c r="O64" s="120"/>
@@ -28311,7 +28311,7 @@
       <c r="F65" s="149"/>
       <c r="G65" s="149"/>
       <c r="H65" s="58" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I65" s="148"/>
       <c r="J65" s="120"/>
@@ -28331,7 +28331,7 @@
       <c r="F66" s="149"/>
       <c r="G66" s="149"/>
       <c r="H66" s="58" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="I66" s="148"/>
       <c r="J66" s="120"/>
@@ -28351,7 +28351,7 @@
       <c r="F67" s="149"/>
       <c r="G67" s="149"/>
       <c r="H67" s="58" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I67" s="148"/>
       <c r="J67" s="120"/>
@@ -28519,8 +28519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28558,12 +28558,12 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C1" s="80" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>737</v>
@@ -28578,7 +28578,7 @@
         <v>739</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>739</v>
@@ -28655,7 +28655,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="103" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>742</v>
@@ -28664,19 +28664,19 @@
         <v>743</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>745</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>746</v>
@@ -28697,7 +28697,7 @@
         <v>750</v>
       </c>
       <c r="P3" s="103" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="Q3" s="103" t="s">
         <v>751</v>
@@ -28706,7 +28706,7 @@
         <v>752</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>753</v>
@@ -28730,7 +28730,7 @@
         <v>759</v>
       </c>
       <c r="AA3" s="111" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AB3" s="87" t="s">
         <v>744</v>
@@ -28742,7 +28742,7 @@
         <v>180</v>
       </c>
       <c r="AE3" s="80" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -28753,76 +28753,76 @@
         <v>762</v>
       </c>
       <c r="E4" s="80" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4" s="80" t="s">
         <v>764</v>
       </c>
-      <c r="F4" s="80" t="s">
-        <v>765</v>
-      </c>
       <c r="G4" s="84" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J4" s="80" t="s">
         <v>612</v>
       </c>
       <c r="K4" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>767</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>768</v>
       </c>
       <c r="M4" s="80" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="80" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="P4" s="187" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="R4" s="80" t="s">
         <v>422</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="T4" s="87" t="s">
+        <v>769</v>
+      </c>
+      <c r="U4" s="87" t="s">
+        <v>947</v>
+      </c>
+      <c r="V4" s="103" t="s">
         <v>770</v>
       </c>
-      <c r="U4" s="87" t="s">
-        <v>949</v>
-      </c>
-      <c r="V4" s="103" t="s">
+      <c r="W4" s="103" t="s">
+        <v>1293</v>
+      </c>
+      <c r="X4" s="80" t="s">
         <v>771</v>
       </c>
-      <c r="W4" s="103" t="s">
-        <v>1295</v>
-      </c>
-      <c r="X4" s="80" t="s">
+      <c r="Y4" s="80" t="s">
         <v>772</v>
       </c>
-      <c r="Y4" s="80" t="s">
+      <c r="Z4" s="103" t="s">
+        <v>972</v>
+      </c>
+      <c r="AA4" s="111" t="s">
         <v>773</v>
       </c>
-      <c r="Z4" s="103" t="s">
-        <v>974</v>
-      </c>
-      <c r="AA4" s="111" t="s">
-        <v>774</v>
-      </c>
       <c r="AB4" s="87" t="s">
-        <v>763</v>
+        <v>1606</v>
       </c>
       <c r="AC4" s="80" t="s">
         <v>534</v>
@@ -28831,72 +28831,72 @@
         <v>533</v>
       </c>
       <c r="AE4" s="80" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E5" s="194" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>1379</v>
+        <v>1608</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>661</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="L5" s="194" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O5" s="84"/>
       <c r="P5" s="78"/>
       <c r="S5" s="83" t="s">
+        <v>951</v>
+      </c>
+      <c r="T5" s="83" t="s">
+        <v>786</v>
+      </c>
+      <c r="U5" s="83" t="s">
+        <v>787</v>
+      </c>
+      <c r="V5" s="83" t="s">
         <v>953</v>
       </c>
-      <c r="T5" s="83" t="s">
-        <v>787</v>
-      </c>
-      <c r="U5" s="83" t="s">
-        <v>788</v>
-      </c>
-      <c r="V5" s="83" t="s">
-        <v>955</v>
-      </c>
       <c r="X5" s="98" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="Z5" s="103" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AA5" s="111"/>
       <c r="AD5" s="111"/>
       <c r="AE5" s="103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C6" s="80">
         <v>10001</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F6" s="80">
         <v>1</v>
@@ -28933,14 +28933,14 @@
         <v>1</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="T6" s="87"/>
       <c r="U6" s="87" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="V6" s="80" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="W6" s="80">
         <v>0</v>
@@ -28972,13 +28972,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C7" s="80">
         <v>10002</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F7" s="80">
         <v>1</v>
@@ -29015,7 +29015,7 @@
         <v>100</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="W7" s="80">
         <v>0</v>
@@ -29047,13 +29047,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C8" s="80">
         <v>20001</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F8" s="80">
         <v>2</v>
@@ -29090,7 +29090,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="80" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="W8" s="80">
         <v>50</v>
@@ -29122,13 +29122,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C9" s="80">
         <v>30001</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="80">
         <v>3</v>
@@ -29197,7 +29197,7 @@
         <v>40001</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F10" s="80">
         <v>4</v>
@@ -29269,7 +29269,7 @@
         <v>40002</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F11" s="80">
         <v>4</v>
@@ -29309,7 +29309,7 @@
         <v>3001</v>
       </c>
       <c r="U11" s="80" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="W11" s="80">
         <v>0</v>
@@ -29344,7 +29344,7 @@
         <v>50001</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F12" s="80">
         <v>5</v>
@@ -29413,7 +29413,7 @@
         <v>60001</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="87">
@@ -29451,7 +29451,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="80" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="W13" s="80">
         <v>1</v>
@@ -29483,13 +29483,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C14" s="80">
         <v>70001</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F14" s="80">
         <v>7</v>
@@ -29555,67 +29555,67 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C18" s="80" t="s">
+        <v>791</v>
+      </c>
+      <c r="D18" s="80" t="s">
         <v>792</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>793</v>
-      </c>
       <c r="E18" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C19" s="80" t="s">
+        <v>793</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>794</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="E19" s="80" t="s">
         <v>795</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="F19" s="80" t="s">
         <v>796</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="G19" s="80" t="s">
         <v>797</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="H19" s="80" t="s">
         <v>798</v>
-      </c>
-      <c r="H19" s="80" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C20" s="80" t="s">
+        <v>799</v>
+      </c>
+      <c r="D20" s="80" t="s">
         <v>800</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="E20" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="F20" s="80" t="s">
         <v>802</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="G20" s="80" t="s">
         <v>803</v>
       </c>
-      <c r="G20" s="80" t="s">
+      <c r="H20" s="80" t="s">
         <v>804</v>
-      </c>
-      <c r="H20" s="80" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.15">
@@ -29860,30 +29860,30 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C35" s="80" t="s">
+        <v>806</v>
+      </c>
+      <c r="D35" s="80" t="s">
         <v>807</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="E35" s="83" t="s">
+        <v>985</v>
+      </c>
+      <c r="F35" s="80" t="s">
         <v>808</v>
       </c>
-      <c r="E35" s="83" t="s">
-        <v>987</v>
-      </c>
-      <c r="F35" s="80" t="s">
+      <c r="G35" s="80" t="s">
+        <v>808</v>
+      </c>
+      <c r="H35" s="80" t="s">
         <v>809</v>
-      </c>
-      <c r="G35" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>810</v>
       </c>
       <c r="I35" s="191" t="s">
         <v>738</v>
@@ -29900,31 +29900,31 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C36" s="80" t="s">
+        <v>810</v>
+      </c>
+      <c r="D36" s="80" t="s">
         <v>811</v>
       </c>
-      <c r="D36" s="80" t="s">
-        <v>812</v>
-      </c>
       <c r="E36" s="83" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I36" s="191" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J36" s="191" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K36" s="191" t="s">
         <v>1371</v>
-      </c>
-      <c r="J36" s="191" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K36" s="191" t="s">
-        <v>1373</v>
       </c>
       <c r="L36" s="192" t="s">
         <v>511</v>
@@ -29932,67 +29932,67 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C37" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="D37" s="80" t="s">
         <v>813</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="E37" s="110" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>820</v>
+      </c>
+      <c r="H37" s="80" t="s">
         <v>814</v>
       </c>
-      <c r="E37" s="110" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F37" s="80" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>821</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>815</v>
-      </c>
       <c r="I37" s="191" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J37" s="191" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K37" s="191" t="s">
         <v>1368</v>
       </c>
-      <c r="J37" s="191" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K37" s="191" t="s">
-        <v>1370</v>
-      </c>
       <c r="L37" s="192" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="92" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="103" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I38" s="192" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J38" s="192" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K38" s="192" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L38" s="192" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AC38" s="87"/>
     </row>
     <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C39" s="80">
         <v>1001</v>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="192" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J40" s="192"/>
       <c r="K40" s="192"/>
@@ -30058,7 +30058,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J41" s="192"/>
       <c r="K41" s="192"/>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J42" s="192"/>
       <c r="K42" s="192"/>
@@ -30093,7 +30093,7 @@
     </row>
     <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C43" s="105">
         <v>1001</v>
@@ -30111,10 +30111,10 @@
         <v>3</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I43" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J43" s="192"/>
       <c r="K43" s="192"/>
@@ -30139,10 +30139,10 @@
         <v>3</v>
       </c>
       <c r="H44" s="80" t="s">
+        <v>817</v>
+      </c>
+      <c r="I44" s="192" t="s">
         <v>818</v>
-      </c>
-      <c r="I44" s="192" t="s">
-        <v>819</v>
       </c>
       <c r="J44" s="192"/>
       <c r="K44" s="192"/>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J45" s="192"/>
       <c r="K45" s="192"/>
@@ -30192,10 +30192,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I46" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J46" s="192"/>
       <c r="K46" s="192"/>
@@ -30220,10 +30220,10 @@
         <v>2</v>
       </c>
       <c r="H47" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I47" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J47" s="192"/>
       <c r="K47" s="192"/>
@@ -30248,10 +30248,10 @@
         <v>3</v>
       </c>
       <c r="H48" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I48" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J48" s="192"/>
       <c r="K48" s="192"/>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J49" s="192"/>
       <c r="K49" s="192"/>
@@ -30301,7 +30301,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J50" s="192"/>
       <c r="K50" s="192"/>
@@ -30326,7 +30326,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J51" s="192"/>
       <c r="K51" s="192"/>
@@ -30351,7 +30351,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J52" s="192"/>
       <c r="K52" s="192"/>
@@ -30376,7 +30376,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J53" s="192"/>
       <c r="K53" s="192"/>
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J54" s="192"/>
       <c r="K54" s="192"/>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="192" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J55" s="192"/>
       <c r="K55" s="192"/>
@@ -30451,7 +30451,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="192" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J56" s="192"/>
       <c r="K56" s="192"/>
@@ -30462,13 +30462,13 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="82"/>
       <c r="C58" s="80" t="s">
+        <v>822</v>
+      </c>
+      <c r="D58" s="80" t="s">
         <v>823</v>
       </c>
-      <c r="D58" s="80" t="s">
-        <v>824</v>
-      </c>
       <c r="F58" s="96" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -30479,7 +30479,7 @@
         <v>101</v>
       </c>
       <c r="F59" s="100" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -30492,7 +30492,7 @@
         <v>102</v>
       </c>
       <c r="F60" s="100" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -30505,7 +30505,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="100" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G61" s="93"/>
       <c r="H61" s="93"/>
@@ -30518,7 +30518,7 @@
         <v>104</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H62" s="93"/>
     </row>
@@ -30530,7 +30530,7 @@
         <v>105</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H63" s="93"/>
     </row>
@@ -30542,7 +30542,7 @@
         <v>106</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H64" s="93"/>
     </row>
@@ -30554,7 +30554,7 @@
         <v>107</v>
       </c>
       <c r="F65" s="100" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -30566,7 +30566,7 @@
         <v>108</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -30578,74 +30578,74 @@
         <v>109</v>
       </c>
       <c r="F67" s="100" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H67" s="93"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F68" s="100" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H68" s="93"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F69" s="100" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H69" s="93"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F70" s="100" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F71" s="100" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H71" s="93"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F72" s="100" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F73" s="100" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H73" s="93"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="82" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F74" s="101" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="82" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F76" s="100" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H76" s="93"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E77" s="183"/>
       <c r="F77" s="184" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G77" s="185"/>
       <c r="H77" s="184"/>
@@ -30657,7 +30657,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E78" s="183"/>
       <c r="F78" s="184" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G78" s="185"/>
       <c r="H78" s="184"/>
@@ -30669,7 +30669,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E79" s="183"/>
       <c r="F79" s="184" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="G79" s="185"/>
       <c r="H79" s="184"/>
@@ -30681,7 +30681,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E80" s="183"/>
       <c r="F80" s="184" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G80" s="185"/>
       <c r="H80" s="184"/>
@@ -30714,60 +30714,60 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>738</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>738</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>738</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>738</v>
@@ -30782,78 +30782,78 @@
         <v>738</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>746</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>102</v>
@@ -30862,146 +30862,146 @@
         <v>428</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1435</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C8" s="188" t="s">
         <v>239</v>
@@ -31009,98 +31009,98 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -31108,48 +31108,48 @@
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -31157,138 +31157,138 @@
         <v>746</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C59" s="2" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="2" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -31304,7 +31304,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
@@ -31320,7 +31320,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -31336,7 +31336,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -31352,158 +31352,158 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C76" s="95" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C77" s="95" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="J77" s="95"/>
       <c r="K77" s="95"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C78" s="95" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="J78" s="95"/>
       <c r="K78" s="95"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C79" s="95" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J79" s="87"/>
       <c r="K79" s="95"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C80" s="95" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="J80" s="87"/>
       <c r="K80" s="95"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C81" s="95" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J81" s="87"/>
       <c r="K81" s="95"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C82" s="95" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="J82" s="87"/>
       <c r="K82" s="95"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C83" s="95" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J83" s="87"/>
       <c r="K83" s="95"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C84" s="95" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="J84" s="87"/>
       <c r="K84" s="95"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C85" s="95" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J85" s="87"/>
       <c r="K85" s="95"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C86" s="95" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="J86" s="87"/>
       <c r="K86" s="95"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C87" s="95" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J87" s="87"/>
       <c r="K87" s="95"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C88" s="95" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="J88" s="87"/>
       <c r="K88" s="95"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C89" s="95" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J89" s="87"/>
       <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C90" s="95" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="J90" s="87"/>
       <c r="K90" s="95"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C91" s="186" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="186"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C92" s="95" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J92" s="87"/>
       <c r="K92" s="95"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C93" s="95" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J93" s="87"/>
       <c r="K93" s="95"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="2" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="D98" s="2" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -31512,16 +31512,16 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="2" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="D101" s="2" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -31529,22 +31529,22 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="2" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -31553,16 +31553,16 @@
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="D108" s="2" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -31570,19 +31570,19 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="D111" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -31591,16 +31591,16 @@
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="D114" s="2" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -31608,22 +31608,22 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="D118" s="2" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
@@ -31632,16 +31632,16 @@
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
@@ -31649,25 +31649,25 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C125" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D126" s="2" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -31675,15 +31675,15 @@
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C129" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
@@ -31691,15 +31691,15 @@
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C132" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D133" s="2" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -31727,51 +31727,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="138" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1" s="139" t="s">
         <v>1050</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="D1" s="139" t="s">
         <v>1051</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="E1" s="182" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>1052</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="I1" s="140" t="s">
         <v>1053</v>
       </c>
-      <c r="E1" s="182" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H1" s="140" t="s">
+      <c r="J1" s="140" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K1" s="140" t="s">
         <v>1054</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K1" s="140" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="141" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="142">
@@ -31787,16 +31787,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="141" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B3" s="141" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="141" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E3" s="141"/>
       <c r="F3" s="142">
@@ -31812,16 +31812,16 @@
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="144" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D4" s="144" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E4" s="144"/>
       <c r="F4" s="145">
@@ -31871,27 +31871,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="176" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
       <c r="D1" s="162" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E1" s="162" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="162" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="162" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D2" s="162">
         <v>2</v>
@@ -31901,7 +31901,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="162"/>
       <c r="C3" s="162" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D3" s="162">
         <v>1</v>
@@ -31911,7 +31911,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="162"/>
       <c r="C4" s="162" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="162">
         <v>1</v>
@@ -31921,7 +31921,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="162"/>
       <c r="C5" s="162" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D5" s="162">
         <v>2</v>
@@ -31931,7 +31931,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="162"/>
       <c r="C6" s="162" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D6" s="162">
         <v>1</v>
@@ -31941,7 +31941,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
       <c r="C7" s="162" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="162">
         <v>4</v>
@@ -31951,7 +31951,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="162"/>
       <c r="C8" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D8" s="162">
         <v>5</v>
@@ -31961,7 +31961,7 @@
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="162"/>
       <c r="C9" s="177" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D9" s="177">
         <v>4</v>
@@ -31971,20 +31971,20 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="162"/>
       <c r="C10" s="162" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D10" s="162">
         <v>0.5</v>
       </c>
       <c r="E10" s="162"/>
       <c r="G10" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="162"/>
       <c r="C11" s="176" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D11" s="176">
         <v>20.5</v>
@@ -31999,7 +31999,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="162" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
@@ -32008,37 +32008,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="162"/>
       <c r="C13" s="162" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E13" s="162"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="162"/>
       <c r="C14" s="162" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D14" s="162" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E14" s="162"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="162"/>
       <c r="C15" s="162" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E15" s="162"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="162"/>
       <c r="C16" s="162" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D16" s="162">
         <v>2</v>
@@ -32048,7 +32048,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="162"/>
       <c r="C17" s="162" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D17" s="162">
         <v>2</v>
@@ -32057,7 +32057,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="176" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D18" s="176">
         <v>4</v>
@@ -32068,15 +32068,15 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="161" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -32084,7 +32084,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -32092,7 +32092,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -32100,7 +32100,7 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="176" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D24" s="176">
         <v>3</v>
@@ -32116,8 +32116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32127,139 +32127,139 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H2" s="2" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I4" s="2" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J6" s="2" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11" s="2" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="2" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="2" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="2" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="2" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H45" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="2" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="2" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="2" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I49" s="2" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I50" s="2" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I51" s="2" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I52" s="2" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="M52" s="190"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I56" s="2" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I57" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -32284,7 +32284,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -32292,7 +32292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -32308,7 +32308,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -32316,7 +32316,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -32401,7 +32401,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -32409,23 +32409,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1111</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -32433,7 +32433,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -32453,13 +32453,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="91"/>
       <c r="B19" s="91" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="174" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G19" s="91"/>
     </row>
@@ -32491,42 +32491,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="167" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32548,60 +32548,60 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C66" s="179" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="67" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="179" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="69" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="179" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="71" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="179" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E72" s="179" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="73" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32609,7 +32609,7 @@
     <row r="75" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="180" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32626,20 +32626,20 @@
     <row r="88" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="179" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J94" s="179" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J97" s="181" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="98" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -33046,7 +33046,7 @@
         <v>399</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AE6" s="57" t="s">
         <v>663</v>
@@ -33428,7 +33428,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -33589,7 +33589,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -33861,7 +33861,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>281</v>
@@ -33905,7 +33905,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -34090,7 +34090,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -34156,7 +34156,7 @@
         <v>459</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -34179,7 +34179,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -34195,7 +34195,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -34223,7 +34223,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -34362,7 +34362,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34671,7 +34671,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>278</v>
@@ -35649,7 +35649,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="130" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G160" s="130"/>
       <c r="H160" s="130"/>
@@ -35686,7 +35686,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="126" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G165" s="126"/>
       <c r="H165" s="126"/>
@@ -35717,42 +35717,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -35760,7 +35760,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -35768,22 +35768,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="170" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G28" s="170"/>
       <c r="H28" s="170"/>
@@ -35799,7 +35799,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -35810,22 +35810,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -35859,7 +35859,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -35869,7 +35869,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -35884,25 +35884,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -35913,69 +35913,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I53" s="164" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J53" s="164" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="K53" s="164" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I54" s="165">
         <v>1</v>
       </c>
       <c r="J54" s="165" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K54" s="172" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="168" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I55" s="165">
         <v>2</v>
       </c>
       <c r="J55" s="165" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K55" s="173" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -35983,10 +35983,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="165" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K56" s="173" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -35994,15 +35994,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="165" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="K57" s="165" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="170" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I58" s="171"/>
       <c r="J58" s="171"/>
@@ -36022,7 +36022,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="170"/>
       <c r="I59" s="171" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="170"/>
@@ -36044,18 +36044,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="169" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -36069,46 +36069,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -36119,129 +36119,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>1208</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -36249,7 +36249,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -36257,7 +36257,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -36265,7 +36265,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -36273,196 +36273,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G101" s="170" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H101" s="170"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -36496,83 +36496,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -36600,42 +36600,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -36645,77 +36645,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -36735,149 +36735,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -36887,17 +36887,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -36911,8 +36911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U184"/>
   <sheetViews>
-    <sheetView topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -37008,7 +37008,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -37029,7 +37029,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="84" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -37052,7 +37052,7 @@
         <v>456</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -37097,7 +37097,7 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H18" s="66" t="s">
         <v>668</v>
@@ -37112,7 +37112,7 @@
         <v>659</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -37131,11 +37131,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="84" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -37150,7 +37150,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="84"/>
       <c r="E21" s="84" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -37166,7 +37166,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="84"/>
       <c r="E22" s="123" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F22" s="123"/>
       <c r="G22" s="108"/>
@@ -37182,7 +37182,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="84"/>
       <c r="E23" s="84" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="108"/>
@@ -37198,7 +37198,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="108"/>
@@ -37211,7 +37211,7 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="R24" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -37266,10 +37266,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G29" s="130" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H29" s="146"/>
       <c r="I29" s="146"/>
@@ -37282,7 +37282,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="126" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G30" s="126"/>
       <c r="H30" s="127"/>
@@ -37296,7 +37296,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="126"/>
       <c r="G31" s="126" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H31" s="126"/>
       <c r="I31" s="126"/>
@@ -37310,7 +37310,7 @@
       <c r="F32" s="126"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I32" s="127"/>
       <c r="J32" s="127"/>
@@ -37324,7 +37324,7 @@
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J33" s="126"/>
       <c r="K33" s="126"/>
@@ -37377,7 +37377,7 @@
       <c r="H37" s="126"/>
       <c r="I37" s="126"/>
       <c r="J37" s="126" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K37" s="126"/>
       <c r="L37" s="126"/>
@@ -37403,7 +37403,7 @@
       <c r="H39" s="126"/>
       <c r="I39" s="126"/>
       <c r="J39" s="126" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K39" s="126"/>
       <c r="L39" s="126"/>
@@ -37414,7 +37414,7 @@
       <c r="F40" s="126"/>
       <c r="G40" s="126"/>
       <c r="H40" s="126" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I40" s="126"/>
       <c r="J40" s="126"/>
@@ -37439,7 +37439,7 @@
       <c r="G42" s="126"/>
       <c r="H42" s="126"/>
       <c r="I42" s="126" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J42" s="126"/>
       <c r="K42" s="126"/>
@@ -37477,7 +37477,7 @@
       <c r="F45" s="126"/>
       <c r="G45" s="126"/>
       <c r="H45" s="126" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="126"/>
@@ -37782,7 +37782,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -37811,7 +37811,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -38143,7 +38143,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G100" s="189" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H100" s="189"/>
       <c r="I100" s="189"/>
@@ -38158,7 +38158,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F101" s="84" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>412</v>
@@ -38166,7 +38166,7 @@
     </row>
     <row r="102" spans="1:17" ht="33" x14ac:dyDescent="0.15">
       <c r="A102" s="106" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F102" s="85" t="s">
         <v>44</v>
@@ -38178,16 +38178,16 @@
         <v>53</v>
       </c>
       <c r="I102" s="85" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F103" s="85"/>
       <c r="G103" s="84" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H103" s="85" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I103" s="85">
         <v>1</v>
@@ -38208,10 +38208,10 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F105" s="85"/>
       <c r="G105" s="85" t="s">
+        <v>825</v>
+      </c>
+      <c r="H105" s="85" t="s">
         <v>826</v>
-      </c>
-      <c r="H105" s="85" t="s">
-        <v>827</v>
       </c>
       <c r="I105" s="85">
         <v>3</v>
@@ -38250,15 +38250,15 @@
         <v>46</v>
       </c>
       <c r="I108" s="85">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F109" s="183" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G109" s="183" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="H109" s="183"/>
       <c r="I109" s="183"/>
@@ -38270,7 +38270,7 @@
     <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F110" s="183"/>
       <c r="G110" s="183" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H110" s="183"/>
       <c r="I110" s="183"/>
@@ -38371,10 +38371,10 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="53" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>63</v>
@@ -38390,21 +38390,21 @@
     </row>
     <row r="122" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A122" s="106" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F122" s="57" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G122" s="57" t="s">
         <v>612</v>
       </c>
       <c r="H122" s="57" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I122" s="57"/>
       <c r="J122" s="57"/>
       <c r="K122" s="57" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L122" s="57"/>
       <c r="M122" s="57"/>
@@ -38451,7 +38451,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="G127" s="189" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H127" s="189"/>
       <c r="I127" s="189"/>
@@ -38474,18 +38474,18 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="53" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F129" s="83" t="s">
         <v>748</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="78" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>75</v>
@@ -38509,10 +38509,10 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F132" s="5"/>
       <c r="G132" s="126" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="126"/>
@@ -38532,7 +38532,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="126"/>
       <c r="H133" s="126" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="126"/>
@@ -38553,7 +38553,7 @@
       <c r="G134" s="126"/>
       <c r="H134" s="126"/>
       <c r="I134" s="126" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J134" s="126"/>
       <c r="K134" s="126"/>
@@ -38572,7 +38572,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="126"/>
       <c r="H135" s="126" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="126"/>
@@ -38593,7 +38593,7 @@
       <c r="G136" s="126"/>
       <c r="H136" s="126"/>
       <c r="I136" s="126" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J136" s="126"/>
       <c r="K136" s="126"/>
@@ -38655,10 +38655,10 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>78</v>
@@ -38667,15 +38667,15 @@
         <v>81</v>
       </c>
       <c r="K141" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="53" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>80</v>
@@ -38684,15 +38684,15 @@
         <v>82</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="53" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F143" s="84" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>89</v>
@@ -38701,15 +38701,15 @@
         <v>81</v>
       </c>
       <c r="K143" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="53" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F144" s="84" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>91</v>
@@ -38718,7 +38718,7 @@
         <v>82</v>
       </c>
       <c r="K144" s="85" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
@@ -38726,11 +38726,11 @@
         <v>92</v>
       </c>
       <c r="F145" s="84" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G145" s="84"/>
       <c r="H145" s="84" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I145" s="84"/>
       <c r="J145" s="84"/>
@@ -38747,15 +38747,15 @@
     </row>
     <row r="146" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A146" s="106" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B146" s="78" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E146" s="84"/>
       <c r="F146" s="84"/>
       <c r="G146" s="84" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H146" s="84"/>
       <c r="I146" s="84"/>
@@ -38773,15 +38773,15 @@
     </row>
     <row r="147" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A147" s="106" t="s">
+        <v>907</v>
+      </c>
+      <c r="B147" s="78" t="s">
         <v>909</v>
-      </c>
-      <c r="B147" s="78" t="s">
-        <v>911</v>
       </c>
       <c r="E147" s="84"/>
       <c r="F147" s="84"/>
       <c r="G147" s="84" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H147" s="84"/>
       <c r="I147" s="84"/>
@@ -38799,7 +38799,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B148" s="78" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E148" s="84"/>
       <c r="F148" s="84"/>
@@ -38836,7 +38836,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="53" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.15">
@@ -38909,7 +38909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
@@ -39165,7 +39165,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -39177,13 +39177,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -39252,7 +39252,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -39262,7 +39262,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -39271,25 +39271,25 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J55" s="189" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.15">
@@ -39297,7 +39297,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -39308,18 +39308,18 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="K62" s="8"/>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -39328,14 +39328,14 @@
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -39348,7 +39348,7 @@
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="24"/>
@@ -39357,7 +39357,7 @@
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="5"/>
@@ -39365,7 +39365,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -39374,37 +39374,37 @@
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F75" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F76" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -39413,11 +39413,11 @@
     <row r="80" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F80" s="8"/>
       <c r="G80" s="8" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -39445,31 +39445,31 @@
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F86" s="57" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="G86" s="57" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F87" s="2" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F88" s="2" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F89" s="5" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -39478,7 +39478,7 @@
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F90" s="8" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -39487,25 +39487,25 @@
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E92" s="57" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F93" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F94" s="57" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E95" s="189"/>
       <c r="F95" s="189" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="G95" s="189"/>
       <c r="H95" s="189"/>
@@ -39514,7 +39514,7 @@
     <row r="96" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E96" s="189"/>
       <c r="F96" s="189" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="G96" s="189"/>
       <c r="H96" s="189"/>
@@ -39522,40 +39522,40 @@
     </row>
     <row r="97" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F97" s="57" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
     </row>
     <row r="99" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E99" s="2" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F100" s="2" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="G100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="G101" s="8"/>
     </row>
     <row r="102" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F102" s="57" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="G102" s="57" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="G103" s="57"/>
     </row>
@@ -40069,7 +40069,7 @@
     </row>
     <row r="136" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E136" s="126" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F136" s="126"/>
       <c r="G136" s="126"/>
@@ -40104,7 +40104,7 @@
     </row>
     <row r="139" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F139" s="130" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G139" s="130"/>
       <c r="H139" s="130"/>
@@ -40125,7 +40125,7 @@
     </row>
     <row r="142" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E142" s="175" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F142" s="175"/>
       <c r="G142" s="175"/>
@@ -40142,7 +40142,7 @@
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E143" s="175"/>
       <c r="F143" s="175" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G143" s="175"/>
       <c r="H143" s="175"/>
@@ -40158,7 +40158,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E144" s="175"/>
       <c r="F144" s="175" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G144" s="175"/>
       <c r="H144" s="175"/>
@@ -40174,13 +40174,13 @@
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E145" s="175"/>
       <c r="F145" s="175" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G145" s="175" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H145" s="175" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I145" s="175"/>
       <c r="J145" s="175"/>
@@ -40195,10 +40195,10 @@
       <c r="E146" s="175"/>
       <c r="F146" s="175"/>
       <c r="G146" s="175" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H146" s="175" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I146" s="175"/>
       <c r="J146" s="175"/>
@@ -40213,10 +40213,10 @@
       <c r="E147" s="175"/>
       <c r="F147" s="175"/>
       <c r="G147" s="175" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H147" s="175" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="I147" s="175"/>
       <c r="J147" s="175"/>
@@ -40230,7 +40230,7 @@
     <row r="148" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E148" s="175"/>
       <c r="F148" s="175" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G148" s="175"/>
       <c r="H148" s="175"/>
@@ -40259,7 +40259,7 @@
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D151" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.15">
@@ -40312,10 +40312,10 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="78" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -41041,7 +41041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -41052,72 +41052,72 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E6" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -41131,7 +41131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
@@ -41142,12 +41142,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -41157,23 +41157,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -41183,22 +41183,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -41226,58 +41226,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -41302,119 +41302,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -41424,17 +41424,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -41448,8 +41448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -41728,7 +41728,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -41750,7 +41750,7 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -41768,7 +41768,7 @@
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -41901,7 +41901,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="106" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -41910,7 +41910,7 @@
         <v>488</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -42449,13 +42449,13 @@
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F60" s="94" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G60" s="85" t="s">
         <v>404</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I60" s="85"/>
       <c r="J60" s="85"/>
@@ -42488,12 +42488,12 @@
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F64" s="95" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G65" s="2" t="s">
-        <v>835</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -42534,15 +42534,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="53" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="78" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>183</v>
@@ -42631,17 +42631,17 @@
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.15">
@@ -42858,7 +42858,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>523</v>
@@ -43228,7 +43228,7 @@
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="86" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="85"/>
@@ -43254,7 +43254,7 @@
       <c r="D143" s="85"/>
       <c r="E143" s="85"/>
       <c r="F143" s="85" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
@@ -43265,7 +43265,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" s="85"/>
       <c r="E144" s="94" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -43278,7 +43278,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>523</v>
@@ -43291,7 +43291,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D146" s="85"/>
       <c r="E146" s="83" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F146" s="84"/>
       <c r="G146" s="84"/>
@@ -43306,7 +43306,7 @@
       <c r="D147" s="85"/>
       <c r="E147" s="83"/>
       <c r="F147" s="110" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G147" s="84"/>
       <c r="H147" s="84"/>
@@ -43318,11 +43318,11 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="78" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D148" s="85"/>
       <c r="E148" s="94" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F148" s="85"/>
       <c r="G148" s="85"/>
@@ -43335,10 +43335,10 @@
       <c r="D149" s="85"/>
       <c r="E149" s="85"/>
       <c r="F149" s="85" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G149" s="85" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H149" s="85"/>
       <c r="I149" s="85"/>
@@ -43347,11 +43347,11 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="53" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D150" s="85"/>
       <c r="E150" s="85" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F150" s="85"/>
       <c r="G150" s="85"/>
@@ -43364,11 +43364,11 @@
       <c r="D151" s="85"/>
       <c r="E151" s="85"/>
       <c r="F151" s="85" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G151" s="85"/>
       <c r="H151" s="121" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I151" s="85"/>
       <c r="J151" s="85"/>
@@ -43377,7 +43377,7 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D152" s="85"/>
       <c r="E152" s="94" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F152" s="85"/>
       <c r="G152" s="85"/>
@@ -43388,12 +43388,12 @@
     </row>
     <row r="153" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A153" s="106" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="85"/>
       <c r="F153" s="85" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G153" s="85"/>
       <c r="H153" s="85"/>
@@ -43403,12 +43403,12 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="78" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D154" s="85"/>
       <c r="E154" s="85"/>
       <c r="F154" s="85" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G154" s="85"/>
       <c r="H154" s="85"/>
@@ -43418,11 +43418,11 @@
     </row>
     <row r="155" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A155" s="106" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="193" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -43433,12 +43433,12 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -43450,7 +43450,7 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -43489,7 +43489,7 @@
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -44144,7 +44144,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="122" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -44171,7 +44171,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -44197,7 +44197,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -44255,7 +44255,7 @@
         <v>758</v>
       </c>
       <c r="E12" s="183" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -44285,13 +44285,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D32" s="85" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="94"/>
@@ -44303,7 +44303,7 @@
     <row r="33" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D33" s="85"/>
       <c r="E33" s="94" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
@@ -44315,7 +44315,7 @@
     <row r="34" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D34" s="85"/>
       <c r="E34" s="124" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F34" s="94"/>
       <c r="G34" s="94"/>
@@ -44327,7 +44327,7 @@
     <row r="35" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D35" s="85"/>
       <c r="E35" s="94" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F35" s="86"/>
       <c r="G35" s="94"/>
@@ -44339,7 +44339,7 @@
     <row r="36" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D36" s="85"/>
       <c r="E36" s="124" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F36" s="86"/>
       <c r="G36" s="94"/>
@@ -44351,7 +44351,7 @@
     <row r="37" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D37" s="85"/>
       <c r="E37" s="94" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F37" s="86"/>
       <c r="G37" s="94"/>
@@ -44363,7 +44363,7 @@
     <row r="38" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D38" s="85"/>
       <c r="E38" s="124" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F38" s="86"/>
       <c r="G38" s="94"/>
@@ -44375,7 +44375,7 @@
     <row r="39" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D39" s="85"/>
       <c r="E39" s="94" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F39" s="86"/>
       <c r="G39" s="94"/>
@@ -44387,7 +44387,7 @@
     <row r="40" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D40" s="85"/>
       <c r="E40" s="124" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F40" s="86"/>
       <c r="G40" s="94"/>
@@ -44399,7 +44399,7 @@
     <row r="41" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D41" s="85"/>
       <c r="E41" s="94" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F41" s="86"/>
       <c r="G41" s="94"/>
@@ -44411,7 +44411,7 @@
     <row r="42" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D42" s="85"/>
       <c r="E42" s="124" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F42" s="86"/>
       <c r="G42" s="94"/>
@@ -44426,7 +44426,7 @@
     <row r="43" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="94" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F43" s="86"/>
       <c r="G43" s="94"/>
@@ -44441,7 +44441,7 @@
     <row r="44" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D44" s="85"/>
       <c r="E44" s="94" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="94"/>
@@ -44456,7 +44456,7 @@
     <row r="45" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D45" s="85"/>
       <c r="E45" s="94" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F45" s="86"/>
       <c r="G45" s="94"/>
@@ -44471,7 +44471,7 @@
     <row r="46" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D46" s="85"/>
       <c r="E46" s="94" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F46" s="86"/>
       <c r="G46" s="94"/>
@@ -44486,7 +44486,7 @@
     <row r="47" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D47" s="85"/>
       <c r="E47" s="97" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F47" s="86"/>
       <c r="G47" s="97"/>
@@ -44501,7 +44501,7 @@
     <row r="48" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D48" s="85"/>
       <c r="E48" s="94" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F48" s="86"/>
       <c r="G48" s="94"/>
@@ -44513,7 +44513,7 @@
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D49" s="85"/>
       <c r="E49" s="94" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="94"/>
@@ -44525,7 +44525,7 @@
     <row r="50" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D50" s="183"/>
       <c r="E50" s="184" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="F50" s="185"/>
       <c r="G50" s="184"/>
@@ -44537,7 +44537,7 @@
     <row r="51" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D51" s="183"/>
       <c r="E51" s="184" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="F51" s="185"/>
       <c r="G51" s="184"/>
@@ -44549,7 +44549,7 @@
     <row r="52" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D52" s="183"/>
       <c r="E52" s="184" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="F52" s="185"/>
       <c r="G52" s="184"/>
@@ -44561,7 +44561,7 @@
     <row r="53" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D53" s="183"/>
       <c r="E53" s="184" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="F53" s="185"/>
       <c r="G53" s="184"/>
@@ -44590,7 +44590,7 @@
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.15">
@@ -44605,10 +44605,10 @@
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F60" s="130" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G60" s="130"/>
       <c r="H60" s="130"/>
@@ -44620,7 +44620,7 @@
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.15">
       <c r="E62" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.15">
@@ -44631,7 +44631,7 @@
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F64" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="123"/>
@@ -44640,7 +44640,7 @@
       <c r="K64" s="123"/>
       <c r="L64" s="123"/>
       <c r="M64" s="130" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
@@ -44721,36 +44721,36 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="84"/>
       <c r="G9" s="84" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
@@ -44760,11 +44760,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -44774,7 +44774,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -44805,7 +44805,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -44847,7 +44847,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="126" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
@@ -44855,7 +44855,7 @@
       <c r="I31" s="126"/>
       <c r="J31" s="126"/>
       <c r="L31" s="130" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M31" s="130"/>
       <c r="N31" s="130"/>
@@ -44883,7 +44883,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
@@ -44969,7 +44969,7 @@
         <v>239</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -44981,11 +44981,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -44997,11 +44997,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -45024,10 +45024,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>240</v>
@@ -45039,7 +45039,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="126" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E32" s="126"/>
       <c r="F32" s="126"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1614">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3377,10 +3377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对应装备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对应进阶后的品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3590,10 +3586,6 @@
   </si>
   <si>
     <t>现在应该能定了吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipAttId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6480,6 +6472,18 @@
   </si>
   <si>
     <t>用于道具tips上道具说明的显示，除装备类其余需要填写道具tips多语言ID,命名规则tips_itemID_itemName(中文拼音)，如tips_10001_qianghuashi，通过languageStatic表格调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接填写对应装备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipAttId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置灰item表equipAttId列，equipAttr直接调用itemID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7248,7 +7252,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7880,6 +7884,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -26979,10 +26986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27509,7 +27516,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="148"/>
       <c r="B26" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C26" s="158">
         <v>42151</v>
@@ -27518,14 +27525,14 @@
       <c r="E26" s="85"/>
       <c r="F26" s="149"/>
       <c r="G26" s="149" t="s">
+        <v>870</v>
+      </c>
+      <c r="H26" s="148" t="s">
         <v>871</v>
-      </c>
-      <c r="H26" s="148" t="s">
-        <v>872</v>
       </c>
       <c r="I26" s="148"/>
       <c r="J26" s="148" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K26" s="148"/>
       <c r="L26" s="148"/>
@@ -27542,11 +27549,11 @@
       <c r="F27" s="149"/>
       <c r="G27" s="149"/>
       <c r="H27" s="120" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I27" s="148"/>
       <c r="J27" s="120" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K27" s="148"/>
       <c r="L27" s="148"/>
@@ -27563,7 +27570,7 @@
       <c r="F28" s="149"/>
       <c r="G28" s="149"/>
       <c r="H28" s="120" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I28" s="148"/>
       <c r="J28" s="120"/>
@@ -27582,7 +27589,7 @@
       <c r="F29" s="149"/>
       <c r="G29" s="149"/>
       <c r="H29" s="120" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I29" s="148"/>
       <c r="J29" s="120"/>
@@ -27601,7 +27608,7 @@
       <c r="F30" s="149"/>
       <c r="G30" s="149"/>
       <c r="H30" s="120" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I30" s="148"/>
       <c r="J30" s="120"/>
@@ -27620,7 +27627,7 @@
       <c r="F31" s="149"/>
       <c r="G31" s="149"/>
       <c r="H31" s="120" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I31" s="148"/>
       <c r="J31" s="120"/>
@@ -27633,7 +27640,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="148"/>
       <c r="B32" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C32" s="158">
         <v>42153</v>
@@ -27642,10 +27649,10 @@
       <c r="E32" s="84"/>
       <c r="F32" s="149"/>
       <c r="G32" s="149" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -27664,11 +27671,11 @@
       <c r="F33" s="149"/>
       <c r="G33" s="149"/>
       <c r="H33" s="120" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I33" s="148"/>
       <c r="J33" s="120" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="K33" s="148"/>
       <c r="L33" s="148"/>
@@ -27685,7 +27692,7 @@
       <c r="F34" s="149"/>
       <c r="G34" s="149"/>
       <c r="H34" s="120" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I34" s="148"/>
       <c r="J34" s="120"/>
@@ -27704,7 +27711,7 @@
       <c r="F35" s="149"/>
       <c r="G35" s="149"/>
       <c r="H35" s="120" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I35" s="148"/>
       <c r="J35" s="120"/>
@@ -27723,7 +27730,7 @@
       <c r="F36" s="149"/>
       <c r="G36" s="149"/>
       <c r="H36" s="120" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I36" s="148"/>
       <c r="J36" s="120"/>
@@ -27742,7 +27749,7 @@
       <c r="F37" s="149"/>
       <c r="G37" s="149"/>
       <c r="H37" s="120" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I37" s="148"/>
       <c r="J37" s="120"/>
@@ -27761,7 +27768,7 @@
       <c r="F38" s="149"/>
       <c r="G38" s="149"/>
       <c r="H38" s="120" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I38" s="148"/>
       <c r="J38" s="120"/>
@@ -27780,12 +27787,12 @@
       <c r="F39" s="149"/>
       <c r="G39" s="149"/>
       <c r="H39" s="120" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I39" s="148"/>
       <c r="J39" s="120"/>
       <c r="K39" s="120" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
@@ -27801,13 +27808,13 @@
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
       <c r="H40" s="120" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I40" s="148"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="M40" s="148"/>
       <c r="N40" s="148"/>
@@ -27816,7 +27823,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="148"/>
       <c r="B41" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C41" s="158">
         <v>42156</v>
@@ -27826,7 +27833,7 @@
       <c r="F41" s="149"/>
       <c r="G41" s="149"/>
       <c r="H41" s="120" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I41" s="148"/>
       <c r="J41" s="120"/>
@@ -27845,7 +27852,7 @@
       <c r="F42" s="149"/>
       <c r="G42" s="149"/>
       <c r="H42" s="120" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I42" s="148"/>
       <c r="J42" s="120"/>
@@ -27864,7 +27871,7 @@
       <c r="F43" s="149"/>
       <c r="G43" s="149"/>
       <c r="H43" s="120" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I43" s="148"/>
       <c r="J43" s="120"/>
@@ -27883,7 +27890,7 @@
       <c r="F44" s="149"/>
       <c r="G44" s="149"/>
       <c r="H44" s="120" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I44" s="148"/>
       <c r="J44" s="120"/>
@@ -27902,12 +27909,12 @@
       <c r="F45" s="149"/>
       <c r="G45" s="149"/>
       <c r="H45" s="129" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I45" s="148"/>
       <c r="J45" s="120"/>
       <c r="K45" s="129" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L45" s="120"/>
       <c r="M45" s="148"/>
@@ -27923,7 +27930,7 @@
       <c r="F46" s="149"/>
       <c r="G46" s="149"/>
       <c r="H46" s="120" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I46" s="148"/>
       <c r="J46" s="120"/>
@@ -27942,7 +27949,7 @@
       <c r="F47" s="149"/>
       <c r="G47" s="149"/>
       <c r="H47" s="120" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I47" s="148"/>
       <c r="J47" s="120"/>
@@ -27961,7 +27968,7 @@
       <c r="F48" s="149"/>
       <c r="G48" s="149"/>
       <c r="H48" s="129" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I48" s="148"/>
       <c r="J48" s="120"/>
@@ -27980,7 +27987,7 @@
       <c r="F49" s="149"/>
       <c r="G49" s="149"/>
       <c r="H49" s="129" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I49" s="148"/>
       <c r="J49" s="120"/>
@@ -27999,11 +28006,11 @@
       <c r="F50" s="149"/>
       <c r="G50" s="149"/>
       <c r="H50" s="120" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I50" s="148"/>
       <c r="J50" s="58" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -28020,7 +28027,7 @@
       <c r="F51" s="149"/>
       <c r="G51" s="149"/>
       <c r="H51" s="129" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I51" s="148"/>
       <c r="J51" s="120"/>
@@ -28039,12 +28046,12 @@
       <c r="F52" s="149"/>
       <c r="G52" s="149"/>
       <c r="H52" s="120" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I52" s="148"/>
       <c r="J52" s="120"/>
       <c r="K52" s="120" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L52" s="120"/>
       <c r="M52" s="148"/>
@@ -28060,13 +28067,13 @@
       <c r="F53" s="149"/>
       <c r="G53" s="149"/>
       <c r="H53" s="120" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I53" s="148"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
       <c r="L53" s="120" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M53" s="148"/>
       <c r="N53" s="148"/>
@@ -28081,7 +28088,7 @@
       <c r="F54" s="149"/>
       <c r="G54" s="149"/>
       <c r="H54" s="129" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I54" s="148"/>
       <c r="J54" s="120"/>
@@ -28100,7 +28107,7 @@
       <c r="F55" s="149"/>
       <c r="G55" s="149"/>
       <c r="H55" s="129" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I55" s="148"/>
       <c r="J55" s="120"/>
@@ -28113,7 +28120,7 @@
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="148"/>
       <c r="B56" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C56" s="158">
         <v>42163</v>
@@ -28123,7 +28130,7 @@
       <c r="F56" s="149"/>
       <c r="G56" s="149"/>
       <c r="H56" s="120" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I56" s="148"/>
       <c r="J56" s="120"/>
@@ -28142,7 +28149,7 @@
       <c r="F57" s="149"/>
       <c r="G57" s="149"/>
       <c r="H57" s="129" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I57" s="148"/>
       <c r="J57" s="120"/>
@@ -28163,12 +28170,12 @@
       <c r="F58" s="149"/>
       <c r="G58" s="149"/>
       <c r="H58" s="58" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I58" s="148"/>
       <c r="J58" s="120"/>
       <c r="K58" s="120" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="148"/>
@@ -28186,7 +28193,7 @@
       <c r="F59" s="149"/>
       <c r="G59" s="149"/>
       <c r="H59" s="166" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I59" s="148"/>
       <c r="J59" s="120"/>
@@ -28207,7 +28214,7 @@
       <c r="F60" s="149"/>
       <c r="G60" s="149"/>
       <c r="H60" s="166" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I60" s="148"/>
       <c r="J60" s="120"/>
@@ -28228,7 +28235,7 @@
       <c r="F61" s="149"/>
       <c r="G61" s="149"/>
       <c r="H61" s="166" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I61" s="148"/>
       <c r="J61" s="120"/>
@@ -28249,7 +28256,7 @@
       <c r="F62" s="149"/>
       <c r="G62" s="149"/>
       <c r="H62" s="58" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I62" s="148"/>
       <c r="J62" s="120"/>
@@ -28269,10 +28276,10 @@
       <c r="E63" s="183"/>
       <c r="F63" s="149"/>
       <c r="G63" s="149" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I63" s="148"/>
       <c r="J63" s="120"/>
@@ -28297,14 +28304,14 @@
       <c r="F64" s="149"/>
       <c r="G64" s="149"/>
       <c r="H64" s="58" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I64" s="148"/>
       <c r="J64" s="120"/>
       <c r="K64" s="120"/>
       <c r="L64" s="120"/>
       <c r="M64" s="120" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="N64" s="148"/>
       <c r="O64" s="120"/>
@@ -28319,7 +28326,7 @@
       <c r="F65" s="149"/>
       <c r="G65" s="149"/>
       <c r="H65" s="58" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="I65" s="148"/>
       <c r="J65" s="120"/>
@@ -28339,7 +28346,7 @@
       <c r="F66" s="149"/>
       <c r="G66" s="149"/>
       <c r="H66" s="58" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="I66" s="148"/>
       <c r="J66" s="120"/>
@@ -28359,7 +28366,7 @@
       <c r="F67" s="149"/>
       <c r="G67" s="149"/>
       <c r="H67" s="58" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="I67" s="148"/>
       <c r="J67" s="120"/>
@@ -28381,7 +28388,7 @@
       <c r="F68" s="149"/>
       <c r="G68" s="149"/>
       <c r="H68" s="58" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="I68" s="148"/>
       <c r="J68" s="120"/>
@@ -28401,7 +28408,7 @@
       <c r="F69" s="149"/>
       <c r="G69" s="149"/>
       <c r="H69" s="58" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="I69" s="148"/>
       <c r="J69" s="120"/>
@@ -28415,43 +28422,48 @@
     <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="148"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="158"/>
+      <c r="C70" s="158">
+        <v>42294</v>
+      </c>
       <c r="D70" s="2"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="166" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I70" s="148"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="120"/>
+      <c r="L70" s="120"/>
+      <c r="M70" s="120"/>
+      <c r="N70" s="148"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="147" t="s">
+      <c r="A71" s="148"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="147" t="s">
         <v>717</v>
       </c>
-      <c r="B71" s="148" t="s">
+      <c r="B72" s="148" t="s">
         <v>708</v>
       </c>
-      <c r="C71" s="149" t="s">
+      <c r="C72" s="149" t="s">
         <v>718</v>
       </c>
-      <c r="D71" s="149" t="s">
+      <c r="D72" s="149" t="s">
         <v>719</v>
       </c>
-      <c r="E71" s="149" t="s">
+      <c r="E72" s="149" t="s">
         <v>720</v>
       </c>
-      <c r="F71" s="149"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
-      <c r="N71" s="148"/>
-      <c r="O71" s="148"/>
-    </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="147"/>
-      <c r="B72" s="147"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
       <c r="F72" s="149"/>
-      <c r="G72" s="149"/>
       <c r="H72" s="148"/>
       <c r="I72" s="148"/>
       <c r="J72" s="148"/>
@@ -28495,8 +28507,25 @@
       <c r="N74" s="148"/>
       <c r="O74" s="148"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F76" s="128"/>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="147"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="149"/>
+      <c r="F75" s="149"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="148"/>
+      <c r="O75" s="148"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F77" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -28571,8 +28600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28615,7 +28644,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>736</v>
@@ -28630,7 +28659,7 @@
         <v>738</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>738</v>
@@ -28701,13 +28730,13 @@
       <c r="AD2" s="111" t="s">
         <v>740</v>
       </c>
-      <c r="AE2" s="80" t="s">
+      <c r="AE2" s="111" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="103" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>741</v>
@@ -28716,19 +28745,19 @@
         <v>742</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>744</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>745</v>
@@ -28749,7 +28778,7 @@
         <v>749</v>
       </c>
       <c r="P3" s="103" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="Q3" s="103" t="s">
         <v>750</v>
@@ -28758,7 +28787,7 @@
         <v>751</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>752</v>
@@ -28782,7 +28811,7 @@
         <v>758</v>
       </c>
       <c r="AA3" s="111" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AB3" s="87" t="s">
         <v>743</v>
@@ -28793,8 +28822,8 @@
       <c r="AD3" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" s="80" t="s">
-        <v>895</v>
+      <c r="AE3" s="111" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -28811,7 +28840,7 @@
         <v>763</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>55</v>
@@ -28835,31 +28864,31 @@
         <v>767</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="P4" s="185" t="s">
         <v>767</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="R4" s="80" t="s">
         <v>421</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="T4" s="87" t="s">
         <v>768</v>
       </c>
       <c r="U4" s="87" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="V4" s="103" t="s">
         <v>769</v>
       </c>
       <c r="W4" s="103" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>770</v>
@@ -28868,13 +28897,13 @@
         <v>771</v>
       </c>
       <c r="Z4" s="103" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AA4" s="111" t="s">
         <v>772</v>
       </c>
       <c r="AB4" s="87" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="AC4" s="80" t="s">
         <v>533</v>
@@ -28882,34 +28911,34 @@
       <c r="AD4" s="111" t="s">
         <v>532</v>
       </c>
-      <c r="AE4" s="80" t="s">
-        <v>1167</v>
+      <c r="AE4" s="111" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>660</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="L5" s="192" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="N5" s="78" t="s">
         <v>827</v>
@@ -28917,7 +28946,7 @@
       <c r="O5" s="84"/>
       <c r="P5" s="78"/>
       <c r="S5" s="83" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="T5" s="83" t="s">
         <v>785</v>
@@ -28926,23 +28955,23 @@
         <v>786</v>
       </c>
       <c r="V5" s="83" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="X5" s="98" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Z5" s="103" t="s">
         <v>788</v>
       </c>
       <c r="AA5" s="111"/>
       <c r="AD5" s="111"/>
-      <c r="AE5" s="103" t="s">
+      <c r="AE5" s="111" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C6" s="80">
         <v>10001</v>
@@ -28985,11 +29014,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="T6" s="87"/>
       <c r="U6" s="87" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="V6" s="80" t="s">
         <v>787</v>
@@ -29018,13 +29047,13 @@
       <c r="AD6" s="111">
         <v>0</v>
       </c>
-      <c r="AE6" s="80">
+      <c r="AE6" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C7" s="80">
         <v>10002</v>
@@ -29067,7 +29096,7 @@
         <v>100</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="W7" s="80">
         <v>0</v>
@@ -29093,13 +29122,13 @@
       <c r="AD7" s="111">
         <v>0</v>
       </c>
-      <c r="AE7" s="80">
+      <c r="AE7" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C8" s="80">
         <v>20001</v>
@@ -29168,13 +29197,13 @@
       <c r="AD8" s="111">
         <v>0</v>
       </c>
-      <c r="AE8" s="80">
+      <c r="AE8" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C9" s="80">
         <v>30001</v>
@@ -29240,7 +29269,7 @@
       <c r="AD9" s="111">
         <v>0</v>
       </c>
-      <c r="AE9" s="80">
+      <c r="AE9" s="111">
         <v>0</v>
       </c>
     </row>
@@ -29312,7 +29341,7 @@
       <c r="AD10" s="111">
         <v>0</v>
       </c>
-      <c r="AE10" s="80">
+      <c r="AE10" s="111">
         <v>0</v>
       </c>
     </row>
@@ -29387,7 +29416,7 @@
       <c r="AD11" s="111">
         <v>0</v>
       </c>
-      <c r="AE11" s="80">
+      <c r="AE11" s="111">
         <v>0</v>
       </c>
     </row>
@@ -29456,7 +29485,7 @@
       <c r="AD12" s="111">
         <v>0</v>
       </c>
-      <c r="AE12" s="80">
+      <c r="AE12" s="111">
         <v>0</v>
       </c>
     </row>
@@ -29503,7 +29532,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="80" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="W13" s="80">
         <v>1</v>
@@ -29529,13 +29558,13 @@
       <c r="AD13" s="111">
         <v>0</v>
       </c>
-      <c r="AE13" s="80">
+      <c r="AE13" s="111">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C14" s="80">
         <v>70001</v>
@@ -29601,13 +29630,13 @@
       <c r="AD14" s="111">
         <v>100</v>
       </c>
-      <c r="AE14" s="80">
+      <c r="AE14" s="111">
         <v>1001</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
@@ -29912,10 +29941,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -29926,7 +29955,7 @@
         <v>806</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F35" s="80" t="s">
         <v>807</v>
@@ -29958,25 +29987,25 @@
         <v>810</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I36" s="189" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J36" s="189" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K36" s="189" t="s">
         <v>1365</v>
-      </c>
-      <c r="J36" s="189" t="s">
-        <v>1366</v>
-      </c>
-      <c r="K36" s="189" t="s">
-        <v>1367</v>
       </c>
       <c r="L36" s="190" t="s">
         <v>510</v>
@@ -29990,10 +30019,10 @@
         <v>812</v>
       </c>
       <c r="E37" s="110" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>819</v>
@@ -30002,13 +30031,13 @@
         <v>813</v>
       </c>
       <c r="I37" s="189" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J37" s="189" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K37" s="189" t="s">
         <v>1362</v>
-      </c>
-      <c r="J37" s="189" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K37" s="189" t="s">
-        <v>1364</v>
       </c>
       <c r="L37" s="190" t="s">
         <v>772</v>
@@ -30020,7 +30049,7 @@
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="103" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G38" s="92" t="s">
         <v>820</v>
@@ -30038,13 +30067,13 @@
         <v>823</v>
       </c>
       <c r="L38" s="190" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AC38" s="87"/>
     </row>
     <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C39" s="80">
         <v>1001</v>
@@ -30145,7 +30174,7 @@
     </row>
     <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C43" s="105">
         <v>1001</v>
@@ -30520,7 +30549,7 @@
         <v>822</v>
       </c>
       <c r="F58" s="96" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -30531,7 +30560,7 @@
         <v>101</v>
       </c>
       <c r="F59" s="100" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -30544,7 +30573,7 @@
         <v>102</v>
       </c>
       <c r="F60" s="100" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -30557,7 +30586,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="100" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G61" s="93"/>
       <c r="H61" s="93"/>
@@ -30570,7 +30599,7 @@
         <v>104</v>
       </c>
       <c r="F62" s="100" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H62" s="93"/>
     </row>
@@ -30582,7 +30611,7 @@
         <v>105</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H63" s="93"/>
     </row>
@@ -30594,7 +30623,7 @@
         <v>106</v>
       </c>
       <c r="F64" s="100" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H64" s="93"/>
     </row>
@@ -30606,7 +30635,7 @@
         <v>107</v>
       </c>
       <c r="F65" s="100" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -30618,7 +30647,7 @@
         <v>108</v>
       </c>
       <c r="F66" s="100" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -30630,67 +30659,67 @@
         <v>109</v>
       </c>
       <c r="F67" s="100" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H67" s="93"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F68" s="100" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H68" s="93"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F69" s="100" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H69" s="93"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F70" s="100" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F71" s="100" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H71" s="93"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F72" s="100" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F73" s="100" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H73" s="93"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="82" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F74" s="101" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H74" s="46"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="82" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F76" s="100" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H76" s="93"/>
     </row>
@@ -30707,8 +30736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132:K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -30718,60 +30747,60 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>737</v>
@@ -30786,78 +30815,78 @@
         <v>737</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>745</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>102</v>
@@ -30866,146 +30895,146 @@
         <v>427</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>765</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>1398</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C8" s="186" t="s">
         <v>239</v>
@@ -31013,98 +31042,98 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -31112,48 +31141,48 @@
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" s="2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -31161,22 +31190,22 @@
         <v>745</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>765</v>
@@ -31184,115 +31213,115 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C59" s="2" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="2" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -31308,7 +31337,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
@@ -31324,7 +31353,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -31340,7 +31369,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -31356,158 +31385,158 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C76" s="95" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C77" s="95" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="J77" s="95"/>
       <c r="K77" s="95"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C78" s="95" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="J78" s="95"/>
       <c r="K78" s="95"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C79" s="95" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J79" s="87"/>
       <c r="K79" s="95"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C80" s="95" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="J80" s="87"/>
       <c r="K80" s="95"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C81" s="95" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J81" s="87"/>
       <c r="K81" s="95"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C82" s="95" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="J82" s="87"/>
       <c r="K82" s="95"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C83" s="95" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J83" s="87"/>
       <c r="K83" s="95"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C84" s="95" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="J84" s="87"/>
       <c r="K84" s="95"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C85" s="95" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J85" s="87"/>
       <c r="K85" s="95"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C86" s="95" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="J86" s="87"/>
       <c r="K86" s="95"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C87" s="95" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J87" s="87"/>
       <c r="K87" s="95"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C88" s="95" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="J88" s="87"/>
       <c r="K88" s="95"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C89" s="95" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J89" s="87"/>
       <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C90" s="95" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="J90" s="87"/>
       <c r="K90" s="95"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C91" s="184" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="184"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C92" s="95" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J92" s="87"/>
       <c r="K92" s="95"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C93" s="95" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J93" s="87"/>
       <c r="K93" s="95"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="D98" s="2" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -31516,16 +31545,16 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="D101" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -31533,22 +31562,22 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -31557,16 +31586,16 @@
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="D108" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -31574,19 +31603,19 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="D111" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -31595,16 +31624,16 @@
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="D114" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -31612,22 +31641,22 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="D118" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
@@ -31636,16 +31665,16 @@
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
@@ -31653,58 +31682,73 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C125" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D126" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D128"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C129" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D131"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D133" s="2" t="s">
-        <v>1541</v>
-      </c>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C132" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31731,51 +31775,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="138" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1" s="139" t="s">
         <v>1045</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="D1" s="139" t="s">
         <v>1046</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="E1" s="182" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>1047</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="I1" s="140" t="s">
         <v>1048</v>
       </c>
-      <c r="E1" s="182" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H1" s="140" t="s">
+      <c r="J1" s="140" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K1" s="140" t="s">
         <v>1049</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K1" s="140" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="141" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="142">
@@ -31791,16 +31835,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="141" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B3" s="141" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D3" s="141" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E3" s="141"/>
       <c r="F3" s="142">
@@ -31816,16 +31860,16 @@
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="144" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="144" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E4" s="144"/>
       <c r="F4" s="145">
@@ -31875,27 +31919,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="176" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
       <c r="D1" s="162" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E1" s="162" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="162" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C2" s="162" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="162">
         <v>2</v>
@@ -31905,7 +31949,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="162"/>
       <c r="C3" s="162" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D3" s="162">
         <v>1</v>
@@ -31915,7 +31959,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="162"/>
       <c r="C4" s="162" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D4" s="162">
         <v>1</v>
@@ -31925,7 +31969,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="162"/>
       <c r="C5" s="162" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="162">
         <v>2</v>
@@ -31935,7 +31979,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="162"/>
       <c r="C6" s="162" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D6" s="162">
         <v>1</v>
@@ -31945,7 +31989,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
       <c r="C7" s="162" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D7" s="162">
         <v>4</v>
@@ -31955,7 +31999,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="162"/>
       <c r="C8" s="162" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D8" s="162">
         <v>5</v>
@@ -31965,7 +32009,7 @@
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="162"/>
       <c r="C9" s="177" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D9" s="177">
         <v>4</v>
@@ -31975,20 +32019,20 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="162"/>
       <c r="C10" s="162" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D10" s="162">
         <v>0.5</v>
       </c>
       <c r="E10" s="162"/>
       <c r="G10" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="162"/>
       <c r="C11" s="176" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D11" s="176">
         <v>20.5</v>
@@ -32003,7 +32047,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="162" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
@@ -32012,37 +32056,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="162"/>
       <c r="C13" s="162" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E13" s="162"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="162"/>
       <c r="C14" s="162" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D14" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E14" s="162"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="162"/>
       <c r="C15" s="162" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E15" s="162"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="162"/>
       <c r="C16" s="162" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D16" s="162">
         <v>2</v>
@@ -32052,7 +32096,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="162"/>
       <c r="C17" s="162" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="162">
         <v>2</v>
@@ -32061,7 +32105,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="176" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D18" s="176">
         <v>4</v>
@@ -32072,15 +32116,15 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="161" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -32088,7 +32132,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -32096,7 +32140,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -32104,7 +32148,7 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="176" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D24" s="176">
         <v>3</v>
@@ -32131,139 +32175,139 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H2" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I4" s="2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J6" s="2" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11" s="2" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H45" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I49" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I50" s="2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I51" s="2" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I52" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="M52" s="188"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I56" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I57" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -32288,7 +32332,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -32296,7 +32340,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -32312,7 +32356,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -32320,7 +32364,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -32405,7 +32449,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -32413,23 +32457,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1106</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -32437,7 +32481,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -32457,13 +32501,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="91"/>
       <c r="B19" s="91" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="174" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G19" s="91"/>
     </row>
@@ -32495,42 +32539,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="167" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32552,60 +32596,60 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C66" s="179" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="67" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="179" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="69" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="179" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="71" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="179" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E72" s="179" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="73" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32613,7 +32657,7 @@
     <row r="75" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="180" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32630,20 +32674,20 @@
     <row r="88" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="179" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J94" s="179" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J97" s="181" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -33432,7 +33476,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -33593,7 +33637,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -33865,7 +33909,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>281</v>
@@ -33909,7 +33953,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -34094,7 +34138,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -34160,7 +34204,7 @@
         <v>458</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -34183,7 +34227,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -34199,7 +34243,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -34227,7 +34271,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -34366,7 +34410,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34675,7 +34719,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>278</v>
@@ -35653,7 +35697,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="130" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G160" s="130"/>
       <c r="H160" s="130"/>
@@ -35690,7 +35734,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="126" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G165" s="126"/>
       <c r="H165" s="126"/>
@@ -35721,42 +35765,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -35764,7 +35808,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -35772,22 +35816,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="170" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G28" s="170"/>
       <c r="H28" s="170"/>
@@ -35803,7 +35847,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -35814,22 +35858,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -35863,7 +35907,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -35873,7 +35917,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -35888,25 +35932,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -35917,69 +35961,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I53" s="164" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="J53" s="164" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="K53" s="164" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I54" s="165">
         <v>1</v>
       </c>
       <c r="J54" s="165" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K54" s="172" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="168" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I55" s="165">
         <v>2</v>
       </c>
       <c r="J55" s="165" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="K55" s="173" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -35987,10 +36031,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="165" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K56" s="173" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -35998,15 +36042,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="165" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="K57" s="165" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="170" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I58" s="171"/>
       <c r="J58" s="171"/>
@@ -36026,7 +36070,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="170"/>
       <c r="I59" s="171" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="170"/>
@@ -36048,18 +36092,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="169" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -36073,46 +36117,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -36123,129 +36167,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>1202</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -36253,7 +36297,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -36261,7 +36305,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -36269,7 +36313,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -36277,196 +36321,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G101" s="170" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H101" s="170"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -36500,83 +36544,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -36604,42 +36648,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -36649,77 +36693,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -36739,149 +36783,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -36891,17 +36935,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -37012,7 +37056,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -37033,7 +37077,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="84" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -37056,7 +37100,7 @@
         <v>455</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -37101,7 +37145,7 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H18" s="66" t="s">
         <v>667</v>
@@ -37116,7 +37160,7 @@
         <v>658</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -37135,11 +37179,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="84" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -37154,7 +37198,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="84"/>
       <c r="E21" s="84" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -37170,7 +37214,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="84"/>
       <c r="E22" s="123" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F22" s="123"/>
       <c r="G22" s="108"/>
@@ -37186,7 +37230,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="84"/>
       <c r="E23" s="84" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="108"/>
@@ -37202,7 +37246,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="108"/>
@@ -37215,7 +37259,7 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="R24" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -37270,10 +37314,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G29" s="130" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H29" s="146"/>
       <c r="I29" s="146"/>
@@ -37286,7 +37330,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="126" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G30" s="126"/>
       <c r="H30" s="127"/>
@@ -37300,7 +37344,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="126"/>
       <c r="G31" s="126" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H31" s="126"/>
       <c r="I31" s="126"/>
@@ -37314,7 +37358,7 @@
       <c r="F32" s="126"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I32" s="127"/>
       <c r="J32" s="127"/>
@@ -37328,7 +37372,7 @@
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J33" s="126"/>
       <c r="K33" s="126"/>
@@ -37381,7 +37425,7 @@
       <c r="H37" s="126"/>
       <c r="I37" s="126"/>
       <c r="J37" s="126" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="K37" s="126"/>
       <c r="L37" s="126"/>
@@ -37407,7 +37451,7 @@
       <c r="H39" s="126"/>
       <c r="I39" s="126"/>
       <c r="J39" s="126" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K39" s="126"/>
       <c r="L39" s="126"/>
@@ -37418,7 +37462,7 @@
       <c r="F40" s="126"/>
       <c r="G40" s="126"/>
       <c r="H40" s="126" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I40" s="126"/>
       <c r="J40" s="126"/>
@@ -37443,7 +37487,7 @@
       <c r="G42" s="126"/>
       <c r="H42" s="126"/>
       <c r="I42" s="126" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="J42" s="126"/>
       <c r="K42" s="126"/>
@@ -37481,7 +37525,7 @@
       <c r="F45" s="126"/>
       <c r="G45" s="126"/>
       <c r="H45" s="126" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="126"/>
@@ -37786,7 +37830,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -37815,7 +37859,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -38134,7 +38178,7 @@
         <v>40</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
@@ -38147,7 +38191,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="G100" s="187" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H100" s="187"/>
       <c r="I100" s="187"/>
@@ -38165,7 +38209,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F101" s="84" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>411</v>
@@ -38173,7 +38217,7 @@
     </row>
     <row r="102" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A102" s="106" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F102" s="85" t="s">
         <v>44</v>
@@ -38191,10 +38235,10 @@
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F103" s="85"/>
       <c r="G103" s="84" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H103" s="85" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I103" s="85">
         <v>1</v>
@@ -38262,10 +38306,10 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F109" s="183" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G109" s="183" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H109" s="183"/>
       <c r="I109" s="183"/>
@@ -38277,7 +38321,7 @@
     <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F110" s="183"/>
       <c r="G110" s="183" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H110" s="183"/>
       <c r="I110" s="183"/>
@@ -38378,10 +38422,10 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120" s="53" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>63</v>
@@ -38397,21 +38441,21 @@
     </row>
     <row r="122" spans="1:22" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A122" s="106" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F122" s="57" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G122" s="57" t="s">
         <v>611</v>
       </c>
       <c r="H122" s="57" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I122" s="57"/>
       <c r="J122" s="57"/>
       <c r="K122" s="57" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L122" s="57"/>
       <c r="M122" s="57"/>
@@ -38458,7 +38502,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="G127" s="187" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H127" s="187"/>
       <c r="I127" s="187"/>
@@ -38483,18 +38527,18 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="53" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F129" s="83" t="s">
         <v>747</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>75</v>
@@ -38518,10 +38562,10 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F132" s="5"/>
       <c r="G132" s="126" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="126"/>
@@ -38541,7 +38585,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="126"/>
       <c r="H133" s="126" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="126"/>
@@ -38562,7 +38606,7 @@
       <c r="G134" s="126"/>
       <c r="H134" s="126"/>
       <c r="I134" s="126" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J134" s="126"/>
       <c r="K134" s="126"/>
@@ -38581,7 +38625,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="126"/>
       <c r="H135" s="126" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="126"/>
@@ -38602,7 +38646,7 @@
       <c r="G136" s="126"/>
       <c r="H136" s="126"/>
       <c r="I136" s="126" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J136" s="126"/>
       <c r="K136" s="126"/>
@@ -38664,10 +38708,10 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>78</v>
@@ -38676,15 +38720,15 @@
         <v>81</v>
       </c>
       <c r="K141" s="84" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="53" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>80</v>
@@ -38698,10 +38742,10 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="53" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F143" s="84" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>89</v>
@@ -38710,15 +38754,15 @@
         <v>81</v>
       </c>
       <c r="K143" s="84" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="53" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F144" s="84" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>91</v>
@@ -38735,7 +38779,7 @@
         <v>92</v>
       </c>
       <c r="F145" s="84" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G145" s="84"/>
       <c r="H145" s="84" t="s">
@@ -38756,15 +38800,15 @@
     </row>
     <row r="146" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A146" s="106" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B146" s="78" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E146" s="84"/>
       <c r="F146" s="84"/>
       <c r="G146" s="84" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H146" s="84"/>
       <c r="I146" s="84"/>
@@ -38782,15 +38826,15 @@
     </row>
     <row r="147" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A147" s="106" t="s">
+        <v>904</v>
+      </c>
+      <c r="B147" s="78" t="s">
         <v>906</v>
-      </c>
-      <c r="B147" s="78" t="s">
-        <v>908</v>
       </c>
       <c r="E147" s="84"/>
       <c r="F147" s="84"/>
       <c r="G147" s="84" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H147" s="84"/>
       <c r="I147" s="84"/>
@@ -38808,7 +38852,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B148" s="78" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E148" s="84"/>
       <c r="F148" s="84"/>
@@ -38845,7 +38889,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="53" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.15">
@@ -39174,7 +39218,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -39186,13 +39230,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -39261,7 +39305,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -39271,7 +39315,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -39280,25 +39324,25 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J55" s="187" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.15">
@@ -39306,7 +39350,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -39317,18 +39361,18 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="K62" s="8"/>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -39337,14 +39381,14 @@
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -39357,7 +39401,7 @@
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="24"/>
@@ -39366,7 +39410,7 @@
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="5"/>
@@ -39374,7 +39418,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -39383,37 +39427,37 @@
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F75" s="5" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F76" s="5" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -39422,11 +39466,11 @@
     <row r="80" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F80" s="8"/>
       <c r="G80" s="8" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -39454,31 +39498,31 @@
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F86" s="57" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G86" s="57" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F87" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F88" s="2" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F89" s="5" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -39487,7 +39531,7 @@
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F90" s="8" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -39496,25 +39540,25 @@
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E92" s="57" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F93" s="5" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F94" s="57" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E95" s="187"/>
       <c r="F95" s="187" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G95" s="187"/>
       <c r="H95" s="187"/>
@@ -39523,7 +39567,7 @@
     <row r="96" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E96" s="187"/>
       <c r="F96" s="187" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G96" s="187"/>
       <c r="H96" s="187"/>
@@ -39531,40 +39575,40 @@
     </row>
     <row r="97" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F97" s="57" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
     </row>
     <row r="99" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E99" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F100" s="2" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G101" s="8"/>
     </row>
     <row r="102" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F102" s="57" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G102" s="57" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G103" s="57"/>
     </row>
@@ -40078,7 +40122,7 @@
     </row>
     <row r="136" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E136" s="126" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F136" s="126"/>
       <c r="G136" s="126"/>
@@ -40113,7 +40157,7 @@
     </row>
     <row r="139" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F139" s="130" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G139" s="130"/>
       <c r="H139" s="130"/>
@@ -40134,7 +40178,7 @@
     </row>
     <row r="142" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E142" s="175" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F142" s="175"/>
       <c r="G142" s="175"/>
@@ -40151,7 +40195,7 @@
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E143" s="175"/>
       <c r="F143" s="175" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G143" s="175"/>
       <c r="H143" s="175"/>
@@ -40167,7 +40211,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E144" s="175"/>
       <c r="F144" s="175" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G144" s="175"/>
       <c r="H144" s="175"/>
@@ -40183,13 +40227,13 @@
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E145" s="175"/>
       <c r="F145" s="175" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G145" s="175" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H145" s="175" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I145" s="175"/>
       <c r="J145" s="175"/>
@@ -40204,10 +40248,10 @@
       <c r="E146" s="175"/>
       <c r="F146" s="175"/>
       <c r="G146" s="175" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H146" s="175" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I146" s="175"/>
       <c r="J146" s="175"/>
@@ -40222,10 +40266,10 @@
       <c r="E147" s="175"/>
       <c r="F147" s="175"/>
       <c r="G147" s="175" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H147" s="175" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I147" s="175"/>
       <c r="J147" s="175"/>
@@ -40239,7 +40283,7 @@
     <row r="148" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E148" s="175"/>
       <c r="F148" s="175" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G148" s="175"/>
       <c r="H148" s="175"/>
@@ -40268,7 +40312,7 @@
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D151" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.15">
@@ -40321,10 +40365,10 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="78" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -41050,7 +41094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -41061,37 +41105,37 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E6" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E7" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41099,22 +41143,22 @@
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41123,12 +41167,12 @@
     <row r="18" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41150,22 +41194,22 @@
     <row r="37" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="187" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="39" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="187" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="187" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="187" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
@@ -41190,12 +41234,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -41205,23 +41249,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -41231,22 +41275,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -41274,58 +41318,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -41350,119 +41394,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -41472,17 +41516,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -41497,7 +41541,7 @@
   <dimension ref="A2:O196"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -41776,7 +41820,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -41798,7 +41842,7 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -41816,7 +41860,7 @@
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -41949,7 +41993,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="106" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -41958,7 +42002,7 @@
         <v>487</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -42496,17 +42540,17 @@
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="218" t="s">
         <v>830</v>
       </c>
-      <c r="G60" s="85" t="s">
+      <c r="G60" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="H60" s="85" t="s">
+      <c r="H60" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F61" s="8" t="s">
@@ -42541,7 +42585,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G65" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -42582,15 +42626,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="53" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="78" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>183</v>
@@ -42679,12 +42723,12 @@
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
@@ -42906,7 +42950,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>522</v>
@@ -43302,7 +43346,7 @@
       <c r="D143" s="85"/>
       <c r="E143" s="85"/>
       <c r="F143" s="85" t="s">
-        <v>837</v>
+        <v>1611</v>
       </c>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
@@ -43313,7 +43357,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" s="85"/>
       <c r="E144" s="94" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -43326,7 +43370,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>522</v>
@@ -43339,7 +43383,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D146" s="85"/>
       <c r="E146" s="83" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F146" s="84"/>
       <c r="G146" s="84"/>
@@ -43354,7 +43398,7 @@
       <c r="D147" s="85"/>
       <c r="E147" s="83"/>
       <c r="F147" s="110" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G147" s="84"/>
       <c r="H147" s="84"/>
@@ -43366,11 +43410,11 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="78" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D148" s="85"/>
       <c r="E148" s="94" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F148" s="85"/>
       <c r="G148" s="85"/>
@@ -43383,10 +43427,10 @@
       <c r="D149" s="85"/>
       <c r="E149" s="85"/>
       <c r="F149" s="85" t="s">
+        <v>842</v>
+      </c>
+      <c r="G149" s="85" t="s">
         <v>843</v>
-      </c>
-      <c r="G149" s="85" t="s">
-        <v>844</v>
       </c>
       <c r="H149" s="85"/>
       <c r="I149" s="85"/>
@@ -43395,11 +43439,11 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="53" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D150" s="85"/>
       <c r="E150" s="85" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F150" s="85"/>
       <c r="G150" s="85"/>
@@ -43412,11 +43456,11 @@
       <c r="D151" s="85"/>
       <c r="E151" s="85"/>
       <c r="F151" s="85" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G151" s="85"/>
       <c r="H151" s="121" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I151" s="85"/>
       <c r="J151" s="85"/>
@@ -43425,7 +43469,7 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D152" s="85"/>
       <c r="E152" s="94" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F152" s="85"/>
       <c r="G152" s="85"/>
@@ -43436,12 +43480,12 @@
     </row>
     <row r="153" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A153" s="106" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="85"/>
       <c r="F153" s="85" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G153" s="85"/>
       <c r="H153" s="85"/>
@@ -43451,12 +43495,12 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="78" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D154" s="85"/>
       <c r="E154" s="85"/>
       <c r="F154" s="85" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G154" s="85"/>
       <c r="H154" s="85"/>
@@ -43466,11 +43510,11 @@
     </row>
     <row r="155" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A155" s="106" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="191" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -43481,12 +43525,12 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -43498,7 +43542,7 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -43537,7 +43581,7 @@
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -44192,7 +44236,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="122" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -44219,7 +44263,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -44245,7 +44289,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -44291,59 +44335,59 @@
     </row>
     <row r="11" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D11" s="187" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E11" s="187" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="K11" s="194"/>
       <c r="L11" s="194"/>
     </row>
     <row r="12" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="187" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="K12" s="194"/>
       <c r="L12" s="194"/>
     </row>
     <row r="13" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F13" s="187" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="K13" s="194"/>
       <c r="L13" s="194"/>
     </row>
     <row r="14" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F14" s="187" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="K14" s="194"/>
       <c r="L14" s="194"/>
     </row>
     <row r="15" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F15" s="187" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="K15" s="194"/>
       <c r="L15" s="194"/>
     </row>
     <row r="16" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="187" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="K16" s="194"/>
       <c r="L16" s="194"/>
     </row>
     <row r="17" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="187" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="K17" s="194"/>
       <c r="L17" s="194"/>
     </row>
     <row r="18" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="187" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="K18" s="194"/>
       <c r="L18" s="194"/>
@@ -44367,7 +44411,7 @@
         <v>757</v>
       </c>
       <c r="E21" s="183" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -44397,13 +44441,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="53" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D41" s="85" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F41" s="94"/>
       <c r="G41" s="94"/>
@@ -44415,7 +44459,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D42" s="85"/>
       <c r="E42" s="94" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F42" s="94"/>
       <c r="G42" s="94"/>
@@ -44427,7 +44471,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D43" s="85"/>
       <c r="E43" s="124" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F43" s="94"/>
       <c r="G43" s="94"/>
@@ -44439,7 +44483,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D44" s="85"/>
       <c r="E44" s="94" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F44" s="86"/>
       <c r="G44" s="94"/>
@@ -44451,7 +44495,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D45" s="85"/>
       <c r="E45" s="124" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="86"/>
       <c r="G45" s="94"/>
@@ -44463,7 +44507,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D46" s="85"/>
       <c r="E46" s="94" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F46" s="86"/>
       <c r="G46" s="94"/>
@@ -44475,7 +44519,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D47" s="85"/>
       <c r="E47" s="124" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F47" s="86"/>
       <c r="G47" s="94"/>
@@ -44487,7 +44531,7 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D48" s="85"/>
       <c r="E48" s="94" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F48" s="86"/>
       <c r="G48" s="94"/>
@@ -44499,7 +44543,7 @@
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D49" s="85"/>
       <c r="E49" s="124" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="94"/>
@@ -44511,7 +44555,7 @@
     <row r="50" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D50" s="85"/>
       <c r="E50" s="94" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F50" s="86"/>
       <c r="G50" s="94"/>
@@ -44523,7 +44567,7 @@
     <row r="51" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D51" s="85"/>
       <c r="E51" s="124" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F51" s="86"/>
       <c r="G51" s="94"/>
@@ -44538,7 +44582,7 @@
     <row r="52" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D52" s="85"/>
       <c r="E52" s="94" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F52" s="86"/>
       <c r="G52" s="94"/>
@@ -44553,7 +44597,7 @@
     <row r="53" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D53" s="85"/>
       <c r="E53" s="94" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="94"/>
@@ -44568,7 +44612,7 @@
     <row r="54" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D54" s="85"/>
       <c r="E54" s="94" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F54" s="86"/>
       <c r="G54" s="94"/>
@@ -44583,7 +44627,7 @@
     <row r="55" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D55" s="85"/>
       <c r="E55" s="94" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F55" s="86"/>
       <c r="G55" s="94"/>
@@ -44598,7 +44642,7 @@
     <row r="56" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D56" s="85"/>
       <c r="E56" s="97" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F56" s="86"/>
       <c r="G56" s="97"/>
@@ -44613,7 +44657,7 @@
     <row r="57" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D57" s="85"/>
       <c r="E57" s="94" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F57" s="86"/>
       <c r="G57" s="94"/>
@@ -44625,7 +44669,7 @@
     <row r="58" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D58" s="85"/>
       <c r="E58" s="94" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F58" s="86"/>
       <c r="G58" s="94"/>
@@ -44654,7 +44698,7 @@
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.15">
@@ -44669,10 +44713,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D65" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F65" s="130" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G65" s="130"/>
       <c r="H65" s="130"/>
@@ -44684,7 +44728,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E67" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
@@ -44695,7 +44739,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="123"/>
@@ -44704,7 +44748,7 @@
       <c r="K69" s="123"/>
       <c r="L69" s="123"/>
       <c r="M69" s="130" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N69" s="130"/>
       <c r="O69" s="130"/>
@@ -44785,30 +44829,30 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -44824,11 +44868,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -44838,7 +44882,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -44869,7 +44913,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -44911,7 +44955,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="126" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
@@ -44919,7 +44963,7 @@
       <c r="I31" s="126"/>
       <c r="J31" s="126"/>
       <c r="L31" s="130" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M31" s="130"/>
       <c r="N31" s="130"/>
@@ -44947,7 +44991,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
@@ -45033,7 +45077,7 @@
         <v>239</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -45045,7 +45089,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
@@ -45061,11 +45105,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -45088,10 +45132,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>240</v>
@@ -45103,7 +45147,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="126" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E32" s="126"/>
       <c r="F32" s="126"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1617">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3293,10 +3293,6 @@
     <t>1_2_100,1_4_100，3_10002_1</t>
   </si>
   <si>
-    <t>101_0.1_100,102_0.1_100,103_0.1_200,0_0_100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1_2_100,1_4_100，3_10002_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4583,10 +4579,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前定义双倍经验药水为固定副本次数经验双倍，相当于玩家使用双倍经验药水后，会在接下来的固定数量的成功结算副本经验双倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tips窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6484,6 +6476,24 @@
   </si>
   <si>
     <t>置灰item表equipAttId列，equipAttr直接调用itemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_0.1_100,102_0.1_100,103_0.1_200,0_0_100</t>
+  </si>
+  <si>
+    <t>目前定义双倍经验药水为固定副本次数经验双倍，相当于玩家使用双倍经验药水后，会在接下来的固定数量的成功结算副本经验双倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取整方式：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下取整</t>
+  </si>
+  <si>
+    <t>单只怪物经验：副本总产出怪物经验*经验药加成/怪物个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7816,6 +7826,9 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7884,9 +7897,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -26367,13 +26377,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342492</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -26988,7 +26998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -27189,17 +27199,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="147"/>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="200" t="s">
         <v>697</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="201" t="s">
+      <c r="C11" s="201"/>
+      <c r="D11" s="202" t="s">
         <v>698</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="203"/>
       <c r="I11" s="148"/>
       <c r="J11" s="148"/>
       <c r="K11" s="148"/>
@@ -27214,11 +27224,11 @@
         <v>699</v>
       </c>
       <c r="C12" s="154"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
       <c r="I12" s="148"/>
       <c r="J12" s="148"/>
       <c r="K12" s="148"/>
@@ -27233,11 +27243,11 @@
         <v>700</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="205"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="148"/>
       <c r="J13" s="148"/>
       <c r="K13" s="148"/>
@@ -27252,11 +27262,11 @@
         <v>701</v>
       </c>
       <c r="C14" s="154"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="208"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
       <c r="I14" s="148"/>
       <c r="J14" s="148"/>
       <c r="K14" s="148"/>
@@ -27273,11 +27283,11 @@
       <c r="C15" s="155" t="s">
         <v>703</v>
       </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="148"/>
       <c r="J15" s="148"/>
       <c r="K15" s="148"/>
@@ -27292,11 +27302,11 @@
         <v>704</v>
       </c>
       <c r="C16" s="155"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148">
         <v>-0.15</v>
@@ -27317,11 +27327,11 @@
         <v>705</v>
       </c>
       <c r="C17" s="155"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
       <c r="K17" s="148">
@@ -27338,11 +27348,11 @@
         <v>706</v>
       </c>
       <c r="C18" s="157"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
       <c r="K18" s="148"/>
@@ -27516,7 +27526,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="148"/>
       <c r="B26" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C26" s="158">
         <v>42151</v>
@@ -27525,14 +27535,14 @@
       <c r="E26" s="85"/>
       <c r="F26" s="149"/>
       <c r="G26" s="149" t="s">
+        <v>869</v>
+      </c>
+      <c r="H26" s="148" t="s">
         <v>870</v>
-      </c>
-      <c r="H26" s="148" t="s">
-        <v>871</v>
       </c>
       <c r="I26" s="148"/>
       <c r="J26" s="148" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K26" s="148"/>
       <c r="L26" s="148"/>
@@ -27549,11 +27559,11 @@
       <c r="F27" s="149"/>
       <c r="G27" s="149"/>
       <c r="H27" s="120" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I27" s="148"/>
       <c r="J27" s="120" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K27" s="148"/>
       <c r="L27" s="148"/>
@@ -27570,7 +27580,7 @@
       <c r="F28" s="149"/>
       <c r="G28" s="149"/>
       <c r="H28" s="120" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I28" s="148"/>
       <c r="J28" s="120"/>
@@ -27589,7 +27599,7 @@
       <c r="F29" s="149"/>
       <c r="G29" s="149"/>
       <c r="H29" s="120" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I29" s="148"/>
       <c r="J29" s="120"/>
@@ -27608,7 +27618,7 @@
       <c r="F30" s="149"/>
       <c r="G30" s="149"/>
       <c r="H30" s="120" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I30" s="148"/>
       <c r="J30" s="120"/>
@@ -27627,7 +27637,7 @@
       <c r="F31" s="149"/>
       <c r="G31" s="149"/>
       <c r="H31" s="120" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I31" s="148"/>
       <c r="J31" s="120"/>
@@ -27640,7 +27650,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="148"/>
       <c r="B32" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C32" s="158">
         <v>42153</v>
@@ -27649,10 +27659,10 @@
       <c r="E32" s="84"/>
       <c r="F32" s="149"/>
       <c r="G32" s="149" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -27671,11 +27681,11 @@
       <c r="F33" s="149"/>
       <c r="G33" s="149"/>
       <c r="H33" s="120" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I33" s="148"/>
       <c r="J33" s="120" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K33" s="148"/>
       <c r="L33" s="148"/>
@@ -27692,7 +27702,7 @@
       <c r="F34" s="149"/>
       <c r="G34" s="149"/>
       <c r="H34" s="120" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I34" s="148"/>
       <c r="J34" s="120"/>
@@ -27711,7 +27721,7 @@
       <c r="F35" s="149"/>
       <c r="G35" s="149"/>
       <c r="H35" s="120" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I35" s="148"/>
       <c r="J35" s="120"/>
@@ -27730,7 +27740,7 @@
       <c r="F36" s="149"/>
       <c r="G36" s="149"/>
       <c r="H36" s="120" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I36" s="148"/>
       <c r="J36" s="120"/>
@@ -27749,7 +27759,7 @@
       <c r="F37" s="149"/>
       <c r="G37" s="149"/>
       <c r="H37" s="120" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I37" s="148"/>
       <c r="J37" s="120"/>
@@ -27768,7 +27778,7 @@
       <c r="F38" s="149"/>
       <c r="G38" s="149"/>
       <c r="H38" s="120" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I38" s="148"/>
       <c r="J38" s="120"/>
@@ -27787,12 +27797,12 @@
       <c r="F39" s="149"/>
       <c r="G39" s="149"/>
       <c r="H39" s="120" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I39" s="148"/>
       <c r="J39" s="120"/>
       <c r="K39" s="120" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L39" s="148"/>
       <c r="M39" s="148"/>
@@ -27808,13 +27818,13 @@
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
       <c r="H40" s="120" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I40" s="148"/>
       <c r="J40" s="120"/>
       <c r="K40" s="120"/>
       <c r="L40" s="120" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M40" s="148"/>
       <c r="N40" s="148"/>
@@ -27823,7 +27833,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="148"/>
       <c r="B41" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C41" s="158">
         <v>42156</v>
@@ -27833,7 +27843,7 @@
       <c r="F41" s="149"/>
       <c r="G41" s="149"/>
       <c r="H41" s="120" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I41" s="148"/>
       <c r="J41" s="120"/>
@@ -27852,7 +27862,7 @@
       <c r="F42" s="149"/>
       <c r="G42" s="149"/>
       <c r="H42" s="120" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I42" s="148"/>
       <c r="J42" s="120"/>
@@ -27871,7 +27881,7 @@
       <c r="F43" s="149"/>
       <c r="G43" s="149"/>
       <c r="H43" s="120" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I43" s="148"/>
       <c r="J43" s="120"/>
@@ -27890,7 +27900,7 @@
       <c r="F44" s="149"/>
       <c r="G44" s="149"/>
       <c r="H44" s="120" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I44" s="148"/>
       <c r="J44" s="120"/>
@@ -27909,12 +27919,12 @@
       <c r="F45" s="149"/>
       <c r="G45" s="149"/>
       <c r="H45" s="129" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I45" s="148"/>
       <c r="J45" s="120"/>
       <c r="K45" s="129" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L45" s="120"/>
       <c r="M45" s="148"/>
@@ -27930,7 +27940,7 @@
       <c r="F46" s="149"/>
       <c r="G46" s="149"/>
       <c r="H46" s="120" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I46" s="148"/>
       <c r="J46" s="120"/>
@@ -27949,7 +27959,7 @@
       <c r="F47" s="149"/>
       <c r="G47" s="149"/>
       <c r="H47" s="120" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I47" s="148"/>
       <c r="J47" s="120"/>
@@ -27968,7 +27978,7 @@
       <c r="F48" s="149"/>
       <c r="G48" s="149"/>
       <c r="H48" s="129" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I48" s="148"/>
       <c r="J48" s="120"/>
@@ -27987,7 +27997,7 @@
       <c r="F49" s="149"/>
       <c r="G49" s="149"/>
       <c r="H49" s="129" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I49" s="148"/>
       <c r="J49" s="120"/>
@@ -28006,11 +28016,11 @@
       <c r="F50" s="149"/>
       <c r="G50" s="149"/>
       <c r="H50" s="120" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I50" s="148"/>
       <c r="J50" s="58" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -28027,7 +28037,7 @@
       <c r="F51" s="149"/>
       <c r="G51" s="149"/>
       <c r="H51" s="129" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I51" s="148"/>
       <c r="J51" s="120"/>
@@ -28046,12 +28056,12 @@
       <c r="F52" s="149"/>
       <c r="G52" s="149"/>
       <c r="H52" s="120" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I52" s="148"/>
       <c r="J52" s="120"/>
       <c r="K52" s="120" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L52" s="120"/>
       <c r="M52" s="148"/>
@@ -28067,13 +28077,13 @@
       <c r="F53" s="149"/>
       <c r="G53" s="149"/>
       <c r="H53" s="120" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I53" s="148"/>
       <c r="J53" s="120"/>
       <c r="K53" s="120"/>
       <c r="L53" s="120" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M53" s="148"/>
       <c r="N53" s="148"/>
@@ -28088,7 +28098,7 @@
       <c r="F54" s="149"/>
       <c r="G54" s="149"/>
       <c r="H54" s="129" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I54" s="148"/>
       <c r="J54" s="120"/>
@@ -28107,7 +28117,7 @@
       <c r="F55" s="149"/>
       <c r="G55" s="149"/>
       <c r="H55" s="129" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I55" s="148"/>
       <c r="J55" s="120"/>
@@ -28120,7 +28130,7 @@
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="148"/>
       <c r="B56" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C56" s="158">
         <v>42163</v>
@@ -28130,7 +28140,7 @@
       <c r="F56" s="149"/>
       <c r="G56" s="149"/>
       <c r="H56" s="120" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I56" s="148"/>
       <c r="J56" s="120"/>
@@ -28149,7 +28159,7 @@
       <c r="F57" s="149"/>
       <c r="G57" s="149"/>
       <c r="H57" s="129" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I57" s="148"/>
       <c r="J57" s="120"/>
@@ -28170,12 +28180,12 @@
       <c r="F58" s="149"/>
       <c r="G58" s="149"/>
       <c r="H58" s="58" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I58" s="148"/>
       <c r="J58" s="120"/>
       <c r="K58" s="120" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="148"/>
@@ -28193,7 +28203,7 @@
       <c r="F59" s="149"/>
       <c r="G59" s="149"/>
       <c r="H59" s="166" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I59" s="148"/>
       <c r="J59" s="120"/>
@@ -28214,7 +28224,7 @@
       <c r="F60" s="149"/>
       <c r="G60" s="149"/>
       <c r="H60" s="166" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I60" s="148"/>
       <c r="J60" s="120"/>
@@ -28235,7 +28245,7 @@
       <c r="F61" s="149"/>
       <c r="G61" s="149"/>
       <c r="H61" s="166" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I61" s="148"/>
       <c r="J61" s="120"/>
@@ -28256,7 +28266,7 @@
       <c r="F62" s="149"/>
       <c r="G62" s="149"/>
       <c r="H62" s="58" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I62" s="148"/>
       <c r="J62" s="120"/>
@@ -28276,10 +28286,10 @@
       <c r="E63" s="183"/>
       <c r="F63" s="149"/>
       <c r="G63" s="149" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I63" s="148"/>
       <c r="J63" s="120"/>
@@ -28304,14 +28314,14 @@
       <c r="F64" s="149"/>
       <c r="G64" s="149"/>
       <c r="H64" s="58" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="I64" s="148"/>
       <c r="J64" s="120"/>
       <c r="K64" s="120"/>
       <c r="L64" s="120"/>
       <c r="M64" s="120" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N64" s="148"/>
       <c r="O64" s="120"/>
@@ -28326,7 +28336,7 @@
       <c r="F65" s="149"/>
       <c r="G65" s="149"/>
       <c r="H65" s="58" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="I65" s="148"/>
       <c r="J65" s="120"/>
@@ -28346,7 +28356,7 @@
       <c r="F66" s="149"/>
       <c r="G66" s="149"/>
       <c r="H66" s="58" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I66" s="148"/>
       <c r="J66" s="120"/>
@@ -28366,7 +28376,7 @@
       <c r="F67" s="149"/>
       <c r="G67" s="149"/>
       <c r="H67" s="58" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I67" s="148"/>
       <c r="J67" s="120"/>
@@ -28388,7 +28398,7 @@
       <c r="F68" s="149"/>
       <c r="G68" s="149"/>
       <c r="H68" s="58" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="I68" s="148"/>
       <c r="J68" s="120"/>
@@ -28408,7 +28418,7 @@
       <c r="F69" s="149"/>
       <c r="G69" s="149"/>
       <c r="H69" s="58" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="I69" s="148"/>
       <c r="J69" s="120"/>
@@ -28430,7 +28440,7 @@
       <c r="F70" s="149"/>
       <c r="G70" s="149"/>
       <c r="H70" s="166" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="I70" s="148"/>
       <c r="J70" s="120"/>
@@ -28598,10 +28608,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28644,7 +28654,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>736</v>
@@ -28659,7 +28669,7 @@
         <v>738</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>738</v>
@@ -28736,7 +28746,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="103" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>741</v>
@@ -28745,19 +28755,19 @@
         <v>742</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F3" s="80" t="s">
         <v>744</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>745</v>
@@ -28778,7 +28788,7 @@
         <v>749</v>
       </c>
       <c r="P3" s="103" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="Q3" s="103" t="s">
         <v>750</v>
@@ -28787,7 +28797,7 @@
         <v>751</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="T3" s="87" t="s">
         <v>752</v>
@@ -28811,7 +28821,7 @@
         <v>758</v>
       </c>
       <c r="AA3" s="111" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AB3" s="87" t="s">
         <v>743</v>
@@ -28823,7 +28833,7 @@
         <v>180</v>
       </c>
       <c r="AE3" s="111" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -28840,7 +28850,7 @@
         <v>763</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H4" s="80" t="s">
         <v>55</v>
@@ -28864,31 +28874,31 @@
         <v>767</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P4" s="185" t="s">
         <v>767</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="R4" s="80" t="s">
         <v>421</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T4" s="87" t="s">
         <v>768</v>
       </c>
       <c r="U4" s="87" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V4" s="103" t="s">
         <v>769</v>
       </c>
       <c r="W4" s="103" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="X4" s="80" t="s">
         <v>770</v>
@@ -28897,13 +28907,13 @@
         <v>771</v>
       </c>
       <c r="Z4" s="103" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA4" s="111" t="s">
         <v>772</v>
       </c>
       <c r="AB4" s="87" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="AC4" s="80" t="s">
         <v>533</v>
@@ -28912,41 +28922,41 @@
         <v>532</v>
       </c>
       <c r="AE4" s="111" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E5" s="192" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>660</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L5" s="192" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O5" s="84"/>
       <c r="P5" s="78"/>
       <c r="S5" s="83" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T5" s="83" t="s">
         <v>785</v>
@@ -28955,10 +28965,10 @@
         <v>786</v>
       </c>
       <c r="V5" s="83" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="X5" s="98" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z5" s="103" t="s">
         <v>788</v>
@@ -28971,7 +28981,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C6" s="80">
         <v>10001</v>
@@ -29014,11 +29024,11 @@
         <v>1</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="T6" s="87"/>
       <c r="U6" s="87" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V6" s="80" t="s">
         <v>787</v>
@@ -29053,7 +29063,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C7" s="80">
         <v>10002</v>
@@ -29096,7 +29106,7 @@
         <v>100</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="W7" s="80">
         <v>0</v>
@@ -29128,7 +29138,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C8" s="80">
         <v>20001</v>
@@ -29203,7 +29213,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C9" s="80">
         <v>30001</v>
@@ -29532,7 +29542,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="80" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="W13" s="80">
         <v>1</v>
@@ -29564,7 +29574,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C14" s="80">
         <v>70001</v>
@@ -29631,12 +29641,12 @@
         <v>100</v>
       </c>
       <c r="AE14" s="111">
-        <v>1001</v>
+        <v>70001</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.15">
@@ -29941,10 +29951,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -29955,7 +29965,7 @@
         <v>806</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F35" s="80" t="s">
         <v>807</v>
@@ -29987,25 +29997,25 @@
         <v>810</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I36" s="189" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J36" s="189" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K36" s="189" t="s">
         <v>1363</v>
-      </c>
-      <c r="J36" s="189" t="s">
-        <v>1364</v>
-      </c>
-      <c r="K36" s="189" t="s">
-        <v>1365</v>
       </c>
       <c r="L36" s="190" t="s">
         <v>510</v>
@@ -30019,25 +30029,25 @@
         <v>812</v>
       </c>
       <c r="E37" s="110" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H37" s="80" t="s">
         <v>813</v>
       </c>
       <c r="I37" s="189" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J37" s="189" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K37" s="189" t="s">
         <v>1360</v>
-      </c>
-      <c r="J37" s="189" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K37" s="189" t="s">
-        <v>1362</v>
       </c>
       <c r="L37" s="190" t="s">
         <v>772</v>
@@ -30045,51 +30055,52 @@
     </row>
     <row r="38" spans="1:29" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="92" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E38" s="83"/>
       <c r="F38" s="103" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I38" s="190" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J38" s="190" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K38" s="190" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L38" s="190" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AC38" s="87"/>
     </row>
     <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
-        <v>977</v>
-      </c>
-      <c r="C39" s="80">
-        <v>1001</v>
-      </c>
-      <c r="D39" s="80">
+        <v>976</v>
+      </c>
+      <c r="C39" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="80">
-        <v>1</v>
-      </c>
-      <c r="G39" s="80">
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
         <v>0</v>
       </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="190"/>
       <c r="J39" s="190"/>
       <c r="K39" s="190"/>
@@ -30098,21 +30109,22 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C40" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D40" s="80">
+      <c r="C40" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="83">
-        <v>2</v>
-      </c>
-      <c r="F40" s="80">
-        <v>2</v>
-      </c>
-      <c r="G40" s="80">
+      <c r="F40" s="2">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
         <v>0</v>
       </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="190" t="s">
         <v>814</v>
       </c>
@@ -30123,21 +30135,22 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C41" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D41" s="80">
+      <c r="C41" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="83">
-        <v>3</v>
-      </c>
-      <c r="F41" s="80">
-        <v>3</v>
-      </c>
-      <c r="G41" s="80">
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
         <v>0</v>
       </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="190" t="s">
         <v>815</v>
       </c>
@@ -30148,21 +30161,22 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C42" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D42" s="80">
+      <c r="C42" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="83">
-        <v>4</v>
-      </c>
-      <c r="F42" s="80">
-        <v>4</v>
-      </c>
-      <c r="G42" s="80">
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
         <v>0</v>
       </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="190" t="s">
         <v>815</v>
       </c>
@@ -30174,25 +30188,25 @@
     </row>
     <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
-        <v>921</v>
-      </c>
-      <c r="C43" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D43" s="80">
-        <v>2</v>
-      </c>
-      <c r="E43" s="83">
+        <v>920</v>
+      </c>
+      <c r="C43" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D43" s="2">
         <v>5</v>
       </c>
-      <c r="F43" s="80">
-        <v>5</v>
-      </c>
-      <c r="G43" s="80">
-        <v>3</v>
-      </c>
-      <c r="H43" s="80" t="s">
-        <v>816</v>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1612</v>
       </c>
       <c r="I43" s="190" t="s">
         <v>815</v>
@@ -30204,26 +30218,26 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C44" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D44" s="80">
-        <v>3</v>
-      </c>
-      <c r="E44" s="83">
+      <c r="C44" s="2">
+        <v>70001</v>
+      </c>
+      <c r="D44" s="2">
         <v>6</v>
       </c>
-      <c r="F44" s="80">
-        <v>6</v>
-      </c>
-      <c r="G44" s="80">
-        <v>3</v>
-      </c>
-      <c r="H44" s="80" t="s">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I44" s="190" t="s">
         <v>816</v>
-      </c>
-      <c r="I44" s="190" t="s">
-        <v>817</v>
       </c>
       <c r="J44" s="190"/>
       <c r="K44" s="190"/>
@@ -30231,497 +30245,188 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C45" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D45" s="80">
-        <v>3</v>
-      </c>
-      <c r="E45" s="83">
-        <v>7</v>
-      </c>
-      <c r="F45" s="80">
-        <v>7</v>
-      </c>
-      <c r="G45" s="80">
-        <v>0</v>
-      </c>
-      <c r="I45" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J45" s="190"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="190">
-        <v>0</v>
-      </c>
-    </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C46" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D46" s="80">
-        <v>4</v>
-      </c>
-      <c r="E46" s="83">
-        <v>8</v>
-      </c>
-      <c r="F46" s="80">
-        <v>8</v>
-      </c>
-      <c r="G46" s="80">
-        <v>1</v>
-      </c>
-      <c r="H46" s="80" t="s">
-        <v>816</v>
-      </c>
-      <c r="I46" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="190">
-        <v>0</v>
+      <c r="A46" s="82"/>
+      <c r="C46" s="80" t="s">
+        <v>820</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>821</v>
+      </c>
+      <c r="F46" s="96" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C47" s="105">
-        <v>1001</v>
+      <c r="C47" s="57" t="s">
+        <v>481</v>
       </c>
       <c r="D47" s="80">
-        <v>5</v>
-      </c>
-      <c r="E47" s="83">
-        <v>9</v>
-      </c>
-      <c r="F47" s="80">
-        <v>9</v>
-      </c>
-      <c r="G47" s="80">
-        <v>2</v>
-      </c>
-      <c r="H47" s="80" t="s">
-        <v>816</v>
-      </c>
-      <c r="I47" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="190">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F47" s="100" t="s">
+        <v>852</v>
+      </c>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C48" s="105">
-        <v>1001</v>
+      <c r="C48" s="76" t="s">
+        <v>482</v>
       </c>
       <c r="D48" s="80">
-        <v>6</v>
-      </c>
-      <c r="E48" s="83">
-        <v>10</v>
-      </c>
-      <c r="F48" s="80">
-        <v>10</v>
-      </c>
-      <c r="G48" s="80">
-        <v>3</v>
-      </c>
-      <c r="H48" s="80" t="s">
-        <v>816</v>
-      </c>
-      <c r="I48" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J48" s="190"/>
-      <c r="K48" s="190"/>
-      <c r="L48" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C49" s="105">
-        <v>1001</v>
+        <v>102</v>
+      </c>
+      <c r="F48" s="100" t="s">
+        <v>853</v>
+      </c>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C49" s="76" t="s">
+        <v>485</v>
       </c>
       <c r="D49" s="80">
-        <v>6</v>
-      </c>
-      <c r="E49" s="83">
-        <v>11</v>
-      </c>
-      <c r="F49" s="80">
-        <v>11</v>
-      </c>
-      <c r="G49" s="80">
-        <v>0</v>
-      </c>
-      <c r="I49" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J49" s="190"/>
-      <c r="K49" s="190"/>
-      <c r="L49" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C50" s="105">
-        <v>1001</v>
+        <v>103</v>
+      </c>
+      <c r="F49" s="100" t="s">
+        <v>854</v>
+      </c>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C50" s="57" t="s">
+        <v>487</v>
       </c>
       <c r="D50" s="80">
-        <v>6</v>
-      </c>
-      <c r="E50" s="83">
-        <v>12</v>
-      </c>
-      <c r="F50" s="80">
-        <v>12</v>
-      </c>
-      <c r="G50" s="80">
-        <v>0</v>
-      </c>
-      <c r="I50" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J50" s="190"/>
-      <c r="K50" s="190"/>
-      <c r="L50" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C51" s="105">
-        <v>1001</v>
+        <v>104</v>
+      </c>
+      <c r="F50" s="100" t="s">
+        <v>855</v>
+      </c>
+      <c r="H50" s="93"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C51" s="76" t="s">
+        <v>488</v>
       </c>
       <c r="D51" s="80">
-        <v>6</v>
-      </c>
-      <c r="E51" s="83">
-        <v>13</v>
-      </c>
-      <c r="F51" s="80">
-        <v>13</v>
-      </c>
-      <c r="G51" s="80">
-        <v>0</v>
-      </c>
-      <c r="I51" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J51" s="190"/>
-      <c r="K51" s="190"/>
-      <c r="L51" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C52" s="105">
-        <v>1001</v>
+        <v>105</v>
+      </c>
+      <c r="F51" s="100" t="s">
+        <v>856</v>
+      </c>
+      <c r="H51" s="93"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C52" s="57" t="s">
+        <v>489</v>
       </c>
       <c r="D52" s="80">
-        <v>6</v>
-      </c>
-      <c r="E52" s="83">
-        <v>14</v>
-      </c>
-      <c r="F52" s="80">
-        <v>14</v>
-      </c>
-      <c r="G52" s="80">
-        <v>0</v>
-      </c>
-      <c r="I52" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J52" s="190"/>
-      <c r="K52" s="190"/>
-      <c r="L52" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C53" s="105">
-        <v>1001</v>
+        <v>106</v>
+      </c>
+      <c r="F52" s="100" t="s">
+        <v>857</v>
+      </c>
+      <c r="H52" s="93"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C53" s="57" t="s">
+        <v>490</v>
       </c>
       <c r="D53" s="80">
-        <v>6</v>
-      </c>
-      <c r="E53" s="83">
-        <v>15</v>
-      </c>
-      <c r="F53" s="80">
-        <v>15</v>
-      </c>
-      <c r="G53" s="80">
-        <v>0</v>
-      </c>
-      <c r="I53" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J53" s="190"/>
-      <c r="K53" s="190"/>
-      <c r="L53" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C54" s="105">
-        <v>1001</v>
+        <v>107</v>
+      </c>
+      <c r="F53" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="H53" s="93"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C54" s="75" t="s">
+        <v>491</v>
       </c>
       <c r="D54" s="80">
-        <v>6</v>
-      </c>
-      <c r="E54" s="83">
-        <v>16</v>
-      </c>
-      <c r="F54" s="80">
-        <v>16</v>
-      </c>
-      <c r="G54" s="80">
-        <v>0</v>
-      </c>
-      <c r="I54" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J54" s="190"/>
-      <c r="K54" s="190"/>
-      <c r="L54" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C55" s="105">
-        <v>1001</v>
+        <v>108</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>859</v>
+      </c>
+      <c r="H54" s="93"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C55" s="75" t="s">
+        <v>492</v>
       </c>
       <c r="D55" s="80">
-        <v>6</v>
-      </c>
-      <c r="E55" s="83">
-        <v>17</v>
-      </c>
-      <c r="F55" s="80">
-        <v>17</v>
-      </c>
-      <c r="G55" s="80">
-        <v>0</v>
-      </c>
-      <c r="I55" s="190" t="s">
-        <v>815</v>
-      </c>
-      <c r="J55" s="190"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C56" s="105">
-        <v>1001</v>
-      </c>
-      <c r="D56" s="80">
-        <v>6</v>
-      </c>
-      <c r="E56" s="83">
-        <v>18</v>
-      </c>
-      <c r="F56" s="80">
-        <v>18</v>
-      </c>
-      <c r="G56" s="80">
-        <v>0</v>
-      </c>
-      <c r="I56" s="190" t="s">
-        <v>817</v>
-      </c>
-      <c r="J56" s="190"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="82"/>
-      <c r="C58" s="80" t="s">
-        <v>821</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>822</v>
-      </c>
-      <c r="F58" s="96" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C59" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="D59" s="80">
-        <v>101</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F55" s="100" t="s">
+        <v>856</v>
+      </c>
+      <c r="H55" s="93"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="100" t="s">
+        <v>860</v>
+      </c>
+      <c r="H56" s="93"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="H57" s="93"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F58" s="100" t="s">
+        <v>861</v>
+      </c>
+      <c r="H58" s="93"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F59" s="100" t="s">
-        <v>853</v>
-      </c>
-      <c r="G59" s="93"/>
+        <v>862</v>
+      </c>
       <c r="H59" s="93"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C60" s="76" t="s">
-        <v>482</v>
-      </c>
-      <c r="D60" s="80">
-        <v>102</v>
-      </c>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F60" s="100" t="s">
-        <v>854</v>
-      </c>
-      <c r="G60" s="93"/>
+        <v>863</v>
+      </c>
       <c r="H60" s="93"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C61" s="76" t="s">
-        <v>485</v>
-      </c>
-      <c r="D61" s="80">
-        <v>103</v>
-      </c>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F61" s="100" t="s">
-        <v>855</v>
-      </c>
-      <c r="G61" s="93"/>
+        <v>961</v>
+      </c>
       <c r="H61" s="93"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C62" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="D62" s="80">
-        <v>104</v>
-      </c>
-      <c r="F62" s="100" t="s">
-        <v>856</v>
-      </c>
-      <c r="H62" s="93"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C63" s="76" t="s">
-        <v>488</v>
-      </c>
-      <c r="D63" s="80">
-        <v>105</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="82" t="s">
+        <v>921</v>
+      </c>
+      <c r="F62" s="101" t="s">
+        <v>866</v>
+      </c>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="82" t="s">
+        <v>922</v>
       </c>
       <c r="F63" s="100" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="H63" s="93"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C64" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="D64" s="80">
-        <v>106</v>
-      </c>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F64" s="100" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="H64" s="93"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C65" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="D65" s="80">
-        <v>107</v>
-      </c>
-      <c r="F65" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="H65" s="93"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C66" s="75" t="s">
-        <v>491</v>
-      </c>
-      <c r="D66" s="80">
-        <v>108</v>
-      </c>
-      <c r="F66" s="100" t="s">
-        <v>860</v>
-      </c>
-      <c r="H66" s="93"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C67" s="75" t="s">
-        <v>492</v>
-      </c>
-      <c r="D67" s="80">
-        <v>109</v>
-      </c>
-      <c r="F67" s="100" t="s">
-        <v>857</v>
-      </c>
-      <c r="H67" s="93"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F68" s="100" t="s">
-        <v>861</v>
-      </c>
-      <c r="H68" s="93"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F69" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="H69" s="93"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F70" s="100" t="s">
-        <v>862</v>
-      </c>
-      <c r="H70" s="93"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F71" s="100" t="s">
-        <v>863</v>
-      </c>
-      <c r="H71" s="93"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F72" s="100" t="s">
-        <v>864</v>
-      </c>
-      <c r="H72" s="93"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F73" s="100" t="s">
-        <v>962</v>
-      </c>
-      <c r="H73" s="93"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="82" t="s">
-        <v>922</v>
-      </c>
-      <c r="F74" s="101" t="s">
-        <v>867</v>
-      </c>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="82" t="s">
-        <v>923</v>
-      </c>
-      <c r="F75" s="100" t="s">
-        <v>865</v>
-      </c>
-      <c r="H75" s="93"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F76" s="100" t="s">
-        <v>866</v>
-      </c>
-      <c r="H76" s="93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30729,15 +30434,16 @@
     <hyperlink ref="X5" location="配置表结构!D59" display="逻辑见下"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AB133"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:K133"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="N27" sqref="M27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -30745,62 +30451,62 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>737</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>737</v>
@@ -30815,78 +30521,75 @@
         <v>737</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>745</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>102</v>
@@ -30895,245 +30598,239 @@
         <v>427</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AC3" s="2" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>765</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>1475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>1477</v>
       </c>
       <c r="C8" s="186" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
         <v>1480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -31141,48 +30838,48 @@
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -31190,22 +30887,22 @@
         <v>745</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>765</v>
@@ -31213,115 +30910,115 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C59" s="2" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="2" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -31337,7 +31034,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
@@ -31353,7 +31050,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -31369,7 +31066,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -31385,158 +31082,158 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C76" s="95" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C77" s="95" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="J77" s="95"/>
       <c r="K77" s="95"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C78" s="95" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J78" s="95"/>
       <c r="K78" s="95"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C79" s="95" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J79" s="87"/>
       <c r="K79" s="95"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C80" s="95" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="J80" s="87"/>
       <c r="K80" s="95"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C81" s="95" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J81" s="87"/>
       <c r="K81" s="95"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C82" s="95" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="J82" s="87"/>
       <c r="K82" s="95"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C83" s="95" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J83" s="87"/>
       <c r="K83" s="95"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C84" s="95" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="J84" s="87"/>
       <c r="K84" s="95"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C85" s="95" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J85" s="87"/>
       <c r="K85" s="95"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C86" s="95" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="J86" s="87"/>
       <c r="K86" s="95"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C87" s="95" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J87" s="87"/>
       <c r="K87" s="95"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C88" s="95" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="J88" s="87"/>
       <c r="K88" s="95"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C89" s="95" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J89" s="87"/>
       <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C90" s="95" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="J90" s="87"/>
       <c r="K90" s="95"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C91" s="184" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="J91" s="87"/>
       <c r="K91" s="184"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C92" s="95" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J92" s="87"/>
       <c r="K92" s="95"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C93" s="95" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J93" s="87"/>
       <c r="K93" s="95"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="2" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="D98" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -31545,16 +31242,16 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="D101" s="2" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -31562,22 +31259,22 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -31586,16 +31283,16 @@
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="2" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="D108" s="2" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -31603,19 +31300,19 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="D111" s="2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -31624,16 +31321,16 @@
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="D114" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -31641,22 +31338,22 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="D118" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
@@ -31665,16 +31362,16 @@
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
@@ -31682,25 +31379,25 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C125" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D126" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -31708,15 +31405,15 @@
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C129" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.15">
@@ -31724,10 +31421,10 @@
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C132" s="8" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -31740,7 +31437,7 @@
     <row r="133" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -31775,51 +31472,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="138" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1" s="139" t="s">
         <v>1043</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="C1" s="139" t="s">
         <v>1044</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="D1" s="139" t="s">
         <v>1045</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="E1" s="182" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H1" s="140" t="s">
         <v>1046</v>
       </c>
-      <c r="E1" s="182" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H1" s="140" t="s">
+      <c r="I1" s="140" t="s">
         <v>1047</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="J1" s="140" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K1" s="140" t="s">
         <v>1048</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K1" s="140" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="141" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C2" s="141" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="D2" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="142">
@@ -31835,16 +31532,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="141" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="141" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="141" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E3" s="141"/>
       <c r="F3" s="142">
@@ -31860,16 +31557,16 @@
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="144" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D4" s="144" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E4" s="144"/>
       <c r="F4" s="145">
@@ -31919,27 +31616,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="176" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
       <c r="D1" s="162" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E1" s="162" t="s">
         <v>1095</v>
-      </c>
-      <c r="E1" s="162" t="s">
-        <v>1096</v>
       </c>
       <c r="F1" s="162"/>
       <c r="G1" s="162" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="162" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C2" s="162" t="s">
         <v>1076</v>
-      </c>
-      <c r="C2" s="162" t="s">
-        <v>1077</v>
       </c>
       <c r="D2" s="162">
         <v>2</v>
@@ -31949,7 +31646,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="162"/>
       <c r="C3" s="162" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D3" s="162">
         <v>1</v>
@@ -31959,7 +31656,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="162"/>
       <c r="C4" s="162" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="162">
         <v>1</v>
@@ -31969,7 +31666,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="162"/>
       <c r="C5" s="162" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D5" s="162">
         <v>2</v>
@@ -31979,7 +31676,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="162"/>
       <c r="C6" s="162" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D6" s="162">
         <v>1</v>
@@ -31989,7 +31686,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
       <c r="C7" s="162" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D7" s="162">
         <v>4</v>
@@ -31999,7 +31696,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="162"/>
       <c r="C8" s="162" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D8" s="162">
         <v>5</v>
@@ -32009,7 +31706,7 @@
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="162"/>
       <c r="C9" s="177" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D9" s="177">
         <v>4</v>
@@ -32019,20 +31716,20 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="162"/>
       <c r="C10" s="162" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D10" s="162">
         <v>0.5</v>
       </c>
       <c r="E10" s="162"/>
       <c r="G10" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="162"/>
       <c r="C11" s="176" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D11" s="176">
         <v>20.5</v>
@@ -32047,7 +31744,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="162" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
@@ -32056,37 +31753,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="162"/>
       <c r="C13" s="162" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>1088</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>1089</v>
       </c>
       <c r="E13" s="162"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="162"/>
       <c r="C14" s="162" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D14" s="162" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E14" s="162"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="162"/>
       <c r="C15" s="162" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E15" s="162"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="162"/>
       <c r="C16" s="162" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="162">
         <v>2</v>
@@ -32096,7 +31793,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="162"/>
       <c r="C17" s="162" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D17" s="162">
         <v>2</v>
@@ -32105,7 +31802,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="176" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D18" s="176">
         <v>4</v>
@@ -32116,15 +31813,15 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="161" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -32132,7 +31829,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -32140,7 +31837,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -32148,7 +31845,7 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="176" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D24" s="176">
         <v>3</v>
@@ -32164,7 +31861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -32175,139 +31872,139 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H2" s="2" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I4" s="2" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J6" s="2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11" s="2" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="2" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="2" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="2" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="2" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H45" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="2" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I49" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I50" s="2" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I51" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I52" s="2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="M52" s="188"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I56" s="2" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I57" s="2" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
   </sheetData>
@@ -32332,7 +32029,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -32340,7 +32037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -32356,7 +32053,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -32364,7 +32061,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -32449,7 +32146,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -32457,23 +32154,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -32481,7 +32178,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -32501,13 +32198,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="91"/>
       <c r="B19" s="91" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
       <c r="E19" s="91"/>
       <c r="F19" s="174" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G19" s="91"/>
     </row>
@@ -32539,42 +32236,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>1109</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>1112</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="167" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32596,60 +32293,60 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C66" s="179" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="67" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="179" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E68" s="179" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="69" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="179" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E70" s="179" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="71" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="179" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E72" s="179" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="73" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32657,7 +32354,7 @@
     <row r="75" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="180" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32674,20 +32371,20 @@
     <row r="88" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="179" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J94" s="179" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J97" s="181" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="98" spans="10:10" s="179" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32750,45 +32447,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="216" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="216" t="s">
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="217" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="217"/>
+      <c r="AA2" s="218"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="212" t="s">
+      <c r="AC2" s="213" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="212"/>
+      <c r="AD2" s="213"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -32978,7 +32675,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -33044,7 +32741,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="214"/>
+      <c r="A6" s="215"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -33101,7 +32798,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="214"/>
+      <c r="A7" s="215"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -33119,7 +32816,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="214"/>
+      <c r="A8" s="215"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -33131,7 +32828,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="214"/>
+      <c r="A9" s="215"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -33211,7 +32908,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -33233,7 +32930,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="214"/>
+      <c r="A16" s="215"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -33361,7 +33058,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -33397,7 +33094,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="214"/>
+      <c r="A25" s="215"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -33476,7 +33173,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -33490,13 +33187,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="213" t="s">
+      <c r="F31" s="214" t="s">
         <v>641</v>
       </c>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -33637,7 +33334,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -33909,7 +33606,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>281</v>
@@ -33953,7 +33650,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -34138,7 +33835,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -34204,7 +33901,7 @@
         <v>458</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -34227,7 +33924,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -34243,7 +33940,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -34271,7 +33968,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -34410,7 +34107,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34719,7 +34416,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>278</v>
@@ -35697,7 +35394,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="130" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G160" s="130"/>
       <c r="H160" s="130"/>
@@ -35734,7 +35431,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="126" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G165" s="126"/>
       <c r="H165" s="126"/>
@@ -35765,42 +35462,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -35808,7 +35505,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -35816,22 +35513,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="170" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G28" s="170"/>
       <c r="H28" s="170"/>
@@ -35847,7 +35544,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -35858,22 +35555,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -35907,7 +35604,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -35917,7 +35614,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -35932,25 +35629,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -35961,69 +35658,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I53" s="164" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="J53" s="164" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="K53" s="164" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I54" s="165">
         <v>1</v>
       </c>
       <c r="J54" s="165" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K54" s="172" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="168" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I55" s="165">
         <v>2</v>
       </c>
       <c r="J55" s="165" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K55" s="173" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -36031,10 +35728,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="165" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="K56" s="173" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -36042,15 +35739,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="165" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="K57" s="165" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="170" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I58" s="171"/>
       <c r="J58" s="171"/>
@@ -36070,7 +35767,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="170"/>
       <c r="I59" s="171" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="J59" s="171"/>
       <c r="K59" s="170"/>
@@ -36092,18 +35789,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="169" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -36117,46 +35814,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -36167,129 +35864,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M92" s="5" t="s">
         <v>1200</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -36297,7 +35994,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -36305,7 +36002,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -36313,7 +36010,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -36321,196 +36018,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G101" s="170" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H101" s="170"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -36544,83 +36241,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -36648,42 +36345,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -36693,77 +36390,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -36783,149 +36480,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -36935,17 +36632,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -37031,10 +36728,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="209" t="s">
+      <c r="L12" s="210" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="209"/>
+      <c r="M12" s="210"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -37056,7 +36753,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -37077,7 +36774,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="84" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -37100,7 +36797,7 @@
         <v>455</v>
       </c>
       <c r="M15" s="84" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -37145,7 +36842,7 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H18" s="66" t="s">
         <v>667</v>
@@ -37160,7 +36857,7 @@
         <v>658</v>
       </c>
       <c r="L18" s="84" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -37179,11 +36876,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="84" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -37198,7 +36895,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="84"/>
       <c r="E21" s="84" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -37214,7 +36911,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="84"/>
       <c r="E22" s="123" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F22" s="123"/>
       <c r="G22" s="108"/>
@@ -37230,7 +36927,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="84"/>
       <c r="E23" s="84" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="108"/>
@@ -37246,7 +36943,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="108"/>
@@ -37259,7 +36956,7 @@
       <c r="N24" s="84"/>
       <c r="O24" s="84"/>
       <c r="R24" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -37314,10 +37011,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G29" s="130" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H29" s="146"/>
       <c r="I29" s="146"/>
@@ -37330,7 +37027,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="126" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G30" s="126"/>
       <c r="H30" s="127"/>
@@ -37344,7 +37041,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="126"/>
       <c r="G31" s="126" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H31" s="126"/>
       <c r="I31" s="126"/>
@@ -37358,7 +37055,7 @@
       <c r="F32" s="126"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I32" s="127"/>
       <c r="J32" s="127"/>
@@ -37372,7 +37069,7 @@
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J33" s="126"/>
       <c r="K33" s="126"/>
@@ -37425,7 +37122,7 @@
       <c r="H37" s="126"/>
       <c r="I37" s="126"/>
       <c r="J37" s="126" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K37" s="126"/>
       <c r="L37" s="126"/>
@@ -37451,7 +37148,7 @@
       <c r="H39" s="126"/>
       <c r="I39" s="126"/>
       <c r="J39" s="126" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K39" s="126"/>
       <c r="L39" s="126"/>
@@ -37462,7 +37159,7 @@
       <c r="F40" s="126"/>
       <c r="G40" s="126"/>
       <c r="H40" s="126" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I40" s="126"/>
       <c r="J40" s="126"/>
@@ -37487,7 +37184,7 @@
       <c r="G42" s="126"/>
       <c r="H42" s="126"/>
       <c r="I42" s="126" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J42" s="126"/>
       <c r="K42" s="126"/>
@@ -37525,7 +37222,7 @@
       <c r="F45" s="126"/>
       <c r="G45" s="126"/>
       <c r="H45" s="126" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="126"/>
@@ -37830,7 +37527,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -37859,7 +37556,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -38178,7 +37875,7 @@
         <v>40</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
@@ -38191,7 +37888,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="G100" s="187" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H100" s="187"/>
       <c r="I100" s="187"/>
@@ -38209,7 +37906,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F101" s="84" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>411</v>
@@ -38217,7 +37914,7 @@
     </row>
     <row r="102" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A102" s="106" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F102" s="85" t="s">
         <v>44</v>
@@ -38229,16 +37926,16 @@
         <v>53</v>
       </c>
       <c r="I102" s="85" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F103" s="85"/>
       <c r="G103" s="84" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H103" s="85" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I103" s="85">
         <v>1</v>
@@ -38259,10 +37956,10 @@
     <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F105" s="85"/>
       <c r="G105" s="85" t="s">
+        <v>823</v>
+      </c>
+      <c r="H105" s="85" t="s">
         <v>824</v>
-      </c>
-      <c r="H105" s="85" t="s">
-        <v>825</v>
       </c>
       <c r="I105" s="85">
         <v>3</v>
@@ -38306,10 +38003,10 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F109" s="183" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G109" s="183" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H109" s="183"/>
       <c r="I109" s="183"/>
@@ -38321,7 +38018,7 @@
     <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F110" s="183"/>
       <c r="G110" s="183" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H110" s="183"/>
       <c r="I110" s="183"/>
@@ -38422,10 +38119,10 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120" s="53" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>63</v>
@@ -38441,21 +38138,21 @@
     </row>
     <row r="122" spans="1:22" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A122" s="106" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F122" s="57" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G122" s="57" t="s">
         <v>611</v>
       </c>
       <c r="H122" s="57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I122" s="57"/>
       <c r="J122" s="57"/>
       <c r="K122" s="57" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L122" s="57"/>
       <c r="M122" s="57"/>
@@ -38502,7 +38199,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="G127" s="187" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H127" s="187"/>
       <c r="I127" s="187"/>
@@ -38527,18 +38224,18 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="53" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F129" s="83" t="s">
         <v>747</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="78" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>75</v>
@@ -38562,10 +38259,10 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F132" s="5"/>
       <c r="G132" s="126" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H132" s="126" t="s">
         <v>1008</v>
-      </c>
-      <c r="H132" s="126" t="s">
-        <v>1009</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="126"/>
@@ -38585,7 +38282,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="126"/>
       <c r="H133" s="126" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="126"/>
@@ -38606,7 +38303,7 @@
       <c r="G134" s="126"/>
       <c r="H134" s="126"/>
       <c r="I134" s="126" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J134" s="126"/>
       <c r="K134" s="126"/>
@@ -38625,7 +38322,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="126"/>
       <c r="H135" s="126" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="126"/>
@@ -38646,7 +38343,7 @@
       <c r="G136" s="126"/>
       <c r="H136" s="126"/>
       <c r="I136" s="126" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J136" s="126"/>
       <c r="K136" s="126"/>
@@ -38708,10 +38405,10 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>78</v>
@@ -38720,15 +38417,15 @@
         <v>81</v>
       </c>
       <c r="K141" s="84" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="53" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>80</v>
@@ -38737,15 +38434,15 @@
         <v>82</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="53" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F143" s="84" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>89</v>
@@ -38754,15 +38451,15 @@
         <v>81</v>
       </c>
       <c r="K143" s="84" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="53" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F144" s="84" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>91</v>
@@ -38771,7 +38468,7 @@
         <v>82</v>
       </c>
       <c r="K144" s="85" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
@@ -38779,11 +38476,11 @@
         <v>92</v>
       </c>
       <c r="F145" s="84" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G145" s="84"/>
       <c r="H145" s="84" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I145" s="84"/>
       <c r="J145" s="84"/>
@@ -38800,15 +38497,15 @@
     </row>
     <row r="146" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A146" s="106" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B146" s="78" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E146" s="84"/>
       <c r="F146" s="84"/>
       <c r="G146" s="84" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H146" s="84"/>
       <c r="I146" s="84"/>
@@ -38826,15 +38523,15 @@
     </row>
     <row r="147" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A147" s="106" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B147" s="78" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E147" s="84"/>
       <c r="F147" s="84"/>
       <c r="G147" s="84" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H147" s="84"/>
       <c r="I147" s="84"/>
@@ -38852,7 +38549,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B148" s="78" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E148" s="84"/>
       <c r="F148" s="84"/>
@@ -38889,7 +38586,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="53" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.15">
@@ -39218,7 +38915,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -39230,13 +38927,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -39305,7 +39002,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -39315,7 +39012,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -39324,25 +39021,25 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J55" s="187" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.15">
@@ -39350,7 +39047,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -39361,18 +39058,18 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="K62" s="8"/>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -39381,14 +39078,14 @@
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -39401,7 +39098,7 @@
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="24"/>
@@ -39410,7 +39107,7 @@
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="5"/>
@@ -39418,7 +39115,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -39427,37 +39124,37 @@
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F75" s="5" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F76" s="5" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -39466,11 +39163,11 @@
     <row r="80" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F80" s="8"/>
       <c r="G80" s="8" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -39498,31 +39195,31 @@
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F86" s="57" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G86" s="57" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F87" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F88" s="2" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F89" s="5" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -39531,7 +39228,7 @@
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F90" s="8" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -39540,25 +39237,25 @@
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E92" s="57" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F93" s="5" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F94" s="57" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E95" s="187"/>
       <c r="F95" s="187" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="G95" s="187"/>
       <c r="H95" s="187"/>
@@ -39567,7 +39264,7 @@
     <row r="96" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E96" s="187"/>
       <c r="F96" s="187" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G96" s="187"/>
       <c r="H96" s="187"/>
@@ -39575,40 +39272,40 @@
     </row>
     <row r="97" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F97" s="57" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
     </row>
     <row r="99" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E99" s="2" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F100" s="2" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G101" s="8"/>
     </row>
     <row r="102" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F102" s="57" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G102" s="57" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G103" s="57"/>
     </row>
@@ -40122,7 +39819,7 @@
     </row>
     <row r="136" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E136" s="126" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F136" s="126"/>
       <c r="G136" s="126"/>
@@ -40157,7 +39854,7 @@
     </row>
     <row r="139" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F139" s="130" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G139" s="130"/>
       <c r="H139" s="130"/>
@@ -40178,7 +39875,7 @@
     </row>
     <row r="142" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E142" s="175" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F142" s="175"/>
       <c r="G142" s="175"/>
@@ -40195,7 +39892,7 @@
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E143" s="175"/>
       <c r="F143" s="175" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G143" s="175"/>
       <c r="H143" s="175"/>
@@ -40211,7 +39908,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E144" s="175"/>
       <c r="F144" s="175" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G144" s="175"/>
       <c r="H144" s="175"/>
@@ -40227,13 +39924,13 @@
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E145" s="175"/>
       <c r="F145" s="175" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G145" s="175" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H145" s="175" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I145" s="175"/>
       <c r="J145" s="175"/>
@@ -40248,10 +39945,10 @@
       <c r="E146" s="175"/>
       <c r="F146" s="175"/>
       <c r="G146" s="175" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H146" s="175" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I146" s="175"/>
       <c r="J146" s="175"/>
@@ -40266,10 +39963,10 @@
       <c r="E147" s="175"/>
       <c r="F147" s="175"/>
       <c r="G147" s="175" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H147" s="175" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I147" s="175"/>
       <c r="J147" s="175"/>
@@ -40283,7 +39980,7 @@
     <row r="148" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E148" s="175"/>
       <c r="F148" s="175" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G148" s="175"/>
       <c r="H148" s="175"/>
@@ -40312,7 +40009,7 @@
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D151" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.15">
@@ -40365,10 +40062,10 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -41105,37 +40802,37 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E6" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E7" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41143,22 +40840,22 @@
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41167,12 +40864,12 @@
     <row r="18" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="21" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41194,22 +40891,22 @@
     <row r="37" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="187" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="39" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="187" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="187" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="187" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -41234,12 +40931,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -41249,23 +40946,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -41275,22 +40972,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -41318,58 +41015,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -41394,119 +41091,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -41516,17 +41213,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -41540,7 +41237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O196"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
@@ -41820,7 +41517,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -41842,7 +41539,7 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -41860,7 +41557,7 @@
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
@@ -41993,7 +41690,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="106" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -42002,7 +41699,7 @@
         <v>487</v>
       </c>
       <c r="H27" s="109" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -42540,14 +42237,14 @@
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="F60" s="218" t="s">
-        <v>830</v>
+      <c r="F60" s="195" t="s">
+        <v>829</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>404</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -42580,12 +42277,12 @@
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F64" s="95" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G65" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -42626,15 +42323,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="F70" s="84" t="s">
         <v>957</v>
-      </c>
-      <c r="F70" s="84" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="78" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>183</v>
@@ -42723,17 +42420,17 @@
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.15">
@@ -42950,7 +42647,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>522</v>
@@ -43320,7 +43017,7 @@
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="85"/>
@@ -43346,7 +43043,7 @@
       <c r="D143" s="85"/>
       <c r="E143" s="85"/>
       <c r="F143" s="85" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G143" s="85"/>
       <c r="H143" s="85"/>
@@ -43357,7 +43054,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" s="85"/>
       <c r="E144" s="94" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F144" s="85"/>
       <c r="G144" s="85"/>
@@ -43370,7 +43067,7 @@
       <c r="D145" s="85"/>
       <c r="E145" s="94"/>
       <c r="F145" s="85" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G145" s="85" t="s">
         <v>522</v>
@@ -43383,7 +43080,7 @@
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D146" s="85"/>
       <c r="E146" s="83" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F146" s="84"/>
       <c r="G146" s="84"/>
@@ -43398,7 +43095,7 @@
       <c r="D147" s="85"/>
       <c r="E147" s="83"/>
       <c r="F147" s="110" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G147" s="84"/>
       <c r="H147" s="84"/>
@@ -43410,11 +43107,11 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="78" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D148" s="85"/>
       <c r="E148" s="94" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F148" s="85"/>
       <c r="G148" s="85"/>
@@ -43427,10 +43124,10 @@
       <c r="D149" s="85"/>
       <c r="E149" s="85"/>
       <c r="F149" s="85" t="s">
+        <v>841</v>
+      </c>
+      <c r="G149" s="85" t="s">
         <v>842</v>
-      </c>
-      <c r="G149" s="85" t="s">
-        <v>843</v>
       </c>
       <c r="H149" s="85"/>
       <c r="I149" s="85"/>
@@ -43439,11 +43136,11 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="53" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D150" s="85"/>
       <c r="E150" s="85" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F150" s="85"/>
       <c r="G150" s="85"/>
@@ -43456,11 +43153,11 @@
       <c r="D151" s="85"/>
       <c r="E151" s="85"/>
       <c r="F151" s="85" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G151" s="85"/>
       <c r="H151" s="121" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I151" s="85"/>
       <c r="J151" s="85"/>
@@ -43469,7 +43166,7 @@
     <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D152" s="85"/>
       <c r="E152" s="94" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F152" s="85"/>
       <c r="G152" s="85"/>
@@ -43480,12 +43177,12 @@
     </row>
     <row r="153" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A153" s="106" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D153" s="85"/>
       <c r="E153" s="85"/>
       <c r="F153" s="85" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G153" s="85"/>
       <c r="H153" s="85"/>
@@ -43495,12 +43192,12 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="78" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D154" s="85"/>
       <c r="E154" s="85"/>
       <c r="F154" s="85" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G154" s="85"/>
       <c r="H154" s="85"/>
@@ -43510,11 +43207,11 @@
     </row>
     <row r="155" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A155" s="106" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="191" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -43525,12 +43222,12 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="78" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -43542,7 +43239,7 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -43581,7 +43278,7 @@
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
@@ -43650,10 +43347,10 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="210" t="s">
+      <c r="E164" s="211" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="211"/>
+      <c r="F164" s="212"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -44202,10 +43899,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y72"/>
+  <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -44236,7 +43933,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="122" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
@@ -44263,7 +43960,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="122"/>
       <c r="E6" s="122" t="s">
-        <v>1126</v>
+        <v>1613</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -44289,7 +43986,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="122"/>
       <c r="E7" s="122" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
@@ -44313,179 +44010,221 @@
       <c r="Y7" s="122"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="122"/>
+      <c r="E8" s="122" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="D9" s="2" t="s">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="E10" s="2" t="s">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="E13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-    </row>
-    <row r="11" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="187" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E11" s="187" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-    </row>
-    <row r="12" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="187" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-    </row>
-    <row r="13" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="187" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
+      <c r="G13" s="5"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
     </row>
     <row r="14" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="187" t="s">
-        <v>1600</v>
+      <c r="D14" s="187" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E14" s="187" t="s">
+        <v>1595</v>
       </c>
       <c r="K14" s="194"/>
       <c r="L14" s="194"/>
     </row>
     <row r="15" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="187" t="s">
-        <v>1601</v>
+      <c r="E15" s="187" t="s">
+        <v>1596</v>
       </c>
       <c r="K15" s="194"/>
       <c r="L15" s="194"/>
     </row>
     <row r="16" spans="2:25" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="187" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="K16" s="194"/>
       <c r="L16" s="194"/>
     </row>
     <row r="17" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="187" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="K17" s="194"/>
       <c r="L17" s="194"/>
     </row>
     <row r="18" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="187" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="K18" s="194"/>
       <c r="L18" s="194"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="G19" s="5"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D20" s="110" t="s">
+    <row r="19" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="187" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+    </row>
+    <row r="20" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="187" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+    </row>
+    <row r="21" spans="4:12" s="187" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="187" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="G22" s="5"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D23" s="110" t="s">
         <v>756</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E23" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D21" s="110" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D24" s="110" t="s">
         <v>757</v>
       </c>
-      <c r="E21" s="183" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D36" s="2" t="s">
+      <c r="E24" s="183" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D39" s="2" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E37" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E38" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E39" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E40" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E41" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E42" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E43" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="53" t="s">
-        <v>912</v>
-      </c>
-      <c r="D41" s="85" t="s">
-        <v>963</v>
-      </c>
-      <c r="E41" s="124" t="s">
-        <v>998</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D42" s="85"/>
-      <c r="E42" s="94" t="s">
-        <v>877</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D43" s="85"/>
-      <c r="E43" s="124" t="s">
-        <v>999</v>
-      </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-    </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D44" s="85"/>
-      <c r="E44" s="94" t="s">
-        <v>856</v>
-      </c>
-      <c r="F44" s="86"/>
+      <c r="A44" s="53" t="s">
+        <v>911</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="E44" s="124" t="s">
+        <v>997</v>
+      </c>
+      <c r="F44" s="94"/>
       <c r="G44" s="94"/>
       <c r="H44" s="85"/>
       <c r="I44" s="85"/>
@@ -44494,10 +44233,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D45" s="85"/>
-      <c r="E45" s="124" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="86"/>
+      <c r="E45" s="94" t="s">
+        <v>876</v>
+      </c>
+      <c r="F45" s="94"/>
       <c r="G45" s="94"/>
       <c r="H45" s="85"/>
       <c r="I45" s="85"/>
@@ -44506,10 +44245,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D46" s="85"/>
-      <c r="E46" s="94" t="s">
-        <v>858</v>
-      </c>
-      <c r="F46" s="86"/>
+      <c r="E46" s="124" t="s">
+        <v>998</v>
+      </c>
+      <c r="F46" s="94"/>
       <c r="G46" s="94"/>
       <c r="H46" s="85"/>
       <c r="I46" s="85"/>
@@ -44518,8 +44257,8 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D47" s="85"/>
-      <c r="E47" s="124" t="s">
-        <v>1001</v>
+      <c r="E47" s="94" t="s">
+        <v>855</v>
       </c>
       <c r="F47" s="86"/>
       <c r="G47" s="94"/>
@@ -44530,8 +44269,8 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D48" s="85"/>
-      <c r="E48" s="94" t="s">
-        <v>860</v>
+      <c r="E48" s="124" t="s">
+        <v>999</v>
       </c>
       <c r="F48" s="86"/>
       <c r="G48" s="94"/>
@@ -44542,8 +44281,8 @@
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D49" s="85"/>
-      <c r="E49" s="124" t="s">
-        <v>1002</v>
+      <c r="E49" s="94" t="s">
+        <v>857</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="94"/>
@@ -44554,8 +44293,8 @@
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D50" s="85"/>
-      <c r="E50" s="94" t="s">
-        <v>861</v>
+      <c r="E50" s="124" t="s">
+        <v>1000</v>
       </c>
       <c r="F50" s="86"/>
       <c r="G50" s="94"/>
@@ -44566,8 +44305,8 @@
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D51" s="85"/>
-      <c r="E51" s="124" t="s">
-        <v>1003</v>
+      <c r="E51" s="94" t="s">
+        <v>859</v>
       </c>
       <c r="F51" s="86"/>
       <c r="G51" s="94"/>
@@ -44575,14 +44314,11 @@
       <c r="I51" s="85"/>
       <c r="J51" s="85"/>
       <c r="K51" s="85"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="93"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D52" s="85"/>
-      <c r="E52" s="94" t="s">
-        <v>862</v>
+      <c r="E52" s="124" t="s">
+        <v>1001</v>
       </c>
       <c r="F52" s="86"/>
       <c r="G52" s="94"/>
@@ -44590,14 +44326,11 @@
       <c r="I52" s="85"/>
       <c r="J52" s="85"/>
       <c r="K52" s="85"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="93"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D53" s="85"/>
       <c r="E53" s="94" t="s">
-        <v>1004</v>
+        <v>860</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="94"/>
@@ -44605,14 +44338,11 @@
       <c r="I53" s="85"/>
       <c r="J53" s="85"/>
       <c r="K53" s="85"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="93"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D54" s="85"/>
-      <c r="E54" s="94" t="s">
-        <v>864</v>
+      <c r="E54" s="124" t="s">
+        <v>1002</v>
       </c>
       <c r="F54" s="86"/>
       <c r="G54" s="94"/>
@@ -44627,7 +44357,7 @@
     <row r="55" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D55" s="85"/>
       <c r="E55" s="94" t="s">
-        <v>961</v>
+        <v>861</v>
       </c>
       <c r="F55" s="86"/>
       <c r="G55" s="94"/>
@@ -44641,11 +44371,11 @@
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D56" s="85"/>
-      <c r="E56" s="97" t="s">
-        <v>867</v>
+      <c r="E56" s="94" t="s">
+        <v>1003</v>
       </c>
       <c r="F56" s="86"/>
-      <c r="G56" s="97"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="85"/>
@@ -44657,7 +44387,7 @@
     <row r="57" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D57" s="85"/>
       <c r="E57" s="94" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F57" s="86"/>
       <c r="G57" s="94"/>
@@ -44665,11 +44395,14 @@
       <c r="I57" s="85"/>
       <c r="J57" s="85"/>
       <c r="K57" s="85"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="93"/>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D58" s="85"/>
       <c r="E58" s="94" t="s">
-        <v>866</v>
+        <v>960</v>
       </c>
       <c r="F58" s="86"/>
       <c r="G58" s="94"/>
@@ -44677,105 +44410,147 @@
       <c r="I58" s="85"/>
       <c r="J58" s="85"/>
       <c r="K58" s="85"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="93"/>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E59" s="93"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="93"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="97" t="s">
+        <v>866</v>
+      </c>
+      <c r="F59" s="86"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="93"/>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="85"/>
+      <c r="E60" s="94" t="s">
+        <v>864</v>
+      </c>
+      <c r="F60" s="86"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D61" s="85"/>
+      <c r="E61" s="94" t="s">
+        <v>865</v>
+      </c>
+      <c r="F61" s="86"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E62" s="93"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="93"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C63" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D61" s="2" t="s">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D64" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G64" s="58" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D62" s="2" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E63" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E64" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D65" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F65" s="130" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
+        <v>1059</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="D66" s="5" t="s">
-        <v>215</v>
+      <c r="E66" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E67" s="2" t="s">
-        <v>1063</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F68" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" s="22"/>
+      <c r="D68" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F68" s="130" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F69" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="123"/>
-      <c r="J69" s="123"/>
-      <c r="K69" s="123"/>
-      <c r="L69" s="123"/>
-      <c r="M69" s="130" t="s">
-        <v>1058</v>
-      </c>
-      <c r="N69" s="130"/>
-      <c r="O69" s="130"/>
+      <c r="D69" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E70" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F72" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G72" s="22"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="130" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E73" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="53"/>
-      <c r="F71" s="5" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="53"/>
+      <c r="F74" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F72" s="57" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F75" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G61" location="总体说明!A50" display="总体说明切页 50行"/>
+    <hyperlink ref="G64" location="总体说明!A50" display="总体说明切页 50行"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44829,36 +44604,36 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="84"/>
       <c r="G9" s="84" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="84"/>
@@ -44868,11 +44643,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -44882,7 +44657,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -44913,7 +44688,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -44955,7 +44730,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="126" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
@@ -44963,7 +44738,7 @@
       <c r="I31" s="126"/>
       <c r="J31" s="126"/>
       <c r="L31" s="130" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M31" s="130"/>
       <c r="N31" s="130"/>
@@ -44991,7 +44766,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
@@ -45077,7 +44852,7 @@
         <v>239</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
@@ -45089,11 +44864,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -45105,11 +44880,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="84" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H11" s="84"/>
       <c r="I11" s="84"/>
@@ -45132,10 +44907,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>240</v>
@@ -45147,7 +44922,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="126" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E32" s="126"/>
       <c r="F32" s="126"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\道具系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\道具系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="V0.4slot规则" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="合成_兑换出的目标数量">配置表结构!#REF!</definedName>
     <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1621">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6494,6 +6495,22 @@
   </si>
   <si>
     <t>单只怪物经验：副本总产出怪物经验*经验药加成/怪物个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成分解需求增加配置列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7262,7 +7279,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7829,6 +7846,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7917,8 +7938,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5EE8CE"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF5EE8CE"/>
       <color rgb="FFA50021"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
@@ -26996,10 +27017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27199,17 +27220,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="147"/>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="202" t="s">
         <v>697</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202" t="s">
+      <c r="C11" s="203"/>
+      <c r="D11" s="204" t="s">
         <v>698</v>
       </c>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="203"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="205"/>
       <c r="I11" s="148"/>
       <c r="J11" s="148"/>
       <c r="K11" s="148"/>
@@ -27224,11 +27245,11 @@
         <v>699</v>
       </c>
       <c r="C12" s="154"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
       <c r="I12" s="148"/>
       <c r="J12" s="148"/>
       <c r="K12" s="148"/>
@@ -27243,11 +27264,11 @@
         <v>700</v>
       </c>
       <c r="C13" s="154"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="208"/>
       <c r="I13" s="148"/>
       <c r="J13" s="148"/>
       <c r="K13" s="148"/>
@@ -27262,11 +27283,11 @@
         <v>701</v>
       </c>
       <c r="C14" s="154"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="211"/>
       <c r="I14" s="148"/>
       <c r="J14" s="148"/>
       <c r="K14" s="148"/>
@@ -27283,11 +27304,11 @@
       <c r="C15" s="155" t="s">
         <v>703</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="148"/>
       <c r="J15" s="148"/>
       <c r="K15" s="148"/>
@@ -27302,11 +27323,11 @@
         <v>704</v>
       </c>
       <c r="C16" s="155"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
       <c r="I16" s="148"/>
       <c r="J16" s="148">
         <v>-0.15</v>
@@ -27327,11 +27348,11 @@
         <v>705</v>
       </c>
       <c r="C17" s="155"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
       <c r="K17" s="148">
@@ -27348,11 +27369,11 @@
         <v>706</v>
       </c>
       <c r="C18" s="157"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
       <c r="I18" s="148"/>
       <c r="J18" s="148"/>
       <c r="K18" s="148"/>
@@ -28454,43 +28475,50 @@
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="148"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="158"/>
+      <c r="C71" s="158">
+        <v>42298</v>
+      </c>
       <c r="D71" s="2"/>
+      <c r="E71" s="170"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I71" s="148"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
+      <c r="N71" s="148"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="147" t="s">
+      <c r="A72" s="148"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="147" t="s">
         <v>717</v>
       </c>
-      <c r="B72" s="148" t="s">
+      <c r="B73" s="148" t="s">
         <v>708</v>
       </c>
-      <c r="C72" s="149" t="s">
+      <c r="C73" s="149" t="s">
         <v>718</v>
       </c>
-      <c r="D72" s="149" t="s">
+      <c r="D73" s="149" t="s">
         <v>719</v>
       </c>
-      <c r="E72" s="149" t="s">
+      <c r="E73" s="149" t="s">
         <v>720</v>
       </c>
-      <c r="F72" s="149"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="148"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="148"/>
-      <c r="N72" s="148"/>
-      <c r="O72" s="148"/>
-    </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="147"/>
-      <c r="B73" s="147"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="149"/>
       <c r="F73" s="149"/>
-      <c r="G73" s="149"/>
       <c r="H73" s="148"/>
       <c r="I73" s="148"/>
       <c r="J73" s="148"/>
@@ -28534,8 +28562,25 @@
       <c r="N75" s="148"/>
       <c r="O75" s="148"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F77" s="128"/>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="147"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F78" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -28600,6 +28645,7 @@
     <hyperlink ref="H66" location="UI表现逻辑!F95" display="修改道具tips，等级限制显示规则"/>
     <hyperlink ref="H68" location="道具tips显示通用逻辑!B38" display="修改tips显示位置为屏幕正中"/>
     <hyperlink ref="H69" location="消耗类道具!D11" display="修改双倍经验药、三倍经验药配置至subType"/>
+    <hyperlink ref="H71" location="合成_兑换出的目标数量" display="合成分解需求增加配置列"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -28608,10 +28654,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28639,20 +28685,21 @@
     <col min="23" max="23" width="16.5" style="80" customWidth="1"/>
     <col min="24" max="24" width="14.125" style="80" customWidth="1"/>
     <col min="25" max="25" width="15.625" style="80" customWidth="1"/>
-    <col min="26" max="26" width="10.125" style="80" customWidth="1"/>
-    <col min="27" max="27" width="14.125" style="80" customWidth="1"/>
-    <col min="28" max="28" width="9" style="80"/>
-    <col min="29" max="29" width="10.5" style="87" customWidth="1"/>
-    <col min="30" max="30" width="11.375" style="80" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="80"/>
+    <col min="26" max="27" width="15.625" style="196" customWidth="1"/>
+    <col min="28" max="28" width="10.125" style="80" customWidth="1"/>
+    <col min="29" max="29" width="14.125" style="80" customWidth="1"/>
+    <col min="30" max="30" width="9" style="80"/>
+    <col min="31" max="31" width="10.5" style="87" customWidth="1"/>
+    <col min="32" max="32" width="11.375" style="80" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C1" s="80" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
         <v>914</v>
       </c>
@@ -28725,26 +28772,32 @@
       <c r="Y2" s="80" t="s">
         <v>738</v>
       </c>
-      <c r="Z2" s="103" t="s">
+      <c r="Z2" s="170" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AA2" s="170" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AB2" s="103" t="s">
         <v>740</v>
       </c>
-      <c r="AA2" s="111" t="s">
+      <c r="AC2" s="111" t="s">
         <v>740</v>
       </c>
-      <c r="AB2" s="81" t="s">
+      <c r="AD2" s="81" t="s">
         <v>738</v>
       </c>
-      <c r="AC2" s="80" t="s">
+      <c r="AE2" s="80" t="s">
         <v>740</v>
       </c>
-      <c r="AD2" s="111" t="s">
+      <c r="AF2" s="111" t="s">
         <v>740</v>
       </c>
-      <c r="AE2" s="111" t="s">
+      <c r="AG2" s="111" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
         <v>923</v>
       </c>
@@ -28817,26 +28870,32 @@
       <c r="Y3" s="80" t="s">
         <v>757</v>
       </c>
-      <c r="Z3" s="103" t="s">
+      <c r="Z3" s="197" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AA3" s="197" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AB3" s="103" t="s">
         <v>758</v>
       </c>
-      <c r="AA3" s="111" t="s">
+      <c r="AC3" s="111" t="s">
         <v>891</v>
       </c>
-      <c r="AB3" s="87" t="s">
+      <c r="AD3" s="87" t="s">
         <v>743</v>
       </c>
-      <c r="AC3" s="80" t="s">
+      <c r="AE3" s="80" t="s">
         <v>759</v>
       </c>
-      <c r="AD3" s="111" t="s">
+      <c r="AF3" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" s="111" t="s">
+      <c r="AG3" s="111" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C4" s="80" t="s">
         <v>760</v>
       </c>
@@ -28906,26 +28965,32 @@
       <c r="Y4" s="80" t="s">
         <v>771</v>
       </c>
-      <c r="Z4" s="103" t="s">
+      <c r="Z4" s="197" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AA4" s="197" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AB4" s="103" t="s">
         <v>967</v>
       </c>
-      <c r="AA4" s="111" t="s">
+      <c r="AC4" s="111" t="s">
         <v>772</v>
       </c>
-      <c r="AB4" s="87" t="s">
+      <c r="AD4" s="87" t="s">
         <v>1585</v>
       </c>
-      <c r="AC4" s="80" t="s">
+      <c r="AE4" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="AD4" s="111" t="s">
+      <c r="AF4" s="111" t="s">
         <v>532</v>
       </c>
-      <c r="AE4" s="111" t="s">
+      <c r="AG4" s="111" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="83" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>915</v>
       </c>
@@ -28970,16 +29035,16 @@
       <c r="X5" s="98" t="s">
         <v>867</v>
       </c>
-      <c r="Z5" s="103" t="s">
+      <c r="AB5" s="103" t="s">
         <v>788</v>
       </c>
-      <c r="AA5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111" t="s">
+      <c r="AC5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
         <v>916</v>
       </c>
@@ -29042,26 +29107,26 @@
       <c r="Y6" s="80">
         <v>0</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="AB6" s="103">
         <v>0</v>
       </c>
-      <c r="AA6" s="111">
+      <c r="AC6" s="111">
         <v>0</v>
       </c>
-      <c r="AB6" s="81">
+      <c r="AD6" s="81">
         <v>1</v>
       </c>
-      <c r="AC6" s="80">
+      <c r="AE6" s="80">
         <v>0</v>
       </c>
-      <c r="AD6" s="111">
+      <c r="AF6" s="111">
         <v>0</v>
       </c>
-      <c r="AE6" s="111">
+      <c r="AG6" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
         <v>917</v>
       </c>
@@ -29117,26 +29182,26 @@
       <c r="Y7" s="80">
         <v>0</v>
       </c>
-      <c r="Z7" s="103">
+      <c r="AB7" s="103">
         <v>0</v>
       </c>
-      <c r="AA7" s="111">
+      <c r="AC7" s="111">
         <v>0</v>
       </c>
-      <c r="AB7" s="81">
+      <c r="AD7" s="81">
         <v>1</v>
       </c>
-      <c r="AC7" s="80">
+      <c r="AE7" s="80">
         <v>0</v>
       </c>
-      <c r="AD7" s="111">
+      <c r="AF7" s="111">
         <v>0</v>
       </c>
-      <c r="AE7" s="111">
+      <c r="AG7" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
         <v>918</v>
       </c>
@@ -29192,26 +29257,26 @@
       <c r="Y8" s="80">
         <v>0</v>
       </c>
-      <c r="Z8" s="103">
+      <c r="AB8" s="103">
         <v>0</v>
       </c>
-      <c r="AA8" s="111">
+      <c r="AC8" s="111">
         <v>0</v>
       </c>
-      <c r="AB8" s="81">
+      <c r="AD8" s="81">
         <v>1</v>
       </c>
-      <c r="AC8" s="80">
+      <c r="AE8" s="80">
         <v>0</v>
       </c>
-      <c r="AD8" s="111">
+      <c r="AF8" s="111">
         <v>0</v>
       </c>
-      <c r="AE8" s="111">
+      <c r="AG8" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
         <v>971</v>
       </c>
@@ -29264,26 +29329,26 @@
       <c r="Y9" s="80">
         <v>0</v>
       </c>
-      <c r="Z9" s="103">
+      <c r="AB9" s="103">
         <v>3001</v>
       </c>
-      <c r="AA9" s="111">
+      <c r="AC9" s="111">
         <v>0</v>
       </c>
-      <c r="AB9" s="81">
+      <c r="AD9" s="81">
         <v>1</v>
       </c>
-      <c r="AC9" s="80">
+      <c r="AE9" s="80">
         <v>0</v>
       </c>
-      <c r="AD9" s="111">
+      <c r="AF9" s="111">
         <v>0</v>
       </c>
-      <c r="AE9" s="111">
+      <c r="AG9" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C10" s="80">
         <v>40001</v>
       </c>
@@ -29336,26 +29401,26 @@
       <c r="Y10" s="80">
         <v>0</v>
       </c>
-      <c r="Z10" s="103">
+      <c r="AB10" s="103">
         <v>0</v>
       </c>
-      <c r="AA10" s="111">
+      <c r="AC10" s="111">
         <v>0</v>
       </c>
-      <c r="AB10" s="81">
+      <c r="AD10" s="81">
         <v>1</v>
       </c>
-      <c r="AC10" s="80">
+      <c r="AE10" s="80">
         <v>0</v>
       </c>
-      <c r="AD10" s="111">
+      <c r="AF10" s="111">
         <v>0</v>
       </c>
-      <c r="AE10" s="111">
+      <c r="AG10" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C11" s="80">
         <v>40002</v>
       </c>
@@ -29411,26 +29476,26 @@
       <c r="Y11" s="80">
         <v>0</v>
       </c>
-      <c r="Z11" s="103">
+      <c r="AB11" s="103">
         <v>0</v>
       </c>
-      <c r="AA11" s="111">
+      <c r="AC11" s="111">
         <v>0</v>
       </c>
-      <c r="AB11" s="81">
+      <c r="AD11" s="81">
         <v>1</v>
       </c>
-      <c r="AC11" s="80">
+      <c r="AE11" s="80">
         <v>0</v>
       </c>
-      <c r="AD11" s="111">
+      <c r="AF11" s="111">
         <v>0</v>
       </c>
-      <c r="AE11" s="111">
+      <c r="AG11" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C12" s="80">
         <v>50001</v>
       </c>
@@ -29480,26 +29545,26 @@
       <c r="Y12" s="80">
         <v>100</v>
       </c>
-      <c r="Z12" s="103">
+      <c r="AB12" s="103">
         <v>0</v>
       </c>
-      <c r="AA12" s="111">
+      <c r="AC12" s="111">
         <v>0</v>
       </c>
-      <c r="AB12" s="81">
+      <c r="AD12" s="81">
         <v>1</v>
       </c>
-      <c r="AC12" s="80">
+      <c r="AE12" s="80">
         <v>0</v>
       </c>
-      <c r="AD12" s="111">
+      <c r="AF12" s="111">
         <v>0</v>
       </c>
-      <c r="AE12" s="111">
+      <c r="AG12" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="C13" s="80">
         <v>60001</v>
       </c>
@@ -29553,26 +29618,26 @@
       <c r="Y13" s="80">
         <v>0</v>
       </c>
-      <c r="Z13" s="103">
+      <c r="AB13" s="103">
         <v>0</v>
       </c>
-      <c r="AA13" s="111">
+      <c r="AC13" s="111">
         <v>0</v>
       </c>
-      <c r="AB13" s="87">
+      <c r="AD13" s="87">
         <v>1</v>
       </c>
-      <c r="AC13" s="80">
+      <c r="AE13" s="80">
         <v>0</v>
       </c>
-      <c r="AD13" s="111">
+      <c r="AF13" s="111">
         <v>0</v>
       </c>
-      <c r="AE13" s="111">
+      <c r="AG13" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="82" t="s">
         <v>919</v>
       </c>
@@ -29625,22 +29690,22 @@
       <c r="Y14" s="80">
         <v>0</v>
       </c>
-      <c r="Z14" s="103">
+      <c r="AB14" s="103">
         <v>0</v>
       </c>
-      <c r="AA14" s="111">
+      <c r="AC14" s="111">
         <v>5</v>
       </c>
-      <c r="AB14" s="81">
+      <c r="AD14" s="81">
         <v>1</v>
       </c>
-      <c r="AC14" s="80">
+      <c r="AE14" s="80">
         <v>1</v>
       </c>
-      <c r="AD14" s="111">
+      <c r="AF14" s="111">
         <v>100</v>
       </c>
-      <c r="AE14" s="111">
+      <c r="AG14" s="111">
         <v>70001</v>
       </c>
     </row>
@@ -29949,7 +30014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C34" s="80" t="s">
         <v>1189</v>
       </c>
@@ -29957,7 +30022,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C35" s="80" t="s">
         <v>805</v>
       </c>
@@ -29989,7 +30054,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C36" s="80" t="s">
         <v>809</v>
       </c>
@@ -30021,7 +30086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C37" s="80" t="s">
         <v>811</v>
       </c>
@@ -30053,7 +30118,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="92" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:31" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="92" t="s">
         <v>817</v>
       </c>
@@ -30079,9 +30144,9 @@
       <c r="L38" s="190" t="s">
         <v>995</v>
       </c>
-      <c r="AC38" s="87"/>
-    </row>
-    <row r="39" spans="1:29" ht="33" x14ac:dyDescent="0.15">
+      <c r="AE38" s="87"/>
+    </row>
+    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="107" t="s">
         <v>976</v>
       </c>
@@ -30108,7 +30173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C40" s="2">
         <v>70001</v>
       </c>
@@ -30134,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C41" s="2">
         <v>70001</v>
       </c>
@@ -30160,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C42" s="2">
         <v>70001</v>
       </c>
@@ -30186,7 +30251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
         <v>920</v>
       </c>
@@ -30217,7 +30282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C44" s="2">
         <v>70001</v>
       </c>
@@ -30245,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A46" s="82"/>
       <c r="C46" s="80" t="s">
         <v>820</v>
@@ -30257,7 +30322,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C47" s="57" t="s">
         <v>481</v>
       </c>
@@ -30270,7 +30335,7 @@
       <c r="G47" s="93"/>
       <c r="H47" s="93"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C48" s="76" t="s">
         <v>482</v>
       </c>
@@ -30442,8 +30507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB133"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="N27" sqref="M27:N27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32447,45 +32512,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="218" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="217" t="s">
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="219" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="218" t="s">
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="218"/>
+      <c r="AA2" s="220"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="213" t="s">
+      <c r="AC2" s="215" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="213"/>
+      <c r="AD2" s="215"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -32675,7 +32740,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="217" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -32741,7 +32806,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="215"/>
+      <c r="A6" s="217"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -32798,7 +32863,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="215"/>
+      <c r="A7" s="217"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -32816,7 +32881,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="215"/>
+      <c r="A8" s="217"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -32828,7 +32893,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="215"/>
+      <c r="A9" s="217"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -32908,7 +32973,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="217" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -32930,7 +32995,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="215"/>
+      <c r="A16" s="217"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -33058,7 +33123,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -33094,7 +33159,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="215"/>
+      <c r="A25" s="217"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -33187,13 +33252,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="216" t="s">
         <v>641</v>
       </c>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -36656,8 +36721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V184"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -36728,10 +36793,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="210" t="s">
+      <c r="L12" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="210"/>
+      <c r="M12" s="212"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -43347,10 +43412,10 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="211" t="s">
+      <c r="E164" s="213" t="s">
         <v>185</v>
       </c>
-      <c r="F164" s="212"/>
+      <c r="F164" s="214"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -43901,8 +43966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1640">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2493,14 +2493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认为空即无次数限定，填写数字单位为天，例如填1则该道具1天只能用1个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认为空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3338,10 +3330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0表示不可卖店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>属性ID_增量_权重，分隔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3514,10 +3502,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>player/monster属性名称对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CHANGE_GOLD = 1;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3744,14 +3728,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0=non_battle，1=battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=non_battle，1=battle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sellPrice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3771,10 +3747,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1=钻石，2=金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>格式：type_itemID_品级_强化等级_个数（type=4，特殊情况），分割</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3857,10 +3829,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>属性对应数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">needItem </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4028,10 +3996,6 @@
   </si>
   <si>
     <t>具体使用流程 详见 合成文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=不绑定，1=使用绑定，2=拾取绑定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5529,10 +5493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0=不绑定，1=使用绑定，2=拾取绑定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励列表ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6506,14 +6466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝石等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>被治疗效果加成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6551,6 +6503,85 @@
   </si>
   <si>
     <t>healRatio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=non_battle，2=battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为-1则无次数限定，填写数字单位为天，例如填1则该道具1天只能用1个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=不绑定，2=使用绑定，3=拾取绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1钻石2金币-1为不可卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=钻石，2=金币，-1表示不可卖店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1表示不可卖店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1表示不可购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=钻石，2=金币，-1表示不可购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为1，无上限填-1</t>
+  </si>
+  <si>
+    <t>默认为1，无上限填-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求碎片个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有合成功能则填写-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有合成功能则填写-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性对应数字（若不为消耗品则填-1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player/monster属性名称对应（若不为消耗品则填-1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不为宝石则为-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不为装备则为-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7326,7 +7357,7 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7887,6 +7918,10 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7956,9 +7991,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8368,15 +8402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>17867</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>37473</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541742</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>208923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8393,7 +8427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4057650" y="29175075"/>
+          <a:off x="5267325" y="33118425"/>
           <a:ext cx="9466667" cy="5019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26443,8 +26477,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342492</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3266667</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>142555</xdr:rowOff>
     </xdr:to>
@@ -27073,10 +27107,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="144" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C1" s="145"/>
       <c r="D1" s="146"/>
@@ -27111,10 +27145,10 @@
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="144" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C3" s="145"/>
       <c r="D3" s="146"/>
@@ -27149,10 +27183,10 @@
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="144" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B5" s="145" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C5" s="145"/>
       <c r="D5" s="146"/>
@@ -27187,10 +27221,10 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="144" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C7" s="145"/>
       <c r="D7" s="149"/>
@@ -27242,7 +27276,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="144" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B10" s="145"/>
       <c r="C10" s="146"/>
@@ -27261,17 +27295,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="144"/>
-      <c r="B11" s="198" t="s">
-        <v>697</v>
-      </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200" t="s">
-        <v>698</v>
-      </c>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="201"/>
+      <c r="B11" s="200" t="s">
+        <v>695</v>
+      </c>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202" t="s">
+        <v>696</v>
+      </c>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="203"/>
       <c r="I11" s="145"/>
       <c r="J11" s="145"/>
       <c r="K11" s="145"/>
@@ -27283,14 +27317,14 @@
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="144"/>
       <c r="B12" s="150" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C12" s="151"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
       <c r="I12" s="145"/>
       <c r="J12" s="145"/>
       <c r="K12" s="145"/>
@@ -27302,14 +27336,14 @@
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="144"/>
       <c r="B13" s="150" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C13" s="151"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="145"/>
       <c r="J13" s="145"/>
       <c r="K13" s="145"/>
@@ -27321,14 +27355,14 @@
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="144"/>
       <c r="B14" s="150" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C14" s="151"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="209"/>
       <c r="I14" s="145"/>
       <c r="J14" s="145"/>
       <c r="K14" s="145"/>
@@ -27340,16 +27374,16 @@
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="144"/>
       <c r="B15" s="150" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C15" s="152" t="s">
-        <v>703</v>
-      </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="195"/>
+        <v>701</v>
+      </c>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
       <c r="K15" s="145"/>
@@ -27361,14 +27395,14 @@
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="144"/>
       <c r="B16" s="150" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C16" s="152"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
       <c r="I16" s="145"/>
       <c r="J16" s="145">
         <v>-0.15</v>
@@ -27386,14 +27420,14 @@
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="144"/>
       <c r="B17" s="150" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C17" s="152"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="145"/>
       <c r="J17" s="145"/>
       <c r="K17" s="145">
@@ -27407,14 +27441,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="144"/>
       <c r="B18" s="153" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C18" s="154"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="145"/>
       <c r="J18" s="145"/>
       <c r="K18" s="145"/>
@@ -27442,25 +27476,25 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="144" t="s">
+        <v>705</v>
+      </c>
+      <c r="B20" s="145" t="s">
+        <v>706</v>
+      </c>
+      <c r="C20" s="146" t="s">
         <v>707</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="D20" s="146" t="s">
         <v>708</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="E20" s="146" t="s">
         <v>709</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="F20" s="146" t="s">
         <v>710</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="G20" s="146" t="s">
         <v>711</v>
-      </c>
-      <c r="F20" s="146" t="s">
-        <v>712</v>
-      </c>
-      <c r="G20" s="146" t="s">
-        <v>713</v>
       </c>
       <c r="H20" s="145"/>
       <c r="I20" s="145"/>
@@ -27491,19 +27525,19 @@
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="144"/>
       <c r="B22" s="145" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C22" s="155">
         <v>42119</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E22" s="146" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G22" s="146"/>
       <c r="H22" s="145"/>
@@ -27518,7 +27552,7 @@
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="144"/>
       <c r="B23" s="145" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C23" s="155">
         <v>42129</v>
@@ -27527,10 +27561,10 @@
       <c r="E23" s="156"/>
       <c r="F23" s="145"/>
       <c r="G23" s="146" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H23" s="146" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I23" s="145"/>
       <c r="J23" s="145"/>
@@ -27543,7 +27577,7 @@
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="144"/>
       <c r="B24" s="145" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C24" s="155">
         <v>42130</v>
@@ -27552,22 +27586,22 @@
       <c r="E24" s="157"/>
       <c r="F24" s="145"/>
       <c r="G24" s="146" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I24" s="145"/>
       <c r="J24" s="145"/>
       <c r="K24" s="2"/>
       <c r="L24" s="117" t="s">
+        <v>729</v>
+      </c>
+      <c r="M24" s="117" t="s">
+        <v>730</v>
+      </c>
+      <c r="N24" s="117" t="s">
         <v>731</v>
-      </c>
-      <c r="M24" s="117" t="s">
-        <v>732</v>
-      </c>
-      <c r="N24" s="117" t="s">
-        <v>733</v>
       </c>
       <c r="O24" s="145"/>
     </row>
@@ -27575,7 +27609,7 @@
       <c r="F25" s="146"/>
       <c r="G25" s="145"/>
       <c r="H25" s="97" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I25" s="145"/>
       <c r="J25" s="145"/>
@@ -27588,7 +27622,7 @@
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="145"/>
       <c r="B26" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C26" s="155">
         <v>42151</v>
@@ -27597,14 +27631,14 @@
       <c r="E26" s="84"/>
       <c r="F26" s="146"/>
       <c r="G26" s="146" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H26" s="145" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I26" s="145"/>
       <c r="J26" s="145" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="K26" s="145"/>
       <c r="L26" s="145"/>
@@ -27621,11 +27655,11 @@
       <c r="F27" s="146"/>
       <c r="G27" s="146"/>
       <c r="H27" s="117" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I27" s="145"/>
       <c r="J27" s="117" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="K27" s="145"/>
       <c r="L27" s="145"/>
@@ -27642,7 +27676,7 @@
       <c r="F28" s="146"/>
       <c r="G28" s="146"/>
       <c r="H28" s="117" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I28" s="145"/>
       <c r="J28" s="117"/>
@@ -27661,7 +27695,7 @@
       <c r="F29" s="146"/>
       <c r="G29" s="146"/>
       <c r="H29" s="117" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I29" s="145"/>
       <c r="J29" s="117"/>
@@ -27680,7 +27714,7 @@
       <c r="F30" s="146"/>
       <c r="G30" s="146"/>
       <c r="H30" s="117" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I30" s="145"/>
       <c r="J30" s="117"/>
@@ -27699,7 +27733,7 @@
       <c r="F31" s="146"/>
       <c r="G31" s="146"/>
       <c r="H31" s="117" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I31" s="145"/>
       <c r="J31" s="117"/>
@@ -27712,7 +27746,7 @@
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="145"/>
       <c r="B32" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C32" s="155">
         <v>42153</v>
@@ -27721,10 +27755,10 @@
       <c r="E32" s="83"/>
       <c r="F32" s="146"/>
       <c r="G32" s="146" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -27743,11 +27777,11 @@
       <c r="F33" s="146"/>
       <c r="G33" s="146"/>
       <c r="H33" s="117" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="I33" s="145"/>
       <c r="J33" s="117" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="K33" s="145"/>
       <c r="L33" s="145"/>
@@ -27764,7 +27798,7 @@
       <c r="F34" s="146"/>
       <c r="G34" s="146"/>
       <c r="H34" s="117" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="I34" s="145"/>
       <c r="J34" s="117"/>
@@ -27783,7 +27817,7 @@
       <c r="F35" s="146"/>
       <c r="G35" s="146"/>
       <c r="H35" s="117" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="I35" s="145"/>
       <c r="J35" s="117"/>
@@ -27802,7 +27836,7 @@
       <c r="F36" s="146"/>
       <c r="G36" s="146"/>
       <c r="H36" s="117" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="I36" s="145"/>
       <c r="J36" s="117"/>
@@ -27821,7 +27855,7 @@
       <c r="F37" s="146"/>
       <c r="G37" s="146"/>
       <c r="H37" s="117" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="I37" s="145"/>
       <c r="J37" s="117"/>
@@ -27840,7 +27874,7 @@
       <c r="F38" s="146"/>
       <c r="G38" s="146"/>
       <c r="H38" s="117" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="I38" s="145"/>
       <c r="J38" s="117"/>
@@ -27859,12 +27893,12 @@
       <c r="F39" s="146"/>
       <c r="G39" s="146"/>
       <c r="H39" s="117" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="I39" s="145"/>
       <c r="J39" s="117"/>
       <c r="K39" s="117" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="L39" s="145"/>
       <c r="M39" s="145"/>
@@ -27880,13 +27914,13 @@
       <c r="F40" s="146"/>
       <c r="G40" s="146"/>
       <c r="H40" s="117" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="I40" s="145"/>
       <c r="J40" s="117"/>
       <c r="K40" s="117"/>
       <c r="L40" s="117" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="M40" s="145"/>
       <c r="N40" s="145"/>
@@ -27895,7 +27929,7 @@
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="145"/>
       <c r="B41" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C41" s="155">
         <v>42156</v>
@@ -27905,7 +27939,7 @@
       <c r="F41" s="146"/>
       <c r="G41" s="146"/>
       <c r="H41" s="117" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="I41" s="145"/>
       <c r="J41" s="117"/>
@@ -27924,7 +27958,7 @@
       <c r="F42" s="146"/>
       <c r="G42" s="146"/>
       <c r="H42" s="117" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="I42" s="145"/>
       <c r="J42" s="117"/>
@@ -27943,7 +27977,7 @@
       <c r="F43" s="146"/>
       <c r="G43" s="146"/>
       <c r="H43" s="117" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="I43" s="145"/>
       <c r="J43" s="117"/>
@@ -27962,7 +27996,7 @@
       <c r="F44" s="146"/>
       <c r="G44" s="146"/>
       <c r="H44" s="117" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="I44" s="145"/>
       <c r="J44" s="117"/>
@@ -27981,12 +28015,12 @@
       <c r="F45" s="146"/>
       <c r="G45" s="146"/>
       <c r="H45" s="126" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="I45" s="145"/>
       <c r="J45" s="117"/>
       <c r="K45" s="126" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="L45" s="117"/>
       <c r="M45" s="145"/>
@@ -28002,7 +28036,7 @@
       <c r="F46" s="146"/>
       <c r="G46" s="146"/>
       <c r="H46" s="117" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="I46" s="145"/>
       <c r="J46" s="117"/>
@@ -28021,7 +28055,7 @@
       <c r="F47" s="146"/>
       <c r="G47" s="146"/>
       <c r="H47" s="117" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="I47" s="145"/>
       <c r="J47" s="117"/>
@@ -28040,7 +28074,7 @@
       <c r="F48" s="146"/>
       <c r="G48" s="146"/>
       <c r="H48" s="126" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="I48" s="145"/>
       <c r="J48" s="117"/>
@@ -28059,7 +28093,7 @@
       <c r="F49" s="146"/>
       <c r="G49" s="146"/>
       <c r="H49" s="126" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="I49" s="145"/>
       <c r="J49" s="117"/>
@@ -28078,11 +28112,11 @@
       <c r="F50" s="146"/>
       <c r="G50" s="146"/>
       <c r="H50" s="117" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="I50" s="145"/>
       <c r="J50" s="58" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="K50" s="117"/>
       <c r="L50" s="117"/>
@@ -28099,7 +28133,7 @@
       <c r="F51" s="146"/>
       <c r="G51" s="146"/>
       <c r="H51" s="126" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="I51" s="145"/>
       <c r="J51" s="117"/>
@@ -28118,12 +28152,12 @@
       <c r="F52" s="146"/>
       <c r="G52" s="146"/>
       <c r="H52" s="117" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="I52" s="145"/>
       <c r="J52" s="117"/>
       <c r="K52" s="117" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="L52" s="117"/>
       <c r="M52" s="145"/>
@@ -28139,13 +28173,13 @@
       <c r="F53" s="146"/>
       <c r="G53" s="146"/>
       <c r="H53" s="117" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="I53" s="145"/>
       <c r="J53" s="117"/>
       <c r="K53" s="117"/>
       <c r="L53" s="117" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M53" s="145"/>
       <c r="N53" s="145"/>
@@ -28160,7 +28194,7 @@
       <c r="F54" s="146"/>
       <c r="G54" s="146"/>
       <c r="H54" s="126" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="I54" s="145"/>
       <c r="J54" s="117"/>
@@ -28179,7 +28213,7 @@
       <c r="F55" s="146"/>
       <c r="G55" s="146"/>
       <c r="H55" s="126" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="I55" s="145"/>
       <c r="J55" s="117"/>
@@ -28192,7 +28226,7 @@
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="145"/>
       <c r="B56" s="2" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="C56" s="155">
         <v>42163</v>
@@ -28202,7 +28236,7 @@
       <c r="F56" s="146"/>
       <c r="G56" s="146"/>
       <c r="H56" s="117" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="I56" s="145"/>
       <c r="J56" s="117"/>
@@ -28221,7 +28255,7 @@
       <c r="F57" s="146"/>
       <c r="G57" s="146"/>
       <c r="H57" s="126" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="I57" s="145"/>
       <c r="J57" s="117"/>
@@ -28242,12 +28276,12 @@
       <c r="F58" s="146"/>
       <c r="G58" s="146"/>
       <c r="H58" s="58" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="I58" s="145"/>
       <c r="J58" s="117"/>
       <c r="K58" s="117" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="L58" s="117"/>
       <c r="M58" s="145"/>
@@ -28265,7 +28299,7 @@
       <c r="F59" s="146"/>
       <c r="G59" s="146"/>
       <c r="H59" s="163" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="I59" s="145"/>
       <c r="J59" s="117"/>
@@ -28286,7 +28320,7 @@
       <c r="F60" s="146"/>
       <c r="G60" s="146"/>
       <c r="H60" s="163" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="I60" s="145"/>
       <c r="J60" s="117"/>
@@ -28307,7 +28341,7 @@
       <c r="F61" s="146"/>
       <c r="G61" s="146"/>
       <c r="H61" s="163" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="I61" s="145"/>
       <c r="J61" s="117"/>
@@ -28328,7 +28362,7 @@
       <c r="F62" s="146"/>
       <c r="G62" s="146"/>
       <c r="H62" s="58" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="I62" s="145"/>
       <c r="J62" s="117"/>
@@ -28348,21 +28382,21 @@
       <c r="E63" s="180"/>
       <c r="F63" s="146"/>
       <c r="G63" s="146" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H63" s="58" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="I63" s="145"/>
       <c r="J63" s="117"/>
       <c r="K63" s="117"/>
       <c r="L63" s="117"/>
       <c r="M63" s="117" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N63" s="145"/>
       <c r="O63" s="117" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -28376,14 +28410,14 @@
       <c r="F64" s="146"/>
       <c r="G64" s="146"/>
       <c r="H64" s="58" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="I64" s="145"/>
       <c r="J64" s="117"/>
       <c r="K64" s="117"/>
       <c r="L64" s="117"/>
       <c r="M64" s="117" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="N64" s="145"/>
       <c r="O64" s="117"/>
@@ -28398,7 +28432,7 @@
       <c r="F65" s="146"/>
       <c r="G65" s="146"/>
       <c r="H65" s="58" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="I65" s="145"/>
       <c r="J65" s="117"/>
@@ -28418,7 +28452,7 @@
       <c r="F66" s="146"/>
       <c r="G66" s="146"/>
       <c r="H66" s="58" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="I66" s="145"/>
       <c r="J66" s="117"/>
@@ -28438,7 +28472,7 @@
       <c r="F67" s="146"/>
       <c r="G67" s="146"/>
       <c r="H67" s="58" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="I67" s="145"/>
       <c r="J67" s="117"/>
@@ -28460,7 +28494,7 @@
       <c r="F68" s="146"/>
       <c r="G68" s="146"/>
       <c r="H68" s="58" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="I68" s="145"/>
       <c r="J68" s="117"/>
@@ -28480,7 +28514,7 @@
       <c r="F69" s="146"/>
       <c r="G69" s="146"/>
       <c r="H69" s="58" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="I69" s="145"/>
       <c r="J69" s="117"/>
@@ -28502,7 +28536,7 @@
       <c r="F70" s="146"/>
       <c r="G70" s="146"/>
       <c r="H70" s="163" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="I70" s="145"/>
       <c r="J70" s="117"/>
@@ -28523,10 +28557,10 @@
       <c r="E71" s="167"/>
       <c r="F71" s="146"/>
       <c r="G71" s="146" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="H71" s="58" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="I71" s="145"/>
       <c r="J71" s="117"/>
@@ -28547,15 +28581,15 @@
       <c r="E72" s="183"/>
       <c r="F72" s="146"/>
       <c r="G72" s="146" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H72" s="58" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="I72" s="145"/>
       <c r="J72" s="117"/>
       <c r="K72" s="117" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="L72" s="117"/>
       <c r="M72" s="117"/>
@@ -28571,19 +28605,19 @@
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="144" t="s">
+        <v>715</v>
+      </c>
+      <c r="B74" s="145" t="s">
+        <v>706</v>
+      </c>
+      <c r="C74" s="146" t="s">
+        <v>716</v>
+      </c>
+      <c r="D74" s="146" t="s">
         <v>717</v>
       </c>
-      <c r="B74" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="C74" s="146" t="s">
+      <c r="E74" s="146" t="s">
         <v>718</v>
-      </c>
-      <c r="D74" s="146" t="s">
-        <v>719</v>
-      </c>
-      <c r="E74" s="146" t="s">
-        <v>720</v>
       </c>
       <c r="F74" s="146"/>
       <c r="H74" s="145"/>
@@ -28723,10 +28757,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -28751,374 +28785,377 @@
     <col min="22" max="22" width="24.25" style="192" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="192" customWidth="1"/>
     <col min="24" max="24" width="14.125" style="192" customWidth="1"/>
-    <col min="25" max="27" width="15.625" style="192" customWidth="1"/>
-    <col min="28" max="28" width="10.125" style="192" customWidth="1"/>
-    <col min="29" max="29" width="14.125" style="192" customWidth="1"/>
-    <col min="30" max="30" width="9" style="192"/>
-    <col min="31" max="31" width="10.5" style="86" customWidth="1"/>
-    <col min="32" max="32" width="11.375" style="192" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="192"/>
+    <col min="25" max="26" width="15.625" style="192" customWidth="1"/>
+    <col min="27" max="27" width="10.125" style="192" customWidth="1"/>
+    <col min="28" max="28" width="14.125" style="192" customWidth="1"/>
+    <col min="29" max="29" width="9" style="192"/>
+    <col min="30" max="30" width="10.5" style="86" customWidth="1"/>
+    <col min="31" max="31" width="11.375" style="192" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="192"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C1" s="192" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="81" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C2" s="192" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2" s="192" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2" s="192" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" s="192" t="s">
         <v>736</v>
       </c>
-      <c r="D2" s="192" t="s">
+      <c r="G2" s="82" t="s">
+        <v>966</v>
+      </c>
+      <c r="H2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="I2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="J2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="K2" s="192" t="s">
+        <v>738</v>
+      </c>
+      <c r="L2" s="192" t="s">
         <v>737</v>
       </c>
-      <c r="E2" s="192" t="s">
-        <v>739</v>
-      </c>
-      <c r="F2" s="192" t="s">
+      <c r="M2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="N2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="O2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="P2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="R2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="S2" s="192" t="s">
+        <v>735</v>
+      </c>
+      <c r="T2" s="192" t="s">
+        <v>737</v>
+      </c>
+      <c r="U2" s="192" t="s">
+        <v>737</v>
+      </c>
+      <c r="V2" s="192" t="s">
+        <v>735</v>
+      </c>
+      <c r="W2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="X2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y2" s="192" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z2" s="167" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AA2" s="100" t="s">
         <v>738</v>
       </c>
-      <c r="G2" s="82" t="s">
-        <v>974</v>
-      </c>
-      <c r="H2" s="192" t="s">
+      <c r="AB2" s="108" t="s">
         <v>738</v>
       </c>
-      <c r="I2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="J2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="K2" s="192" t="s">
-        <v>740</v>
-      </c>
-      <c r="L2" s="192" t="s">
-        <v>739</v>
-      </c>
-      <c r="M2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="N2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="O2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="P2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="R2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="S2" s="192" t="s">
-        <v>737</v>
-      </c>
-      <c r="T2" s="192" t="s">
-        <v>739</v>
-      </c>
-      <c r="U2" s="192" t="s">
-        <v>739</v>
-      </c>
-      <c r="V2" s="192" t="s">
-        <v>737</v>
-      </c>
-      <c r="W2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="X2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="Y2" s="192" t="s">
-        <v>738</v>
-      </c>
-      <c r="Z2" s="167" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AA2" s="167" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AB2" s="100" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC2" s="108" t="s">
-        <v>740</v>
+      <c r="AC2" s="192" t="s">
+        <v>736</v>
       </c>
       <c r="AD2" s="192" t="s">
         <v>738</v>
       </c>
-      <c r="AE2" s="192" t="s">
+      <c r="AE2" s="108" t="s">
+        <v>738</v>
+      </c>
+      <c r="AF2" s="108" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="100" t="s">
+        <v>919</v>
+      </c>
+      <c r="C3" s="192" t="s">
+        <v>739</v>
+      </c>
+      <c r="D3" s="192" t="s">
         <v>740</v>
       </c>
-      <c r="AF2" s="108" t="s">
-        <v>740</v>
-      </c>
-      <c r="AG2" s="108" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="E3" s="100" t="s">
         <v>923</v>
       </c>
-      <c r="C3" s="192" t="s">
-        <v>741</v>
-      </c>
-      <c r="D3" s="192" t="s">
+      <c r="F3" s="192" t="s">
         <v>742</v>
       </c>
-      <c r="E3" s="100" t="s">
-        <v>927</v>
-      </c>
-      <c r="F3" s="192" t="s">
+      <c r="G3" s="83" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>926</v>
+      </c>
+      <c r="J3" s="192" t="s">
+        <v>743</v>
+      </c>
+      <c r="K3" s="192" t="s">
         <v>744</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H3" s="86" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I3" s="100" t="s">
-        <v>930</v>
-      </c>
-      <c r="J3" s="192" t="s">
-        <v>745</v>
-      </c>
-      <c r="K3" s="192" t="s">
-        <v>746</v>
       </c>
       <c r="L3" s="192" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="192" t="s">
+        <v>745</v>
+      </c>
+      <c r="N3" s="100" t="s">
+        <v>746</v>
+      </c>
+      <c r="O3" s="100" t="s">
         <v>747</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="P3" s="100" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q3" s="100" t="s">
         <v>748</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="R3" s="192" t="s">
         <v>749</v>
       </c>
-      <c r="P3" s="100" t="s">
-        <v>1440</v>
-      </c>
-      <c r="Q3" s="100" t="s">
+      <c r="S3" s="86" t="s">
+        <v>846</v>
+      </c>
+      <c r="T3" s="86" t="s">
         <v>750</v>
       </c>
-      <c r="R3" s="192" t="s">
+      <c r="U3" s="86" t="s">
         <v>751</v>
       </c>
-      <c r="S3" s="86" t="s">
-        <v>849</v>
-      </c>
-      <c r="T3" s="86" t="s">
+      <c r="V3" s="100" t="s">
         <v>752</v>
       </c>
-      <c r="U3" s="86" t="s">
+      <c r="W3" s="100" t="s">
         <v>753</v>
       </c>
-      <c r="V3" s="100" t="s">
+      <c r="X3" s="192" t="s">
         <v>754</v>
       </c>
-      <c r="W3" s="100" t="s">
+      <c r="Y3" s="192" t="s">
         <v>755</v>
       </c>
-      <c r="X3" s="192" t="s">
+      <c r="Z3" s="191" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AA3" s="100" t="s">
         <v>756</v>
       </c>
-      <c r="Y3" s="192" t="s">
+      <c r="AB3" s="108" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC3" s="86" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD3" s="192" t="s">
         <v>757</v>
       </c>
-      <c r="Z3" s="191" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AA3" s="191" t="s">
-        <v>1395</v>
-      </c>
-      <c r="AB3" s="100" t="s">
+      <c r="AE3" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF3" s="108" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C4" s="192" t="s">
         <v>758</v>
       </c>
-      <c r="AC3" s="108" t="s">
-        <v>891</v>
-      </c>
-      <c r="AD3" s="86" t="s">
-        <v>743</v>
-      </c>
-      <c r="AE3" s="192" t="s">
+      <c r="D4" s="192" t="s">
         <v>759</v>
       </c>
-      <c r="AF3" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" s="108" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="C4" s="192" t="s">
+      <c r="E4" s="192" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="192" t="s">
+      <c r="F4" s="192" t="s">
         <v>761</v>
       </c>
-      <c r="E4" s="192" t="s">
-        <v>762</v>
-      </c>
-      <c r="F4" s="192" t="s">
-        <v>763</v>
-      </c>
       <c r="G4" s="83" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="H4" s="192" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="192" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J4" s="192" t="s">
         <v>611</v>
       </c>
       <c r="K4" s="192" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="L4" s="192" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M4" s="192" t="s">
         <v>67</v>
       </c>
       <c r="N4" s="192" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="O4" s="100" t="s">
-        <v>939</v>
+        <v>1625</v>
       </c>
       <c r="P4" s="192" t="s">
-        <v>767</v>
+        <v>1626</v>
       </c>
       <c r="Q4" s="100" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="R4" s="192" t="s">
         <v>421</v>
       </c>
       <c r="S4" s="86" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="T4" s="86" t="s">
+        <v>766</v>
+      </c>
+      <c r="U4" s="86" t="s">
+        <v>936</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>767</v>
+      </c>
+      <c r="W4" s="100" t="s">
+        <v>1276</v>
+      </c>
+      <c r="X4" s="192" t="s">
         <v>768</v>
       </c>
-      <c r="U4" s="86" t="s">
-        <v>943</v>
-      </c>
-      <c r="V4" s="100" t="s">
+      <c r="Y4" s="192" t="s">
         <v>769</v>
       </c>
-      <c r="W4" s="100" t="s">
-        <v>1285</v>
-      </c>
-      <c r="X4" s="192" t="s">
+      <c r="Z4" s="191" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AA4" s="100" t="s">
+        <v>959</v>
+      </c>
+      <c r="AB4" s="108" t="s">
         <v>770</v>
       </c>
-      <c r="Y4" s="192" t="s">
-        <v>771</v>
-      </c>
-      <c r="Z4" s="191" t="s">
-        <v>1619</v>
-      </c>
-      <c r="AA4" s="191" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AB4" s="100" t="s">
-        <v>967</v>
-      </c>
-      <c r="AC4" s="108" t="s">
-        <v>772</v>
-      </c>
-      <c r="AD4" s="86" t="s">
-        <v>1585</v>
-      </c>
-      <c r="AE4" s="192" t="s">
+      <c r="AC4" s="86" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AD4" s="192" t="s">
         <v>533</v>
       </c>
+      <c r="AE4" s="108" t="s">
+        <v>532</v>
+      </c>
       <c r="AF4" s="108" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG4" s="108" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="82" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>915</v>
-      </c>
-      <c r="E5" s="217" t="s">
+        <v>911</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F5" s="100" t="s">
         <v>1579</v>
       </c>
-      <c r="F5" s="100" t="s">
-        <v>1589</v>
-      </c>
       <c r="G5" s="82" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>933</v>
-      </c>
-      <c r="L5" s="217" t="s">
-        <v>1580</v>
+        <v>1620</v>
+      </c>
+      <c r="L5" s="194" t="s">
+        <v>1570</v>
       </c>
       <c r="M5" s="83" t="s">
-        <v>1366</v>
+        <v>1624</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O5" s="83"/>
       <c r="P5" s="78"/>
+      <c r="R5" s="82" t="s">
+        <v>1631</v>
+      </c>
       <c r="S5" s="82" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="T5" s="82" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U5" s="82" t="s">
+        <v>784</v>
+      </c>
+      <c r="V5" s="82" t="s">
+        <v>941</v>
+      </c>
+      <c r="W5" s="82" t="s">
+        <v>1634</v>
+      </c>
+      <c r="X5" s="195" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z5" s="82" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AA5" s="100" t="s">
         <v>786</v>
       </c>
-      <c r="V5" s="82" t="s">
-        <v>948</v>
-      </c>
-      <c r="X5" s="218" t="s">
-        <v>867</v>
-      </c>
-      <c r="AB5" s="100" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AB5" s="108"/>
+      <c r="AD5" s="82" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="81" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C6" s="192">
         <v>10001</v>
       </c>
       <c r="D6" s="192" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F6" s="192">
         <v>1</v>
@@ -29155,14 +29192,14 @@
         <v>1</v>
       </c>
       <c r="S6" s="86" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="T6" s="86"/>
       <c r="U6" s="86" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="V6" s="192" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="W6" s="192">
         <v>0</v>
@@ -29173,34 +29210,34 @@
       <c r="Y6" s="192">
         <v>0</v>
       </c>
-      <c r="AB6" s="100">
+      <c r="AA6" s="100">
         <v>0</v>
       </c>
-      <c r="AC6" s="108">
+      <c r="AB6" s="108">
         <v>0</v>
       </c>
+      <c r="AC6" s="192">
+        <v>1</v>
+      </c>
       <c r="AD6" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="108">
         <v>0</v>
       </c>
       <c r="AF6" s="108">
         <v>0</v>
       </c>
-      <c r="AG6" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="81" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C7" s="192">
         <v>10002</v>
       </c>
       <c r="D7" s="192" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F7" s="192">
         <v>1</v>
@@ -29237,7 +29274,7 @@
         <v>100</v>
       </c>
       <c r="U7" s="192" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="W7" s="192">
         <v>0</v>
@@ -29248,34 +29285,34 @@
       <c r="Y7" s="192">
         <v>0</v>
       </c>
-      <c r="AB7" s="100">
+      <c r="AA7" s="100">
         <v>0</v>
       </c>
-      <c r="AC7" s="108">
+      <c r="AB7" s="108">
         <v>0</v>
       </c>
+      <c r="AC7" s="192">
+        <v>1</v>
+      </c>
       <c r="AD7" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="108">
         <v>0</v>
       </c>
       <c r="AF7" s="108">
         <v>0</v>
       </c>
-      <c r="AG7" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C8" s="192">
         <v>20001</v>
       </c>
       <c r="D8" s="192" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F8" s="192">
         <v>2</v>
@@ -29312,7 +29349,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="192" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="W8" s="192">
         <v>50</v>
@@ -29323,34 +29360,34 @@
       <c r="Y8" s="192">
         <v>0</v>
       </c>
-      <c r="AB8" s="100">
+      <c r="AA8" s="100">
         <v>0</v>
       </c>
-      <c r="AC8" s="108">
+      <c r="AB8" s="108">
         <v>0</v>
       </c>
+      <c r="AC8" s="192">
+        <v>1</v>
+      </c>
       <c r="AD8" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="108">
         <v>0</v>
       </c>
       <c r="AF8" s="108">
         <v>0</v>
       </c>
-      <c r="AG8" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="81" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C9" s="192">
         <v>30001</v>
       </c>
       <c r="D9" s="192" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F9" s="192">
         <v>3</v>
@@ -29395,31 +29432,31 @@
       <c r="Y9" s="192">
         <v>0</v>
       </c>
-      <c r="AB9" s="100">
+      <c r="AA9" s="100">
         <v>3001</v>
       </c>
-      <c r="AC9" s="108">
+      <c r="AB9" s="108">
         <v>0</v>
       </c>
+      <c r="AC9" s="192">
+        <v>1</v>
+      </c>
       <c r="AD9" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="108">
         <v>0</v>
       </c>
       <c r="AF9" s="108">
         <v>0</v>
       </c>
-      <c r="AG9" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C10" s="192">
         <v>40001</v>
       </c>
       <c r="D10" s="192" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F10" s="192">
         <v>4</v>
@@ -29467,31 +29504,31 @@
       <c r="Y10" s="192">
         <v>0</v>
       </c>
-      <c r="AB10" s="100">
+      <c r="AA10" s="100">
         <v>0</v>
       </c>
-      <c r="AC10" s="108">
+      <c r="AB10" s="108">
         <v>0</v>
       </c>
+      <c r="AC10" s="192">
+        <v>1</v>
+      </c>
       <c r="AD10" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="108">
         <v>0</v>
       </c>
       <c r="AF10" s="108">
         <v>0</v>
       </c>
-      <c r="AG10" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C11" s="192">
         <v>40002</v>
       </c>
       <c r="D11" s="192" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F11" s="192">
         <v>4</v>
@@ -29531,7 +29568,7 @@
         <v>3001</v>
       </c>
       <c r="U11" s="192" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="W11" s="192">
         <v>0</v>
@@ -29542,31 +29579,31 @@
       <c r="Y11" s="192">
         <v>0</v>
       </c>
-      <c r="AB11" s="100">
+      <c r="AA11" s="100">
         <v>0</v>
       </c>
-      <c r="AC11" s="108">
+      <c r="AB11" s="108">
         <v>0</v>
       </c>
+      <c r="AC11" s="192">
+        <v>1</v>
+      </c>
       <c r="AD11" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="108">
         <v>0</v>
       </c>
       <c r="AF11" s="108">
         <v>0</v>
       </c>
-      <c r="AG11" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C12" s="192">
         <v>50001</v>
       </c>
       <c r="D12" s="192" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F12" s="192">
         <v>5</v>
@@ -29611,31 +29648,31 @@
       <c r="Y12" s="192">
         <v>100</v>
       </c>
-      <c r="AB12" s="100">
+      <c r="AA12" s="100">
         <v>0</v>
       </c>
-      <c r="AC12" s="108">
+      <c r="AB12" s="108">
         <v>0</v>
       </c>
+      <c r="AC12" s="192">
+        <v>1</v>
+      </c>
       <c r="AD12" s="192">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="108">
         <v>0</v>
       </c>
       <c r="AF12" s="108">
         <v>0</v>
       </c>
-      <c r="AG12" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C13" s="192">
         <v>60001</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E13" s="86"/>
       <c r="F13" s="86">
@@ -29673,7 +29710,7 @@
         <v>100</v>
       </c>
       <c r="V13" s="192" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="W13" s="192">
         <v>1</v>
@@ -29684,34 +29721,34 @@
       <c r="Y13" s="192">
         <v>0</v>
       </c>
-      <c r="AB13" s="100">
+      <c r="AA13" s="100">
         <v>0</v>
       </c>
-      <c r="AC13" s="108">
+      <c r="AB13" s="108">
         <v>0</v>
       </c>
-      <c r="AD13" s="86">
+      <c r="AC13" s="86">
         <v>1</v>
       </c>
-      <c r="AE13" s="192">
+      <c r="AD13" s="192">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="108">
         <v>0</v>
       </c>
       <c r="AF13" s="108">
         <v>0</v>
       </c>
-      <c r="AG13" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C14" s="192">
         <v>70001</v>
       </c>
       <c r="D14" s="192" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F14" s="192">
         <v>7</v>
@@ -29756,112 +29793,112 @@
       <c r="Y14" s="192">
         <v>0</v>
       </c>
-      <c r="AB14" s="100">
+      <c r="AA14" s="100">
         <v>0</v>
       </c>
-      <c r="AC14" s="108">
+      <c r="AB14" s="108">
         <v>5</v>
+      </c>
+      <c r="AC14" s="192">
+        <v>1</v>
       </c>
       <c r="AD14" s="192">
         <v>1</v>
       </c>
-      <c r="AE14" s="192">
-        <v>1</v>
+      <c r="AE14" s="108">
+        <v>100</v>
       </c>
       <c r="AF14" s="108">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="108">
         <v>70001</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" s="192" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" s="192" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D18" s="192" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E18" s="192" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F18" s="192" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G18" s="192" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H18" s="192" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I18" s="189" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J18" s="189" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K18" s="189" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L18" s="189" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" s="192" t="s">
+        <v>790</v>
+      </c>
+      <c r="D19" s="192" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="192" t="s">
         <v>792</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="F19" s="192" t="s">
         <v>793</v>
       </c>
-      <c r="E19" s="192" t="s">
+      <c r="G19" s="192" t="s">
         <v>794</v>
       </c>
-      <c r="F19" s="192" t="s">
+      <c r="H19" s="192" t="s">
         <v>795</v>
       </c>
-      <c r="G19" s="192" t="s">
-        <v>796</v>
-      </c>
-      <c r="H19" s="192" t="s">
-        <v>797</v>
-      </c>
       <c r="I19" s="183" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="J19" s="193" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="K19" s="193" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="L19" s="183" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20" s="192" t="s">
+        <v>796</v>
+      </c>
+      <c r="D20" s="192" t="s">
+        <v>797</v>
+      </c>
+      <c r="E20" s="192" t="s">
         <v>798</v>
       </c>
-      <c r="D20" s="192" t="s">
+      <c r="F20" s="192" t="s">
         <v>799</v>
       </c>
-      <c r="E20" s="192" t="s">
+      <c r="G20" s="192" t="s">
         <v>800</v>
       </c>
-      <c r="F20" s="192" t="s">
+      <c r="H20" s="192" t="s">
         <v>801</v>
-      </c>
-      <c r="G20" s="192" t="s">
-        <v>802</v>
-      </c>
-      <c r="H20" s="192" t="s">
-        <v>803</v>
       </c>
       <c r="I20" s="183" t="s">
         <v>483</v>
@@ -29870,10 +29907,10 @@
         <v>545</v>
       </c>
       <c r="K20" s="183" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="L20" s="183" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.15">
@@ -30116,141 +30153,141 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C34" s="192" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="E34" s="101" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C35" s="192" t="s">
+        <v>803</v>
+      </c>
+      <c r="D35" s="192" t="s">
+        <v>804</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>972</v>
+      </c>
+      <c r="F35" s="192" t="s">
         <v>805</v>
       </c>
-      <c r="D35" s="192" t="s">
+      <c r="G35" s="192" t="s">
+        <v>805</v>
+      </c>
+      <c r="H35" s="192" t="s">
         <v>806</v>
       </c>
-      <c r="E35" s="82" t="s">
-        <v>980</v>
-      </c>
-      <c r="F35" s="192" t="s">
+      <c r="I35" s="185" t="s">
+        <v>735</v>
+      </c>
+      <c r="J35" s="185" t="s">
+        <v>735</v>
+      </c>
+      <c r="K35" s="185" t="s">
+        <v>735</v>
+      </c>
+      <c r="L35" s="186" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C36" s="192" t="s">
         <v>807</v>
       </c>
-      <c r="G35" s="192" t="s">
-        <v>807</v>
-      </c>
-      <c r="H35" s="192" t="s">
+      <c r="D36" s="192" t="s">
         <v>808</v>
       </c>
-      <c r="I35" s="185" t="s">
-        <v>737</v>
-      </c>
-      <c r="J35" s="185" t="s">
-        <v>737</v>
-      </c>
-      <c r="K35" s="185" t="s">
-        <v>737</v>
-      </c>
-      <c r="L35" s="186" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C36" s="192" t="s">
-        <v>809</v>
-      </c>
-      <c r="D36" s="192" t="s">
-        <v>810</v>
-      </c>
       <c r="E36" s="82" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="F36" s="192" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="G36" s="192" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="H36" s="192" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I36" s="185" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="J36" s="185" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="K36" s="185" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="L36" s="186" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C37" s="192" t="s">
+        <v>809</v>
+      </c>
+      <c r="D37" s="192" t="s">
+        <v>810</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F37" s="192" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G37" s="192" t="s">
+        <v>816</v>
+      </c>
+      <c r="H37" s="192" t="s">
         <v>811</v>
       </c>
-      <c r="D37" s="192" t="s">
-        <v>812</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F37" s="192" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G37" s="192" t="s">
-        <v>818</v>
-      </c>
-      <c r="H37" s="192" t="s">
-        <v>813</v>
-      </c>
       <c r="I37" s="185" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="J37" s="185" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="K37" s="185" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="L37" s="186" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" s="91" customFormat="1" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D38" s="91" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E38" s="82"/>
       <c r="F38" s="100" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="G38" s="91" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="I38" s="186" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J38" s="186" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K38" s="186" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="L38" s="186" t="s">
-        <v>995</v>
-      </c>
-      <c r="AE38" s="86"/>
-    </row>
-    <row r="39" spans="1:31" ht="33" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+      <c r="AD38" s="86"/>
+    </row>
+    <row r="39" spans="1:30" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="104" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C39" s="2">
         <v>70001</v>
@@ -30275,7 +30312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C40" s="2">
         <v>70001</v>
       </c>
@@ -30293,7 +30330,7 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="186" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J40" s="186"/>
       <c r="K40" s="186"/>
@@ -30301,7 +30338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C41" s="2">
         <v>70001</v>
       </c>
@@ -30319,7 +30356,7 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="186" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J41" s="186"/>
       <c r="K41" s="186"/>
@@ -30327,7 +30364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C42" s="2">
         <v>70001</v>
       </c>
@@ -30345,7 +30382,7 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="186" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J42" s="186"/>
       <c r="K42" s="186"/>
@@ -30353,9 +30390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:30" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="104" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C43" s="2">
         <v>70001</v>
@@ -30373,10 +30410,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="I43" s="186" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J43" s="186"/>
       <c r="K43" s="186"/>
@@ -30384,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C44" s="2">
         <v>70001</v>
       </c>
@@ -30401,10 +30438,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="I44" s="186" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J44" s="186"/>
       <c r="K44" s="186"/>
@@ -30412,19 +30449,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A46" s="81"/>
       <c r="C46" s="192" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D46" s="192" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.15">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C47" s="57" t="s">
         <v>481</v>
       </c>
@@ -30432,12 +30469,12 @@
         <v>101</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G47" s="92"/>
       <c r="H47" s="92"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C48" s="76" t="s">
         <v>482</v>
       </c>
@@ -30445,7 +30482,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G48" s="92"/>
       <c r="H48" s="92"/>
@@ -30458,7 +30495,7 @@
         <v>103</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G49" s="92"/>
       <c r="H49" s="92"/>
@@ -30471,7 +30508,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H50" s="92"/>
     </row>
@@ -30483,7 +30520,7 @@
         <v>105</v>
       </c>
       <c r="F51" s="98" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H51" s="92"/>
     </row>
@@ -30495,7 +30532,7 @@
         <v>106</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H52" s="92"/>
     </row>
@@ -30507,7 +30544,7 @@
         <v>107</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H53" s="92"/>
     </row>
@@ -30519,7 +30556,7 @@
         <v>108</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H54" s="92"/>
     </row>
@@ -30531,67 +30568,67 @@
         <v>109</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F56" s="98" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H56" s="92"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F57" s="98" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H57" s="92"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F58" s="98" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F59" s="98" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H59" s="92"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F60" s="98" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H60" s="92"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F61" s="98" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="H61" s="92"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="81" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F62" s="99" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="81" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F64" s="98" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H64" s="92"/>
     </row>
@@ -30620,143 +30657,143 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>102</v>
@@ -30765,140 +30802,140 @@
         <v>427</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1395</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>1425</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>1394</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="C8" s="182" t="s">
         <v>239</v>
@@ -30906,98 +30943,98 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -31005,187 +31042,187 @@
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" s="2" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" s="2" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C59" s="2" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="2" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C70" s="2" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -31201,7 +31238,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
@@ -31217,7 +31254,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -31233,7 +31270,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -31249,158 +31286,158 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C75" s="2" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C76" s="94" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="J76" s="94"/>
       <c r="K76" s="94"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C77" s="94" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="J77" s="94"/>
       <c r="K77" s="94"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C78" s="94" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="J78" s="94"/>
       <c r="K78" s="94"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C79" s="94" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J79" s="86"/>
       <c r="K79" s="94"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C80" s="94" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="J80" s="86"/>
       <c r="K80" s="94"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C81" s="94" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J81" s="86"/>
       <c r="K81" s="94"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C82" s="94" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="J82" s="86"/>
       <c r="K82" s="94"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C83" s="94" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J83" s="86"/>
       <c r="K83" s="94"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C84" s="94" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="J84" s="86"/>
       <c r="K84" s="94"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C85" s="94" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J85" s="86"/>
       <c r="K85" s="94"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C86" s="94" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="J86" s="86"/>
       <c r="K86" s="94"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C87" s="94" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J87" s="86"/>
       <c r="K87" s="94"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C88" s="94" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="J88" s="86"/>
       <c r="K88" s="94"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C89" s="94" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J89" s="86"/>
       <c r="K89" s="94"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C90" s="94" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="J90" s="86"/>
       <c r="K90" s="94"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C91" s="181" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="J91" s="86"/>
       <c r="K91" s="181"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C92" s="94" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J92" s="86"/>
       <c r="K92" s="94"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C93" s="94" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J93" s="86"/>
       <c r="K93" s="94"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="2" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="D98" s="2" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -31409,16 +31446,16 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="2" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="D101" s="2" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -31426,22 +31463,22 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="2" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -31450,16 +31487,16 @@
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="2" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="D108" s="2" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -31467,19 +31504,19 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="4" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="D111" s="2" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -31488,16 +31525,16 @@
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="2" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="D114" s="2" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
@@ -31505,22 +31542,22 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="2" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="D118" s="2" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
@@ -31529,16 +31566,16 @@
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="2" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
@@ -31546,25 +31583,25 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" s="4" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C125" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D126" s="2" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D127" s="2" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -31572,15 +31609,15 @@
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C129" s="2" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D130" s="2" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.15">
@@ -31588,10 +31625,10 @@
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C132" s="8" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -31604,7 +31641,7 @@
     <row r="133" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C133" s="8"/>
       <c r="D133" s="8" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -31639,51 +31676,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="135" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="136" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C1" s="136" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1" s="136" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1" s="179" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F1" s="137" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G1" s="137" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J1" s="137" t="s">
         <v>1044</v>
       </c>
-      <c r="D1" s="136" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E1" s="179" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F1" s="137" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G1" s="137" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H1" s="137" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J1" s="137" t="s">
-        <v>1053</v>
-      </c>
       <c r="K1" s="137" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="138" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="139">
@@ -31699,16 +31736,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="138" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="D3" s="138" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="E3" s="138"/>
       <c r="F3" s="139">
@@ -31724,16 +31761,16 @@
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="141" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="D4" s="141" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="E4" s="141"/>
       <c r="F4" s="142">
@@ -31783,27 +31820,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="173" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
       <c r="D1" s="159" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="E1" s="159" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="F1" s="159"/>
       <c r="G1" s="159" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="159" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="159" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="D2" s="159">
         <v>2</v>
@@ -31813,7 +31850,7 @@
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="159"/>
       <c r="C3" s="159" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="D3" s="159">
         <v>1</v>
@@ -31823,7 +31860,7 @@
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="159"/>
       <c r="C4" s="159" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="D4" s="159">
         <v>1</v>
@@ -31833,7 +31870,7 @@
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="159"/>
       <c r="C5" s="159" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="D5" s="159">
         <v>2</v>
@@ -31843,7 +31880,7 @@
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="159"/>
       <c r="C6" s="159" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="D6" s="159">
         <v>1</v>
@@ -31853,7 +31890,7 @@
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="159"/>
       <c r="C7" s="159" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="D7" s="159">
         <v>4</v>
@@ -31863,7 +31900,7 @@
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="159"/>
       <c r="C8" s="159" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="D8" s="159">
         <v>5</v>
@@ -31873,7 +31910,7 @@
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="159"/>
       <c r="C9" s="174" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="D9" s="174">
         <v>4</v>
@@ -31883,20 +31920,20 @@
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="159"/>
       <c r="C10" s="159" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="D10" s="159">
         <v>0.5</v>
       </c>
       <c r="E10" s="159"/>
       <c r="G10" s="2" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="159"/>
       <c r="C11" s="173" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D11" s="173">
         <v>20.5</v>
@@ -31911,7 +31948,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="159" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C12" s="159"/>
       <c r="D12" s="159"/>
@@ -31920,37 +31957,37 @@
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="159"/>
       <c r="C13" s="159" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="E13" s="159"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="159"/>
       <c r="C14" s="159" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="D14" s="159" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="159"/>
       <c r="C15" s="159" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="E15" s="159"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="159"/>
       <c r="C16" s="159" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="D16" s="159">
         <v>2</v>
@@ -31960,7 +31997,7 @@
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="159"/>
       <c r="C17" s="159" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="D17" s="159">
         <v>2</v>
@@ -31969,7 +32006,7 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C18" s="173" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D18" s="173">
         <v>4</v>
@@ -31980,15 +32017,15 @@
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="158" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -31996,7 +32033,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="D22" s="2">
         <v>0.5</v>
@@ -32004,7 +32041,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="2" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -32012,7 +32049,7 @@
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="173" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D24" s="173">
         <v>3</v>
@@ -32039,139 +32076,139 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H2" s="2" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I3" s="2" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I4" s="2" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J6" s="2" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H9" s="2" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11" s="2" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="2" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="2" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I17" s="2" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I18" s="2" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" s="2" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H45" s="2" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I46" s="2" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I47" s="2" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I48" s="2" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I49" s="2" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I50" s="2" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I51" s="2" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I52" s="2" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="M52" s="184"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I56" s="2" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I57" s="2" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
@@ -32196,7 +32233,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -32204,7 +32241,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="10" t="s">
@@ -32220,7 +32257,7 @@
         <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -32228,7 +32265,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
@@ -32313,7 +32350,7 @@
         <v>142</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -32321,23 +32358,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="54" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -32345,7 +32382,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="C17" s="90"/>
       <c r="D17" s="90"/>
@@ -32365,13 +32402,13 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="90"/>
       <c r="B19" s="90" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="171" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="G19" s="90"/>
     </row>
@@ -32403,42 +32440,42 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="164" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32460,60 +32497,60 @@
     <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D58" s="2" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D60" s="2" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="54" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C66" s="176" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="67" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="176" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="E68" s="176" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="176" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="E70" s="176" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="176" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="E72" s="176" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="73" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32521,7 +32558,7 @@
     <row r="75" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E76" s="177" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="77" spans="3:5" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32538,20 +32575,20 @@
     <row r="88" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="176" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J94" s="176" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="2:10" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="10:10" s="176" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J97" s="178" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="98" spans="10:10" s="176" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -32614,45 +32651,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="215" t="s">
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="217" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="216" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="216"/>
+      <c r="AA2" s="218"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="211" t="s">
+      <c r="AC2" s="213" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="211"/>
+      <c r="AD2" s="213"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -32704,7 +32741,7 @@
         <v>90</v>
       </c>
       <c r="Q3" s="79" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="R3" s="37" t="s">
         <v>102</v>
@@ -32731,7 +32768,7 @@
         <v>178</v>
       </c>
       <c r="Z3" s="69" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AA3" s="41" t="s">
         <v>426</v>
@@ -32746,7 +32783,7 @@
         <v>431</v>
       </c>
       <c r="AE3" s="70" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -32772,7 +32809,7 @@
         <v>611</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>414</v>
@@ -32784,7 +32821,7 @@
         <v>72</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N4" s="37" t="s">
         <v>416</v>
@@ -32796,7 +32833,7 @@
         <v>418</v>
       </c>
       <c r="Q4" s="79" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="R4" s="37" t="s">
         <v>421</v>
@@ -32838,11 +32875,11 @@
         <v>240</v>
       </c>
       <c r="AE4" s="70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -32855,7 +32892,7 @@
         <v>401</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>401</v>
@@ -32879,7 +32916,7 @@
         <v>402</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>535</v>
@@ -32908,7 +32945,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="213"/>
+      <c r="A6" s="215"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -32916,10 +32953,10 @@
         <v>400</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>399</v>
@@ -32940,7 +32977,7 @@
         <v>399</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>101</v>
@@ -32958,14 +32995,14 @@
         <v>399</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AE6" s="57" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="213"/>
+      <c r="A7" s="215"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -32983,7 +33020,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="213"/>
+      <c r="A8" s="215"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -32995,7 +33032,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="213"/>
+      <c r="A9" s="215"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -33004,7 +33041,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="E10" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F10" s="4"/>
       <c r="R10" s="20"/>
@@ -33039,7 +33076,7 @@
         <v>480</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -33049,7 +33086,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>440</v>
@@ -33064,10 +33101,10 @@
         <v>165</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -33075,7 +33112,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -33097,7 +33134,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="213"/>
+      <c r="A16" s="215"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -33163,7 +33200,7 @@
         <v>480</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>500</v>
@@ -33202,10 +33239,10 @@
         <v>165</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>555</v>
@@ -33225,7 +33262,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="215" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -33261,7 +33298,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="213"/>
+      <c r="A25" s="215"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -33278,19 +33315,19 @@
         <v>399</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O25" s="5"/>
     </row>
@@ -33340,7 +33377,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="B30" s="57"/>
       <c r="G30" s="5"/>
@@ -33354,13 +33391,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="212" t="s">
-        <v>641</v>
-      </c>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
+      <c r="F31" s="214" t="s">
+        <v>639</v>
+      </c>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -33390,13 +33427,13 @@
         <v>480</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K32" s="40" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -33404,13 +33441,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C33" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D33" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>637</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>639</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>161</v>
@@ -33422,16 +33459,16 @@
         <v>165</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -33439,10 +33476,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D34" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>441</v>
@@ -33461,7 +33498,7 @@
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="78" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -33485,7 +33522,7 @@
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="78" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -33501,7 +33538,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B38" s="57"/>
       <c r="G38" s="5"/>
@@ -33533,10 +33570,10 @@
         <v>480</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K39" s="73" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L39" s="73"/>
       <c r="M39" s="73"/>
@@ -33544,10 +33581,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C40" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>282</v>
@@ -33562,13 +33599,13 @@
         <v>165</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -33579,7 +33616,7 @@
         <v>391</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>441</v>
@@ -33597,7 +33634,7 @@
         <v>441</v>
       </c>
       <c r="K41" s="78" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -33625,7 +33662,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="68" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -33633,16 +33670,16 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="C45" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>646</v>
-      </c>
       <c r="F45" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H45" s="18"/>
       <c r="J45" s="6"/>
@@ -33650,26 +33687,26 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C46" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D47" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -33732,35 +33769,35 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -33773,7 +33810,7 @@
     <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>281</v>
@@ -33817,7 +33854,7 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -34002,7 +34039,7 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="78" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -34068,7 +34105,7 @@
         <v>458</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -34091,7 +34128,7 @@
     <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
@@ -34107,7 +34144,7 @@
     </row>
     <row r="43" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F43" s="57" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="25"/>
@@ -34135,7 +34172,7 @@
     </row>
     <row r="47" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E47" s="2" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -34177,17 +34214,17 @@
         <v>282</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="5:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="G52" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="5:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="G53" s="57" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H53" s="57"/>
       <c r="I53" s="57"/>
@@ -34274,7 +34311,7 @@
     </row>
     <row r="67" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="68" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34288,7 +34325,7 @@
         <v>577</v>
       </c>
       <c r="G69" s="57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34296,7 +34333,7 @@
         <v>296</v>
       </c>
       <c r="G70" s="57" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H70" s="57" t="s">
         <v>159</v>
@@ -34313,16 +34350,16 @@
     </row>
     <row r="73" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F73" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G73" s="33"/>
     </row>
     <row r="74" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F74" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G74" s="57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34343,13 +34380,13 @@
     </row>
     <row r="77" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="G77" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>297</v>
@@ -34363,7 +34400,7 @@
         <v>299</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34393,7 +34430,7 @@
         <v>296</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34414,16 +34451,16 @@
     </row>
     <row r="86" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F86" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G86" s="33"/>
     </row>
     <row r="87" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F87" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G87" s="57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -34444,13 +34481,13 @@
     </row>
     <row r="90" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="G90" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H90" s="25"/>
     </row>
     <row r="91" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>307</v>
@@ -34481,7 +34518,7 @@
     <row r="94" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E94" s="57"/>
       <c r="F94" s="57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="57"/>
@@ -34492,10 +34529,10 @@
     <row r="95" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E95" s="57"/>
       <c r="F95" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G95" s="57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H95" s="57"/>
       <c r="I95" s="57"/>
@@ -34532,7 +34569,7 @@
       <c r="E98" s="57"/>
       <c r="F98" s="57"/>
       <c r="G98" s="57" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H98" s="25"/>
       <c r="I98" s="57"/>
@@ -34542,7 +34579,7 @@
     <row r="99" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E99" s="57"/>
       <c r="F99" s="57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G99" s="57" t="s">
         <v>297</v>
@@ -34583,7 +34620,7 @@
     <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>278</v>
@@ -34600,7 +34637,7 @@
     <row r="104" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G104" s="111"/>
       <c r="H104" s="8"/>
@@ -34613,10 +34650,10 @@
     <row r="105" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -35408,7 +35445,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -35468,7 +35505,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -35561,7 +35598,7 @@
     </row>
     <row r="160" spans="5:30" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F160" s="127" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="G160" s="127"/>
       <c r="H160" s="127"/>
@@ -35598,7 +35635,7 @@
     </row>
     <row r="165" spans="5:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F165" s="123" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="G165" s="123"/>
       <c r="H165" s="123"/>
@@ -35629,42 +35666,42 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
       <c r="C3" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -35672,7 +35709,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -35680,22 +35717,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G18" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G23" s="5" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F28" s="167" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="G28" s="167"/>
       <c r="H28" s="167"/>
@@ -35711,7 +35748,7 @@
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F30" s="5" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.15">
@@ -35722,22 +35759,22 @@
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G32" s="5" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="I32" s="25"/>
       <c r="L32" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G33" s="5" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G34" s="5" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="I34" s="20"/>
     </row>
@@ -35771,7 +35808,7 @@
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F39" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="32"/>
@@ -35781,7 +35818,7 @@
     <row r="40" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="2"/>
@@ -35796,25 +35833,25 @@
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F43" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G44" s="5" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G45" s="5" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H46" s="5" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="L46" s="57" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.15">
@@ -35825,69 +35862,69 @@
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H48" s="5" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I49" s="5" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I50" s="5" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H51" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H52" s="5" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I53" s="161" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J53" s="161" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K53" s="161" t="s">
         <v>1270</v>
-      </c>
-      <c r="I53" s="161" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J53" s="161" t="s">
-        <v>1264</v>
-      </c>
-      <c r="K53" s="161" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="I54" s="162">
         <v>1</v>
       </c>
       <c r="J54" s="162" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="K54" s="169" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A55" s="165" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="I55" s="162">
         <v>2</v>
       </c>
       <c r="J55" s="162" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="K55" s="170" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
@@ -35895,10 +35932,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="162" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="K56" s="170" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
@@ -35906,15 +35943,15 @@
         <v>4</v>
       </c>
       <c r="J57" s="162" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="K57" s="162" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H58" s="167" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="I58" s="168"/>
       <c r="J58" s="168"/>
@@ -35934,7 +35971,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="H59" s="167"/>
       <c r="I59" s="168" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="J59" s="168"/>
       <c r="K59" s="167"/>
@@ -35956,18 +35993,18 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="166" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -35981,46 +36018,46 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I66" s="5" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="L66" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I67" s="5" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G69" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H70" s="5" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H71" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I72" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -36031,129 +36068,129 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H74" s="5" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I75" s="5" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G78" s="5" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H79" s="5" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I80" s="5" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I81" s="5" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.15">
       <c r="I82" s="5" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J83" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J84" s="5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="M84" s="9"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J85" s="5" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K86" s="5" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="P86" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K87" s="5" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K88" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.15">
       <c r="J89" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K90" s="5" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K91" s="5" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.15">
       <c r="K92" s="5" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F94" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.15">
       <c r="G95" s="5" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="M95" s="57" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H96" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G97" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -36161,7 +36198,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G98" s="5" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -36169,7 +36206,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G99" s="5" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="H99" s="5">
         <v>3</v>
@@ -36177,7 +36214,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G100" s="5" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="H100" s="5">
         <v>4</v>
@@ -36185,196 +36222,196 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="G101" s="167" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="H101" s="167"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H102" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H104" s="5" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G106" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H108" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I109" s="21" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I110" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="J110" s="9"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G112" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="113" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H113" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="114" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H114" s="5" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="115" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I115" s="5" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="116" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I116" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="117" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J117" s="5" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="118" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J118" s="5" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J119" s="5" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="O119" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="120" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J120" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="122" spans="7:15" x14ac:dyDescent="0.15">
       <c r="G122" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="123" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H123" s="5" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="124" spans="7:15" x14ac:dyDescent="0.15">
       <c r="H124" s="5" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="125" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I125" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="126" spans="7:15" x14ac:dyDescent="0.15">
       <c r="I126" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="127" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J127" s="5" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="O127" s="57" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="128" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J128" s="5" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="L128" s="9"/>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G130" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.15">
       <c r="H131" s="5" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I132" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I133" s="5" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I134" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F136" s="5" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.15">
       <c r="G137" s="5" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -36408,83 +36445,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E20" s="2" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -36512,42 +36549,42 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D31" s="2" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E45" s="2" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F46" s="2" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F55" s="2" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G56" s="2" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H57" s="2" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -36557,77 +36594,77 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="G59" s="2" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="H60" s="2" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F61" s="2" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="2" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F65" s="2" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F66" s="2" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F67" s="2" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F68" s="2" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F69" s="2" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C77" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D78" s="2" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -36647,149 +36684,149 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E83" s="2" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D84" s="2" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E85" s="2" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C88" s="2" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E90" s="2" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F91" s="2" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G92" s="2" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G93" s="2" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G94" s="2" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G95" s="2" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E96" s="2" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F97" s="9" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C104" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D105" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D107" s="2" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E108" s="2" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D109" s="2" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C113" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D114" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C119" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D120" s="2" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D121" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
@@ -36799,17 +36836,17 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E123" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C124" s="2" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D125" s="2" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
@@ -36823,8 +36860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R111" sqref="R111"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -36895,10 +36932,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="208" t="s">
+      <c r="L12" s="210" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="208"/>
+      <c r="M12" s="210"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -36920,7 +36957,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>155</v>
@@ -36941,7 +36978,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.15">
@@ -36964,7 +37001,7 @@
         <v>455</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.15">
@@ -36995,7 +37032,7 @@
         <v>236</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
@@ -37009,22 +37046,22 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="G18" s="66" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.15">
@@ -37043,11 +37080,11 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D20" s="83" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="83" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G20" s="105"/>
       <c r="H20" s="105"/>
@@ -37062,7 +37099,7 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D21" s="83"/>
       <c r="E21" s="83" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -37078,7 +37115,7 @@
     <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D22" s="83"/>
       <c r="E22" s="120" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="F22" s="120"/>
       <c r="G22" s="105"/>
@@ -37094,7 +37131,7 @@
     <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D23" s="83"/>
       <c r="E23" s="83" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="105"/>
@@ -37110,7 +37147,7 @@
     <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D24" s="83"/>
       <c r="E24" s="83" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="105"/>
@@ -37123,7 +37160,7 @@
       <c r="N24" s="83"/>
       <c r="O24" s="83"/>
       <c r="R24" s="2" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.15">
@@ -37178,10 +37215,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E29" s="2" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="G29" s="127" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="H29" s="143"/>
       <c r="I29" s="143"/>
@@ -37194,7 +37231,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F30" s="123" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="G30" s="123"/>
       <c r="H30" s="124"/>
@@ -37208,7 +37245,7 @@
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F31" s="123"/>
       <c r="G31" s="123" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="H31" s="123"/>
       <c r="I31" s="123"/>
@@ -37222,7 +37259,7 @@
       <c r="F32" s="123"/>
       <c r="G32" s="123"/>
       <c r="H32" s="123" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="I32" s="124"/>
       <c r="J32" s="124"/>
@@ -37236,7 +37273,7 @@
       <c r="G33" s="123"/>
       <c r="H33" s="123"/>
       <c r="I33" s="123" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="J33" s="123"/>
       <c r="K33" s="123"/>
@@ -37289,7 +37326,7 @@
       <c r="H37" s="123"/>
       <c r="I37" s="123"/>
       <c r="J37" s="123" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="K37" s="123"/>
       <c r="L37" s="123"/>
@@ -37315,7 +37352,7 @@
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
       <c r="J39" s="123" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="K39" s="123"/>
       <c r="L39" s="123"/>
@@ -37326,7 +37363,7 @@
       <c r="F40" s="123"/>
       <c r="G40" s="123"/>
       <c r="H40" s="123" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="I40" s="123"/>
       <c r="J40" s="123"/>
@@ -37351,7 +37388,7 @@
       <c r="G42" s="123"/>
       <c r="H42" s="123"/>
       <c r="I42" s="123" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J42" s="123"/>
       <c r="K42" s="123"/>
@@ -37389,7 +37426,7 @@
       <c r="F45" s="123"/>
       <c r="G45" s="123"/>
       <c r="H45" s="123" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="I45" s="123"/>
       <c r="J45" s="123"/>
@@ -37694,7 +37731,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -37723,7 +37760,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -38042,7 +38079,7 @@
         <v>40</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
@@ -38055,7 +38092,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="G100" s="183" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="H100" s="183"/>
       <c r="I100" s="183"/>
@@ -38073,7 +38110,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F101" s="83" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>411</v>
@@ -38081,7 +38118,7 @@
     </row>
     <row r="102" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A102" s="103" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F102" s="84" t="s">
         <v>44</v>
@@ -38093,16 +38130,16 @@
         <v>53</v>
       </c>
       <c r="I102" s="84" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F103" s="84"/>
       <c r="G103" s="83" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H103" s="84" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="I103" s="84">
         <v>1</v>
@@ -38123,10 +38160,10 @@
     <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F105" s="84"/>
       <c r="G105" s="84" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H105" s="84" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I105" s="84">
         <v>3</v>
@@ -38170,10 +38207,10 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F109" s="180" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="G109" s="180" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="H109" s="180"/>
       <c r="I109" s="180"/>
@@ -38185,7 +38222,7 @@
     <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F110" s="180"/>
       <c r="G110" s="180" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="H110" s="180"/>
       <c r="I110" s="180"/>
@@ -38286,10 +38323,10 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120" s="53" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F120" s="83" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>63</v>
@@ -38305,21 +38342,21 @@
     </row>
     <row r="122" spans="1:22" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A122" s="103" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F122" s="57" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G122" s="57" t="s">
         <v>611</v>
       </c>
       <c r="H122" s="57" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I122" s="57"/>
       <c r="J122" s="57"/>
       <c r="K122" s="57" t="s">
-        <v>934</v>
+        <v>1620</v>
       </c>
       <c r="L122" s="57"/>
       <c r="M122" s="57"/>
@@ -38338,13 +38375,13 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F124" s="57" t="s">
-        <v>612</v>
+        <v>1621</v>
       </c>
       <c r="G124" s="57" t="s">
-        <v>613</v>
+        <v>1622</v>
       </c>
       <c r="H124" s="57" t="s">
-        <v>614</v>
+        <v>1623</v>
       </c>
       <c r="I124" s="57"/>
       <c r="J124" s="57"/>
@@ -38366,7 +38403,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="G127" s="183" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="H127" s="183"/>
       <c r="I127" s="183"/>
@@ -38391,18 +38428,18 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="53" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F129" s="82" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1006</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="78" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>75</v>
@@ -38426,10 +38463,10 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F132" s="5"/>
       <c r="G132" s="123" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="H132" s="123" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="I132" s="123"/>
       <c r="J132" s="123"/>
@@ -38449,7 +38486,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="123"/>
       <c r="H133" s="123" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="I133" s="123"/>
       <c r="J133" s="123"/>
@@ -38470,7 +38507,7 @@
       <c r="G134" s="123"/>
       <c r="H134" s="123"/>
       <c r="I134" s="123" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="J134" s="123"/>
       <c r="K134" s="123"/>
@@ -38489,7 +38526,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="123"/>
       <c r="H135" s="123" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="I135" s="123"/>
       <c r="J135" s="123"/>
@@ -38510,7 +38547,7 @@
       <c r="G136" s="123"/>
       <c r="H136" s="123"/>
       <c r="I136" s="123" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="J136" s="123"/>
       <c r="K136" s="123"/>
@@ -38572,10 +38609,10 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="53" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F141" s="83" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>78</v>
@@ -38584,15 +38621,15 @@
         <v>81</v>
       </c>
       <c r="K141" s="83" t="s">
-        <v>940</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="53" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F142" s="83" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>80</v>
@@ -38600,16 +38637,16 @@
       <c r="I142" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K142" s="84" t="s">
-        <v>827</v>
+      <c r="K142" s="219" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="53" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F143" s="83" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>89</v>
@@ -38618,15 +38655,15 @@
         <v>81</v>
       </c>
       <c r="K143" s="83" t="s">
-        <v>940</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="53" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F144" s="83" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>91</v>
@@ -38634,8 +38671,8 @@
       <c r="I144" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K144" s="84" t="s">
-        <v>827</v>
+      <c r="K144" s="219" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
@@ -38643,11 +38680,11 @@
         <v>92</v>
       </c>
       <c r="F145" s="83" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G145" s="83"/>
       <c r="H145" s="83" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I145" s="83"/>
       <c r="J145" s="83"/>
@@ -38664,15 +38701,15 @@
     </row>
     <row r="146" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A146" s="103" t="s">
+        <v>898</v>
+      </c>
+      <c r="B146" s="78" t="s">
         <v>902</v>
-      </c>
-      <c r="B146" s="78" t="s">
-        <v>906</v>
       </c>
       <c r="E146" s="83"/>
       <c r="F146" s="83"/>
       <c r="G146" s="83" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="H146" s="83"/>
       <c r="I146" s="83"/>
@@ -38690,15 +38727,15 @@
     </row>
     <row r="147" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A147" s="103" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B147" s="78" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E147" s="83"/>
       <c r="F147" s="83"/>
       <c r="G147" s="83" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="H147" s="83"/>
       <c r="I147" s="83"/>
@@ -38716,7 +38753,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B148" s="78" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E148" s="83"/>
       <c r="F148" s="83"/>
@@ -38748,12 +38785,12 @@
         <v>420</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>101</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="53" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.15">
@@ -39082,7 +39119,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E29" s="8" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -39094,13 +39131,13 @@
     <row r="30" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="K30" s="8"/>
     </row>
@@ -39169,7 +39206,7 @@
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.15">
@@ -39179,7 +39216,7 @@
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G45" s="57" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -39188,25 +39225,25 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J53" s="2" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J55" s="183" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.15">
@@ -39214,7 +39251,7 @@
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.15">
       <c r="J58" s="2" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.15">
@@ -39225,18 +39262,18 @@
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="K62" s="8"/>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="57" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
@@ -39245,14 +39282,14 @@
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F69" s="5" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F70" s="57" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="25"/>
@@ -39265,7 +39302,7 @@
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="24"/>
@@ -39274,7 +39311,7 @@
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F73" s="5" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="G73" s="24"/>
       <c r="H73" s="5"/>
@@ -39282,7 +39319,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E74" s="2" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -39291,37 +39328,37 @@
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F75" s="5" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F76" s="5" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E77" s="2" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F78" s="2" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F79" s="8" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -39330,11 +39367,11 @@
     <row r="80" spans="5:9" x14ac:dyDescent="0.15">
       <c r="F80" s="8"/>
       <c r="G80" s="8" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="81" spans="5:10" x14ac:dyDescent="0.15">
@@ -39362,31 +39399,31 @@
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F85" s="5" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F86" s="57" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="G86" s="57" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F87" s="2" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F88" s="2" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F89" s="5" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -39395,7 +39432,7 @@
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F90" s="8" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -39404,25 +39441,25 @@
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E92" s="57" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F93" s="5" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F94" s="57" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E95" s="183"/>
       <c r="F95" s="183" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="G95" s="183"/>
       <c r="H95" s="183"/>
@@ -39431,7 +39468,7 @@
     <row r="96" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E96" s="183"/>
       <c r="F96" s="183" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="G96" s="183"/>
       <c r="H96" s="183"/>
@@ -39439,40 +39476,40 @@
     </row>
     <row r="97" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F97" s="57" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
     </row>
     <row r="99" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E99" s="2" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F100" s="2" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="G100" s="5"/>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="G101" s="8"/>
     </row>
     <row r="102" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F102" s="57" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="G102" s="57" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F103" s="57" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="G103" s="57"/>
     </row>
@@ -39986,7 +40023,7 @@
     </row>
     <row r="136" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E136" s="123" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F136" s="123"/>
       <c r="G136" s="123"/>
@@ -40021,7 +40058,7 @@
     </row>
     <row r="139" spans="5:16" x14ac:dyDescent="0.15">
       <c r="F139" s="127" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="G139" s="127"/>
       <c r="H139" s="127"/>
@@ -40042,7 +40079,7 @@
     </row>
     <row r="142" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E142" s="172" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="F142" s="172"/>
       <c r="G142" s="172"/>
@@ -40059,7 +40096,7 @@
     <row r="143" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E143" s="172"/>
       <c r="F143" s="172" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G143" s="172"/>
       <c r="H143" s="172"/>
@@ -40075,7 +40112,7 @@
     <row r="144" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E144" s="172"/>
       <c r="F144" s="172" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="G144" s="172"/>
       <c r="H144" s="172"/>
@@ -40091,13 +40128,13 @@
     <row r="145" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E145" s="172"/>
       <c r="F145" s="172" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G145" s="172" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="H145" s="172" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="I145" s="172"/>
       <c r="J145" s="172"/>
@@ -40112,10 +40149,10 @@
       <c r="E146" s="172"/>
       <c r="F146" s="172"/>
       <c r="G146" s="172" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="H146" s="172" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I146" s="172"/>
       <c r="J146" s="172"/>
@@ -40130,10 +40167,10 @@
       <c r="E147" s="172"/>
       <c r="F147" s="172"/>
       <c r="G147" s="172" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="H147" s="172" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="I147" s="172"/>
       <c r="J147" s="172"/>
@@ -40147,7 +40184,7 @@
     <row r="148" spans="4:16" x14ac:dyDescent="0.15">
       <c r="E148" s="172"/>
       <c r="F148" s="172" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G148" s="172"/>
       <c r="H148" s="172"/>
@@ -40176,7 +40213,7 @@
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.15">
       <c r="D151" s="2" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.15">
@@ -40229,10 +40266,10 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="78" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -40958,8 +40995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -40969,37 +41006,37 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E6" s="8" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E7" s="8" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41007,22 +41044,22 @@
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="8" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="8" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41031,12 +41068,12 @@
     <row r="18" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="8" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="20" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="8" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -41058,22 +41095,22 @@
     <row r="37" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:3" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="183" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="39" spans="2:3" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="183" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="183" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="183" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -41098,12 +41135,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -41113,23 +41150,23 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -41139,22 +41176,22 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="2" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -41182,58 +41219,58 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F41" s="2" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D43" s="2" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D51" s="2" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E52" s="2" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.15">
@@ -41258,119 +41295,119 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D57" s="2" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E58" s="2" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D62" s="2" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E63" s="2" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E64" s="2" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F65" s="9" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D73" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" s="2" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D75" s="2" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E76" s="2" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D77" s="2" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="2" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D88" s="2" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D89" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -41380,17 +41417,17 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E91" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" s="2" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D93" s="2" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
@@ -41404,8 +41441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -41575,7 +41612,7 @@
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H11" s="59" t="s">
         <v>470</v>
@@ -41684,7 +41721,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -41706,7 +41743,7 @@
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="G19" s="83"/>
       <c r="H19" s="83"/>
@@ -41724,7 +41761,7 @@
       <c r="E20" s="83"/>
       <c r="F20" s="83"/>
       <c r="G20" s="83" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
@@ -41857,7 +41894,7 @@
     </row>
     <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="103" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
@@ -41866,7 +41903,7 @@
         <v>487</v>
       </c>
       <c r="H27" s="106" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="I27" s="57" t="s">
         <v>159</v>
@@ -41932,13 +41969,13 @@
         <v>490</v>
       </c>
       <c r="H30" s="57" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I30" s="57" t="s">
         <v>484</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -42127,7 +42164,7 @@
       <c r="E40" s="57"/>
       <c r="F40" s="57"/>
       <c r="G40" s="57" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H40" s="59" t="s">
         <v>470</v>
@@ -42147,7 +42184,7 @@
       <c r="E41" s="183"/>
       <c r="F41" s="183"/>
       <c r="G41" s="193" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="H41" s="183" t="s">
         <v>483</v>
@@ -42167,7 +42204,7 @@
       <c r="E42" s="183"/>
       <c r="F42" s="183"/>
       <c r="G42" s="193" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="H42" s="183" t="s">
         <v>545</v>
@@ -42187,10 +42224,10 @@
       <c r="E43" s="183"/>
       <c r="F43" s="183"/>
       <c r="G43" s="193" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="H43" s="183" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="I43" s="183" t="s">
         <v>484</v>
@@ -42207,10 +42244,10 @@
       <c r="E44" s="183"/>
       <c r="F44" s="183"/>
       <c r="G44" s="183" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="H44" s="183" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="I44" s="183" t="s">
         <v>159</v>
@@ -42451,7 +42488,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H58" s="90" t="s">
         <v>470</v>
@@ -42605,13 +42642,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F70" s="190" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>404</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -42644,12 +42681,12 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F74" s="94" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G75" s="2" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -42690,15 +42727,15 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="53" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="F80" s="83" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="78" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>183</v>
@@ -42787,17 +42824,17 @@
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D99" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E100" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F101" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.15">
@@ -43001,7 +43038,7 @@
     <row r="120" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D120" s="8"/>
       <c r="E120" s="90" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -43014,7 +43051,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>522</v>
@@ -43051,7 +43088,7 @@
     <row r="124" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D124" s="8"/>
       <c r="E124" s="90" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -43100,7 +43137,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="90"/>
       <c r="F128" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -43111,7 +43148,7 @@
     <row r="129" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D129" s="8"/>
       <c r="E129" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
@@ -43127,7 +43164,7 @@
         <v>527</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -43148,7 +43185,7 @@
     </row>
     <row r="132" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
@@ -43161,7 +43198,7 @@
     <row r="133" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D133" s="8"/>
       <c r="E133" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
@@ -43259,7 +43296,7 @@
     <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="8"/>
       <c r="E141" s="90" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
@@ -43272,10 +43309,10 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -43347,7 +43384,7 @@
     <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D148" s="8"/>
       <c r="E148" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
@@ -43363,7 +43400,7 @@
         <v>527</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -43384,7 +43421,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D151" s="85" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E151" s="84"/>
       <c r="F151" s="84"/>
@@ -43410,7 +43447,7 @@
       <c r="D153" s="84"/>
       <c r="E153" s="84"/>
       <c r="F153" s="84" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="G153" s="84"/>
       <c r="H153" s="84"/>
@@ -43421,7 +43458,7 @@
     <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D154" s="84"/>
       <c r="E154" s="93" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F154" s="84"/>
       <c r="G154" s="84"/>
@@ -43434,7 +43471,7 @@
       <c r="D155" s="84"/>
       <c r="E155" s="93"/>
       <c r="F155" s="84" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="G155" s="84" t="s">
         <v>522</v>
@@ -43447,7 +43484,7 @@
     <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D156" s="84"/>
       <c r="E156" s="82" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F156" s="83"/>
       <c r="G156" s="83"/>
@@ -43462,7 +43499,7 @@
       <c r="D157" s="84"/>
       <c r="E157" s="82"/>
       <c r="F157" s="107" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="G157" s="83"/>
       <c r="H157" s="83"/>
@@ -43474,11 +43511,11 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="78" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D158" s="84"/>
       <c r="E158" s="93" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F158" s="84"/>
       <c r="G158" s="84"/>
@@ -43491,10 +43528,10 @@
       <c r="D159" s="84"/>
       <c r="E159" s="84"/>
       <c r="F159" s="84" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G159" s="84" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H159" s="84"/>
       <c r="I159" s="84"/>
@@ -43503,11 +43540,11 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="53" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D160" s="84"/>
       <c r="E160" s="84" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84"/>
@@ -43520,11 +43557,11 @@
       <c r="D161" s="84"/>
       <c r="E161" s="84"/>
       <c r="F161" s="84" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G161" s="84"/>
       <c r="H161" s="118" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="I161" s="84"/>
       <c r="J161" s="84"/>
@@ -43533,7 +43570,7 @@
     <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D162" s="84"/>
       <c r="E162" s="93" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F162" s="84"/>
       <c r="G162" s="84"/>
@@ -43544,12 +43581,12 @@
     </row>
     <row r="163" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A163" s="103" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D163" s="84"/>
       <c r="E163" s="84"/>
       <c r="F163" s="84" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G163" s="84"/>
       <c r="H163" s="84"/>
@@ -43559,12 +43596,12 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="78" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D164" s="84"/>
       <c r="E164" s="84"/>
       <c r="F164" s="84" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G164" s="84"/>
       <c r="H164" s="84"/>
@@ -43574,11 +43611,11 @@
     </row>
     <row r="165" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A165" s="103" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="187" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -43589,12 +43626,12 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="78" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -43606,7 +43643,7 @@
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -43645,7 +43682,7 @@
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
@@ -43714,10 +43751,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="209" t="s">
+      <c r="E174" s="211" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="210"/>
+      <c r="F174" s="212"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -44268,14 +44305,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9" style="2"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="66.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -44300,7 +44338,7 @@
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D5" s="119" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E5" s="119"/>
       <c r="F5" s="119"/>
@@ -44327,7 +44365,7 @@
     <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D6" s="119"/>
       <c r="E6" s="119" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="F6" s="119"/>
       <c r="G6" s="119"/>
@@ -44353,7 +44391,7 @@
     <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D7" s="119"/>
       <c r="E7" s="119" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="F7" s="119"/>
       <c r="G7" s="119"/>
@@ -44379,7 +44417,7 @@
     <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D8" s="119"/>
       <c r="E8" s="119" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="F8" s="119"/>
       <c r="G8" s="119"/>
@@ -44406,7 +44444,7 @@
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
       <c r="F9" s="119" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="G9" s="119"/>
       <c r="H9" s="119"/>
@@ -44432,7 +44470,7 @@
       <c r="D10" s="119"/>
       <c r="E10" s="119"/>
       <c r="F10" s="119" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="G10" s="119"/>
       <c r="H10" s="119"/>
@@ -44477,59 +44515,59 @@
     </row>
     <row r="14" spans="2:25" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="183" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="E14" s="183" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="K14" s="189"/>
       <c r="L14" s="189"/>
     </row>
     <row r="15" spans="2:25" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E15" s="183" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="K15" s="189"/>
       <c r="L15" s="189"/>
     </row>
     <row r="16" spans="2:25" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="183" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="K16" s="189"/>
       <c r="L16" s="189"/>
     </row>
     <row r="17" spans="4:12" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="183" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="K17" s="189"/>
       <c r="L17" s="189"/>
     </row>
     <row r="18" spans="4:12" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="183" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="K18" s="189"/>
       <c r="L18" s="189"/>
     </row>
     <row r="19" spans="4:12" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="183" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="K19" s="189"/>
       <c r="L19" s="189"/>
     </row>
     <row r="20" spans="4:12" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F20" s="183" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="K20" s="189"/>
       <c r="L20" s="189"/>
     </row>
     <row r="21" spans="4:12" s="183" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F21" s="183" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="K21" s="189"/>
       <c r="L21" s="189"/>
@@ -44541,7 +44579,7 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D23" s="107" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E23" s="83" t="s">
         <v>205</v>
@@ -44550,10 +44588,10 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D24" s="107" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E24" s="180" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -44583,13 +44621,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="53" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D44" s="84" t="s">
-        <v>962</v>
+        <v>1636</v>
       </c>
       <c r="E44" s="121" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
@@ -44601,7 +44639,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D45" s="84"/>
       <c r="E45" s="93" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
@@ -44613,7 +44651,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D46" s="84"/>
       <c r="E46" s="121" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
@@ -44625,7 +44663,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D47" s="84"/>
       <c r="E47" s="93" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F47" s="85"/>
       <c r="G47" s="93"/>
@@ -44637,7 +44675,7 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D48" s="84"/>
       <c r="E48" s="121" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F48" s="85"/>
       <c r="G48" s="93"/>
@@ -44649,7 +44687,7 @@
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D49" s="84"/>
       <c r="E49" s="93" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F49" s="85"/>
       <c r="G49" s="93"/>
@@ -44661,7 +44699,7 @@
     <row r="50" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D50" s="84"/>
       <c r="E50" s="121" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F50" s="85"/>
       <c r="G50" s="93"/>
@@ -44673,7 +44711,7 @@
     <row r="51" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D51" s="84"/>
       <c r="E51" s="93" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F51" s="85"/>
       <c r="G51" s="93"/>
@@ -44685,7 +44723,7 @@
     <row r="52" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D52" s="84"/>
       <c r="E52" s="121" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F52" s="85"/>
       <c r="G52" s="93"/>
@@ -44697,7 +44735,7 @@
     <row r="53" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D53" s="84"/>
       <c r="E53" s="93" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="93"/>
@@ -44709,7 +44747,7 @@
     <row r="54" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D54" s="84"/>
       <c r="E54" s="121" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F54" s="85"/>
       <c r="G54" s="93"/>
@@ -44724,7 +44762,7 @@
     <row r="55" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D55" s="84"/>
       <c r="E55" s="93" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F55" s="85"/>
       <c r="G55" s="93"/>
@@ -44739,7 +44777,7 @@
     <row r="56" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D56" s="84"/>
       <c r="E56" s="93" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="93"/>
@@ -44754,7 +44792,7 @@
     <row r="57" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D57" s="84"/>
       <c r="E57" s="93" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F57" s="85"/>
       <c r="G57" s="93"/>
@@ -44769,7 +44807,7 @@
     <row r="58" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D58" s="84"/>
       <c r="E58" s="93" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="93"/>
@@ -44784,7 +44822,7 @@
     <row r="59" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D59" s="84"/>
       <c r="E59" s="96" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="96"/>
@@ -44799,7 +44837,7 @@
     <row r="60" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D60" s="84"/>
       <c r="E60" s="93" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="93"/>
@@ -44811,7 +44849,7 @@
     <row r="61" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D61" s="84"/>
       <c r="E61" s="93" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F61" s="85"/>
       <c r="G61" s="93"/>
@@ -44840,7 +44878,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D65" s="2" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
@@ -44855,10 +44893,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="F68" s="127" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="G68" s="127"/>
       <c r="H68" s="127"/>
@@ -44870,7 +44908,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E70" s="2" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
@@ -44881,7 +44919,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F72" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="G72" s="22"/>
       <c r="H72" s="120"/>
@@ -44890,7 +44928,7 @@
       <c r="K72" s="120"/>
       <c r="L72" s="120"/>
       <c r="M72" s="127" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="N72" s="127"/>
       <c r="O72" s="127"/>
@@ -44971,36 +45009,36 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="83"/>
       <c r="G9" s="83" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
@@ -45010,11 +45048,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -45024,7 +45062,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.15">
@@ -45055,7 +45093,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.15">
@@ -45097,7 +45135,7 @@
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.15">
       <c r="E31" s="123" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="F31" s="123"/>
       <c r="G31" s="123"/>
@@ -45105,7 +45143,7 @@
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
       <c r="L31" s="127" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="M31" s="127"/>
       <c r="N31" s="127"/>
@@ -45133,12 +45171,12 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F36" s="2" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F37" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -45160,7 +45198,7 @@
   <dimension ref="A2:S41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:J11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -45213,13 +45251,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F9" s="107" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>239</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="M9" s="94"/>
       <c r="N9" s="94"/>
@@ -45231,11 +45269,11 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="53" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -45247,11 +45285,11 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -45274,13 +45312,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="78" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>240</v>
+        <v>1633</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -45289,7 +45330,7 @@
     </row>
     <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D32" s="123" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1642">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6582,6 +6582,14 @@
   </si>
   <si>
     <t>不为装备则为-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=怪物碎片，2=道具碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加碎片的subtype（区分宠物和道具碎片）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7922,6 +7930,9 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7990,9 +8001,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -26477,8 +26485,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3266667</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504417</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>142555</xdr:rowOff>
     </xdr:to>
@@ -26559,13 +26567,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>324364</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>4176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -27092,10 +27100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27295,17 +27303,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="144"/>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="201" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202" t="s">
+      <c r="C11" s="202"/>
+      <c r="D11" s="203" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="204"/>
       <c r="I11" s="145"/>
       <c r="J11" s="145"/>
       <c r="K11" s="145"/>
@@ -27320,11 +27328,11 @@
         <v>697</v>
       </c>
       <c r="C12" s="151"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="198"/>
       <c r="I12" s="145"/>
       <c r="J12" s="145"/>
       <c r="K12" s="145"/>
@@ -27339,11 +27347,11 @@
         <v>698</v>
       </c>
       <c r="C13" s="151"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="205"/>
-      <c r="H13" s="206"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="207"/>
       <c r="I13" s="145"/>
       <c r="J13" s="145"/>
       <c r="K13" s="145"/>
@@ -27358,11 +27366,11 @@
         <v>699</v>
       </c>
       <c r="C14" s="151"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="209"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="210"/>
       <c r="I14" s="145"/>
       <c r="J14" s="145"/>
       <c r="K14" s="145"/>
@@ -27379,11 +27387,11 @@
       <c r="C15" s="152" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
       <c r="K15" s="145"/>
@@ -27398,11 +27406,11 @@
         <v>702</v>
       </c>
       <c r="C16" s="152"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
       <c r="I16" s="145"/>
       <c r="J16" s="145">
         <v>-0.15</v>
@@ -27423,11 +27431,11 @@
         <v>703</v>
       </c>
       <c r="C17" s="152"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="145"/>
       <c r="J17" s="145"/>
       <c r="K17" s="145">
@@ -27444,11 +27452,11 @@
         <v>704</v>
       </c>
       <c r="C18" s="154"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="200"/>
       <c r="I18" s="145"/>
       <c r="J18" s="145"/>
       <c r="K18" s="145"/>
@@ -28600,43 +28608,50 @@
     <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="145"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="155"/>
+      <c r="C73" s="155">
+        <v>42324</v>
+      </c>
       <c r="D73" s="2"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="146" t="s">
+        <v>866</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I73" s="145"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="145"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="144" t="s">
+      <c r="A74" s="145"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="144" t="s">
         <v>715</v>
       </c>
-      <c r="B74" s="145" t="s">
+      <c r="B75" s="145" t="s">
         <v>706</v>
       </c>
-      <c r="C74" s="146" t="s">
+      <c r="C75" s="146" t="s">
         <v>716</v>
       </c>
-      <c r="D74" s="146" t="s">
+      <c r="D75" s="146" t="s">
         <v>717</v>
       </c>
-      <c r="E74" s="146" t="s">
+      <c r="E75" s="146" t="s">
         <v>718</v>
       </c>
-      <c r="F74" s="146"/>
-      <c r="H74" s="145"/>
-      <c r="I74" s="145"/>
-      <c r="J74" s="145"/>
-      <c r="K74" s="145"/>
-      <c r="L74" s="145"/>
-      <c r="M74" s="145"/>
-      <c r="N74" s="145"/>
-      <c r="O74" s="145"/>
-    </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="144"/>
-      <c r="B75" s="144"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
       <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
       <c r="H75" s="145"/>
       <c r="I75" s="145"/>
       <c r="J75" s="145"/>
@@ -28680,8 +28695,25 @@
       <c r="N77" s="145"/>
       <c r="O77" s="145"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F79" s="125"/>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="144"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="146"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="145"/>
+      <c r="K78" s="145"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="145"/>
+      <c r="N78" s="145"/>
+      <c r="O78" s="145"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F80" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -28749,6 +28781,7 @@
     <hyperlink ref="H71" location="合成_兑换出的目标数量" display="合成分解需求增加配置列"/>
     <hyperlink ref="H72" location="装备类道具!G41" display="添加宝石可以添加的属性"/>
     <hyperlink ref="K72" location="配置表结构!I18" display="位置2"/>
+    <hyperlink ref="H73" location="碎片类道具!E7" display="添加碎片的subtype（区分宠物和道具碎片）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -28759,8 +28792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32651,45 +32684,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="217" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="217" t="s">
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="218" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="218" t="s">
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="219" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="218"/>
+      <c r="AA2" s="219"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="213" t="s">
+      <c r="AC2" s="214" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="213"/>
+      <c r="AD2" s="214"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -32879,7 +32912,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="216" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -32945,7 +32978,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="215"/>
+      <c r="A6" s="216"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -33002,7 +33035,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="215"/>
+      <c r="A7" s="216"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -33020,7 +33053,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="215"/>
+      <c r="A8" s="216"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -33032,7 +33065,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="215"/>
+      <c r="A9" s="216"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -33112,7 +33145,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="216" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -33134,7 +33167,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="215"/>
+      <c r="A16" s="216"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -33262,7 +33295,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="216" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -33298,7 +33331,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="215"/>
+      <c r="A25" s="216"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -33391,13 +33424,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="215" t="s">
         <v>639</v>
       </c>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -36860,7 +36893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
@@ -36932,10 +36965,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="210" t="s">
+      <c r="L12" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="210"/>
+      <c r="M12" s="211"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -38637,7 +38670,7 @@
       <c r="I142" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K142" s="219" t="s">
+      <c r="K142" s="196" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -38671,7 +38704,7 @@
       <c r="I144" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K144" s="219" t="s">
+      <c r="K144" s="196" t="s">
         <v>1629</v>
       </c>
     </row>
@@ -38863,7 +38896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -43751,10 +43784,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="211" t="s">
+      <c r="E174" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="212"/>
+      <c r="F174" s="213"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -44305,15 +44338,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="66.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -45195,10 +45228,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S41"/>
+  <dimension ref="A2:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -45236,29 +45269,21 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F8" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F9" s="107" t="s">
-        <v>752</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>957</v>
-      </c>
       <c r="M9" s="94"/>
       <c r="N9" s="94"/>
       <c r="O9" s="5"/>
@@ -45268,28 +45293,30 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="53" t="s">
+      <c r="F10" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="53" t="s">
         <v>909</v>
-      </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83" t="s">
-        <v>830</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="78" t="s">
-        <v>881</v>
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83" t="s">
-        <v>962</v>
+        <v>830</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -45300,8 +45327,13 @@
       <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="78" t="s">
+        <v>881</v>
+      </c>
       <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="G12" s="83" t="s">
+        <v>962</v>
+      </c>
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
@@ -45311,41 +45343,52 @@
       <c r="N12" s="83"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="78" t="s">
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="78" t="s">
         <v>882</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F14" s="107" t="s">
         <v>958</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-    </row>
-    <row r="32" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="123" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+    </row>
+    <row r="33" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="123" t="s">
         <v>997</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-    </row>
-    <row r="33" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H33" s="122"/>
-    </row>
-    <row r="34" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="8:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+    </row>
+    <row r="34" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="122"/>
+    </row>
+    <row r="35" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-315" windowWidth="28440" windowHeight="12450" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1810">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6633,24 +6633,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">通过_表示上一个表中大类,副本类型
-1 = 剧情副本
-2 = 困难副本
-3 = 通天塔
-4 = 金钱试炼
-5 = 经验试炼
-6 = 待定
-商店类型
-1 = 普通商店
-2 = 公会商店
-3 = 通天塔商店
-公会
-1 =  公会BOSS
-2 =  公会任务
-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>显示方式</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -6676,10 +6658,6 @@
   </si>
   <si>
     <t>如果该物品产出只有第一大类信息,则仅显示为</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过获得途径将直接进入对应的界面接口</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
@@ -6911,10 +6889,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若只配置了的产出途径不足三个则UI自动调节至适量大小.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7000,18 +6974,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接左边,
-剧情副本,困难本结构将增加对应的章节,关卡字段副本配置如下,1_副本ID 如
-困难副本
-则困难2-3
-1_困难副本2-3的副本ID
-如公会BOSS则需要添加公会对应的BOSS序列
-如8_BOSS副本 ID表示第一个BOSS,
-公会任务则直接引导到公会任务页面即可.不必配置特定任务.
-日常需要对应的日常任务的ID,如6_日常任务ID</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>[大类名称]: 进入(文字)</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -7070,11 +7032,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>道具合成
-宠物合成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>道具分解
 宠物分解</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7095,16 +7052,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合成界面
-(不区分)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解界面
-(不区分)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跳转到对应的商店界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7163,11 +7110,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当该条件未达成时,显示条件未达成并不显示跳转小箭头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>描述修改，但获取途径中中仍显示具体任务ID对应的任务名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这句话修改描述，且不关闭当前所在界面.当通过途径打开的界面返回或关闭时,仍能回到该界面.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>且不关闭当前所在界面.当通过途径打开的界面返回或关闭时,仍能回到该界面.</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_child10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面文字,途径的相关开放条件未达成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_notopen1</t>
+  </si>
+  <si>
+    <t>record_notopen2</t>
+  </si>
+  <si>
+    <t>record_notopen3</t>
+  </si>
+  <si>
+    <t>record_notopen4</t>
+  </si>
+  <si>
+    <t>record_notopen5</t>
+  </si>
+  <si>
+    <t>副本未开启
+record_notopen1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本未开启</t>
+  </si>
+  <si>
+    <t>合成功能未开启
+record_notopen2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成功能未开启</t>
+  </si>
+  <si>
+    <t>分解功能未开启
+record_notopen3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解功能未开启</t>
+  </si>
+  <si>
+    <t>该商店未开启
+record_notopen4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商店未开启</t>
+  </si>
+  <si>
+    <t>尚未加入公会
+record_notopen5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚未加入公会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过_表示上一个表中大类,副本类型
+商店类型
+1 = 普通商店
+2 = 公会商店
+3 = 通天塔商店
+公会
+1 =  公会BOSS
+2 =  公会任务
+</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>排版为固定两行,留足位置,为翻译预留足够空间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7175,143 +7269,133 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>这句话修改描述，且不关闭当前所在界面.当通过途径打开的界面返回或关闭时,仍能回到该界面.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>且不关闭当前所在界面.当通过途径打开的界面返回或关闭时,仍能回到该界面.</t>
+    <t>材料合成
+宝石合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未加入公会,点击对应公会的获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未加入商店,点击对应商店的获取途径
+(公会商店需要走下面公会判断)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本解锁未开放,点击相关副本获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成功能未开放,点击合成界面获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解功能未开放,点击分解界面获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料合成界面
+宝石合成界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具分解界面
+宠物分解界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若只配置了的产出途径不足三个则UI自动调节至适量大小.(仅仅道具tips)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认分解界面,确认购买界面,活力购买使用界面;各类结算界面.
+(根据情况再后面添加补充)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本ID对应副本名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料合成
+宝石合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务界面
+对应公会BOSS名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前界面的途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_item_found1</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>tips_main1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面文字,途径的相关开放条件未达成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_notopen1</t>
-  </si>
-  <si>
-    <t>record_notopen2</t>
-  </si>
-  <si>
-    <t>record_notopen3</t>
-  </si>
-  <si>
-    <t>record_notopen4</t>
-  </si>
-  <si>
-    <t>record_notopen5</t>
-  </si>
-  <si>
-    <t>副本未开启
-record_notopen1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本未开启</t>
-  </si>
-  <si>
-    <t>合成功能未开启
-record_notopen2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成功能未开启</t>
-  </si>
-  <si>
-    <t>分解功能未开启
-record_notopen3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解功能未开启</t>
-  </si>
-  <si>
-    <t>该商店未开启
-record_notopen4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该商店未开启</t>
-  </si>
-  <si>
-    <t>尚未加入公会
-record_notopen5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚未加入公会</t>
-  </si>
-  <si>
-    <t>对应商店开放
-(公会商店需要走下面公会判断)</t>
+    <t>record_item_found2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径引导的为当前界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若引导途径指向的是当前界面,界面不会跳转弹出提示,"目标功能已经打开."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该条件未达成时,显示途径为红色并不显示跳转小箭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过获得途径将直接进入对应的界面接口.</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标功能已经打开.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接左边,
+剧情副本,困难本结构将增加对应的章节,关卡字段副本配置如下,1_副本ID 如
+商店
+普通商店为
+4_1   
+公会商店为
+4_2
+如公会BOSS则需要添加公会对应的BOSS序列
+如8_1_BOSS副本 ID表示第一个BOSS,
+8_2_公会任务ID
+公会任务则直接引导到公会任务页面即可.不必配置特定任务.
+日常需要对应的日常任务的ID,如6_日常任务ID</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时要求,当获得途径条数配置不足3条时,留出空位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述保留4行文字长度,配置内容不足时,也留出空位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7319,7 +7403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7700,8 +7784,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7843,6 +7935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8249,7 +8347,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8821,9 +8919,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1"/>
@@ -8855,6 +8950,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8925,6 +9028,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8959,10 +9066,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF5EE8CE"/>
       <color rgb="FFA50021"/>
-      <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10461,8 +10568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1882775" y="5429250"/>
-          <a:ext cx="269875" cy="334451"/>
+          <a:off x="2047875" y="5448300"/>
+          <a:ext cx="276225" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="276225" cy="334451"/>
         </a:xfrm>
@@ -10662,8 +10769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1885950" y="21107400"/>
-          <a:ext cx="3267075" cy="1504950"/>
+          <a:off x="2019300" y="21126450"/>
+          <a:ext cx="3590925" cy="1504950"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
         </a:xfrm>
@@ -10849,8 +10956,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4429125" y="15640050"/>
-          <a:ext cx="2782672" cy="4222028"/>
+          <a:off x="4829175" y="15659100"/>
+          <a:ext cx="3011272" cy="4222028"/>
           <a:chOff x="5229225" y="11522793"/>
           <a:chExt cx="3011272" cy="4222028"/>
         </a:xfrm>
@@ -12561,8 +12668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7562850" y="15630525"/>
-          <a:ext cx="3028950" cy="4222028"/>
+          <a:off x="8248650" y="15649575"/>
+          <a:ext cx="3257550" cy="4222028"/>
           <a:chOff x="5229225" y="11522793"/>
           <a:chExt cx="3257550" cy="4222028"/>
         </a:xfrm>
@@ -22833,7 +22940,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5461000" y="9420225"/>
+          <a:off x="5953125" y="9439275"/>
           <a:ext cx="561975" cy="583258"/>
           <a:chOff x="4171946" y="9191625"/>
           <a:chExt cx="628653" cy="609307"/>
@@ -22930,8 +23037,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4105275" y="33404175"/>
-          <a:ext cx="3289300" cy="1504950"/>
+          <a:off x="4467225" y="33423225"/>
+          <a:ext cx="3590925" cy="1504950"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
         </a:xfrm>
@@ -23460,8 +23567,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4067175" y="35833050"/>
-          <a:ext cx="3289300" cy="1562100"/>
+          <a:off x="4429125" y="35852100"/>
+          <a:ext cx="3590925" cy="1562100"/>
           <a:chOff x="2286000" y="43795950"/>
           <a:chExt cx="2886075" cy="1504950"/>
         </a:xfrm>
@@ -23723,7 +23830,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5451474" y="18745200"/>
+          <a:off x="5943599" y="18764250"/>
           <a:ext cx="276225" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="276225" cy="334451"/>
@@ -23874,7 +23981,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5105406" y="8496300"/>
+          <a:off x="5524506" y="8515350"/>
           <a:ext cx="304802" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="316088" cy="334451"/>
@@ -24897,7 +25004,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5451474" y="18745200"/>
+          <a:off x="5943599" y="18764250"/>
           <a:ext cx="276225" cy="334451"/>
           <a:chOff x="5781674" y="18345150"/>
           <a:chExt cx="276225" cy="334451"/>
@@ -25511,13 +25618,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2438400</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3714751</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25526,8 +25633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10010775" y="22745700"/>
-          <a:ext cx="3800476" cy="1524000"/>
+          <a:off x="6019800" y="19507199"/>
+          <a:ext cx="3800476" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25667,13 +25774,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -25684,8 +25791,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1019175" y="8829675"/>
-          <a:ext cx="1190625" cy="1504950"/>
+          <a:off x="3914776" y="8896350"/>
+          <a:ext cx="1819274" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25713,14 +25820,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -25730,9 +25837,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2552700" y="8763000"/>
-          <a:ext cx="57150" cy="1571625"/>
+        <a:xfrm>
+          <a:off x="6381750" y="8829675"/>
+          <a:ext cx="4295775" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25760,10 +25867,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -25778,8 +25885,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="8791575"/>
-          <a:ext cx="1666875" cy="1381125"/>
+          <a:off x="6877050" y="8848725"/>
+          <a:ext cx="6276975" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25877,8 +25984,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3524250</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25887,8 +25994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="18754725"/>
-          <a:ext cx="3438525" cy="514350"/>
+          <a:off x="6191250" y="20012025"/>
+          <a:ext cx="3438525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25918,33 +26025,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>条件未达成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -26008,15 +26088,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3562350</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>3600450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26025,7 +26105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="19259550"/>
+          <a:off x="6200775" y="20278725"/>
           <a:ext cx="3505200" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26091,15 +26171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3376613</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>157165</xdr:rowOff>
+      <xdr:colOff>3414713</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3529013</xdr:colOff>
+      <xdr:colOff>3567113</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>261940</xdr:rowOff>
+      <xdr:rowOff>23815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26108,7 +26188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9401175" y="19354803"/>
+          <a:off x="9439275" y="20373978"/>
           <a:ext cx="314325" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -26145,15 +26225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3224213</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>166691</xdr:rowOff>
+      <xdr:colOff>3262313</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>138116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3376613</xdr:colOff>
+      <xdr:colOff>3414713</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>271466</xdr:rowOff>
+      <xdr:rowOff>33341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26162,7 +26242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9248775" y="19364329"/>
+          <a:off x="9286875" y="20383504"/>
           <a:ext cx="314325" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -26202,15 +26282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3090863</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>166692</xdr:rowOff>
+      <xdr:colOff>3128963</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>138117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3243263</xdr:colOff>
+      <xdr:colOff>3281363</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>271467</xdr:rowOff>
+      <xdr:rowOff>33342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26219,7 +26299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9115425" y="19364330"/>
+          <a:off x="9153525" y="20383505"/>
           <a:ext cx="314325" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -26261,16 +26341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>358775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561361</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>339515</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389911</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>149015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26287,8 +26367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15284450" y="29918025"/>
-          <a:ext cx="4615836" cy="1676190"/>
+          <a:off x="13760450" y="29533850"/>
+          <a:ext cx="5184161" cy="1676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26299,16 +26379,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>777875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485134</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>15453</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27934</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>91653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26325,8 +26405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16656050" y="24488775"/>
-          <a:ext cx="4825359" cy="3580978"/>
+          <a:off x="13985875" y="25057100"/>
+          <a:ext cx="5282559" cy="3580978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29075,17 +29155,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
-      <c r="B11" s="222" t="s">
+      <c r="B11" s="225" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="223"/>
-      <c r="D11" s="224" t="s">
+      <c r="C11" s="226"/>
+      <c r="D11" s="227" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="225"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="228"/>
       <c r="I11" s="142"/>
       <c r="J11" s="142"/>
       <c r="K11" s="142"/>
@@ -29100,11 +29180,11 @@
         <v>697</v>
       </c>
       <c r="C12" s="148"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="219"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="222"/>
       <c r="I12" s="142"/>
       <c r="J12" s="142"/>
       <c r="K12" s="142"/>
@@ -29119,11 +29199,11 @@
         <v>698</v>
       </c>
       <c r="C13" s="148"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
       <c r="I13" s="142"/>
       <c r="J13" s="142"/>
       <c r="K13" s="142"/>
@@ -29138,11 +29218,11 @@
         <v>699</v>
       </c>
       <c r="C14" s="148"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="231"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="234"/>
       <c r="I14" s="142"/>
       <c r="J14" s="142"/>
       <c r="K14" s="142"/>
@@ -29159,11 +29239,11 @@
       <c r="C15" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="222"/>
       <c r="I15" s="142"/>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -29178,11 +29258,11 @@
         <v>702</v>
       </c>
       <c r="C16" s="149"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="222"/>
       <c r="I16" s="142"/>
       <c r="J16" s="142">
         <v>-0.15</v>
@@ -29203,11 +29283,11 @@
         <v>703</v>
       </c>
       <c r="C17" s="149"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="222"/>
       <c r="I17" s="142"/>
       <c r="J17" s="142"/>
       <c r="K17" s="142">
@@ -29224,11 +29304,11 @@
         <v>704</v>
       </c>
       <c r="C18" s="151"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="221"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="224"/>
       <c r="I18" s="142"/>
       <c r="J18" s="142"/>
       <c r="K18" s="142"/>
@@ -30411,10 +30491,10 @@
       <c r="E74" s="194"/>
       <c r="F74" s="143"/>
       <c r="G74" s="143" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="H74" s="54" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I74" s="142"/>
       <c r="J74" s="117"/>
@@ -30740,7 +30820,7 @@
     <row r="34" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H34" s="122"/>
     </row>
-    <row r="35" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -30894,7 +30974,7 @@
         <v>738</v>
       </c>
       <c r="AG2" s="188" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -32164,7 +32244,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C35" s="188" t="s">
         <v>803</v>
       </c>
@@ -32649,8 +32729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32755,13 +32835,13 @@
         <v>1426</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -32850,13 +32930,13 @@
         <v>1371</v>
       </c>
       <c r="AC3" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>1658</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -32945,13 +33025,13 @@
         <v>1370</v>
       </c>
       <c r="AC4" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -33228,7 +33308,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>1390</v>
       </c>
@@ -33332,7 +33412,7 @@
       <c r="J76" s="94"/>
       <c r="K76" s="94"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C77" s="94" t="s">
         <v>1502</v>
       </c>
@@ -33346,7 +33426,7 @@
       <c r="J78" s="94"/>
       <c r="K78" s="94"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C79" s="94" t="s">
         <v>852</v>
       </c>
@@ -33360,7 +33440,7 @@
       <c r="J80" s="86"/>
       <c r="K80" s="94"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C81" s="94" t="s">
         <v>854</v>
       </c>
@@ -33374,7 +33454,7 @@
       <c r="J82" s="86"/>
       <c r="K82" s="94"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C83" s="94" t="s">
         <v>856</v>
       </c>
@@ -33388,7 +33468,7 @@
       <c r="J84" s="86"/>
       <c r="K84" s="94"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C85" s="94" t="s">
         <v>857</v>
       </c>
@@ -33402,7 +33482,7 @@
       <c r="J86" s="86"/>
       <c r="K86" s="94"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C87" s="94" t="s">
         <v>858</v>
       </c>
@@ -33416,7 +33496,7 @@
       <c r="J88" s="86"/>
       <c r="K88" s="94"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C89" s="94" t="s">
         <v>860</v>
       </c>
@@ -33444,16 +33524,16 @@
       <c r="J92" s="86"/>
       <c r="K92" s="94"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C93" s="94" t="s">
         <v>862</v>
       </c>
       <c r="J93" s="86"/>
       <c r="K93" s="94"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C94" s="94"/>
       <c r="J94" s="86"/>
@@ -33461,13 +33541,13 @@
     </row>
     <row r="95" spans="2:11" ht="270" x14ac:dyDescent="0.15">
       <c r="C95" s="193" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D95" s="193" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E95" s="193" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="J95" s="86"/>
       <c r="K95" s="94"/>
@@ -33723,8 +33803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33737,37 +33817,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="211" t="s">
         <v>1033</v>
       </c>
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="212" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" s="213" t="s">
+      <c r="C1" s="212" t="s">
         <v>1035</v>
       </c>
-      <c r="D1" s="213" t="s">
+      <c r="D1" s="212" t="s">
         <v>1036</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="213" t="s">
         <v>1360</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="214" t="s">
         <v>1361</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="214" t="s">
         <v>1362</v>
       </c>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="214" t="s">
         <v>1037</v>
       </c>
-      <c r="I1" s="215" t="s">
+      <c r="I1" s="214" t="s">
         <v>1038</v>
       </c>
-      <c r="J1" s="215" t="s">
+      <c r="J1" s="214" t="s">
         <v>1044</v>
       </c>
-      <c r="K1" s="215" t="s">
+      <c r="K1" s="214" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -33781,10 +33861,10 @@
       <c r="C2" s="135" t="s">
         <v>1041</v>
       </c>
-      <c r="D2" s="216" t="s">
+      <c r="D2" s="215" t="s">
         <v>1052</v>
       </c>
-      <c r="E2" s="216"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="136"/>
       <c r="G2" s="136"/>
       <c r="H2" s="137"/>
@@ -33841,143 +33921,165 @@
       <c r="K4" s="139"/>
     </row>
     <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="203" t="s">
-        <v>1744</v>
+      <c r="A5" s="202" t="s">
+        <v>1737</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E5" s="135"/>
       <c r="F5" s="136"/>
       <c r="G5" s="136"/>
       <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
+      <c r="I5" s="136">
+        <v>1</v>
+      </c>
       <c r="J5" s="136"/>
       <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="217" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B6" s="210" t="s">
-        <v>1741</v>
+      <c r="A6" s="216" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B6" s="209" t="s">
+        <v>1785</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D6" s="217" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="217"/>
+      <c r="D6" s="216" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="139">
+        <v>1</v>
+      </c>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="217" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B7" s="210" t="s">
-        <v>1742</v>
+      <c r="A7" s="216" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B7" s="209" t="s">
+        <v>1786</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D7" s="217" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
+      <c r="D7" s="216" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="136">
+        <v>1</v>
+      </c>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
     </row>
     <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="217" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B8" s="210" t="s">
-        <v>1743</v>
+      <c r="A8" s="216" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B8" s="209" t="s">
+        <v>1787</v>
       </c>
       <c r="C8" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D8" s="217" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
+      <c r="D8" s="216" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="139">
+        <v>1</v>
+      </c>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
     </row>
     <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="217" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B9" s="210" t="s">
-        <v>1788</v>
+      <c r="A9" s="216" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B9" s="209" t="s">
+        <v>1784</v>
       </c>
       <c r="C9" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D9" s="217" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
+      <c r="D9" s="216" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="136">
+        <v>1</v>
+      </c>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="217" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B10" s="210" t="s">
-        <v>1749</v>
+      <c r="A10" s="216" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B10" s="209" t="s">
+        <v>1783</v>
       </c>
       <c r="C10" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D10" s="217" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="D10" s="216" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="139">
+        <v>1</v>
+      </c>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+    </row>
+    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="202" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B11" s="216" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D11" s="216" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216">
+        <v>1</v>
+      </c>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -34742,7 +34844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E61" sqref="E61:F61"/>
     </sheetView>
   </sheetViews>
@@ -35171,45 +35273,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="241" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="239" t="s">
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="242" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="240" t="s">
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="243" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="240"/>
+      <c r="AA2" s="243"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="235" t="s">
+      <c r="AC2" s="238" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="235"/>
+      <c r="AD2" s="238"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -35399,7 +35501,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="240" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -35465,7 +35567,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="237"/>
+      <c r="A6" s="240"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -35522,7 +35624,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="237"/>
+      <c r="A7" s="240"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -35540,7 +35642,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="237"/>
+      <c r="A8" s="240"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -35552,7 +35654,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="237"/>
+      <c r="A9" s="240"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -35632,7 +35734,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="240" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -35654,7 +35756,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="237"/>
+      <c r="A16" s="240"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -35782,7 +35884,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="237" t="s">
+      <c r="A24" s="240" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -35818,7 +35920,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="237"/>
+      <c r="A25" s="240"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -35911,13 +36013,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="236" t="s">
+      <c r="F31" s="239" t="s">
         <v>639</v>
       </c>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="236"/>
-      <c r="J31" s="236"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -39023,10 +39125,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="232" t="s">
+      <c r="L12" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="232"/>
+      <c r="M12" s="235"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -41383,7 +41485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="E142" sqref="E142:P149"/>
     </sheetView>
   </sheetViews>
@@ -42557,7 +42659,7 @@
       <c r="O136" s="123"/>
       <c r="P136" s="123"/>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.15">
       <c r="E137" s="123"/>
       <c r="F137" s="123"/>
       <c r="G137" s="123"/>
@@ -43610,7 +43712,7 @@
     <row r="32" spans="3:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:3" s="179" customFormat="1" x14ac:dyDescent="0.15">
@@ -43642,10 +43744,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L105"/>
+  <dimension ref="A3:N113"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -43672,32 +43774,32 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="282.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
-        <v>1713</v>
+      <c r="A6" s="219" t="s">
+        <v>1710</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="D6" s="195" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E6" s="201" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1779</v>
+      </c>
+      <c r="E6" s="220" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="195"/>
       <c r="D7" s="195"/>
       <c r="E7" s="195"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="198" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -43705,261 +43807,282 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="195" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="H33" s="197" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="197" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="197" t="s">
+      <c r="E34" s="197" t="s">
         <v>1647</v>
       </c>
-      <c r="E34" s="197" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="197" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="203" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G36" s="204" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="204" t="s">
+      <c r="H36" s="204" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I36" s="204" t="s">
         <v>1721</v>
       </c>
-      <c r="F36" s="205" t="s">
+      <c r="J36" s="204" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K36" s="205" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L36" s="208"/>
+      <c r="M36" s="208"/>
+      <c r="N36" s="208"/>
+    </row>
+    <row r="37" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="206" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G37" s="209" t="s">
         <v>1724</v>
       </c>
-      <c r="G36" s="205" t="s">
+      <c r="H37" s="209" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I37" s="209" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J37" s="209" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K37" s="209" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L37" s="208"/>
+      <c r="M37" s="208"/>
+      <c r="N37" s="208"/>
+    </row>
+    <row r="38" spans="3:14" ht="66" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="206" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G38" s="245" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H38" s="245" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I38" s="209" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J38" s="209" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K38" s="209" t="s">
+        <v>1771</v>
+      </c>
+      <c r="L38" s="208"/>
+      <c r="M38" s="208"/>
+      <c r="N38" s="208"/>
+    </row>
+    <row r="39" spans="3:14" ht="66" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="206" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G39" s="209" t="s">
         <v>1725</v>
       </c>
-      <c r="H36" s="205" t="s">
+      <c r="H39" s="209" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I39" s="209" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J39" s="209" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K39" s="209" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L39" s="208"/>
+      <c r="M39" s="208"/>
+      <c r="N39" s="208"/>
+    </row>
+    <row r="40" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="206" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G40" s="209" t="s">
         <v>1726</v>
       </c>
-      <c r="I36" s="206" t="s">
+      <c r="H40" s="209" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I40" s="209" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J40" s="209" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K40" s="209" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L40" s="208"/>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
+    </row>
+    <row r="41" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="206" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="209" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J41" s="209" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K41" s="209" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L41" s="208"/>
+      <c r="M41" s="208"/>
+      <c r="N41" s="208"/>
+    </row>
+    <row r="42" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="206" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G42" s="202"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="209" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J42" s="209" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K42" s="209" t="s">
+        <v>1739</v>
+      </c>
+      <c r="L42" s="208"/>
+      <c r="M42" s="208"/>
+      <c r="N42" s="208"/>
+    </row>
+    <row r="43" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="206" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="209" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J43" s="209" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K43" s="209" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L43" s="208"/>
+      <c r="M43" s="208"/>
+      <c r="N43" s="208"/>
+    </row>
+    <row r="44" spans="3:14" ht="66.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="207" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G44" s="210" t="s">
         <v>1727</v>
       </c>
-      <c r="J36" s="209"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-    </row>
-    <row r="37" spans="3:12" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="207" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F37" s="210" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G37" s="210" t="s">
+      <c r="H44" s="210" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I44" s="209" t="s">
         <v>1733</v>
       </c>
-      <c r="H37" s="210" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I37" s="210" t="s">
-        <v>1778</v>
-      </c>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-    </row>
-    <row r="38" spans="3:12" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="207" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F38" s="210" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G38" s="210" t="s">
-        <v>1734</v>
-      </c>
-      <c r="H38" s="210" t="s">
+      <c r="J44" s="209" t="s">
         <v>1742</v>
       </c>
-      <c r="I38" s="210" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-    </row>
-    <row r="39" spans="3:12" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="207" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F39" s="210" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G39" s="210" t="s">
-        <v>1735</v>
-      </c>
-      <c r="H39" s="210" t="s">
-        <v>1743</v>
-      </c>
-      <c r="I39" s="210" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-    </row>
-    <row r="40" spans="3:12" ht="49.5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="207" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F40" s="210" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G40" s="210" t="s">
-        <v>1736</v>
-      </c>
-      <c r="H40" s="210" t="s">
-        <v>1745</v>
-      </c>
-      <c r="I40" s="210" t="s">
-        <v>1784</v>
-      </c>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-    </row>
-    <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="207" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F41" s="203"/>
-      <c r="G41" s="210" t="s">
-        <v>1737</v>
-      </c>
-      <c r="H41" s="210" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I41" s="210" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J41" s="209"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="209"/>
-    </row>
-    <row r="42" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="207" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F42" s="203"/>
-      <c r="G42" s="210" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H42" s="210" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I42" s="210" t="s">
-        <v>1746</v>
-      </c>
-      <c r="J42" s="209"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="209"/>
-    </row>
-    <row r="43" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="207" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F43" s="203"/>
-      <c r="G43" s="210" t="s">
-        <v>1739</v>
-      </c>
-      <c r="H43" s="210" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I43" s="210" t="s">
-        <v>1747</v>
-      </c>
-      <c r="J43" s="209"/>
-      <c r="K43" s="209"/>
-      <c r="L43" s="209"/>
-    </row>
-    <row r="44" spans="3:12" ht="33.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="208" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F44" s="211" t="s">
-        <v>1732</v>
-      </c>
-      <c r="G44" s="210" t="s">
-        <v>1740</v>
-      </c>
-      <c r="H44" s="210" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I44" s="210" t="s">
-        <v>1786</v>
-      </c>
-      <c r="J44" s="209"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="209"/>
-    </row>
-    <row r="45" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="J45" s="209"/>
-      <c r="K45" s="209"/>
-      <c r="L45" s="209"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K44" s="209" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L44" s="208"/>
+      <c r="M44" s="208"/>
+      <c r="N44" s="208"/>
+    </row>
+    <row r="45" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="208"/>
+      <c r="K45" s="208"/>
+      <c r="L45" s="208"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="197" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="195" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="D49" s="197" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D50" s="197" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C51" s="197" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D52" s="197" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="195" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D53" s="202" t="s">
-        <v>1718</v>
+        <v>1705</v>
+      </c>
+      <c r="D53" s="218" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C54" s="198" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D55" s="197" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D56" s="199" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E56" s="197" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="J56" s="197" t="s">
-        <v>1744</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -43973,281 +44096,321 @@
     </row>
     <row r="64" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="195" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="197"/>
+        <v>1703</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="197"/>
-      <c r="D66" s="197" t="s">
-        <v>1750</v>
+      <c r="D66" s="217" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="197" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="196" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C68" s="197" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D68" s="200" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="197"/>
-      <c r="D69" s="197" t="s">
-        <v>1680</v>
+      <c r="A67" s="197"/>
+      <c r="D67" s="197" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="197" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="196" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C69" s="197" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D69" s="218" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="197" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D70" s="197" t="s">
-        <v>1704</v>
+      <c r="A70" s="197"/>
+      <c r="D70" s="218" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="197" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D71" s="244" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="197"/>
-      <c r="C72" s="197" t="s">
-        <v>1667</v>
+      <c r="D72" s="201" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="197"/>
-      <c r="D73" s="197" t="s">
-        <v>1652</v>
+      <c r="D73" s="201" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="197"/>
-      <c r="D74" s="197" t="s">
-        <v>1682</v>
+      <c r="C74" s="197" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="197"/>
       <c r="D75" s="197" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="195" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D76" s="202" t="s">
-        <v>1752</v>
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="197"/>
+      <c r="D76" s="197" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D77" s="197" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="195" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D79" s="202" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C81" s="197" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="195" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D78" s="218" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="197" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="195" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D81" s="218" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="197" t="s">
+        <v>1799</v>
+      </c>
       <c r="D82" s="197" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D83" s="197" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="195" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1803</v>
+      </c>
+      <c r="F82" s="197" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="197" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="197" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D85" s="197" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="195" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="197" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E87" s="197" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="200" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D88" s="197" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E88" s="197" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="197" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E89" s="197" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="197" t="s">
         <v>1685</v>
       </c>
-      <c r="E85" s="197" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="200" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D86" s="197" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E86" s="197" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="197" t="s">
+      <c r="E90" s="197" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="197" t="s">
         <v>1686</v>
       </c>
-      <c r="E87" s="197" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D88" s="197" t="s">
+      <c r="E91" s="197" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="197" t="s">
         <v>1687</v>
       </c>
-      <c r="E88" s="197" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D89" s="197" t="s">
+      <c r="E92" s="197" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="197" t="s">
         <v>1688</v>
       </c>
-      <c r="E89" s="197" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D90" s="197" t="s">
+      <c r="E93" s="197" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="197" t="s">
         <v>1689</v>
       </c>
-      <c r="E90" s="197" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D91" s="197" t="s">
+      <c r="E94" s="197" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="197" t="s">
         <v>1690</v>
-      </c>
-      <c r="E91" s="197" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D92" s="197" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E92" s="197" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D94" s="197" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D95" s="197" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E95" s="197" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D96" s="197" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E96" s="197" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D97" s="197" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="E97" s="197" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="195" t="s">
-        <v>1714</v>
-      </c>
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" s="197" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="E98" s="197" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D99" s="197" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="E99" s="197" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A100" s="195" t="s">
+        <v>1711</v>
+      </c>
       <c r="D100" s="197" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="E100" s="197" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D101" s="197" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="E101" s="197" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D102" s="197" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="E102" s="197" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D103" s="197" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="E103" s="197" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="196" t="s">
-        <v>1715</v>
-      </c>
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" s="197" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="E104" s="197" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="196"/>
+      <c r="D105" s="197" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E105" s="197" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="196" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D106" s="197" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E106" s="197" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="196"/>
+      <c r="D107" s="197" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E107" s="197" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D112" s="218" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D113" s="219" t="s">
+        <v>1794</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A80:A103 A75:A78 A1:A23 A106:A1048576 A61 A27:A59">
+  <conditionalFormatting sqref="A82:A105 A77:A80 A1:A23 A108:A1048576 A61 A27:A59">
     <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A1048576 A69:A103 A1:A25 A61:A67 A27:A59">
+  <conditionalFormatting sqref="A108:A1048576 A70:A105 A1:A25 A61:A68 A27:A59">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -44581,7 +44744,7 @@
   <dimension ref="A2:O206"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -46890,10 +47053,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="233" t="s">
+      <c r="E174" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="234"/>
+      <c r="F174" s="237"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -48106,7 +48269,7 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="合成_兑换出的目标数量">配置表结构!#REF!</definedName>
     <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1824">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6816,10 +6816,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6841,54 +6837,6 @@
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱试炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验试炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会商店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔商店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会BOSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7122,74 +7070,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>tips_main1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_child10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>界面文字,途径的相关开放条件未达成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7249,18 +7129,6 @@
     <t>尚未加入公会</t>
   </si>
   <si>
-    <t xml:space="preserve">通过_表示上一个表中大类,副本类型
-商店类型
-1 = 普通商店
-2 = 公会商店
-3 = 通天塔商店
-公会
-1 =  公会BOSS
-2 =  公会任务
-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>排版为固定两行,留足位置,为翻译预留足够空间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7295,10 +7163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不显示tips途径的界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>材料合成界面
 宝石合成界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7310,19 +7174,6 @@
   </si>
   <si>
     <t>若只配置了的产出途径不足三个则UI自动调节至适量大小.(仅仅道具tips)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取途径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认分解界面,确认购买界面,活力购买使用界面;各类结算界面.
-(根据情况再后面添加补充)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7397,6 +7248,209 @@
   <si>
     <t>文字描述保留4行文字长度,配置内容不足时,也留出空位</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过_表示上一个表中大类,副本类型
+合成
+1=材料合成
+2=宝石合成
+分解
+1=道具分解
+2=宠物分解
+商店类型
+1 = 普通商店
+2 = 公会商店
+3 = 通天塔商店
+公会
+1 =  公会BOSS
+2 =  公会任务
+</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加合成分解配置区分子类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认分解界面,确认购买界面,活力购买使用界面、宠物图鉴合成宠物确认界面、各类结算界面
+(根据情况再后面添加补充)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径的界面添加宠物图鉴宠物合成确认界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加掉落指引程序拆分和回归多语言内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_huodeway</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main1</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose_title</t>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_main</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_store</t>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main5</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main6</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociaty_title</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_title</t>
+  </si>
+  <si>
+    <t>金钱试炼</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_gold_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验试炼</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_exp_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_putong</t>
+  </si>
+  <si>
+    <t>公会商店</t>
+  </si>
+  <si>
+    <t>shop_gonghui</t>
+  </si>
+  <si>
+    <t>XXX商店</t>
+    <rPh sb="3" eb="4">
+      <t>shang'dian</t>
+    </rPh>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会BOSS</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociaty_boss</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sociaty_task </t>
+  </si>
+  <si>
+    <t>掉落指引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物与物品掉落配置表解析 0.5d</t>
+  </si>
+  <si>
+    <t>道具tips与宠物合成界面tips 1d</t>
+  </si>
+  <si>
+    <t>途径的事件管理 2d</t>
+  </si>
+  <si>
+    <t>修改界面接入的方式（这类主要是进入界面直接进入第二个页签等需要检查修改一下）0.5d</t>
   </si>
 </sst>
 </file>
@@ -7793,7 +7847,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7941,6 +7995,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8347,7 +8407,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8918,7 +8978,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1"/>
@@ -8951,13 +9010,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9028,9 +9101,17 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9105,8 +9186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5612336" y="15278148"/>
-          <a:ext cx="4007924" cy="4124319"/>
+          <a:off x="6069536" y="15278148"/>
+          <a:ext cx="4388924" cy="4124319"/>
           <a:chOff x="5268401" y="11087148"/>
           <a:chExt cx="3913699" cy="4124319"/>
         </a:xfrm>
@@ -25681,8 +25762,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>360897</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484722</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104317</xdr:rowOff>
     </xdr:to>
@@ -25714,13 +25795,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -25731,30 +25812,28 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="8286750"/>
-          <a:ext cx="6924675" cy="1533525"/>
+          <a:off x="3981449" y="8048625"/>
+          <a:ext cx="6248401" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -25774,15 +25853,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:colOff>2009775</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>2038351</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25791,8 +25870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3914776" y="8896350"/>
-          <a:ext cx="1819274" cy="1657350"/>
+          <a:off x="5591175" y="8943975"/>
+          <a:ext cx="28576" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25802,13 +25881,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -25821,15 +25900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25837,9 +25916,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6381750" y="8829675"/>
-          <a:ext cx="4295775" cy="1724025"/>
+        <a:xfrm flipH="1">
+          <a:off x="6353175" y="8829675"/>
+          <a:ext cx="28575" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25849,14 +25928,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -25873,10 +25952,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25886,7 +25965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6877050" y="8848725"/>
-          <a:ext cx="6276975" cy="1504950"/>
+          <a:ext cx="3352800" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25896,14 +25975,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -26341,16 +26420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>358775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>389911</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85111</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>149015</xdr:rowOff>
+      <xdr:rowOff>196640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26367,7 +26446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13760450" y="29533850"/>
+          <a:off x="11884025" y="30210125"/>
           <a:ext cx="5184161" cy="1676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26379,16 +26458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>473075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27934</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>91653</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142234</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>72603</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26405,7 +26484,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13985875" y="25057100"/>
+          <a:off x="11842750" y="26085800"/>
           <a:ext cx="5282559" cy="3580978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28952,10 +29031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="G77" sqref="G77:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29155,17 +29234,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="232" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="227" t="s">
+      <c r="C11" s="233"/>
+      <c r="D11" s="234" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="228"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="235"/>
       <c r="I11" s="142"/>
       <c r="J11" s="142"/>
       <c r="K11" s="142"/>
@@ -29180,11 +29259,11 @@
         <v>697</v>
       </c>
       <c r="C12" s="148"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="222"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="229"/>
       <c r="I12" s="142"/>
       <c r="J12" s="142"/>
       <c r="K12" s="142"/>
@@ -29199,11 +29278,11 @@
         <v>698</v>
       </c>
       <c r="C13" s="148"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="231"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="238"/>
       <c r="I13" s="142"/>
       <c r="J13" s="142"/>
       <c r="K13" s="142"/>
@@ -29218,11 +29297,11 @@
         <v>699</v>
       </c>
       <c r="C14" s="148"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="234"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="241"/>
       <c r="I14" s="142"/>
       <c r="J14" s="142"/>
       <c r="K14" s="142"/>
@@ -29239,11 +29318,11 @@
       <c r="C15" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="222"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
       <c r="I15" s="142"/>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -29258,11 +29337,11 @@
         <v>702</v>
       </c>
       <c r="C16" s="149"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="222"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="229"/>
       <c r="I16" s="142"/>
       <c r="J16" s="142">
         <v>-0.15</v>
@@ -29283,11 +29362,11 @@
         <v>703</v>
       </c>
       <c r="C17" s="149"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="222"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="229"/>
       <c r="I17" s="142"/>
       <c r="J17" s="142"/>
       <c r="K17" s="142">
@@ -29304,11 +29383,11 @@
         <v>704</v>
       </c>
       <c r="C18" s="151"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="231"/>
       <c r="I18" s="142"/>
       <c r="J18" s="142"/>
       <c r="K18" s="142"/>
@@ -30493,7 +30572,7 @@
       <c r="G74" s="143" t="s">
         <v>1671</v>
       </c>
-      <c r="H74" s="54" t="s">
+      <c r="H74" s="58" t="s">
         <v>1672</v>
       </c>
       <c r="I74" s="142"/>
@@ -30505,56 +30584,55 @@
       <c r="O74" s="117"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="142"/>
       <c r="B75" s="2"/>
       <c r="C75" s="152"/>
       <c r="D75" s="2"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="143"/>
+      <c r="G75" s="143" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H75" s="58" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I75" s="142"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="142"/>
+      <c r="O75" s="117"/>
+      <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="141" t="s">
-        <v>715</v>
-      </c>
-      <c r="B76" s="142" t="s">
-        <v>706</v>
-      </c>
-      <c r="C76" s="143" t="s">
-        <v>716</v>
-      </c>
-      <c r="D76" s="143" t="s">
-        <v>717</v>
-      </c>
-      <c r="E76" s="143" t="s">
-        <v>718</v>
-      </c>
-      <c r="F76" s="143"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="142"/>
-      <c r="L76" s="142"/>
-      <c r="M76" s="142"/>
-      <c r="N76" s="142"/>
-      <c r="O76" s="142"/>
-    </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="141"/>
-      <c r="B77" s="141"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="143"/>
+      <c r="A76" s="142"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="152"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="127"/>
+      <c r="G76" s="143" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H76" s="58" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F77" s="143"/>
-      <c r="G77" s="143"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="142"/>
+      <c r="G77" s="143" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H77" s="58" t="s">
+        <v>1782</v>
+      </c>
       <c r="L77" s="142"/>
       <c r="M77" s="142"/>
       <c r="N77" s="142"/>
       <c r="O77" s="142"/>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="141"/>
       <c r="B78" s="141"/>
       <c r="C78" s="142"/>
@@ -30571,12 +30649,22 @@
       <c r="N78" s="142"/>
       <c r="O78" s="142"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="141"/>
-      <c r="B79" s="141"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143"/>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="141" t="s">
+        <v>715</v>
+      </c>
+      <c r="B79" s="142" t="s">
+        <v>706</v>
+      </c>
+      <c r="C79" s="143" t="s">
+        <v>716</v>
+      </c>
+      <c r="D79" s="143" t="s">
+        <v>717</v>
+      </c>
+      <c r="E79" s="143" t="s">
+        <v>718</v>
+      </c>
       <c r="F79" s="143"/>
       <c r="G79" s="143"/>
       <c r="H79" s="142"/>
@@ -30588,8 +30676,25 @@
       <c r="N79" s="142"/>
       <c r="O79" s="142"/>
     </row>
-    <row r="81" spans="6:6" ht="14.1" x14ac:dyDescent="0.25">
-      <c r="F81" s="125"/>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="141"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="143"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="142"/>
+      <c r="L80" s="142"/>
+      <c r="M80" s="142"/>
+      <c r="N80" s="142"/>
+      <c r="O80" s="142"/>
+    </row>
+    <row r="82" spans="6:6" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="F82" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -30659,6 +30764,8 @@
     <hyperlink ref="K72" location="配置表结构!I18" display="位置2"/>
     <hyperlink ref="H73" location="碎片类道具!E7" display="添加碎片的subtype（区分宠物和道具碎片）"/>
     <hyperlink ref="H74" location="道具tips产出途径!A1" display="添加分页道具tips获得途径模板"/>
+    <hyperlink ref="H75" location="道具tips产出途径!D6" display="添加合成分解配置区分子类"/>
+    <hyperlink ref="H76" location="道具tips产出途径!D118" display="不显示tips途径的界面添加宠物图鉴宠物合成确认界面"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -30699,7 +30806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
@@ -30722,7 +30829,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="M9" s="94"/>
       <c r="N9" s="94"/>
       <c r="O9" s="5"/>
@@ -30781,7 +30888,7 @@
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
@@ -30806,7 +30913,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N16" s="86"/>
       <c r="O16" s="86"/>
     </row>
@@ -30817,7 +30924,7 @@
       <c r="E33" s="123"/>
       <c r="F33" s="123"/>
     </row>
-    <row r="34" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H34" s="122"/>
     </row>
     <row r="35" spans="4:8" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -31900,7 +32007,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" s="188" t="s">
         <v>788</v>
       </c>
@@ -31932,7 +32039,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" s="188" t="s">
         <v>790</v>
       </c>
@@ -31996,7 +32103,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C21" s="188">
         <v>1</v>
       </c>
@@ -32016,7 +32123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C22" s="188">
         <v>2</v>
       </c>
@@ -32036,7 +32143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C23" s="188">
         <v>3</v>
       </c>
@@ -32056,7 +32163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C24" s="188">
         <v>4</v>
       </c>
@@ -32076,7 +32183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C25" s="188">
         <v>5</v>
       </c>
@@ -32096,7 +32203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C26" s="188">
         <v>6</v>
       </c>
@@ -32116,7 +32223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C27" s="188">
         <v>7</v>
       </c>
@@ -32136,7 +32243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C28" s="188">
         <v>8</v>
       </c>
@@ -32156,7 +32263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C29" s="188">
         <v>9</v>
       </c>
@@ -32176,7 +32283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C30" s="188">
         <v>10</v>
       </c>
@@ -32196,7 +32303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C31" s="188">
         <v>11</v>
       </c>
@@ -32216,7 +32323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C32" s="188">
         <v>12</v>
       </c>
@@ -32749,7 +32856,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1428</v>
       </c>
@@ -32844,7 +32951,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1425</v>
       </c>
@@ -33804,7 +33911,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33817,37 +33924,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="210" t="s">
         <v>1033</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="211" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" s="212" t="s">
+      <c r="C1" s="211" t="s">
         <v>1035</v>
       </c>
-      <c r="D1" s="212" t="s">
+      <c r="D1" s="211" t="s">
         <v>1036</v>
       </c>
-      <c r="E1" s="213" t="s">
+      <c r="E1" s="212" t="s">
         <v>1360</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="213" t="s">
         <v>1361</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="213" t="s">
         <v>1362</v>
       </c>
-      <c r="H1" s="214" t="s">
+      <c r="H1" s="213" t="s">
         <v>1037</v>
       </c>
-      <c r="I1" s="214" t="s">
+      <c r="I1" s="213" t="s">
         <v>1038</v>
       </c>
-      <c r="J1" s="214" t="s">
+      <c r="J1" s="213" t="s">
         <v>1044</v>
       </c>
-      <c r="K1" s="214" t="s">
+      <c r="K1" s="213" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -33861,10 +33968,10 @@
       <c r="C2" s="135" t="s">
         <v>1041</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="214" t="s">
         <v>1052</v>
       </c>
-      <c r="E2" s="215"/>
+      <c r="E2" s="214"/>
       <c r="F2" s="136"/>
       <c r="G2" s="136"/>
       <c r="H2" s="137"/>
@@ -33921,11 +34028,11 @@
       <c r="K4" s="139"/>
     </row>
     <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="202" t="s">
-        <v>1737</v>
+      <c r="A5" s="201" t="s">
+        <v>1724</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>1763</v>
+        <v>1733</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>1041</v>
@@ -33944,142 +34051,142 @@
       <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="216" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B6" s="209" t="s">
-        <v>1785</v>
+      <c r="A6" s="215" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B6" s="208" t="s">
+        <v>1754</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D6" s="216" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
+      <c r="D6" s="215" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
       <c r="I6" s="139">
         <v>1</v>
       </c>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="216" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B7" s="209" t="s">
-        <v>1786</v>
+      <c r="A7" s="215" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B7" s="208" t="s">
+        <v>1755</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D7" s="216" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
+      <c r="D7" s="215" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="136">
         <v>1</v>
       </c>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
     </row>
     <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="216" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B8" s="209" t="s">
-        <v>1787</v>
+      <c r="A8" s="215" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B8" s="208" t="s">
+        <v>1756</v>
       </c>
       <c r="C8" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D8" s="216" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
+      <c r="D8" s="215" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="139">
         <v>1</v>
       </c>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
     </row>
     <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="216" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B9" s="209" t="s">
-        <v>1784</v>
+      <c r="A9" s="215" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B9" s="208" t="s">
+        <v>1753</v>
       </c>
       <c r="C9" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D9" s="216" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
+      <c r="D9" s="215" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
       <c r="I9" s="136">
         <v>1</v>
       </c>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="216" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B10" s="209" t="s">
-        <v>1783</v>
+      <c r="A10" s="215" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B10" s="208" t="s">
+        <v>1752</v>
       </c>
       <c r="C10" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D10" s="216" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
+      <c r="D10" s="215" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="139">
         <v>1</v>
       </c>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="202" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B11" s="216" t="s">
-        <v>1802</v>
+      <c r="A11" s="201" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B11" s="215" t="s">
+        <v>1767</v>
       </c>
       <c r="C11" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="D11" s="216" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216">
+      <c r="D11" s="215" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215">
         <v>1</v>
       </c>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -34426,10 +34533,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -34567,7 +34674,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="156" t="s">
         <v>1077</v>
       </c>
@@ -34636,7 +34743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="155" t="s">
         <v>1344</v>
       </c>
@@ -34674,6 +34781,36 @@
       </c>
       <c r="D24" s="170">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="2" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>1823</v>
       </c>
     </row>
   </sheetData>
@@ -35012,7 +35149,7 @@
       <c r="F17" s="90"/>
       <c r="G17" s="90"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="90"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -35034,7 +35171,7 @@
       </c>
       <c r="G19" s="90"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -35043,7 +35180,7 @@
       <c r="F20" s="90"/>
       <c r="G20" s="90"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -35052,7 +35189,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -35065,7 +35202,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
         <v>1099</v>
@@ -35074,8 +35211,8 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
         <v>1101</v>
@@ -35084,7 +35221,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
         <v>1102</v>
@@ -35093,30 +35230,30 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E38" s="161" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="4:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="3:5" s="9" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C56" s="2" t="s">
         <v>1107</v>
@@ -35273,50 +35410,50 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="248" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="242" t="s">
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="249" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243" t="s">
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="250" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="243"/>
+      <c r="AA2" s="250"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="238" t="s">
+      <c r="AC2" s="245" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="238"/>
+      <c r="AD2" s="245"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
         <v>390</v>
       </c>
@@ -35501,7 +35638,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="247" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -35567,7 +35704,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="240"/>
+      <c r="A6" s="247"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -35624,7 +35761,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="240"/>
+      <c r="A7" s="247"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -35642,7 +35779,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="240"/>
+      <c r="A8" s="247"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -35654,21 +35791,21 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="240"/>
+      <c r="A9" s="247"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4"/>
       <c r="R9" s="20"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="E10" s="4" t="s">
         <v>662</v>
       </c>
       <c r="F10" s="4"/>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -35677,7 +35814,7 @@
       </c>
       <c r="R12" s="20"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>438</v>
       </c>
@@ -35734,7 +35871,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="240" t="s">
+      <c r="A15" s="247" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -35756,7 +35893,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="240"/>
+      <c r="A16" s="247"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -35775,20 +35912,20 @@
       <c r="O16" s="18"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="46"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="46"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="46"/>
       <c r="J19" s="17"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J20" s="18"/>
       <c r="K20" s="5"/>
     </row>
@@ -35799,7 +35936,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="38" t="s">
         <v>178</v>
       </c>
@@ -35884,7 +36021,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="247" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -35920,7 +36057,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="240"/>
+      <c r="A25" s="247"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -35953,7 +36090,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -35986,7 +36123,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -36013,20 +36150,20 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="239" t="s">
+      <c r="F31" s="246" t="s">
         <v>639</v>
       </c>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="246"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
     </row>
-    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="38" t="s">
         <v>390</v>
       </c>
@@ -36147,13 +36284,13 @@
         <v>685</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="J36" s="6"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="J37" s="72"/>
@@ -36168,7 +36305,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="72"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B39" s="5"/>
       <c r="C39" s="38" t="s">
         <v>390</v>
@@ -36277,7 +36414,7 @@
       </c>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -36289,7 +36426,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="C45" s="40" t="s">
         <v>642</v>
@@ -36422,14 +36559,14 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
         <v>1014</v>
@@ -36438,7 +36575,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -36513,7 +36650,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -36574,7 +36711,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -36584,7 +36721,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -36594,7 +36731,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -36619,7 +36756,7 @@
       </c>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -36629,7 +36766,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -36644,7 +36781,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -36687,34 +36824,34 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C36" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C37" s="31"/>
     </row>
     <row r="38" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -36747,7 +36884,7 @@
       <c r="U39" s="53"/>
       <c r="V39" s="53"/>
     </row>
-    <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="E41" s="57" t="s">
         <v>1027</v>
@@ -36961,7 +37098,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
@@ -37239,7 +37376,7 @@
       <c r="J101" s="57"/>
       <c r="K101" s="57"/>
     </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
     <row r="103" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="78" t="s">
         <v>883</v>
@@ -37756,7 +37893,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="5:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="71"/>
@@ -38326,7 +38463,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -38334,7 +38471,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -38400,7 +38537,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.15">
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.15">
@@ -38421,7 +38558,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="32"/>
@@ -38446,7 +38583,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:12" x14ac:dyDescent="0.15">
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="32"/>
@@ -39125,10 +39262,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="235" t="s">
+      <c r="L12" s="242" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="235"/>
+      <c r="M12" s="242"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -43744,10 +43881,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N113"/>
+  <dimension ref="A3:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -43755,8 +43892,8 @@
     <col min="1" max="1" width="38" style="195" customWidth="1"/>
     <col min="2" max="2" width="9" style="197"/>
     <col min="3" max="3" width="33.125" style="197" customWidth="1"/>
-    <col min="4" max="4" width="55.5" style="197" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="197" customWidth="1"/>
+    <col min="4" max="4" width="50.25" style="197" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="197" customWidth="1"/>
     <col min="6" max="6" width="10" style="197" customWidth="1"/>
     <col min="7" max="8" width="14.5" style="197" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="197" bestFit="1" customWidth="1"/>
@@ -43774,22 +43911,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="282.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="219" t="s">
-        <v>1710</v>
+      <c r="A6" s="217" t="s">
+        <v>1697</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D6" s="195" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E6" s="220" t="s">
-        <v>1807</v>
+        <v>1706</v>
+      </c>
+      <c r="D6" s="222" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E6" s="218" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
+      <c r="D7" s="195">
+        <v>2</v>
+      </c>
       <c r="E7" s="195"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -43797,257 +43936,256 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="197"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="195" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="227" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D32" s="197" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E32" s="197" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+    </row>
+    <row r="37" spans="3:14" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="198" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+    </row>
+    <row r="38" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="202" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="197"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="195" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="H33" s="197" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="197" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E34" s="197" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="197" t="s">
+      <c r="E38" s="203" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F38" s="203" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G38" s="203" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H38" s="203" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I38" s="204" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+    </row>
+    <row r="39" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="205" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E39" s="208" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F39" s="208" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G39" s="208" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H39" s="208" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I39" s="208" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J39" s="207"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+    </row>
+    <row r="40" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="205" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E40" s="220" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F40" s="220" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G40" s="208" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H40" s="208" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I40" s="208" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+    </row>
+    <row r="41" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="205" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E41" s="208" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F41" s="208" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G41" s="208" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H41" s="208" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I41" s="208" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J41" s="207"/>
+      <c r="M41" s="207"/>
+      <c r="N41" s="207"/>
+    </row>
+    <row r="42" spans="3:14" ht="49.5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="205" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E42" s="208" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F42" s="208" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G42" s="208" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="203" t="s">
+      <c r="H42" s="208" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I42" s="208" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J42" s="207"/>
+      <c r="M42" s="207"/>
+      <c r="N42" s="207"/>
+    </row>
+    <row r="43" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="205" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E43" s="201"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="208" t="s">
         <v>1717</v>
       </c>
-      <c r="G36" s="204" t="s">
+      <c r="H43" s="208" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I43" s="208" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J43" s="207"/>
+      <c r="M43" s="207"/>
+      <c r="N43" s="207"/>
+    </row>
+    <row r="44" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="205" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E44" s="201"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="208" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H44" s="208" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I44" s="208" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J44" s="207"/>
+      <c r="M44" s="207"/>
+      <c r="N44" s="207"/>
+    </row>
+    <row r="45" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="205" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E45" s="201"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="208" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H45" s="208" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I45" s="208" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J45" s="207"/>
+      <c r="K45" s="207"/>
+      <c r="L45" s="207"/>
+    </row>
+    <row r="46" spans="3:14" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="206" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E46" s="209" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F46" s="209" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G46" s="208" t="s">
         <v>1720</v>
       </c>
-      <c r="H36" s="204" t="s">
-        <v>1795</v>
-      </c>
-      <c r="I36" s="204" t="s">
-        <v>1721</v>
-      </c>
-      <c r="J36" s="204" t="s">
-        <v>1722</v>
-      </c>
-      <c r="K36" s="205" t="s">
-        <v>1723</v>
-      </c>
-      <c r="L36" s="208"/>
-      <c r="M36" s="208"/>
-      <c r="N36" s="208"/>
-    </row>
-    <row r="37" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="206" t="s">
-        <v>1682</v>
-      </c>
-      <c r="G37" s="209" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H37" s="209" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I37" s="209" t="s">
-        <v>1728</v>
-      </c>
-      <c r="J37" s="209" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K37" s="209" t="s">
-        <v>1769</v>
-      </c>
-      <c r="L37" s="208"/>
-      <c r="M37" s="208"/>
-      <c r="N37" s="208"/>
-    </row>
-    <row r="38" spans="3:14" ht="66" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="206" t="s">
-        <v>1684</v>
-      </c>
-      <c r="G38" s="245" t="s">
-        <v>1782</v>
-      </c>
-      <c r="H38" s="245" t="s">
-        <v>1797</v>
-      </c>
-      <c r="I38" s="209" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J38" s="209" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K38" s="209" t="s">
-        <v>1771</v>
-      </c>
-      <c r="L38" s="208"/>
-      <c r="M38" s="208"/>
-      <c r="N38" s="208"/>
-    </row>
-    <row r="39" spans="3:14" ht="66" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F39" s="206" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G39" s="209" t="s">
-        <v>1725</v>
-      </c>
-      <c r="H39" s="209" t="s">
-        <v>1725</v>
-      </c>
-      <c r="I39" s="209" t="s">
-        <v>1790</v>
-      </c>
-      <c r="J39" s="209" t="s">
-        <v>1736</v>
-      </c>
-      <c r="K39" s="209" t="s">
-        <v>1773</v>
-      </c>
-      <c r="L39" s="208"/>
-      <c r="M39" s="208"/>
-      <c r="N39" s="208"/>
-    </row>
-    <row r="40" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="206" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G40" s="209" t="s">
-        <v>1726</v>
-      </c>
-      <c r="H40" s="209" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I40" s="209" t="s">
+      <c r="H46" s="208" t="s">
         <v>1729</v>
       </c>
-      <c r="J40" s="209" t="s">
-        <v>1738</v>
-      </c>
-      <c r="K40" s="209" t="s">
-        <v>1775</v>
-      </c>
-      <c r="L40" s="208"/>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-    </row>
-    <row r="41" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="206" t="s">
-        <v>1686</v>
-      </c>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="209" t="s">
-        <v>1730</v>
-      </c>
-      <c r="J41" s="209" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K41" s="209" t="s">
-        <v>1740</v>
-      </c>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208"/>
-      <c r="N41" s="208"/>
-    </row>
-    <row r="42" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="206" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G42" s="202"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="209" t="s">
-        <v>1731</v>
-      </c>
-      <c r="J42" s="209" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K42" s="209" t="s">
-        <v>1739</v>
-      </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
-    </row>
-    <row r="43" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="206" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="209" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J43" s="209" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K43" s="209" t="s">
-        <v>1740</v>
-      </c>
-      <c r="L43" s="208"/>
-      <c r="M43" s="208"/>
-      <c r="N43" s="208"/>
-    </row>
-    <row r="44" spans="3:14" ht="66.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="207" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G44" s="210" t="s">
-        <v>1727</v>
-      </c>
-      <c r="H44" s="210" t="s">
-        <v>1798</v>
-      </c>
-      <c r="I44" s="209" t="s">
-        <v>1733</v>
-      </c>
-      <c r="J44" s="209" t="s">
-        <v>1742</v>
-      </c>
-      <c r="K44" s="209" t="s">
-        <v>1777</v>
-      </c>
-      <c r="L44" s="208"/>
-      <c r="M44" s="208"/>
-      <c r="N44" s="208"/>
-    </row>
-    <row r="45" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="J45" s="208"/>
-      <c r="K45" s="208"/>
-      <c r="L45" s="208"/>
+      <c r="I46" s="208" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J46" s="207"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C48" s="197" t="s">
+      <c r="C48" s="198" t="s">
         <v>1674</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="195" t="s">
-        <v>1709</v>
-      </c>
+        <v>1696</v>
+      </c>
+      <c r="C49" s="198"/>
       <c r="D49" s="197" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="198"/>
       <c r="D50" s="197" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="197" t="s">
+      <c r="C51" s="198" t="s">
         <v>1649</v>
       </c>
     </row>
@@ -44058,10 +44196,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="195" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D53" s="218" t="s">
-        <v>1714</v>
+        <v>1692</v>
+      </c>
+      <c r="D53" s="216" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -44075,14 +44213,16 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D56" s="199" t="s">
-        <v>1653</v>
-      </c>
       <c r="E56" s="197" t="s">
         <v>1676</v>
       </c>
       <c r="J56" s="197" t="s">
-        <v>1800</v>
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="199" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -44096,321 +44236,344 @@
     </row>
     <row r="64" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="195" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="197"/>
-      <c r="D66" s="217" t="s">
-        <v>1780</v>
+      <c r="D66" s="221" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="197"/>
       <c r="D67" s="197" t="s">
-        <v>1804</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="197" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="196" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C69" s="197" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C69" s="198" t="s">
         <v>1668</v>
       </c>
-      <c r="D69" s="218" t="s">
+      <c r="D69" s="216" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="197"/>
-      <c r="D70" s="218" t="s">
+      <c r="C70" s="198"/>
+      <c r="D70" s="216" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="197" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D71" s="244" t="s">
-        <v>1791</v>
+        <v>1693</v>
+      </c>
+      <c r="C71" s="198"/>
+      <c r="D71" s="219" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="201" t="s">
-        <v>1808</v>
+      <c r="C72" s="198"/>
+      <c r="D72" s="200" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="201" t="s">
-        <v>1809</v>
+      <c r="C73" s="198"/>
+      <c r="D73" s="200" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="197"/>
-      <c r="C74" s="197" t="s">
+      <c r="C74" s="198" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="197"/>
+      <c r="C75" s="198"/>
       <c r="D75" s="197" t="s">
-        <v>1805</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="197"/>
+      <c r="C76" s="198"/>
       <c r="D76" s="197" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="198"/>
       <c r="D77" s="197" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="195" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D78" s="218" t="s">
-        <v>1781</v>
+        <v>1730</v>
+      </c>
+      <c r="C78" s="198"/>
+      <c r="D78" s="216" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="198"/>
       <c r="D79" s="197" t="s">
         <v>1666</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="198"/>
+    </row>
     <row r="81" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="195" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D81" s="218" t="s">
-        <v>1745</v>
+        <v>1731</v>
+      </c>
+      <c r="C81" s="198"/>
+      <c r="D81" s="216" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="197" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D82" s="197" t="s">
-        <v>1803</v>
+      <c r="C82" s="198" t="s">
+        <v>1764</v>
       </c>
       <c r="F82" s="197" t="s">
-        <v>1801</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="197" t="s">
+      <c r="C83" s="198"/>
+      <c r="D83" s="197" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="198"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="198" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D84" s="197" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="198"/>
+      <c r="D86" s="197" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D85" s="197" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="198"/>
+      <c r="D87" s="197" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="195" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D87" s="197" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E87" s="197" t="s">
-        <v>1701</v>
-      </c>
-    </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C88" s="200" t="s">
+      <c r="C88" s="198"/>
+    </row>
+    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="195" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C89" s="225" t="s">
         <v>1681</v>
       </c>
-      <c r="D88" s="197" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E88" s="197" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D89" s="197" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E89" s="197" t="s">
-        <v>1747</v>
-      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="198"/>
       <c r="D90" s="197" t="s">
-        <v>1685</v>
+        <v>1783</v>
       </c>
       <c r="E90" s="197" t="s">
-        <v>1748</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D91" s="197" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E91" s="197" t="s">
-        <v>1749</v>
+        <v>1785</v>
+      </c>
+      <c r="E91" s="251" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="198"/>
       <c r="D92" s="197" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E92" s="197" t="s">
-        <v>1750</v>
+        <v>1787</v>
+      </c>
+      <c r="E92" s="252" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="198"/>
       <c r="D93" s="197" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E93" s="197" t="s">
-        <v>1751</v>
+        <v>1789</v>
+      </c>
+      <c r="E93" s="251" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="198"/>
       <c r="D94" s="197" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E94" s="197" t="s">
-        <v>1752</v>
+        <v>1791</v>
+      </c>
+      <c r="E94" s="252" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="198"/>
+      <c r="D95" s="197" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E95" s="251" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="198"/>
       <c r="D96" s="197" t="s">
-        <v>1690</v>
+        <v>1795</v>
+      </c>
+      <c r="E96" s="252" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="198"/>
       <c r="D97" s="197" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E97" s="197" t="s">
-        <v>1753</v>
+        <v>1797</v>
+      </c>
+      <c r="E97" s="252" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" s="197" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E98" s="197" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D99" s="197" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E99" s="197" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="195" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D100" s="197" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E100" s="197" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D101" s="197" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E101" s="197" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D102" s="197" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E102" s="197" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1799</v>
+      </c>
+      <c r="E98" s="252" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A103" s="195" t="s">
+        <v>1698</v>
+      </c>
       <c r="D103" s="197" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E103" s="197" t="s">
-        <v>1759</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D104" s="197" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E104" s="197" t="s">
-        <v>1760</v>
+      <c r="D104" s="251" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E104" s="253" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D105" s="197" t="s">
+      <c r="D105" s="252" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="252" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E106" s="46" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D107" s="254" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E107" s="251" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D108" s="180" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E108" s="251" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="196" t="s">
         <v>1699</v>
       </c>
-      <c r="E105" s="197" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="196" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D106" s="197" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E106" s="197" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="196"/>
-      <c r="D107" s="197" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E107" s="197" t="s">
-        <v>1793</v>
+      <c r="D109" s="255" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E109" s="256" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="196"/>
+      <c r="D110" s="252" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E110" s="252" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D111" s="252" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E111" s="252" t="s">
+        <v>1817</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D112" s="218" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="D113" s="219" t="s">
-        <v>1794</v>
-      </c>
+      <c r="D112" s="252"/>
+      <c r="E112" s="252"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" s="223" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D118" s="224" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E118" s="226"/>
+      <c r="F118" s="226"/>
+      <c r="G118" s="226"/>
+      <c r="H118" s="226"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A82:A105 A77:A80 A1:A23 A108:A1048576 A61 A27:A59">
+  <conditionalFormatting sqref="A82:A108 A77:A80 A1:A23 A111:A1048576 A61 A27:A59">
     <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:A1048576 A70:A105 A1:A25 A61:A68 A27:A59">
+  <conditionalFormatting sqref="A111:A1048576 A70:A108 A1:A25 A61:A68 A27:A59">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -44929,7 +45092,7 @@
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -44991,7 +45154,7 @@
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
@@ -45577,7 +45740,7 @@
       <c r="N45" s="57"/>
       <c r="O45" s="57"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="57"/>
@@ -45655,7 +45818,7 @@
       <c r="N50" s="57"/>
       <c r="O50" s="57"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
@@ -45905,7 +46068,7 @@
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -45929,7 +46092,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
@@ -45981,7 +46144,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F74" s="94" t="s">
         <v>828</v>
       </c>
@@ -45991,7 +46154,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F76" s="8" t="s">
         <v>523</v>
       </c>
@@ -46009,7 +46172,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F78" s="8" t="s">
         <v>510</v>
       </c>
@@ -46043,7 +46206,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F82" s="8" t="s">
         <v>180</v>
       </c>
@@ -46061,66 +46224,66 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
@@ -46139,7 +46302,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E102" s="8" t="s">
         <v>175</v>
       </c>
@@ -46217,7 +46380,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D110" s="8"/>
       <c r="E110" s="8" t="s">
         <v>175</v>
@@ -46241,7 +46404,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D112" s="8"/>
       <c r="E112" s="8" t="s">
         <v>194</v>
@@ -46337,7 +46500,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D120" s="8"/>
       <c r="E120" s="90" t="s">
         <v>633</v>
@@ -46363,7 +46526,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D122" s="8"/>
       <c r="E122" s="90" t="s">
         <v>513</v>
@@ -46549,7 +46712,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D137" s="8"/>
       <c r="E137" s="90"/>
       <c r="F137" s="8"/>
@@ -46595,7 +46758,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" s="8"/>
       <c r="E141" s="90" t="s">
         <v>633</v>
@@ -46621,7 +46784,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
     </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D143" s="8"/>
       <c r="E143" s="8" t="s">
         <v>439</v>
@@ -46757,7 +46920,7 @@
       <c r="J153" s="84"/>
       <c r="K153" s="84"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D154" s="84"/>
       <c r="E154" s="93" t="s">
         <v>834</v>
@@ -47053,10 +47216,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="236" t="s">
+      <c r="E174" s="243" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="237"/>
+      <c r="F174" s="244"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -47799,7 +47962,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
@@ -47839,7 +48002,7 @@
       <c r="K16" s="185"/>
       <c r="L16" s="185"/>
     </row>
-    <row r="17" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="179" t="s">
         <v>1588</v>
       </c>
@@ -47853,7 +48016,7 @@
       <c r="K18" s="185"/>
       <c r="L18" s="185"/>
     </row>
-    <row r="19" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="179" t="s">
         <v>1590</v>
       </c>
@@ -47867,14 +48030,14 @@
       <c r="K20" s="185"/>
       <c r="L20" s="185"/>
     </row>
-    <row r="21" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" s="179" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F21" s="179" t="s">
         <v>1592</v>
       </c>
       <c r="K21" s="185"/>
       <c r="L21" s="185"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.15">
       <c r="G22" s="5"/>
       <c r="K22" s="184"/>
       <c r="L22" s="184"/>
@@ -48296,7 +48459,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="合成_兑换出的目标数量">配置表结构!#REF!</definedName>
     <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1823">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6714,24 +6714,6 @@
 6=抽奖
 7=公会
 副本,商店,和公会有分支类型
-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">通过_表示上一个表中大类,规定第二个位数代表小类型.副本类型
-1 = 剧情副本
-2 = 困难副本
-3 = 通天塔
-4 = 金钱试炼
-5 = 经验试炼
-6 = 待定
-商店类型
-1 = 普通商店
-2 = 公会商店
-3 = 通天塔商店
-公会
-1 =  公会BOSS
-2 =  公会任务
 </t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -7250,6 +7232,191 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加合成分解配置区分子类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认分解界面,确认购买界面,活力购买使用界面、宠物图鉴合成宠物确认界面、各类结算界面
+(根据情况再后面添加补充)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示tips途径的界面添加宠物图鉴宠物合成确认界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加掉落指引程序拆分和回归多语言内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_huodeway</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main1</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose_title</t>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_main</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_store</t>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main5</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips_main6</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociaty_title</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_title</t>
+  </si>
+  <si>
+    <t>金钱试炼</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_gold_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验试炼</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_exp_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_putong</t>
+  </si>
+  <si>
+    <t>公会商店</t>
+  </si>
+  <si>
+    <t>shop_gonghui</t>
+  </si>
+  <si>
+    <t>XXX商店</t>
+    <rPh sb="3" eb="4">
+      <t>shang'dian</t>
+    </rPh>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会BOSS</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociaty_boss</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sociaty_task </t>
+  </si>
+  <si>
+    <t>掉落指引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物与物品掉落配置表解析 0.5d</t>
+  </si>
+  <si>
+    <t>道具tips与宠物合成界面tips 1d</t>
+  </si>
+  <si>
+    <t>途径的事件管理 2d</t>
+  </si>
+  <si>
+    <t>修改界面接入的方式（这类主要是进入界面直接进入第二个页签等需要检查修改一下）0.5d</t>
+  </si>
+  <si>
     <t xml:space="preserve">通过_表示上一个表中大类,副本类型
 合成
 1=材料合成
@@ -7266,191 +7433,6 @@
 2 =  公会任务
 </t>
     <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加合成分解配置区分子类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认分解界面,确认购买界面,活力购买使用界面、宠物图鉴合成宠物确认界面、各类结算界面
-(根据情况再后面添加补充)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示tips途径的界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示tips途径的界面添加宠物图鉴宠物合成确认界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加掉落指引程序拆分和回归多语言内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取途径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>handbook_huodeway</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main1</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>compose_title</t>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_main</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_store</t>
-  </si>
-  <si>
-    <t>日常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main5</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips_main6</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sociaty_title</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>towerBoss_instance_title</t>
-  </si>
-  <si>
-    <t>金钱试炼</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>tower_gold_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验试炼</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>tower_exp_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商店</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_putong</t>
-  </si>
-  <si>
-    <t>公会商店</t>
-  </si>
-  <si>
-    <t>shop_gonghui</t>
-  </si>
-  <si>
-    <t>XXX商店</t>
-    <rPh sb="3" eb="4">
-      <t>shang'dian</t>
-    </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>towerBoss_instance_shop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会BOSS</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>sociaty_boss</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sociaty_task </t>
-  </si>
-  <si>
-    <t>掉落指引</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物与物品掉落配置表解析 0.5d</t>
-  </si>
-  <si>
-    <t>道具tips与宠物合成界面tips 1d</t>
-  </si>
-  <si>
-    <t>途径的事件管理 2d</t>
-  </si>
-  <si>
-    <t>修改界面接入的方式（这类主要是进入界面直接进入第二个页签等需要检查修改一下）0.5d</t>
   </si>
 </sst>
 </file>
@@ -9032,6 +9014,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9100,18 +9094,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -29023,7 +29005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -29234,17 +29216,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="238" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="234" t="s">
+      <c r="C11" s="239"/>
+      <c r="D11" s="240" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="235"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="241"/>
       <c r="I11" s="142"/>
       <c r="J11" s="142"/>
       <c r="K11" s="142"/>
@@ -29259,11 +29241,11 @@
         <v>697</v>
       </c>
       <c r="C12" s="148"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="229"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="235"/>
       <c r="I12" s="142"/>
       <c r="J12" s="142"/>
       <c r="K12" s="142"/>
@@ -29278,11 +29260,11 @@
         <v>698</v>
       </c>
       <c r="C13" s="148"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="238"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="244"/>
       <c r="I13" s="142"/>
       <c r="J13" s="142"/>
       <c r="K13" s="142"/>
@@ -29297,11 +29279,11 @@
         <v>699</v>
       </c>
       <c r="C14" s="148"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="241"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="247"/>
       <c r="I14" s="142"/>
       <c r="J14" s="142"/>
       <c r="K14" s="142"/>
@@ -29318,11 +29300,11 @@
       <c r="C15" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="228"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="229"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="235"/>
       <c r="I15" s="142"/>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -29337,11 +29319,11 @@
         <v>702</v>
       </c>
       <c r="C16" s="149"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="229"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="235"/>
       <c r="I16" s="142"/>
       <c r="J16" s="142">
         <v>-0.15</v>
@@ -29362,11 +29344,11 @@
         <v>703</v>
       </c>
       <c r="C17" s="149"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="229"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="235"/>
       <c r="I17" s="142"/>
       <c r="J17" s="142"/>
       <c r="K17" s="142">
@@ -29383,11 +29365,11 @@
         <v>704</v>
       </c>
       <c r="C18" s="151"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="231"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="142"/>
       <c r="J18" s="142"/>
       <c r="K18" s="142"/>
@@ -30570,10 +30552,10 @@
       <c r="E74" s="194"/>
       <c r="F74" s="143"/>
       <c r="G74" s="143" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H74" s="58" t="s">
         <v>1671</v>
-      </c>
-      <c r="H74" s="58" t="s">
-        <v>1672</v>
       </c>
       <c r="I74" s="142"/>
       <c r="J74" s="117"/>
@@ -30592,10 +30574,10 @@
       <c r="E75" s="127"/>
       <c r="F75" s="143"/>
       <c r="G75" s="143" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H75" s="58" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="I75" s="142"/>
       <c r="J75" s="117"/>
@@ -30613,19 +30595,19 @@
       <c r="D76" s="2"/>
       <c r="E76" s="127"/>
       <c r="G76" s="143" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F77" s="143"/>
       <c r="G77" s="143" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H77" s="58" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="L77" s="142"/>
       <c r="M77" s="142"/>
@@ -32836,8 +32818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33646,15 +33628,15 @@
       <c r="J94" s="86"/>
       <c r="K94" s="94"/>
     </row>
-    <row r="95" spans="2:11" ht="270" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="C95" s="193" t="s">
         <v>1663</v>
       </c>
-      <c r="D95" s="193" t="s">
-        <v>1664</v>
+      <c r="D95" s="222" t="s">
+        <v>1822</v>
       </c>
       <c r="E95" s="193" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J95" s="86"/>
       <c r="K95" s="94"/>
@@ -34029,16 +34011,16 @@
     </row>
     <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="201" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E5" s="135"/>
       <c r="F5" s="136"/>
@@ -34052,16 +34034,16 @@
     </row>
     <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="215" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B6" s="208" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D6" s="215" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E6" s="215"/>
       <c r="F6" s="215"/>
@@ -34075,16 +34057,16 @@
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="215" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B7" s="208" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E7" s="215"/>
       <c r="F7" s="215"/>
@@ -34098,16 +34080,16 @@
     </row>
     <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="215" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B8" s="208" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C8" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D8" s="215" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E8" s="215"/>
       <c r="F8" s="215"/>
@@ -34121,16 +34103,16 @@
     </row>
     <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.35">
       <c r="A9" s="215" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B9" s="208" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C9" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D9" s="215" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E9" s="215"/>
       <c r="F9" s="215"/>
@@ -34144,16 +34126,16 @@
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="215" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B10" s="208" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C10" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D10" s="215" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E10" s="215"/>
       <c r="F10" s="215"/>
@@ -34167,16 +34149,16 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="201" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B11" s="215" t="s">
         <v>1766</v>
-      </c>
-      <c r="B11" s="215" t="s">
-        <v>1767</v>
       </c>
       <c r="C11" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D11" s="215" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E11" s="215"/>
       <c r="F11" s="215"/>
@@ -34535,7 +34517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -34785,32 +34767,32 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
   </sheetData>
@@ -35410,45 +35392,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="254" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="249" t="s">
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="255" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250" t="s">
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="250"/>
+      <c r="AA2" s="256"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="245" t="s">
+      <c r="AC2" s="251" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="245"/>
+      <c r="AD2" s="251"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -35638,7 +35620,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="253" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -35704,7 +35686,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="247"/>
+      <c r="A6" s="253"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -35761,7 +35743,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="247"/>
+      <c r="A7" s="253"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -35779,7 +35761,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="247"/>
+      <c r="A8" s="253"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -35791,7 +35773,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="247"/>
+      <c r="A9" s="253"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -35871,7 +35853,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="247" t="s">
+      <c r="A15" s="253" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -35893,7 +35875,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="247"/>
+      <c r="A16" s="253"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -36021,7 +36003,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="253" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -36057,7 +36039,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="247"/>
+      <c r="A25" s="253"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -36150,13 +36132,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="246" t="s">
+      <c r="F31" s="252" t="s">
         <v>639</v>
       </c>
-      <c r="G31" s="246"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="246"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="252"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -39262,10 +39244,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="242" t="s">
+      <c r="L12" s="248" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="242"/>
+      <c r="M12" s="248"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -43883,8 +43865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -43912,16 +43894,16 @@
     </row>
     <row r="6" spans="1:5" ht="282.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="217" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D6" s="222" t="s">
-        <v>1775</v>
+        <v>1822</v>
       </c>
       <c r="E6" s="218" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -43938,7 +43920,7 @@
     </row>
     <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -43946,7 +43928,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="195" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -43966,29 +43948,29 @@
     </row>
     <row r="37" spans="3:14" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="198" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="M37" s="207"/>
       <c r="N37" s="207"/>
     </row>
     <row r="38" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D38" s="202" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E38" s="203" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F38" s="203" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G38" s="203" t="s">
         <v>1707</v>
       </c>
-      <c r="F38" s="203" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G38" s="203" t="s">
+      <c r="H38" s="203" t="s">
         <v>1708</v>
       </c>
-      <c r="H38" s="203" t="s">
+      <c r="I38" s="204" t="s">
         <v>1709</v>
-      </c>
-      <c r="I38" s="204" t="s">
-        <v>1710</v>
       </c>
       <c r="J38" s="207"/>
       <c r="M38" s="207"/>
@@ -43996,22 +43978,22 @@
     </row>
     <row r="39" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D39" s="205" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E39" s="208" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F39" s="208" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G39" s="208" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H39" s="208" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="I39" s="208" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="J39" s="207"/>
       <c r="M39" s="207"/>
@@ -44019,22 +44001,22 @@
     </row>
     <row r="40" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D40" s="205" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E40" s="220" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F40" s="220" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G40" s="208" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H40" s="208" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I40" s="208" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J40" s="207"/>
       <c r="M40" s="207"/>
@@ -44042,22 +44024,22 @@
     </row>
     <row r="41" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D41" s="205" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E41" s="208" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F41" s="208" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G41" s="208" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H41" s="208" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I41" s="208" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J41" s="207"/>
       <c r="M41" s="207"/>
@@ -44065,22 +44047,22 @@
     </row>
     <row r="42" spans="3:14" ht="49.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D42" s="205" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E42" s="208" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F42" s="208" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G42" s="208" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H42" s="208" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I42" s="208" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J42" s="207"/>
       <c r="M42" s="207"/>
@@ -44088,18 +44070,18 @@
     </row>
     <row r="43" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D43" s="205" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E43" s="201"/>
       <c r="F43" s="201"/>
       <c r="G43" s="208" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H43" s="208" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I43" s="208" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J43" s="207"/>
       <c r="M43" s="207"/>
@@ -44107,18 +44089,18 @@
     </row>
     <row r="44" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D44" s="205" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E44" s="201"/>
       <c r="F44" s="201"/>
       <c r="G44" s="208" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H44" s="208" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I44" s="208" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J44" s="207"/>
       <c r="M44" s="207"/>
@@ -44126,18 +44108,18 @@
     </row>
     <row r="45" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D45" s="205" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E45" s="201"/>
       <c r="F45" s="201"/>
       <c r="G45" s="208" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H45" s="208" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I45" s="208" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J45" s="207"/>
       <c r="K45" s="207"/>
@@ -44145,43 +44127,43 @@
     </row>
     <row r="46" spans="3:14" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="206" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E46" s="209" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F46" s="209" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G46" s="208" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H46" s="208" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I46" s="208" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J46" s="207"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="198" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="195" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C49" s="198"/>
       <c r="D49" s="197" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C50" s="198"/>
       <c r="D50" s="197" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -44196,10 +44178,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="195" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D53" s="216" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -44214,10 +44196,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E56" s="197" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J56" s="197" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -44236,83 +44218,83 @@
     </row>
     <row r="64" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="195" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="197"/>
       <c r="D66" s="221" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="197"/>
       <c r="D67" s="197" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="197" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="196" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C69" s="198" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D69" s="216" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="197"/>
       <c r="C70" s="198"/>
       <c r="D70" s="216" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="197" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C71" s="198"/>
       <c r="D71" s="219" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C72" s="198"/>
       <c r="D72" s="200" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C73" s="198"/>
       <c r="D73" s="200" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="197"/>
       <c r="C74" s="198" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="197"/>
       <c r="C75" s="198"/>
       <c r="D75" s="197" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="197"/>
       <c r="C76" s="198"/>
       <c r="D76" s="197" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -44323,17 +44305,17 @@
     </row>
     <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="195" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C78" s="198"/>
       <c r="D78" s="216" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C79" s="198"/>
       <c r="D79" s="197" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -44341,25 +44323,25 @@
     </row>
     <row r="81" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="195" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C81" s="198"/>
       <c r="D81" s="216" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" s="198" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F82" s="197" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" s="198"/>
       <c r="D83" s="197" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -44367,19 +44349,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" s="198" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" s="198"/>
       <c r="D86" s="197" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" s="198"/>
       <c r="D87" s="197" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -44387,179 +44369,179 @@
     </row>
     <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="195" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C89" s="225" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" s="198"/>
       <c r="D90" s="197" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E90" s="197" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D91" s="197" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E91" s="251" t="s">
-        <v>1786</v>
+        <v>1783</v>
+      </c>
+      <c r="E91" s="228" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" s="198"/>
       <c r="D92" s="197" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E92" s="252" t="s">
-        <v>1788</v>
+        <v>1785</v>
+      </c>
+      <c r="E92" s="229" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" s="198"/>
       <c r="D93" s="197" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E93" s="251" t="s">
-        <v>1790</v>
+        <v>1787</v>
+      </c>
+      <c r="E93" s="228" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" s="198"/>
       <c r="D94" s="197" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E94" s="252" t="s">
-        <v>1792</v>
+        <v>1789</v>
+      </c>
+      <c r="E94" s="229" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" s="198"/>
       <c r="D95" s="197" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E95" s="251" t="s">
-        <v>1794</v>
+        <v>1791</v>
+      </c>
+      <c r="E95" s="228" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" s="198"/>
       <c r="D96" s="197" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E96" s="252" t="s">
-        <v>1796</v>
+        <v>1793</v>
+      </c>
+      <c r="E96" s="229" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C97" s="198"/>
       <c r="D97" s="197" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E97" s="252" t="s">
-        <v>1798</v>
+        <v>1795</v>
+      </c>
+      <c r="E97" s="229" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D98" s="197" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E98" s="252" t="s">
-        <v>1800</v>
+        <v>1797</v>
+      </c>
+      <c r="E98" s="229" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="195" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D103" s="197" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="228" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E104" s="230" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D104" s="251" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D105" s="229" t="s">
         <v>1802</v>
       </c>
-      <c r="E104" s="253" t="s">
+      <c r="E105" s="46" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D105" s="252" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="229" t="s">
         <v>1804</v>
       </c>
-      <c r="E105" s="46" t="s">
+      <c r="E106" s="46" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D106" s="252" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D107" s="231" t="s">
         <v>1806</v>
       </c>
-      <c r="E106" s="46" t="s">
+      <c r="E107" s="228" t="s">
         <v>1807</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D107" s="254" t="s">
-        <v>1808</v>
-      </c>
-      <c r="E107" s="251" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D108" s="180" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E108" s="251" t="s">
-        <v>1811</v>
+        <v>1808</v>
+      </c>
+      <c r="E108" s="228" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="196" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D109" s="255" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E109" s="256" t="s">
-        <v>1813</v>
+        <v>1698</v>
+      </c>
+      <c r="D109" s="232" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E109" s="233" t="s">
+        <v>1811</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="196"/>
-      <c r="D110" s="252" t="s">
+      <c r="D110" s="229" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E110" s="229" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D111" s="229" t="s">
         <v>1814</v>
       </c>
-      <c r="E110" s="252" t="s">
+      <c r="E111" s="229" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D111" s="252" t="s">
-        <v>1816</v>
-      </c>
-      <c r="E111" s="252" t="s">
-        <v>1817</v>
-      </c>
-    </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D112" s="252"/>
-      <c r="E112" s="252"/>
+      <c r="D112" s="229"/>
+      <c r="E112" s="229"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C117" s="223" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D118" s="224" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="E118" s="226"/>
       <c r="F118" s="226"/>
@@ -47216,10 +47198,10 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="243" t="s">
+      <c r="E174" s="249" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="244"/>
+      <c r="F174" s="250"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\道具系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +37,7 @@
     <definedName name="合成_兑换出的目标数量">配置表结构!#REF!</definedName>
     <definedName name="品级消耗列表">配置表结构!$I$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +52,7 @@
     <author>The Second Lock</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1833">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7433,6 +7438,45 @@
 2 =  公会任务
 </t>
     <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_huodeway</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加道具获得途径验收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips产出途经验收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击红色文字，未弹出提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在装备分解界面继续点击跳转装备分解，未弹出提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备目前还木有产出途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算未屏蔽道具产出途径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只测试了合成、分解；功能未开启未测试</t>
   </si>
 </sst>
 </file>
@@ -8389,7 +8433,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9095,6 +9139,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10240,6 +10285,158 @@
         <a:xfrm>
           <a:off x="685800" y="13830300"/>
           <a:ext cx="3314286" cy="4552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339477</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="19773900"/>
+          <a:ext cx="2244477" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566611</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="22298026"/>
+          <a:ext cx="2414461" cy="1695449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>172138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562226" y="24460200"/>
+          <a:ext cx="1524000" cy="2115238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463608</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="27336751"/>
+          <a:ext cx="3683058" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29005,7 +29202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -29013,10 +29210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77:K77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30621,8 +30818,12 @@
       <c r="D78" s="143"/>
       <c r="E78" s="143"/>
       <c r="F78" s="143"/>
-      <c r="G78" s="143"/>
-      <c r="H78" s="142"/>
+      <c r="G78" s="143" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H78" s="146" t="s">
+        <v>1826</v>
+      </c>
       <c r="I78" s="142"/>
       <c r="J78" s="142"/>
       <c r="K78" s="142"/>
@@ -30632,24 +30833,14 @@
       <c r="O78" s="142"/>
     </row>
     <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="141" t="s">
-        <v>715</v>
-      </c>
-      <c r="B79" s="142" t="s">
-        <v>706</v>
-      </c>
-      <c r="C79" s="143" t="s">
-        <v>716</v>
-      </c>
-      <c r="D79" s="143" t="s">
-        <v>717</v>
-      </c>
-      <c r="E79" s="143" t="s">
-        <v>718</v>
-      </c>
+      <c r="A79" s="141"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
       <c r="F79" s="143"/>
       <c r="G79" s="143"/>
-      <c r="H79" s="142"/>
+      <c r="H79" s="146"/>
       <c r="I79" s="142"/>
       <c r="J79" s="142"/>
       <c r="K79" s="142"/>
@@ -30659,11 +30850,21 @@
       <c r="O79" s="142"/>
     </row>
     <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="141"/>
-      <c r="B80" s="141"/>
-      <c r="C80" s="142"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
+      <c r="A80" s="141" t="s">
+        <v>715</v>
+      </c>
+      <c r="B80" s="142" t="s">
+        <v>706</v>
+      </c>
+      <c r="C80" s="143" t="s">
+        <v>716</v>
+      </c>
+      <c r="D80" s="143" t="s">
+        <v>717</v>
+      </c>
+      <c r="E80" s="143" t="s">
+        <v>718</v>
+      </c>
       <c r="F80" s="143"/>
       <c r="G80" s="143"/>
       <c r="H80" s="142"/>
@@ -30675,8 +30876,25 @@
       <c r="N80" s="142"/>
       <c r="O80" s="142"/>
     </row>
-    <row r="82" spans="6:6" ht="14.1" x14ac:dyDescent="0.25">
-      <c r="F82" s="125"/>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="141"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="142"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="142"/>
+      <c r="L81" s="142"/>
+      <c r="M81" s="142"/>
+      <c r="N81" s="142"/>
+      <c r="O81" s="142"/>
+    </row>
+    <row r="83" spans="1:15" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="F83" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -32818,7 +33036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
@@ -34804,10 +35022,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -34935,7 +35153,7 @@
       <c r="I52" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="M52" s="180"/>
+      <c r="M52" s="257"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
@@ -34950,6 +35168,52 @@
     <row r="57" spans="8:13" x14ac:dyDescent="0.15">
       <c r="I57" s="2" t="s">
         <v>1458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C115" s="2">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C129" s="2">
+        <v>4</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C145" s="2">
+        <v>5</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
@@ -43865,8 +44129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -44534,12 +44798,25 @@
       <c r="D112" s="229"/>
       <c r="E112" s="229"/>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D114" s="228" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E114" s="228" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F114" s="180"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="228"/>
+      <c r="J114" s="228"/>
+      <c r="K114" s="180"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C117" s="223" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D118" s="224" t="s">
         <v>1776</v>
       </c>

--- a/gd/道具系统/道具基础逻辑.xlsx
+++ b/gd/道具系统/道具基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="28440" windowHeight="12345" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="1836">
   <si>
     <t>一、道具总体内容说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6773,10 +6773,6 @@
   <si>
     <t>否则不会出现物品获得途径.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当功能未开启时,在原有途径上方用括号,显示为红色字体,点击该位置将弹出提示: "(条件尚未达成)"</t>
-    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>条件尚未达成</t>
@@ -6929,20 +6925,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">头个位数表示产出类型大类
-1=副本
-2=合成
-3=分解
-4=商店
-5=商城
-6=日常
-7=抽奖
-8=公会
-副本,商店,和公会有分支类型
-</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>包含内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7477,6 +7459,36 @@
   </si>
   <si>
     <t>目前只测试了合成、分解；功能未开启未测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">头个位数表示产出类型大类
+1=副本
+2=合成
+3=分解
+4=商店
+5=商城
+6=日常
+7=抽奖
+8=公会
+副本,商店,和公会有分支类型
+</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置指引之副本入口后返回，会回到原界面但是仍会打开副本选择界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当功能未开启时,在原有途径上方用括号,显示为红色字体,点击该位置将弹出提示: "(条件尚未达成)"</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转商店会弹出 提示，这个貌似不应该有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城、日常、抽蛋后面的进入应该是多语言，ID：tips_go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9070,6 +9082,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9139,7 +9152,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10437,6 +10449,158 @@
         <a:xfrm>
           <a:off x="2266950" y="27336751"/>
           <a:ext cx="3683058" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>53239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247901" y="31070550"/>
+          <a:ext cx="3695700" cy="2510689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>58685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333624" y="34213800"/>
+          <a:ext cx="2505075" cy="2516135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>195292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="37195032"/>
+          <a:ext cx="3400425" cy="2395660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>193440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="19564350"/>
+          <a:ext cx="2266950" cy="2212740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29212,7 +29376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -29413,17 +29577,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="239" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="240" t="s">
+      <c r="C11" s="240"/>
+      <c r="D11" s="241" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="242"/>
       <c r="I11" s="142"/>
       <c r="J11" s="142"/>
       <c r="K11" s="142"/>
@@ -29438,11 +29602,11 @@
         <v>697</v>
       </c>
       <c r="C12" s="148"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="236"/>
       <c r="I12" s="142"/>
       <c r="J12" s="142"/>
       <c r="K12" s="142"/>
@@ -29457,11 +29621,11 @@
         <v>698</v>
       </c>
       <c r="C13" s="148"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="244"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="245"/>
       <c r="I13" s="142"/>
       <c r="J13" s="142"/>
       <c r="K13" s="142"/>
@@ -29476,11 +29640,11 @@
         <v>699</v>
       </c>
       <c r="C14" s="148"/>
-      <c r="D14" s="245"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="247"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="248"/>
       <c r="I14" s="142"/>
       <c r="J14" s="142"/>
       <c r="K14" s="142"/>
@@ -29497,11 +29661,11 @@
       <c r="C15" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="236"/>
       <c r="I15" s="142"/>
       <c r="J15" s="142"/>
       <c r="K15" s="142"/>
@@ -29516,11 +29680,11 @@
         <v>702</v>
       </c>
       <c r="C16" s="149"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="236"/>
       <c r="I16" s="142"/>
       <c r="J16" s="142">
         <v>-0.15</v>
@@ -29541,11 +29705,11 @@
         <v>703</v>
       </c>
       <c r="C17" s="149"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="236"/>
       <c r="I17" s="142"/>
       <c r="J17" s="142"/>
       <c r="K17" s="142">
@@ -29562,11 +29726,11 @@
         <v>704</v>
       </c>
       <c r="C18" s="151"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="238"/>
       <c r="I18" s="142"/>
       <c r="J18" s="142"/>
       <c r="K18" s="142"/>
@@ -30771,10 +30935,10 @@
       <c r="E75" s="127"/>
       <c r="F75" s="143"/>
       <c r="G75" s="143" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H75" s="58" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="I75" s="142"/>
       <c r="J75" s="117"/>
@@ -30792,19 +30956,19 @@
       <c r="D76" s="2"/>
       <c r="E76" s="127"/>
       <c r="G76" s="143" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F77" s="143"/>
       <c r="G77" s="143" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H77" s="58" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="L77" s="142"/>
       <c r="M77" s="142"/>
@@ -30819,10 +30983,10 @@
       <c r="E78" s="143"/>
       <c r="F78" s="143"/>
       <c r="G78" s="143" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H78" s="146" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="I78" s="142"/>
       <c r="J78" s="142"/>
@@ -31146,8 +31310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33851,7 +34015,7 @@
         <v>1663</v>
       </c>
       <c r="D95" s="222" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E95" s="193" t="s">
         <v>1666</v>
@@ -34229,16 +34393,16 @@
     </row>
     <row r="5" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="201" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D5" s="135" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E5" s="135"/>
       <c r="F5" s="136"/>
@@ -34252,16 +34416,16 @@
     </row>
     <row r="6" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="215" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B6" s="208" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D6" s="215" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E6" s="215"/>
       <c r="F6" s="215"/>
@@ -34275,16 +34439,16 @@
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="215" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B7" s="208" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D7" s="215" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E7" s="215"/>
       <c r="F7" s="215"/>
@@ -34298,16 +34462,16 @@
     </row>
     <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="215" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B8" s="208" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C8" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D8" s="215" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="E8" s="215"/>
       <c r="F8" s="215"/>
@@ -34321,16 +34485,16 @@
     </row>
     <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.35">
       <c r="A9" s="215" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B9" s="208" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C9" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D9" s="215" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E9" s="215"/>
       <c r="F9" s="215"/>
@@ -34344,16 +34508,16 @@
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="215" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B10" s="208" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C10" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D10" s="215" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E10" s="215"/>
       <c r="F10" s="215"/>
@@ -34367,16 +34531,16 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="201" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B11" s="215" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C11" s="138" t="s">
         <v>1041</v>
       </c>
       <c r="D11" s="215" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E11" s="215"/>
       <c r="F11" s="215"/>
@@ -34985,32 +35149,32 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
   </sheetData>
@@ -35022,10 +35186,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L111" sqref="L110:L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -35153,7 +35317,7 @@
       <c r="I52" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="M52" s="257"/>
+      <c r="M52" s="234"/>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H55" s="2" t="s">
@@ -35173,7 +35337,7 @@
     <row r="90" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -35181,7 +35345,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
@@ -35189,7 +35353,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
@@ -35197,7 +35361,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -35205,7 +35369,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.15">
@@ -35213,7 +35377,31 @@
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C148" s="2">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>1832</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C163" s="2">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C177" s="2">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>1834</v>
       </c>
     </row>
   </sheetData>
@@ -35656,45 +35844,45 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="255" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="255" t="s">
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="256" t="s">
         <v>403</v>
       </c>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="256" t="s">
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="256"/>
+      <c r="Y2" s="256"/>
+      <c r="Z2" s="257" t="s">
         <v>424</v>
       </c>
-      <c r="AA2" s="256"/>
+      <c r="AA2" s="257"/>
       <c r="AB2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AC2" s="251" t="s">
+      <c r="AC2" s="252" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" s="251"/>
+      <c r="AD2" s="252"/>
       <c r="AE2" s="68" t="s">
         <v>608</v>
       </c>
@@ -35884,7 +36072,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="254" t="s">
         <v>434</v>
       </c>
       <c r="E5" s="47" t="s">
@@ -35950,7 +36138,7 @@
       <c r="AE5" s="57"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="253"/>
+      <c r="A6" s="254"/>
       <c r="E6" s="48" t="s">
         <v>437</v>
       </c>
@@ -36007,7 +36195,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="253"/>
+      <c r="A7" s="254"/>
       <c r="E7" s="49" t="s">
         <v>50</v>
       </c>
@@ -36025,7 +36213,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="253"/>
+      <c r="A8" s="254"/>
       <c r="E8" s="50" t="s">
         <v>17</v>
       </c>
@@ -36037,7 +36225,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="253"/>
+      <c r="A9" s="254"/>
       <c r="E9" s="51" t="s">
         <v>20</v>
       </c>
@@ -36117,7 +36305,7 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="253" t="s">
+      <c r="A15" s="254" t="s">
         <v>434</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -36139,7 +36327,7 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="253"/>
+      <c r="A16" s="254"/>
       <c r="E16" s="2" t="s">
         <v>399</v>
       </c>
@@ -36267,7 +36455,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="253" t="s">
+      <c r="A24" s="254" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -36303,7 +36491,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="253"/>
+      <c r="A25" s="254"/>
       <c r="E25" s="2" t="s">
         <v>399</v>
       </c>
@@ -36396,13 +36584,13 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="F31" s="252" t="s">
+      <c r="F31" s="253" t="s">
         <v>639</v>
       </c>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="252"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="253"/>
       <c r="K31" s="74"/>
       <c r="L31" s="73"/>
       <c r="M31" s="73"/>
@@ -39508,10 +39696,10 @@
       <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="248" t="s">
+      <c r="L12" s="249" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="248"/>
+      <c r="M12" s="249"/>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.15">
@@ -44129,8 +44317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -44158,16 +44346,16 @@
     </row>
     <row r="6" spans="1:5" ht="282.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="217" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1705</v>
+        <v>1831</v>
       </c>
       <c r="D6" s="222" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E6" s="218" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -44184,7 +44372,7 @@
     </row>
     <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -44192,7 +44380,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="195" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -44212,29 +44400,29 @@
     </row>
     <row r="37" spans="3:14" ht="17.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="198" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="M37" s="207"/>
       <c r="N37" s="207"/>
     </row>
     <row r="38" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D38" s="202" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E38" s="203" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F38" s="203" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G38" s="203" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H38" s="203" t="s">
         <v>1706</v>
       </c>
-      <c r="F38" s="203" t="s">
-        <v>1759</v>
-      </c>
-      <c r="G38" s="203" t="s">
+      <c r="I38" s="204" t="s">
         <v>1707</v>
-      </c>
-      <c r="H38" s="203" t="s">
-        <v>1708</v>
-      </c>
-      <c r="I38" s="204" t="s">
-        <v>1709</v>
       </c>
       <c r="J38" s="207"/>
       <c r="M38" s="207"/>
@@ -44242,22 +44430,22 @@
     </row>
     <row r="39" spans="3:14" ht="82.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D39" s="205" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E39" s="208" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F39" s="208" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="G39" s="208" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H39" s="208" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="I39" s="208" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="J39" s="207"/>
       <c r="M39" s="207"/>
@@ -44265,22 +44453,22 @@
     </row>
     <row r="40" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D40" s="205" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E40" s="220" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F40" s="220" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G40" s="208" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H40" s="208" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="I40" s="208" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="J40" s="207"/>
       <c r="M40" s="207"/>
@@ -44288,22 +44476,22 @@
     </row>
     <row r="41" spans="3:14" ht="33" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D41" s="205" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E41" s="208" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F41" s="208" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G41" s="208" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="H41" s="208" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="I41" s="208" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="J41" s="207"/>
       <c r="M41" s="207"/>
@@ -44311,22 +44499,22 @@
     </row>
     <row r="42" spans="3:14" ht="49.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D42" s="205" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E42" s="208" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F42" s="208" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G42" s="208" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H42" s="208" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="I42" s="208" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J42" s="207"/>
       <c r="M42" s="207"/>
@@ -44334,18 +44522,18 @@
     </row>
     <row r="43" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D43" s="205" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E43" s="201"/>
       <c r="F43" s="201"/>
       <c r="G43" s="208" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H43" s="208" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="I43" s="208" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J43" s="207"/>
       <c r="M43" s="207"/>
@@ -44353,18 +44541,18 @@
     </row>
     <row r="44" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D44" s="205" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E44" s="201"/>
       <c r="F44" s="201"/>
       <c r="G44" s="208" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H44" s="208" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="I44" s="208" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="J44" s="207"/>
       <c r="M44" s="207"/>
@@ -44372,18 +44560,18 @@
     </row>
     <row r="45" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D45" s="205" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E45" s="201"/>
       <c r="F45" s="201"/>
       <c r="G45" s="208" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H45" s="208" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="I45" s="208" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J45" s="207"/>
       <c r="K45" s="207"/>
@@ -44391,22 +44579,22 @@
     </row>
     <row r="46" spans="3:14" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" s="206" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E46" s="209" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F46" s="209" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G46" s="208" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H46" s="208" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="I46" s="208" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="J46" s="207"/>
     </row>
@@ -44417,11 +44605,11 @@
     </row>
     <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="195" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C49" s="198"/>
       <c r="D49" s="197" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -44442,10 +44630,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="195" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D53" s="216" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -44460,10 +44648,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E56" s="197" t="s">
-        <v>1675</v>
+        <v>1833</v>
       </c>
       <c r="J56" s="197" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -44482,63 +44670,63 @@
     </row>
     <row r="64" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="195" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="197"/>
       <c r="D66" s="221" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="197"/>
       <c r="D67" s="197" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="197" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="196" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C69" s="198" t="s">
         <v>1667</v>
       </c>
       <c r="D69" s="216" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="197"/>
       <c r="C70" s="198"/>
       <c r="D70" s="216" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="197" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C71" s="198"/>
       <c r="D71" s="219" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C72" s="198"/>
       <c r="D72" s="200" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C73" s="198"/>
       <c r="D73" s="200" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -44551,14 +44739,14 @@
       <c r="A75" s="197"/>
       <c r="C75" s="198"/>
       <c r="D75" s="197" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="197"/>
       <c r="C76" s="198"/>
       <c r="D76" s="197" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -44569,11 +44757,11 @@
     </row>
     <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="195" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C78" s="198"/>
       <c r="D78" s="216" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -44587,25 +44775,25 @@
     </row>
     <row r="81" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s